--- a/DATA/UKSAF/LaSrTiO3.xlsx
+++ b/DATA/UKSAF/LaSrTiO3.xlsx
@@ -405,7 +405,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5600700" cy="4086225"/>
+    <ext cx="4981575" cy="5086350"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -832,8 +832,16 @@
           <t>Sr3d3/2 p2</t>
         </is>
       </c>
-      <c r="L1" s="12" t="inlineStr"/>
-      <c r="M1" s="12" t="inlineStr"/>
+      <c r="L1" s="12" t="inlineStr">
+        <is>
+          <t>Sr3d5/2 p3</t>
+        </is>
+      </c>
+      <c r="M1" s="12" t="inlineStr">
+        <is>
+          <t>Sr3d3/2 p4</t>
+        </is>
+      </c>
       <c r="N1" s="12" t="inlineStr"/>
       <c r="O1" s="12" t="inlineStr"/>
       <c r="P1" s="12" t="inlineStr"/>
@@ -967,13 +975,13 @@
         <v>142.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-2.97859514830634e-11</v>
       </c>
       <c r="H2" t="n">
         <v>1321.18</v>
       </c>
       <c r="I2" t="n">
-        <v>1321.18</v>
+        <v>1321.18000000003</v>
       </c>
       <c r="J2" t="n">
         <v>1321.18</v>
@@ -981,6 +989,12 @@
       <c r="K2" t="n">
         <v>1321.18</v>
       </c>
+      <c r="L2" t="n">
+        <v>1321.18</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1321.18000000003</v>
+      </c>
       <c r="X2" s="16" t="inlineStr">
         <is>
           <t>A</t>
@@ -993,27 +1007,27 @@
       </c>
       <c r="Z2" s="17" t="inlineStr">
         <is>
-          <t>132.69</t>
+          <t>133.60</t>
         </is>
       </c>
       <c r="AA2" s="17" t="inlineStr">
         <is>
-          <t>3329</t>
+          <t>3998</t>
         </is>
       </c>
       <c r="AB2" s="17" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AC2" s="17" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="AD2" s="17" t="inlineStr">
         <is>
-          <t>5670</t>
+          <t>6256</t>
         </is>
       </c>
       <c r="AE2" s="17" t="inlineStr"/>
@@ -1025,7 +1039,7 @@
       </c>
       <c r="AH2" s="17" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="AI2" s="17" t="inlineStr">
@@ -1045,27 +1059,27 @@
       </c>
       <c r="AL2" s="17" t="inlineStr">
         <is>
-          <t>Multi-Regions Smart</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM2" s="17" t="inlineStr">
         <is>
-          <t>126.08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN2" s="17" t="inlineStr">
         <is>
-          <t>142.08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO2" s="17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP2" s="18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1080,13 +1094,13 @@
         <v>141.98</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-8.594724931754172e-11</v>
       </c>
       <c r="H3" t="n">
         <v>1369.78</v>
       </c>
       <c r="I3" t="n">
-        <v>1369.78</v>
+        <v>1369.780000000086</v>
       </c>
       <c r="J3" t="n">
         <v>1369.78</v>
@@ -1094,33 +1108,23 @@
       <c r="K3" t="n">
         <v>1369.78</v>
       </c>
+      <c r="L3" t="n">
+        <v>1369.78</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1369.780000000086</v>
+      </c>
       <c r="X3" s="19" t="inlineStr"/>
       <c r="Y3" s="20" t="inlineStr"/>
-      <c r="Z3" s="20" t="inlineStr">
-        <is>
-          <t>126.08,142.08</t>
-        </is>
-      </c>
+      <c r="Z3" s="20" t="inlineStr"/>
       <c r="AA3" s="20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB3" s="20" t="inlineStr">
-        <is>
-          <t>0.3:3.5</t>
-        </is>
-      </c>
-      <c r="AC3" s="20" t="inlineStr">
-        <is>
-          <t>2:80</t>
-        </is>
-      </c>
-      <c r="AD3" s="20" t="inlineStr">
-        <is>
-          <t>1:1e7</t>
-        </is>
-      </c>
+      <c r="AB3" s="20" t="inlineStr"/>
+      <c r="AC3" s="20" t="inlineStr"/>
+      <c r="AD3" s="20" t="inlineStr"/>
       <c r="AE3" s="20" t="inlineStr"/>
       <c r="AF3" s="20" t="inlineStr"/>
       <c r="AG3" s="20" t="inlineStr">
@@ -1149,13 +1153,13 @@
         <v>141.88</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-2.435172063997015e-10</v>
       </c>
       <c r="H4" t="n">
         <v>1356.16</v>
       </c>
       <c r="I4" t="n">
-        <v>1356.16</v>
+        <v>1356.160000000244</v>
       </c>
       <c r="J4" t="n">
         <v>1356.16</v>
@@ -1163,6 +1167,12 @@
       <c r="K4" t="n">
         <v>1356.16</v>
       </c>
+      <c r="L4" t="n">
+        <v>1356.16</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1356.160000000243</v>
+      </c>
       <c r="X4" s="16" t="inlineStr">
         <is>
           <t>B</t>
@@ -1175,27 +1185,27 @@
       </c>
       <c r="Z4" s="17" t="inlineStr">
         <is>
-          <t>134.39</t>
+          <t>135.35</t>
         </is>
       </c>
       <c r="AA4" s="17" t="inlineStr">
         <is>
-          <t>2220</t>
+          <t>2582</t>
         </is>
       </c>
       <c r="AB4" s="17" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AC4" s="17" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>22.64</t>
         </is>
       </c>
       <c r="AD4" s="17" t="inlineStr">
         <is>
-          <t>3782</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="AE4" s="17" t="inlineStr"/>
@@ -1207,17 +1217,17 @@
       </c>
       <c r="AH4" s="17" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="AI4" s="17" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="AJ4" s="17" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="AK4" s="17" t="inlineStr">
@@ -1242,12 +1252,12 @@
       </c>
       <c r="AO4" s="17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP4" s="18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1262,19 +1272,25 @@
         <v>141.78</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-6.762093107681721e-10</v>
       </c>
       <c r="H5" t="n">
         <v>1341.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1341.5</v>
+        <v>1341.500000000676</v>
       </c>
       <c r="J5" t="n">
         <v>1341.5</v>
       </c>
       <c r="K5" t="n">
         <v>1341.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1341.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1341.500000000675</v>
       </c>
       <c r="X5" s="19" t="inlineStr"/>
       <c r="Y5" s="20" t="inlineStr"/>
@@ -1285,7 +1301,7 @@
       </c>
       <c r="AA5" s="20" t="inlineStr">
         <is>
-          <t>A*0.667#0.05</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB5" s="20" t="inlineStr">
@@ -1307,7 +1323,7 @@
       <c r="AF5" s="20" t="inlineStr"/>
       <c r="AG5" s="20" t="inlineStr">
         <is>
-          <t>A*1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH5" s="20" t="inlineStr"/>
@@ -1331,19 +1347,112 @@
         <v>141.68</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1.842408892116509e-09</v>
       </c>
       <c r="H6" t="n">
         <v>1332.29</v>
       </c>
       <c r="I6" t="n">
-        <v>1332.29</v>
+        <v>1332.290000001842</v>
       </c>
       <c r="J6" t="n">
         <v>1332.29</v>
       </c>
       <c r="K6" t="n">
         <v>1332.29</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1332.29</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1332.290000001839</v>
+      </c>
+      <c r="X6" s="16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="Y6" s="17" t="inlineStr">
+        <is>
+          <t>Sr3d5/2 p3</t>
+        </is>
+      </c>
+      <c r="Z6" s="17" t="inlineStr">
+        <is>
+          <t>135.37</t>
+        </is>
+      </c>
+      <c r="AA6" s="17" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="AB6" s="17" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="AC6" s="17" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="AD6" s="17" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="AE6" s="17" t="inlineStr"/>
+      <c r="AF6" s="17" t="inlineStr"/>
+      <c r="AG6" s="17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" s="17" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AI6" s="17" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="AJ6" s="17" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="AK6" s="17" t="inlineStr">
+        <is>
+          <t>GL (Area)</t>
+        </is>
+      </c>
+      <c r="AL6" s="17" t="inlineStr">
+        <is>
+          <t>Multi-Regions Smart</t>
+        </is>
+      </c>
+      <c r="AM6" s="17" t="inlineStr">
+        <is>
+          <t>126.08</t>
+        </is>
+      </c>
+      <c r="AN6" s="17" t="inlineStr">
+        <is>
+          <t>142.08</t>
+        </is>
+      </c>
+      <c r="AO6" s="17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AP6" s="18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1357,13 +1466,13 @@
         <v>141.58</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-4.923322194372304e-09</v>
       </c>
       <c r="H7" t="n">
         <v>1338.15</v>
       </c>
       <c r="I7" t="n">
-        <v>1338.15</v>
+        <v>1338.150000004923</v>
       </c>
       <c r="J7" t="n">
         <v>1338.15</v>
@@ -1371,6 +1480,55 @@
       <c r="K7" t="n">
         <v>1338.15</v>
       </c>
+      <c r="L7" t="n">
+        <v>1338.15</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1338.150000004915</v>
+      </c>
+      <c r="X7" s="19" t="inlineStr"/>
+      <c r="Y7" s="20" t="inlineStr"/>
+      <c r="Z7" s="20" t="inlineStr">
+        <is>
+          <t>126.08,142.08</t>
+        </is>
+      </c>
+      <c r="AA7" s="20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" s="20" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AC7" s="20" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AD7" s="20" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AE7" s="20" t="inlineStr"/>
+      <c r="AF7" s="20" t="inlineStr"/>
+      <c r="AG7" s="20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" s="20" t="inlineStr"/>
+      <c r="AI7" s="20" t="inlineStr"/>
+      <c r="AJ7" s="20" t="inlineStr"/>
+      <c r="AK7" s="20" t="inlineStr"/>
+      <c r="AL7" s="20" t="inlineStr"/>
+      <c r="AM7" s="20" t="inlineStr"/>
+      <c r="AN7" s="20" t="inlineStr"/>
+      <c r="AO7" s="20" t="inlineStr"/>
+      <c r="AP7" s="21" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1383,19 +1541,112 @@
         <v>141.48</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-1.290663931285962e-08</v>
       </c>
       <c r="H8" t="n">
         <v>1335.29</v>
       </c>
       <c r="I8" t="n">
-        <v>1335.29</v>
+        <v>1335.290000012907</v>
       </c>
       <c r="J8" t="n">
         <v>1335.29</v>
       </c>
       <c r="K8" t="n">
         <v>1335.29</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1335.29</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1335.290000012883</v>
+      </c>
+      <c r="X8" s="16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y8" s="17" t="inlineStr">
+        <is>
+          <t>Sr3d3/2 p4</t>
+        </is>
+      </c>
+      <c r="Z8" s="17" t="inlineStr">
+        <is>
+          <t>136.87</t>
+        </is>
+      </c>
+      <c r="AA8" s="17" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="AB8" s="17" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="AC8" s="17" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="AD8" s="17" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="AE8" s="17" t="inlineStr"/>
+      <c r="AF8" s="17" t="inlineStr"/>
+      <c r="AG8" s="17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" s="17" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="AI8" s="17" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="AJ8" s="17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="AK8" s="17" t="inlineStr">
+        <is>
+          <t>GL (Area)</t>
+        </is>
+      </c>
+      <c r="AL8" s="17" t="inlineStr">
+        <is>
+          <t>Multi-Regions Smart</t>
+        </is>
+      </c>
+      <c r="AM8" s="17" t="inlineStr">
+        <is>
+          <t>126.08</t>
+        </is>
+      </c>
+      <c r="AN8" s="17" t="inlineStr">
+        <is>
+          <t>142.08</t>
+        </is>
+      </c>
+      <c r="AO8" s="17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AP8" s="18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1409,13 +1660,13 @@
         <v>141.38</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-3.319223651487846e-08</v>
       </c>
       <c r="H9" t="n">
         <v>1341.58</v>
       </c>
       <c r="I9" t="n">
-        <v>1341.58</v>
+        <v>1341.580000033192</v>
       </c>
       <c r="J9" t="n">
         <v>1341.58</v>
@@ -1423,6 +1674,55 @@
       <c r="K9" t="n">
         <v>1341.58</v>
       </c>
+      <c r="L9" t="n">
+        <v>1341.58</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1341.580000033133</v>
+      </c>
+      <c r="X9" s="19" t="inlineStr"/>
+      <c r="Y9" s="20" t="inlineStr"/>
+      <c r="Z9" s="20" t="inlineStr">
+        <is>
+          <t>C+1.7#0.2</t>
+        </is>
+      </c>
+      <c r="AA9" s="20" t="inlineStr">
+        <is>
+          <t>C*0.667#0.05</t>
+        </is>
+      </c>
+      <c r="AB9" s="20" t="inlineStr">
+        <is>
+          <t>C*1</t>
+        </is>
+      </c>
+      <c r="AC9" s="20" t="inlineStr">
+        <is>
+          <t>C*1</t>
+        </is>
+      </c>
+      <c r="AD9" s="20" t="inlineStr">
+        <is>
+          <t>C*0.667#0.05</t>
+        </is>
+      </c>
+      <c r="AE9" s="20" t="inlineStr"/>
+      <c r="AF9" s="20" t="inlineStr"/>
+      <c r="AG9" s="20" t="inlineStr">
+        <is>
+          <t>C*1</t>
+        </is>
+      </c>
+      <c r="AH9" s="20" t="inlineStr"/>
+      <c r="AI9" s="20" t="inlineStr"/>
+      <c r="AJ9" s="20" t="inlineStr"/>
+      <c r="AK9" s="20" t="inlineStr"/>
+      <c r="AL9" s="20" t="inlineStr"/>
+      <c r="AM9" s="20" t="inlineStr"/>
+      <c r="AN9" s="20" t="inlineStr"/>
+      <c r="AO9" s="20" t="inlineStr"/>
+      <c r="AP9" s="21" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1435,19 +1735,25 @@
         <v>141.28</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-8.374217941309325e-08</v>
       </c>
       <c r="H10" t="n">
         <v>1349.18</v>
       </c>
       <c r="I10" t="n">
-        <v>1349.18</v>
+        <v>1349.180000083742</v>
       </c>
       <c r="J10" t="n">
         <v>1349.18</v>
       </c>
       <c r="K10" t="n">
         <v>1349.18</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1349.18</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1349.180000083592</v>
       </c>
     </row>
     <row r="11">
@@ -1461,19 +1767,25 @@
         <v>141.18</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-2.072722509183222e-07</v>
       </c>
       <c r="H11" t="n">
         <v>1344.67</v>
       </c>
       <c r="I11" t="n">
-        <v>1344.67</v>
+        <v>1344.670000207272</v>
       </c>
       <c r="J11" t="n">
         <v>1344.67</v>
       </c>
       <c r="K11" t="n">
+        <v>1344.670000000001</v>
+      </c>
+      <c r="L11" t="n">
         <v>1344.67</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1344.670000206901</v>
       </c>
     </row>
     <row r="12">
@@ -1487,19 +1799,25 @@
         <v>141.08</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-5.033111847296823e-07</v>
       </c>
       <c r="H12" t="n">
         <v>1336.42</v>
       </c>
       <c r="I12" t="n">
-        <v>1336.42</v>
+        <v>1336.420000503311</v>
       </c>
       <c r="J12" t="n">
         <v>1336.42</v>
       </c>
       <c r="K12" t="n">
+        <v>1336.420000000001</v>
+      </c>
+      <c r="L12" t="n">
         <v>1336.42</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1336.42000050241</v>
       </c>
     </row>
     <row r="13">
@@ -1513,19 +1831,25 @@
         <v>140.98</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.19905780593399e-06</v>
       </c>
       <c r="H13" t="n">
         <v>1281.16</v>
       </c>
       <c r="I13" t="n">
-        <v>1281.16</v>
+        <v>1281.160001199058</v>
       </c>
       <c r="J13" t="n">
         <v>1281.16</v>
       </c>
       <c r="K13" t="n">
-        <v>1281.16</v>
+        <v>1281.160000000004</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1281.160000000001</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1281.160001196911</v>
       </c>
     </row>
     <row r="14">
@@ -1539,19 +1863,25 @@
         <v>140.88</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-2.802602011797717e-06</v>
       </c>
       <c r="H14" t="n">
         <v>1323.55</v>
       </c>
       <c r="I14" t="n">
-        <v>1323.55</v>
+        <v>1323.550002802602</v>
       </c>
       <c r="J14" t="n">
         <v>1323.55</v>
       </c>
       <c r="K14" t="n">
-        <v>1323.55</v>
+        <v>1323.550000000012</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1323.550000000002</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1323.55000279758</v>
       </c>
     </row>
     <row r="15">
@@ -1565,19 +1895,25 @@
         <v>140.78</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-6.427029120459338e-06</v>
       </c>
       <c r="H15" t="n">
         <v>1322.81</v>
       </c>
       <c r="I15" t="n">
-        <v>1322.81</v>
+        <v>1322.810006427029</v>
       </c>
       <c r="J15" t="n">
         <v>1322.81</v>
       </c>
       <c r="K15" t="n">
-        <v>1322.81</v>
+        <v>1322.810000000038</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1322.810000000005</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1322.810006415502</v>
       </c>
     </row>
     <row r="16">
@@ -1591,19 +1927,25 @@
         <v>140.68</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>-1.446094324819569e-05</v>
       </c>
       <c r="H16" t="n">
         <v>1352.14</v>
       </c>
       <c r="I16" t="n">
-        <v>1352.14</v>
+        <v>1352.140014460943</v>
       </c>
       <c r="J16" t="n">
         <v>1352.14</v>
       </c>
       <c r="K16" t="n">
-        <v>1352.14</v>
+        <v>1352.140000000114</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1352.140000000015</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1352.140014434975</v>
       </c>
     </row>
     <row r="17">
@@ -1617,19 +1959,25 @@
         <v>140.58</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>-3.192498002135835e-05</v>
       </c>
       <c r="H17" t="n">
         <v>1304.84</v>
       </c>
       <c r="I17" t="n">
-        <v>1304.840000000001</v>
+        <v>1304.84003192498</v>
       </c>
       <c r="J17" t="n">
         <v>1304.84</v>
       </c>
       <c r="K17" t="n">
-        <v>1304.840000000001</v>
+        <v>1304.840000000335</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1304.840000000043</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1304.840031867556</v>
       </c>
     </row>
     <row r="18">
@@ -1643,19 +1991,25 @@
         <v>140.48</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.046363078989089e-12</v>
+        <v>-6.915482731528755e-05</v>
       </c>
       <c r="H18" t="n">
         <v>1296.85</v>
       </c>
       <c r="I18" t="n">
-        <v>1296.850000000002</v>
+        <v>1296.850069154827</v>
       </c>
       <c r="J18" t="n">
         <v>1296.85</v>
       </c>
       <c r="K18" t="n">
-        <v>1296.850000000002</v>
+        <v>1296.850000000971</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1296.850000000125</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1296.850069030162</v>
       </c>
     </row>
     <row r="19">
@@ -1669,19 +2023,25 @@
         <v>140.38</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.684341886080801e-12</v>
+        <v>-0.000146988191318087</v>
       </c>
       <c r="H19" t="n">
         <v>1297.71</v>
       </c>
       <c r="I19" t="n">
-        <v>1297.710000000006</v>
+        <v>1297.710146988191</v>
       </c>
       <c r="J19" t="n">
         <v>1297.71</v>
       </c>
       <c r="K19" t="n">
-        <v>1297.710000000006</v>
+        <v>1297.710000002759</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1297.710000000355</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1297.710146722433</v>
       </c>
     </row>
     <row r="20">
@@ -1695,19 +2055,25 @@
         <v>140.28</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.659827830735594e-11</v>
+        <v>-0.0003065636349219858</v>
       </c>
       <c r="H20" t="n">
         <v>1346.66</v>
       </c>
       <c r="I20" t="n">
-        <v>1346.660000000017</v>
+        <v>1346.660306563635</v>
       </c>
       <c r="J20" t="n">
         <v>1346.66</v>
       </c>
       <c r="K20" t="n">
-        <v>1346.660000000017</v>
+        <v>1346.660000007693</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1346.660000000985</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1346.660306007183</v>
       </c>
     </row>
     <row r="21">
@@ -1721,19 +2087,25 @@
         <v>140.18</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.706635081674904e-11</v>
+        <v>-0.0006274037209550443</v>
       </c>
       <c r="H21" t="n">
         <v>1293.78</v>
       </c>
       <c r="I21" t="n">
-        <v>1293.780000000047</v>
+        <v>1293.780627403721</v>
       </c>
       <c r="J21" t="n">
         <v>1293.78</v>
       </c>
       <c r="K21" t="n">
-        <v>1293.780000000047</v>
+        <v>1293.780000021037</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1293.780000002684</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1293.780626258954</v>
       </c>
     </row>
     <row r="22">
@@ -1747,19 +2119,25 @@
         <v>140.08</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.311946107307449e-10</v>
+        <v>-0.001260002931076087</v>
       </c>
       <c r="H22" t="n">
         <v>1294.58</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.580000000131</v>
+        <v>1294.581260002931</v>
       </c>
       <c r="J22" t="n">
         <v>1294.58</v>
       </c>
       <c r="K22" t="n">
-        <v>1294.580000000131</v>
+        <v>1294.580000056435</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1294.580000007172</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1294.581257687979</v>
       </c>
     </row>
     <row r="23">
@@ -1773,19 +2151,25 @@
         <v>139.98</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.599325282266364e-10</v>
+        <v>-0.002483152424474611</v>
       </c>
       <c r="H23" t="n">
         <v>1282.76</v>
       </c>
       <c r="I23" t="n">
-        <v>1282.76000000036</v>
+        <v>1282.762483152424</v>
       </c>
       <c r="J23" t="n">
         <v>1282.76</v>
       </c>
       <c r="K23" t="n">
-        <v>1282.76000000036</v>
+        <v>1282.760000148516</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1282.760000018803</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1282.762478548349</v>
       </c>
     </row>
     <row r="24">
@@ -1799,19 +2183,25 @@
         <v>139.88</v>
       </c>
       <c r="G24" t="n">
-        <v>-9.711129678180441e-10</v>
+        <v>-0.004802322629757327</v>
       </c>
       <c r="H24" t="n">
         <v>1291.45</v>
       </c>
       <c r="I24" t="n">
-        <v>1291.450000000971</v>
+        <v>1291.45480232263</v>
       </c>
       <c r="J24" t="n">
         <v>1291.45</v>
       </c>
       <c r="K24" t="n">
-        <v>1291.450000000971</v>
+        <v>1291.450000383411</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1291.450000048356</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1291.454793310556</v>
       </c>
     </row>
     <row r="25">
@@ -1825,19 +2215,25 @@
         <v>139.78</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.577053237473592e-09</v>
+        <v>-0.009114302045873046</v>
       </c>
       <c r="H25" t="n">
         <v>1275.21</v>
       </c>
       <c r="I25" t="n">
-        <v>1275.210000002577</v>
+        <v>1275.219114302046</v>
       </c>
       <c r="J25" t="n">
         <v>1275.21</v>
       </c>
       <c r="K25" t="n">
-        <v>1275.210000002576</v>
+        <v>1275.210000971035</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1275.210000122</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1275.219096925031</v>
       </c>
     </row>
     <row r="26">
@@ -1851,19 +2247,25 @@
         <v>139.68</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.723894330207258e-09</v>
+        <v>-0.01697565770064102</v>
       </c>
       <c r="H26" t="n">
         <v>1311.33</v>
       </c>
       <c r="I26" t="n">
-        <v>1311.330000006724</v>
+        <v>1311.346975657701</v>
       </c>
       <c r="J26" t="n">
         <v>1311.33</v>
       </c>
       <c r="K26" t="n">
-        <v>1311.330000006722</v>
+        <v>1311.330002412642</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1311.330000301964</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1311.346942615031</v>
       </c>
     </row>
     <row r="27">
@@ -1877,19 +2279,25 @@
         <v>139.58</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.725106812955346e-08</v>
+        <v>-0.03102891483899839</v>
       </c>
       <c r="H27" t="n">
         <v>1287.86</v>
       </c>
       <c r="I27" t="n">
-        <v>1287.860000017251</v>
+        <v>1287.891028914839</v>
       </c>
       <c r="J27" t="n">
         <v>1287.86</v>
       </c>
       <c r="K27" t="n">
-        <v>1287.860000017246</v>
+        <v>1287.860005880953</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1287.860000733247</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1287.890966868805</v>
       </c>
     </row>
     <row r="28">
@@ -1903,19 +2311,25 @@
         <v>139.48</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.352227733761538e-08</v>
+        <v>-0.05566053609118171</v>
       </c>
       <c r="H28" t="n">
         <v>1305.54</v>
       </c>
       <c r="I28" t="n">
-        <v>1305.540000043522</v>
+        <v>1305.595660536091</v>
       </c>
       <c r="J28" t="n">
         <v>1305.54</v>
       </c>
       <c r="K28" t="n">
-        <v>1305.540000043511</v>
+        <v>1305.540014063991</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1305.540001746843</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1305.595545297828</v>
       </c>
     </row>
     <row r="29">
@@ -1929,19 +2343,25 @@
         <v>139.38</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.079729372577276e-07</v>
+        <v>-0.09798757247085632</v>
       </c>
       <c r="H29" t="n">
         <v>1286.85</v>
       </c>
       <c r="I29" t="n">
-        <v>1286.850000107973</v>
+        <v>1286.947987572471</v>
       </c>
       <c r="J29" t="n">
-        <v>1286.85</v>
+        <v>1286.850000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>1286.850000107944</v>
+        <v>1286.850032997804</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1286.850004082955</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1286.947775472868</v>
       </c>
     </row>
     <row r="30">
@@ -1955,19 +2375,25 @@
         <v>139.28</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.634099018905545e-07</v>
+        <v>-0.1692921933165508</v>
       </c>
       <c r="H30" t="n">
         <v>1284.54</v>
       </c>
       <c r="I30" t="n">
-        <v>1284.54000026341</v>
+        <v>1284.709292193317</v>
       </c>
       <c r="J30" t="n">
-        <v>1284.54</v>
+        <v>1284.540000000003</v>
       </c>
       <c r="K30" t="n">
-        <v>1284.540000263339</v>
+        <v>1284.540075960338</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1284.540009363165</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1284.708904533136</v>
       </c>
     </row>
     <row r="31">
@@ -1981,19 +2407,25 @@
         <v>139.18</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.319280601019273e-07</v>
+        <v>-0.2870395045492842</v>
       </c>
       <c r="H31" t="n">
         <v>1296.58</v>
       </c>
       <c r="I31" t="n">
-        <v>1296.580000631928</v>
+        <v>1296.867039504549</v>
       </c>
       <c r="J31" t="n">
-        <v>1296.58</v>
+        <v>1296.580000000011</v>
       </c>
       <c r="K31" t="n">
-        <v>1296.580000631759</v>
+        <v>1296.580171563152</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1296.580021067261</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1296.866334348172</v>
       </c>
     </row>
     <row r="32">
@@ -2007,19 +2439,25 @@
         <v>139.08</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.490831664341385e-06</v>
+        <v>-0.4776151641183333</v>
       </c>
       <c r="H32" t="n">
         <v>1288.78</v>
       </c>
       <c r="I32" t="n">
-        <v>1288.780001490832</v>
+        <v>1289.257615164118</v>
       </c>
       <c r="J32" t="n">
-        <v>1288.78</v>
+        <v>1288.780000000033</v>
       </c>
       <c r="K32" t="n">
-        <v>1288.780001490432</v>
+        <v>1288.780380195049</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1288.780046509406</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1289.256335857829</v>
       </c>
     </row>
     <row r="33">
@@ -2033,19 +2471,25 @@
         <v>138.98</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.458764467723086e-06</v>
+        <v>-0.7798927551314137</v>
       </c>
       <c r="H33" t="n">
         <v>1262.37</v>
       </c>
       <c r="I33" t="n">
-        <v>1262.370003458764</v>
+        <v>1263.149892755131</v>
       </c>
       <c r="J33" t="n">
-        <v>1262.37</v>
+        <v>1262.370000000101</v>
       </c>
       <c r="K33" t="n">
-        <v>1262.370003457838</v>
+        <v>1262.37082669307</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1262.370100746723</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1263.147573563051</v>
       </c>
     </row>
     <row r="34">
@@ -2059,19 +2503,25 @@
         <v>138.88</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.891346967880963e-06</v>
+        <v>-1.249671140608825</v>
       </c>
       <c r="H34" t="n">
         <v>1298.36</v>
       </c>
       <c r="I34" t="n">
-        <v>1298.360007891347</v>
+        <v>1299.609671140609</v>
       </c>
       <c r="J34" t="n">
-        <v>1298.360000000001</v>
+        <v>1298.360000000303</v>
       </c>
       <c r="K34" t="n">
-        <v>1298.360007889232</v>
+        <v>1298.361763793038</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1298.360214135443</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1299.605464084018</v>
       </c>
     </row>
     <row r="35">
@@ -2085,19 +2535,25 @@
         <v>138.78</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.770620542629331e-05</v>
+        <v>-1.964892568323194</v>
       </c>
       <c r="H35" t="n">
         <v>1231.15</v>
       </c>
       <c r="I35" t="n">
-        <v>1231.150017706206</v>
+        <v>1233.114892568323</v>
       </c>
       <c r="J35" t="n">
-        <v>1231.150000000003</v>
+        <v>1231.150000000885</v>
       </c>
       <c r="K35" t="n">
-        <v>1231.150017701459</v>
+        <v>1231.153692550472</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1231.150446605078</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1233.107250509573</v>
       </c>
     </row>
     <row r="36">
@@ -2111,19 +2567,25 @@
         <v>138.68</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.907064206032373e-05</v>
+        <v>-3.031349624708355</v>
       </c>
       <c r="H36" t="n">
         <v>1288.75</v>
       </c>
       <c r="I36" t="n">
-        <v>1288.750039070642</v>
+        <v>1291.781349624708</v>
       </c>
       <c r="J36" t="n">
-        <v>1288.750000000009</v>
+        <v>1288.750000002541</v>
       </c>
       <c r="K36" t="n">
-        <v>1288.750039060167</v>
+        <v>1288.757585610795</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1288.750913999554</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1291.767450030729</v>
       </c>
     </row>
     <row r="37">
@@ -2137,19 +2599,25 @@
         <v>138.58</v>
       </c>
       <c r="G37" t="n">
-        <v>-8.478768904751632e-05</v>
+        <v>-4.588309309000579</v>
       </c>
       <c r="H37" t="n">
         <v>1264.45</v>
       </c>
       <c r="I37" t="n">
-        <v>1264.450084787689</v>
+        <v>1269.038309309001</v>
       </c>
       <c r="J37" t="n">
-        <v>1264.450000000025</v>
+        <v>1264.450000007151</v>
       </c>
       <c r="K37" t="n">
-        <v>1264.450084764951</v>
+        <v>1264.465291477876</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1264.451835544618</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1269.013017113105</v>
       </c>
     </row>
     <row r="38">
@@ -2163,19 +2631,25 @@
         <v>138.48</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.000180958399823794</v>
+        <v>-6.813140225260213</v>
       </c>
       <c r="H38" t="n">
         <v>1303.52</v>
       </c>
       <c r="I38" t="n">
-        <v>1303.5201809584</v>
+        <v>1310.33314022526</v>
       </c>
       <c r="J38" t="n">
-        <v>1303.52000000007</v>
+        <v>1303.520000019746</v>
       </c>
       <c r="K38" t="n">
-        <v>1303.520180909853</v>
+        <v>1303.550249079376</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1303.523617340833</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1310.287165922625</v>
       </c>
     </row>
     <row r="39">
@@ -2189,19 +2663,25 @@
         <v>138.38</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.0003798348711825383</v>
+        <v>-9.923668636016146</v>
       </c>
       <c r="H39" t="n">
         <v>1312.96</v>
       </c>
       <c r="I39" t="n">
-        <v>1312.960379834871</v>
+        <v>1322.883668636016</v>
       </c>
       <c r="J39" t="n">
-        <v>1312.960000000197</v>
+        <v>1312.960000053481</v>
       </c>
       <c r="K39" t="n">
-        <v>1312.960379732922</v>
+        <v>1313.018720127006</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1312.966995642433</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1322.800349217209</v>
       </c>
     </row>
     <row r="40">
@@ -2215,19 +2695,25 @@
         <v>138.28</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.0007841287806513719</v>
+        <v>-14.17669646134868</v>
       </c>
       <c r="H40" t="n">
         <v>1276.13</v>
       </c>
       <c r="I40" t="n">
-        <v>1276.130784128781</v>
+        <v>1290.306696461349</v>
       </c>
       <c r="J40" t="n">
-        <v>1276.13000000054</v>
+        <v>1276.130000142099</v>
       </c>
       <c r="K40" t="n">
-        <v>1276.130783918184</v>
+        <v>1276.241861680857</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1276.143276593288</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1290.156471205217</v>
       </c>
     </row>
     <row r="41">
@@ -2241,19 +2727,25 @@
         <v>138.18</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.001592071636423498</v>
+        <v>-19.8610241466572</v>
       </c>
       <c r="H41" t="n">
         <v>1283.01</v>
       </c>
       <c r="I41" t="n">
-        <v>1283.011592071636</v>
+        <v>1302.871024146657</v>
       </c>
       <c r="J41" t="n">
-        <v>1283.010000001456</v>
+        <v>1283.010000370379</v>
       </c>
       <c r="K41" t="n">
-        <v>1283.011591643686</v>
+        <v>1283.219122813703</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1283.034727059774</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1302.602142760997</v>
       </c>
     </row>
     <row r="42">
@@ -2267,19 +2759,25 @@
         <v>138.08</v>
       </c>
       <c r="G42" t="n">
-        <v>-26.61317926260267</v>
+        <v>-53.89361732972884</v>
       </c>
       <c r="H42" t="n">
         <v>1278.08</v>
       </c>
       <c r="I42" t="n">
-        <v>1278.083179262603</v>
+        <v>1305.363617329729</v>
       </c>
       <c r="J42" t="n">
-        <v>1278.080000003863</v>
+        <v>1278.080000947056</v>
       </c>
       <c r="K42" t="n">
-        <v>1278.083178407059</v>
+        <v>1278.463664675242</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1278.125194889607</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1304.886844225679</v>
       </c>
     </row>
     <row r="43">
@@ -2293,19 +2791,25 @@
         <v>137.98</v>
       </c>
       <c r="G43" t="n">
-        <v>-9.476244309131289</v>
+        <v>-46.21845308062075</v>
       </c>
       <c r="H43" t="n">
         <v>1277.73</v>
       </c>
       <c r="I43" t="n">
-        <v>1277.736244309131</v>
+        <v>1314.478453080621</v>
       </c>
       <c r="J43" t="n">
-        <v>1277.73000001008</v>
+        <v>1277.730002375685</v>
       </c>
       <c r="K43" t="n">
-        <v>1277.736242626287</v>
+        <v>1278.42077265643</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1277.811066110343</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1313.642458228095</v>
       </c>
     </row>
     <row r="44">
@@ -2319,19 +2823,25 @@
         <v>137.88</v>
       </c>
       <c r="G44" t="n">
-        <v>36.76793737659932</v>
+        <v>-11.74927892575238</v>
       </c>
       <c r="H44" t="n">
         <v>1277.74</v>
       </c>
       <c r="I44" t="n">
-        <v>1277.752062623401</v>
+        <v>1326.269278925752</v>
       </c>
       <c r="J44" t="n">
-        <v>1277.740000025862</v>
+        <v>1277.740005846477</v>
       </c>
       <c r="K44" t="n">
-        <v>1277.75205936613</v>
+        <v>1278.960538354746</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1277.882699338781</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1324.821988205624</v>
       </c>
     </row>
     <row r="45">
@@ -2345,19 +2855,25 @@
         <v>137.78</v>
       </c>
       <c r="G45" t="n">
-        <v>36.59708060474418</v>
+        <v>-26.22011543102803</v>
       </c>
       <c r="H45" t="n">
         <v>1277.73</v>
       </c>
       <c r="I45" t="n">
-        <v>1277.752919395256</v>
+        <v>1340.570115431028</v>
       </c>
       <c r="J45" t="n">
-        <v>1277.730000065246</v>
+        <v>1277.730014115649</v>
       </c>
       <c r="K45" t="n">
-        <v>1277.752913190226</v>
+        <v>1279.846399038339</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1277.976509318631</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1338.099530104346</v>
       </c>
     </row>
     <row r="46">
@@ -2371,19 +2887,25 @@
         <v>137.68</v>
       </c>
       <c r="G46" t="n">
-        <v>83.84716759292382</v>
+        <v>4.079299731895617</v>
       </c>
       <c r="H46" t="n">
         <v>1277.7</v>
       </c>
       <c r="I46" t="n">
-        <v>1277.742832407076</v>
+        <v>1357.510700268104</v>
       </c>
       <c r="J46" t="n">
-        <v>1277.700000161868</v>
+        <v>1277.700033436307</v>
       </c>
       <c r="K46" t="n">
-        <v>1277.742820771019</v>
+        <v>1281.301358985457</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1278.117893373007</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1353.356667526453</v>
       </c>
     </row>
     <row r="47">
@@ -2397,19 +2919,25 @@
         <v>137.58</v>
       </c>
       <c r="G47" t="n">
-        <v>41.69126772370828</v>
+        <v>-57.70768767957202</v>
       </c>
       <c r="H47" t="n">
         <v>1277.65</v>
       </c>
       <c r="I47" t="n">
-        <v>1277.728732276292</v>
+        <v>1377.127687679572</v>
       </c>
       <c r="J47" t="n">
-        <v>1277.65000039489</v>
+        <v>1277.650077706299</v>
       </c>
       <c r="K47" t="n">
-        <v>1277.728710790173</v>
+        <v>1283.663759163622</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1278.345192873588</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1370.254029192014</v>
       </c>
     </row>
     <row r="48">
@@ -2423,19 +2951,25 @@
         <v>137.48</v>
       </c>
       <c r="G48" t="n">
-        <v>27.31765372330506</v>
+        <v>-94.34523357054741</v>
       </c>
       <c r="H48" t="n">
         <v>1277.6</v>
       </c>
       <c r="I48" t="n">
-        <v>1277.742346276695</v>
+        <v>1399.405233570547</v>
       </c>
       <c r="J48" t="n">
-        <v>1277.600000947354</v>
+        <v>1277.600177183987</v>
       </c>
       <c r="K48" t="n">
-        <v>1277.742307196903</v>
+        <v>1287.45413373546</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1278.73483709202</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1388.219929656147</v>
       </c>
     </row>
     <row r="49">
@@ -2449,19 +2983,25 @@
         <v>137.38</v>
       </c>
       <c r="G49" t="n">
-        <v>117.3268645029877</v>
+        <v>-29.16902897607793</v>
       </c>
       <c r="H49" t="n">
         <v>1277.57</v>
       </c>
       <c r="I49" t="n">
-        <v>1277.823135497012</v>
+        <v>1424.319028976078</v>
       </c>
       <c r="J49" t="n">
-        <v>1277.570002234977</v>
+        <v>1277.570396399407</v>
       </c>
       <c r="K49" t="n">
-        <v>1277.823065450948</v>
+        <v>1293.413766592244</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1279.387704338837</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1406.429479409646</v>
       </c>
     </row>
     <row r="50">
@@ -2475,19 +3015,25 @@
         <v>137.28</v>
       </c>
       <c r="G50" t="n">
-        <v>104.1872356219599</v>
+        <v>-69.74404425464763</v>
       </c>
       <c r="H50" t="n">
         <v>1277.52</v>
       </c>
       <c r="I50" t="n">
-        <v>1277.96276437804</v>
+        <v>1451.894044254648</v>
       </c>
       <c r="J50" t="n">
-        <v>1277.520005185199</v>
+        <v>1277.520870145488</v>
       </c>
       <c r="K50" t="n">
-        <v>1277.962640583399</v>
+        <v>1302.513779070279</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1280.376527770728</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1423.78573830978</v>
       </c>
     </row>
     <row r="51">
@@ -2501,19 +3047,25 @@
         <v>137.18</v>
       </c>
       <c r="G51" t="n">
-        <v>144.2882681927069</v>
+        <v>-59.97676156347165</v>
       </c>
       <c r="H51" t="n">
         <v>1277.43</v>
       </c>
       <c r="I51" t="n">
-        <v>1278.191731807293</v>
+        <v>1482.456761563472</v>
       </c>
       <c r="J51" t="n">
-        <v>1277.430011830295</v>
+        <v>1277.431874179565</v>
       </c>
       <c r="K51" t="n">
-        <v>1278.191515921987</v>
+        <v>1316.110694547229</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1281.833845990793</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1439.088217144659</v>
       </c>
     </row>
     <row r="52">
@@ -2527,19 +3079,25 @@
         <v>137.08</v>
       </c>
       <c r="G52" t="n">
-        <v>184.0110499647274</v>
+        <v>-54.24743458920648</v>
       </c>
       <c r="H52" t="n">
         <v>1277.33</v>
       </c>
       <c r="I52" t="n">
-        <v>1278.618950035273</v>
+        <v>1516.877434589207</v>
       </c>
       <c r="J52" t="n">
-        <v>1277.330026544215</v>
+        <v>1277.333960965218</v>
       </c>
       <c r="K52" t="n">
-        <v>1278.618578204731</v>
+        <v>1336.050280834115</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1283.989538489397</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1451.193402974732</v>
       </c>
     </row>
     <row r="53">
@@ -2553,19 +3111,25 @@
         <v>136.98</v>
       </c>
       <c r="G53" t="n">
-        <v>247.214805646707</v>
+        <v>-30.12914168719453</v>
       </c>
       <c r="H53" t="n">
         <v>1277.2</v>
       </c>
       <c r="I53" t="n">
-        <v>1279.345194353293</v>
+        <v>1556.689141687194</v>
       </c>
       <c r="J53" t="n">
-        <v>1277.200058572656</v>
+        <v>1277.208214313717</v>
       </c>
       <c r="K53" t="n">
-        <v>1279.344561125285</v>
+        <v>1364.626116737397</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1287.076404319507</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1459.069145749753</v>
       </c>
     </row>
     <row r="54">
@@ -2579,19 +3143,25 @@
         <v>136.88</v>
       </c>
       <c r="G54" t="n">
-        <v>321.1485825502825</v>
+        <v>-2.632748809111263</v>
       </c>
       <c r="H54" t="n">
         <v>1277.02</v>
       </c>
       <c r="I54" t="n">
-        <v>1280.531417449718</v>
+        <v>1604.312748809111</v>
       </c>
       <c r="J54" t="n">
-        <v>1277.020127109244</v>
+        <v>1277.036715972009</v>
       </c>
       <c r="K54" t="n">
-        <v>1280.530349707979</v>
+        <v>1404.653167756159</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1291.38159074944</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1461.993886136954</v>
       </c>
     </row>
     <row r="55">
@@ -2605,19 +3175,25 @@
         <v>136.78</v>
       </c>
       <c r="G55" t="n">
-        <v>367.8671390261104</v>
+        <v>-12.83630537823296</v>
       </c>
       <c r="H55" t="n">
         <v>1276.79</v>
       </c>
       <c r="I55" t="n">
-        <v>1282.44286097389</v>
+        <v>1663.146305378233</v>
       </c>
       <c r="J55" t="n">
-        <v>1276.790271283289</v>
+        <v>1276.823380385617</v>
       </c>
       <c r="K55" t="n">
-        <v>1282.441075427118</v>
+        <v>1459.450608349626</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1297.26106608329</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1459.687714272684</v>
       </c>
     </row>
     <row r="56">
@@ -2631,19 +3207,25 @@
         <v>136.68</v>
       </c>
       <c r="G56" t="n">
-        <v>449.020385550831</v>
+        <v>-2.968803858029105</v>
       </c>
       <c r="H56" t="n">
         <v>1276.52</v>
       </c>
       <c r="I56" t="n">
-        <v>1285.469614449169</v>
+        <v>1737.458803858029</v>
       </c>
       <c r="J56" t="n">
-        <v>1276.520569428332</v>
+        <v>1276.585412255223</v>
       </c>
       <c r="K56" t="n">
-        <v>1285.46664766955</v>
+        <v>1532.703778356438</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1305.113938083618</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1452.348289444448</v>
       </c>
     </row>
     <row r="57">
@@ -2657,19 +3239,25 @@
         <v>136.58</v>
       </c>
       <c r="G57" t="n">
-        <v>519.5963376237939</v>
+        <v>-22.32345323055392</v>
       </c>
       <c r="H57" t="n">
         <v>1276.18</v>
       </c>
       <c r="I57" t="n">
-        <v>1290.113662376206</v>
+        <v>1832.033453230554</v>
       </c>
       <c r="J57" t="n">
-        <v>1276.181175524159</v>
+        <v>1276.305789055147</v>
       </c>
       <c r="K57" t="n">
-        <v>1290.108754479838</v>
+        <v>1628.164817744347</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1315.303502383424</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1440.569955759633</v>
       </c>
     </row>
     <row r="58">
@@ -2683,19 +3271,25 @@
         <v>136.48</v>
       </c>
       <c r="G58" t="n">
-        <v>705.1685862059253</v>
+        <v>50.56714905195736</v>
       </c>
       <c r="H58" t="n">
         <v>1275.79</v>
       </c>
       <c r="I58" t="n">
-        <v>1297.121413794075</v>
+        <v>1951.722850948043</v>
       </c>
       <c r="J58" t="n">
-        <v>1275.792386748573</v>
+        <v>1276.0273828745</v>
       </c>
       <c r="K58" t="n">
-        <v>1297.113313191967</v>
+        <v>1749.348099040245</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1328.202776873437</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1425.333930632157</v>
       </c>
     </row>
     <row r="59">
@@ -2709,19 +3303,25 @@
         <v>136.38</v>
       </c>
       <c r="G59" t="n">
-        <v>831.2508663736885</v>
+        <v>38.07603755878699</v>
       </c>
       <c r="H59" t="n">
         <v>1275.28</v>
       </c>
       <c r="I59" t="n">
-        <v>1307.389133626311</v>
+        <v>2100.563962441213</v>
       </c>
       <c r="J59" t="n">
-        <v>1275.284766178873</v>
+        <v>1275.719626800375</v>
       </c>
       <c r="K59" t="n">
-        <v>1307.375766931495</v>
+        <v>1898.843141791127</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1343.994253056857</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1407.724109942574</v>
       </c>
     </row>
     <row r="60">
@@ -2735,19 +3335,25 @@
         <v>136.28</v>
       </c>
       <c r="G60" t="n">
-        <v>946.0034435795176</v>
+        <v>-12.87145145313161</v>
       </c>
       <c r="H60" t="n">
         <v>1274.64</v>
       </c>
       <c r="I60" t="n">
-        <v>1322.156556420482</v>
+        <v>2281.031451453131</v>
       </c>
       <c r="J60" t="n">
-        <v>1274.649361127437</v>
+        <v>1275.439007476973</v>
       </c>
       <c r="K60" t="n">
-        <v>1322.134468385924</v>
+        <v>2077.786553187206</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1362.746881773911</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1388.921136209738</v>
       </c>
     </row>
     <row r="61">
@@ -2761,19 +3367,25 @@
         <v>136.18</v>
       </c>
       <c r="G61" t="n">
-        <v>1137.898670345101</v>
+        <v>-12.15191624917497</v>
       </c>
       <c r="H61" t="n">
         <v>1273.89</v>
       </c>
       <c r="I61" t="n">
-        <v>1343.011329654898</v>
+        <v>2493.061916249175</v>
       </c>
       <c r="J61" t="n">
-        <v>1273.908083617048</v>
+        <v>1275.315118010057</v>
       </c>
       <c r="K61" t="n">
-        <v>1342.974733496154</v>
+        <v>2285.085716991376</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1384.307839092661</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1370.035240304529</v>
       </c>
     </row>
     <row r="62">
@@ -2787,19 +3399,25 @@
         <v>136.08</v>
       </c>
       <c r="G62" t="n">
-        <v>1393.005963658427</v>
+        <v>31.70336937716274</v>
       </c>
       <c r="H62" t="n">
         <v>1272.99</v>
       </c>
       <c r="I62" t="n">
-        <v>1371.814036341573</v>
+        <v>2733.116630622837</v>
       </c>
       <c r="J62" t="n">
-        <v>1273.024359464083</v>
+        <v>1275.484495111828</v>
       </c>
       <c r="K62" t="n">
-        <v>1371.753211100277</v>
+        <v>2516.626183714561</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1408.141826388345</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1351.918508771754</v>
       </c>
     </row>
     <row r="63">
@@ -2813,19 +3431,25 @@
         <v>135.98</v>
       </c>
       <c r="G63" t="n">
-        <v>1553.849166236887</v>
+        <v>-29.08939888531768</v>
       </c>
       <c r="H63" t="n">
         <v>1271.89</v>
       </c>
       <c r="I63" t="n">
-        <v>1410.730833763113</v>
+        <v>2993.669398885318</v>
       </c>
       <c r="J63" t="n">
-        <v>1271.954211867893</v>
+        <v>1276.174906177856</v>
       </c>
       <c r="K63" t="n">
-        <v>1410.629442979626</v>
+        <v>2764.821498145023</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1433.335302741404</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1335.164400963017</v>
       </c>
     </row>
     <row r="64">
@@ -2839,19 +3463,25 @@
         <v>135.88</v>
       </c>
       <c r="G64" t="n">
-        <v>1742.931077815041</v>
+        <v>-58.03414677291994</v>
       </c>
       <c r="H64" t="n">
         <v>1270.59</v>
       </c>
       <c r="I64" t="n">
-        <v>1462.228922184958</v>
+        <v>3263.19414677292</v>
       </c>
       <c r="J64" t="n">
-        <v>1270.708030729948</v>
+        <v>1277.812996390604</v>
       </c>
       <c r="K64" t="n">
-        <v>1462.059580943394</v>
+        <v>3018.561170501622</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1458.655186165429</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1320.161024218497</v>
       </c>
     </row>
     <row r="65">
@@ -2865,19 +3495,25 @@
         <v>135.78</v>
       </c>
       <c r="G65" t="n">
-        <v>1912.439916298149</v>
+        <v>-85.37233587595529</v>
       </c>
       <c r="H65" t="n">
         <v>1269.11</v>
       </c>
       <c r="I65" t="n">
-        <v>1528.920083701851</v>
+        <v>3526.732335875955</v>
       </c>
       <c r="J65" t="n">
-        <v>1269.323396693013</v>
+        <v>1281.058023917505</v>
       </c>
       <c r="K65" t="n">
-        <v>1528.637136158702</v>
+        <v>3263.628005293375</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1482.57891537103</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1307.087469063136</v>
       </c>
     </row>
     <row r="66">
@@ -2891,19 +3527,25 @@
         <v>135.68</v>
       </c>
       <c r="G66" t="n">
-        <v>2048.889455698623</v>
+        <v>-105.0031887233636</v>
       </c>
       <c r="H66" t="n">
         <v>1267.42</v>
       </c>
       <c r="I66" t="n">
-        <v>1613.290544301376</v>
+        <v>3767.183188723363</v>
       </c>
       <c r="J66" t="n">
-        <v>1267.799484182975</v>
+        <v>1286.81348919579</v>
       </c>
       <c r="K66" t="n">
-        <v>1612.818492793073</v>
+        <v>3483.731599353617</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1503.353614211124</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1295.889870163029</v>
       </c>
     </row>
     <row r="67">
@@ -2917,19 +3559,25 @@
         <v>135.58</v>
       </c>
       <c r="G67" t="n">
-        <v>2148.73745846254</v>
+        <v>-101.2055494593637</v>
       </c>
       <c r="H67" t="n">
         <v>1265.55</v>
       </c>
       <c r="I67" t="n">
-        <v>1717.53254153746</v>
+        <v>3967.475549459364</v>
       </c>
       <c r="J67" t="n">
-        <v>1266.213761487448</v>
+        <v>1296.436419424834</v>
       </c>
       <c r="K67" t="n">
-        <v>1716.747851729164</v>
+        <v>3662.337255184297</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1519.296588125285</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1286.444792357167</v>
       </c>
     </row>
     <row r="68">
@@ -2943,19 +3591,25 @@
         <v>135.48</v>
       </c>
       <c r="G68" t="n">
-        <v>2277.564976277593</v>
+        <v>7.686030366867271</v>
       </c>
       <c r="H68" t="n">
         <v>1263.48</v>
       </c>
       <c r="I68" t="n">
-        <v>1843.085023722407</v>
+        <v>4112.963969633132</v>
       </c>
       <c r="J68" t="n">
-        <v>1264.621930857791</v>
+        <v>1311.740498223386</v>
       </c>
       <c r="K68" t="n">
-        <v>1841.788085499982</v>
+        <v>3784.672633257857</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1528.910645148288</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1278.500499266168</v>
       </c>
     </row>
     <row r="69">
@@ -2969,19 +3623,25 @@
         <v>135.38</v>
       </c>
       <c r="G69" t="n">
-        <v>2153.432138378897</v>
+        <v>-50.27130832246803</v>
       </c>
       <c r="H69" t="n">
         <v>1261.23</v>
       </c>
       <c r="I69" t="n">
-        <v>1990.327861621104</v>
+        <v>4194.031308322468</v>
       </c>
       <c r="J69" t="n">
-        <v>1263.162286866464</v>
+        <v>1335.203802678077</v>
       </c>
       <c r="K69" t="n">
-        <v>1988.200700934256</v>
+        <v>3839.951830950685</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1531.191887875555</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1271.810237802416</v>
       </c>
     </row>
     <row r="70">
@@ -2995,19 +3655,25 @@
         <v>135.28</v>
       </c>
       <c r="G70" t="n">
-        <v>2076.075545108652</v>
+        <v>26.17951945488312</v>
       </c>
       <c r="H70" t="n">
         <v>1258.88</v>
       </c>
       <c r="I70" t="n">
-        <v>2158.204454891347</v>
+        <v>4208.100480545117</v>
       </c>
       <c r="J70" t="n">
-        <v>1262.095875669402</v>
+        <v>1370.094517643892</v>
       </c>
       <c r="K70" t="n">
-        <v>2154.74839739898</v>
+        <v>3823.086879304071</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1525.811799208783</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1266.18491213363</v>
       </c>
     </row>
     <row r="71">
@@ -3021,19 +3687,25 @@
         <v>135.18</v>
       </c>
       <c r="G71" t="n">
-        <v>1973.45157743667</v>
+        <v>156.7046953403933</v>
       </c>
       <c r="H71" t="n">
         <v>1256.47</v>
       </c>
       <c r="I71" t="n">
-        <v>2343.78842256333</v>
+        <v>4160.535304659606</v>
       </c>
       <c r="J71" t="n">
-        <v>1261.733943323361</v>
+        <v>1420.438959325261</v>
       </c>
       <c r="K71" t="n">
-        <v>2338.234404525079</v>
+        <v>3735.4317624291</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1513.084260270276</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1261.414955039828</v>
       </c>
     </row>
     <row r="72">
@@ -3047,19 +3719,25 @@
         <v>135.08</v>
       </c>
       <c r="G72" t="n">
-        <v>1648.744133037923</v>
+        <v>126.453773940988</v>
       </c>
       <c r="H72" t="n">
         <v>1254.01</v>
       </c>
       <c r="I72" t="n">
-        <v>2542.105866962077</v>
+        <v>4064.396226059012</v>
       </c>
       <c r="J72" t="n">
-        <v>1262.484067611205</v>
+        <v>1491.026549919445</v>
       </c>
       <c r="K72" t="n">
-        <v>2533.288672855868</v>
+        <v>3584.575752323656</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1493.930475973518</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1257.292730291559</v>
       </c>
     </row>
     <row r="73">
@@ -3073,19 +3751,25 @@
         <v>134.98</v>
       </c>
       <c r="G73" t="n">
-        <v>1416.551407901231</v>
+        <v>223.7739283950955</v>
       </c>
       <c r="H73" t="n">
         <v>1251.58</v>
       </c>
       <c r="I73" t="n">
-        <v>2746.278592098769</v>
+        <v>3939.056071604904</v>
       </c>
       <c r="J73" t="n">
-        <v>1264.995941482853</v>
+        <v>1587.387958507385</v>
       </c>
       <c r="K73" t="n">
-        <v>2732.465307685397</v>
+        <v>3383.221449765759</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1469.833304165851</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1253.717531842024</v>
       </c>
     </row>
     <row r="74">
@@ -3099,19 +3783,25 @@
         <v>134.88</v>
       </c>
       <c r="G74" t="n">
-        <v>927.8813397105787</v>
+        <v>67.97040465788314</v>
       </c>
       <c r="H74" t="n">
         <v>1249.24</v>
       </c>
       <c r="I74" t="n">
-        <v>2947.778660289421</v>
+        <v>3807.689595342117</v>
       </c>
       <c r="J74" t="n">
-        <v>1270.126857506031</v>
+        <v>1715.418475490941</v>
       </c>
       <c r="K74" t="n">
-        <v>2926.441561607438</v>
+        <v>3147.171245885023</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1442.536809105378</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1250.605392598804</v>
       </c>
     </row>
     <row r="75">
@@ -3125,19 +3815,25 @@
         <v>134.78</v>
       </c>
       <c r="G75" t="n">
-        <v>604.503666295886</v>
+        <v>47.24269205527162</v>
       </c>
       <c r="H75" t="n">
         <v>1247.05</v>
       </c>
       <c r="I75" t="n">
-        <v>3137.126333704114</v>
+        <v>3694.387307944728</v>
       </c>
       <c r="J75" t="n">
-        <v>1279.025364691918</v>
+        <v>1880.902909833403</v>
       </c>
       <c r="K75" t="n">
-        <v>3104.651952178875</v>
+        <v>2893.166845129073</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1413.838685279076</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1247.905696035875</v>
       </c>
     </row>
     <row r="76">
@@ -3151,19 +3847,25 @@
         <v>134.68</v>
       </c>
       <c r="G76" t="n">
-        <v>363.626971803003</v>
+        <v>47.27450661582361</v>
       </c>
       <c r="H76" t="n">
         <v>1245</v>
       </c>
       <c r="I76" t="n">
-        <v>3304.803028196997</v>
+        <v>3621.155493384176</v>
       </c>
       <c r="J76" t="n">
-        <v>1293.129192844571</v>
+        <v>2088.715649433504</v>
       </c>
       <c r="K76" t="n">
-        <v>3256.133043606945</v>
+        <v>2636.824065424426</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1385.320080444447</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1245.526182728735</v>
       </c>
     </row>
     <row r="77">
@@ -3177,19 +3879,25 @@
         <v>134.58</v>
       </c>
       <c r="G77" t="n">
-        <v>135.7821916085331</v>
+        <v>-27.10350670085109</v>
       </c>
       <c r="H77" t="n">
         <v>1243.03</v>
       </c>
       <c r="I77" t="n">
-        <v>3442.457808391467</v>
+        <v>3605.343506700851</v>
       </c>
       <c r="J77" t="n">
-        <v>1314.250308674208</v>
+        <v>2341.884401866602</v>
       </c>
       <c r="K77" t="n">
-        <v>3370.664582746143</v>
+        <v>2391.164258499113</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1358.222958747965</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1243.347495313567</v>
       </c>
     </row>
     <row r="78">
@@ -3203,19 +3911,25 @@
         <v>134.48</v>
       </c>
       <c r="G78" t="n">
-        <v>42.89238930217516</v>
+        <v>-70.58858457920724</v>
       </c>
       <c r="H78" t="n">
         <v>1241.11</v>
       </c>
       <c r="I78" t="n">
-        <v>3544.207610697825</v>
+        <v>3657.688584579207</v>
       </c>
       <c r="J78" t="n">
-        <v>1344.705980994919</v>
+        <v>2640.550688668549</v>
       </c>
       <c r="K78" t="n">
-        <v>3440.018341709773</v>
+        <v>2165.857377704097</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1333.456423027106</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1241.297993317426</v>
       </c>
     </row>
     <row r="79">
@@ -3229,19 +3943,25 @@
         <v>134.38</v>
       </c>
       <c r="G79" t="n">
-        <v>24.93075918399154</v>
+        <v>-148.3368839643067</v>
       </c>
       <c r="H79" t="n">
         <v>1239.2</v>
       </c>
       <c r="I79" t="n">
-        <v>3607.639240816009</v>
+        <v>3780.906883964307</v>
       </c>
       <c r="J79" t="n">
-        <v>1387.300328717502</v>
+        <v>2980.781531154917</v>
       </c>
       <c r="K79" t="n">
-        <v>3458.93829316835</v>
+        <v>1966.975659314375</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1311.546900210779</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1239.309236076127</v>
       </c>
     </row>
     <row r="80">
@@ -3255,19 +3975,25 @@
         <v>134.28</v>
       </c>
       <c r="G80" t="n">
-        <v>87.28681755669186</v>
+        <v>-247.3023410627843</v>
       </c>
       <c r="H80" t="n">
         <v>1237.25</v>
       </c>
       <c r="I80" t="n">
-        <v>3634.463182443308</v>
+        <v>3969.052341062784</v>
       </c>
       <c r="J80" t="n">
-        <v>1445.296669224854</v>
+        <v>3353.603816662769</v>
       </c>
       <c r="K80" t="n">
-        <v>3425.821889214495</v>
+        <v>1797.283450021999</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1292.676576470523</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1237.312289850179</v>
       </c>
     </row>
     <row r="81">
@@ -3281,19 +4007,25 @@
         <v>134.18</v>
       </c>
       <c r="G81" t="n">
-        <v>313.7384069238592</v>
+        <v>-263.3130993663849</v>
       </c>
       <c r="H81" t="n">
         <v>1235.2</v>
       </c>
       <c r="I81" t="n">
-        <v>3630.621593076141</v>
+        <v>4207.673099366385</v>
       </c>
       <c r="J81" t="n">
-        <v>1522.318123856108</v>
+        <v>3744.493883879744</v>
       </c>
       <c r="K81" t="n">
-        <v>3342.927400029452</v>
+        <v>1656.839817183008</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1276.750621319015</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1235.234857851694</v>
       </c>
     </row>
     <row r="82">
@@ -3307,19 +4039,25 @@
         <v>134.08</v>
       </c>
       <c r="G82" t="n">
-        <v>639.2544461131001</v>
+        <v>-229.8151540673962</v>
       </c>
       <c r="H82" t="n">
         <v>1232.97</v>
       </c>
       <c r="I82" t="n">
-        <v>3605.7755538869</v>
+        <v>4474.845154067396</v>
       </c>
       <c r="J82" t="n">
-        <v>1622.143800122667</v>
+        <v>4133.598776410158</v>
       </c>
       <c r="K82" t="n">
-        <v>3216.055071919273</v>
+        <v>1543.725294549248</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1263.465102359108</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1232.989143318695</v>
       </c>
     </row>
     <row r="83">
@@ -3333,19 +4071,25 @@
         <v>133.98</v>
       </c>
       <c r="G83" t="n">
-        <v>951.5540756998425</v>
+        <v>-219.3782588401318</v>
       </c>
       <c r="H83" t="n">
         <v>1230.5</v>
       </c>
       <c r="I83" t="n">
-        <v>3572.275924300157</v>
+        <v>4743.208258840132</v>
       </c>
       <c r="J83" t="n">
-        <v>1748.442154282987</v>
+        <v>4496.969378267173</v>
       </c>
       <c r="K83" t="n">
-        <v>3053.82483563197</v>
+        <v>1454.811479233164</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1252.421809739813</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1230.510317286163</v>
       </c>
     </row>
     <row r="84">
@@ -3359,19 +4103,25 @@
         <v>133.88</v>
       </c>
       <c r="G84" t="n">
-        <v>1172.95046054971</v>
+        <v>-266.2480669372371</v>
       </c>
       <c r="H84" t="n">
         <v>1227.8</v>
       </c>
       <c r="I84" t="n">
-        <v>3543.71953945029</v>
+        <v>4982.918066937237</v>
       </c>
       <c r="J84" t="n">
-        <v>1904.393535318243</v>
+        <v>4808.81989337462</v>
       </c>
       <c r="K84" t="n">
-        <v>2866.660262297321</v>
+        <v>1386.441670813442</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1243.241428144067</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1227.805456843488</v>
       </c>
     </row>
     <row r="85">
@@ -3385,19 +4135,25 @@
         <v>133.78</v>
       </c>
       <c r="G85" t="n">
-        <v>1390.114033467683</v>
+        <v>-241.8589474558657</v>
       </c>
       <c r="H85" t="n">
         <v>1224.91</v>
       </c>
       <c r="I85" t="n">
-        <v>3533.195966532317</v>
+        <v>5165.168947455866</v>
       </c>
       <c r="J85" t="n">
-        <v>2092.111629112361</v>
+        <v>5044.516984484383</v>
       </c>
       <c r="K85" t="n">
-        <v>2665.574211444659</v>
+        <v>1334.87762806938</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1235.571223113946</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1224.912832302846</v>
       </c>
     </row>
     <row r="86">
@@ -3411,19 +4167,25 @@
         <v>133.68</v>
       </c>
       <c r="G86" t="n">
-        <v>1572.108430075357</v>
+        <v>-142.2463281572072</v>
       </c>
       <c r="H86" t="n">
         <v>1221.84</v>
       </c>
       <c r="I86" t="n">
-        <v>3551.521569924643</v>
+        <v>5265.876328157207</v>
       </c>
       <c r="J86" t="n">
-        <v>2311.968587121684</v>
+        <v>5183.896258462491</v>
       </c>
       <c r="K86" t="n">
-        <v>2461.018083900099</v>
+        <v>1296.573992905864</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1229.056961409479</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1221.841442623797</v>
       </c>
     </row>
     <row r="87">
@@ -3437,19 +4199,25 @@
         <v>133.58</v>
       </c>
       <c r="G87" t="n">
-        <v>1595.836627063156</v>
+        <v>-67.35279809639724</v>
       </c>
       <c r="H87" t="n">
         <v>1218.63</v>
       </c>
       <c r="I87" t="n">
-        <v>3605.813372936844</v>
+        <v>5269.002798096397</v>
       </c>
       <c r="J87" t="n">
-        <v>2562.029051775318</v>
+        <v>5214.373153002078</v>
       </c>
       <c r="K87" t="n">
-        <v>2262.081913159505</v>
+        <v>1268.435701392857</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1223.421011776871</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1218.630721063839</v>
       </c>
     </row>
     <row r="88">
@@ -3463,19 +4231,25 @@
         <v>133.48</v>
       </c>
       <c r="G88" t="n">
-        <v>1490.470878181469</v>
+        <v>20.18969457897492</v>
       </c>
       <c r="H88" t="n">
         <v>1215.36</v>
       </c>
       <c r="I88" t="n">
-        <v>3698.409121818531</v>
+        <v>5168.690305421025</v>
       </c>
       <c r="J88" t="n">
-        <v>2837.519325524401</v>
+        <v>5132.980072666029</v>
       </c>
       <c r="K88" t="n">
-        <v>2075.955428699234</v>
+        <v>1247.915924031719</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1218.479641066738</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1215.360353665585</v>
       </c>
     </row>
     <row r="89">
@@ -3489,19 +4263,25 @@
         <v>133.38</v>
       </c>
       <c r="G89" t="n">
-        <v>1199.784883900496</v>
+        <v>56.31865800405558</v>
       </c>
       <c r="H89" t="n">
         <v>1212.13</v>
       </c>
       <c r="I89" t="n">
-        <v>3826.285116099504</v>
+        <v>4969.751341995944</v>
       </c>
       <c r="J89" t="n">
-        <v>3130.471757629448</v>
+        <v>4946.848512074313</v>
       </c>
       <c r="K89" t="n">
-        <v>1907.681573409138</v>
+        <v>1233.00551063419</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1214.122735144201</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1212.130170216254</v>
       </c>
     </row>
     <row r="90">
@@ -3515,19 +4295,25 @@
         <v>133.28</v>
       </c>
       <c r="G90" t="n">
-        <v>737.864423058214</v>
+        <v>32.49754276849853</v>
       </c>
       <c r="H90" t="n">
         <v>1209.08</v>
       </c>
       <c r="I90" t="n">
-        <v>3981.125576941786</v>
+        <v>4686.492457231501</v>
       </c>
       <c r="J90" t="n">
-        <v>3429.740896074183</v>
+        <v>4672.077925153156</v>
       </c>
       <c r="K90" t="n">
-        <v>1760.229705926003</v>
+        <v>1222.212647799601</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1210.328853673979</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1209.080080387532</v>
       </c>
     </row>
     <row r="91">
@@ -3541,19 +4327,25 @@
         <v>133.18</v>
       </c>
       <c r="G91" t="n">
-        <v>211.9758900131574</v>
+        <v>21.86248957686166</v>
       </c>
       <c r="H91" t="n">
         <v>1206.3</v>
       </c>
       <c r="I91" t="n">
-        <v>4149.924109986842</v>
+        <v>4340.037510423138</v>
       </c>
       <c r="J91" t="n">
-        <v>3721.346846212234</v>
+        <v>4331.133002626723</v>
       </c>
       <c r="K91" t="n">
-        <v>1634.663618661539</v>
+        <v>1214.40617141078</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1207.067942360857</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1206.300037251681</v>
       </c>
     </row>
     <row r="92">
@@ -3567,19 +4359,25 @@
         <v>133.08</v>
       </c>
       <c r="G92" t="n">
-        <v>-437.0527791462014</v>
+        <v>-75.74548941980493</v>
       </c>
       <c r="H92" t="n">
         <v>1203.88</v>
       </c>
       <c r="I92" t="n">
-        <v>4316.332779146202</v>
+        <v>3955.025489419805</v>
       </c>
       <c r="J92" t="n">
-        <v>3989.446170632196</v>
+        <v>3949.625325601821</v>
       </c>
       <c r="K92" t="n">
-        <v>1530.569574231159</v>
+        <v>1208.789733222127</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1204.343371538719</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1203.880016938014</v>
       </c>
     </row>
     <row r="93">
@@ -3593,19 +4391,25 @@
         <v>132.98</v>
       </c>
       <c r="G93" t="n">
-        <v>-1034.354497345937</v>
+        <v>-128.1191770930745</v>
       </c>
       <c r="H93" t="n">
         <v>1201.85</v>
       </c>
       <c r="I93" t="n">
-        <v>4462.394497345937</v>
+        <v>3556.159177093075</v>
       </c>
       <c r="J93" t="n">
-        <v>4217.643649625068</v>
+        <v>3552.943328101049</v>
       </c>
       <c r="K93" t="n">
-        <v>1446.416769143089</v>
+        <v>1204.768104147277</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1202.124368625432</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1201.850007556635</v>
       </c>
     </row>
     <row r="94">
@@ -3619,19 +4423,25 @@
         <v>132.88</v>
       </c>
       <c r="G94" t="n">
-        <v>-1657.267056080313</v>
+        <v>-252.0303543838368</v>
       </c>
       <c r="H94" t="n">
         <v>1200.23</v>
       </c>
       <c r="I94" t="n">
-        <v>4570.677056080312</v>
+        <v>3165.440354383837</v>
       </c>
       <c r="J94" t="n">
-        <v>4390.723480163062</v>
+        <v>3163.559288052263</v>
       </c>
       <c r="K94" t="n">
-        <v>1380.009990393412</v>
+        <v>1201.932001277524</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1200.389425624618</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1200.230003307758</v>
       </c>
     </row>
     <row r="95">
@@ -3645,19 +4455,25 @@
         <v>132.78</v>
       </c>
       <c r="G95" t="n">
-        <v>-2154.7116076922</v>
+        <v>-328.639454966949</v>
       </c>
       <c r="H95" t="n">
         <v>1199</v>
       </c>
       <c r="I95" t="n">
-        <v>4626.3416076922</v>
+        <v>2800.269454966949</v>
       </c>
       <c r="J95" t="n">
-        <v>4496.372013311637</v>
+        <v>2799.188278478298</v>
       </c>
       <c r="K95" t="n">
-        <v>1328.805198835867</v>
+        <v>1199.974193166596</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1199.090909511073</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1199.000001420588</v>
       </c>
     </row>
     <row r="96">
@@ -3671,19 +4487,25 @@
         <v>132.68</v>
       </c>
       <c r="G96" t="n">
-        <v>-2446.891610063697</v>
+        <v>-300.5587960871167</v>
       </c>
       <c r="H96" t="n">
         <v>1198.09</v>
       </c>
       <c r="I96" t="n">
-        <v>4618.931610063697</v>
+        <v>2472.598796087117</v>
       </c>
       <c r="J96" t="n">
-        <v>4526.697557638485</v>
+        <v>2471.98786935721</v>
       </c>
       <c r="K96" t="n">
-        <v>1290.168538246719</v>
+        <v>1198.637219784938</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1198.140873621391</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1198.09000059858</v>
       </c>
     </row>
     <row r="97">
@@ -3697,19 +4519,25 @@
         <v>132.58</v>
       </c>
       <c r="G97" t="n">
-        <v>-2697.163252549435</v>
+        <v>-342.5754088475835</v>
       </c>
       <c r="H97" t="n">
         <v>1197.43</v>
       </c>
       <c r="I97" t="n">
-        <v>4543.633252549435</v>
+        <v>2189.045408847584</v>
       </c>
       <c r="J97" t="n">
-        <v>4479.301990628403</v>
+        <v>2188.705807708642</v>
       </c>
       <c r="K97" t="n">
-        <v>1261.615059115559</v>
+        <v>1197.731655881945</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1197.457938897554</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1197.430000247449</v>
       </c>
     </row>
     <row r="98">
@@ -3723,19 +4551,25 @@
         <v>132.48</v>
       </c>
       <c r="G98" t="n">
-        <v>-2749.341946040343</v>
+        <v>-299.2334502789599</v>
       </c>
       <c r="H98" t="n">
         <v>1196.99</v>
       </c>
       <c r="I98" t="n">
-        <v>4401.741946040343</v>
+        <v>1951.63345027896</v>
       </c>
       <c r="J98" t="n">
-        <v>4357.631673287364</v>
+        <v>1951.447575845725</v>
       </c>
       <c r="K98" t="n">
-        <v>1240.964250925716</v>
+        <v>1197.153190158118</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1197.005057660886</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1196.990000100358</v>
       </c>
     </row>
     <row r="99">
@@ -3749,19 +4583,25 @@
         <v>132.38</v>
       </c>
       <c r="G99" t="n">
-        <v>-2684.794668095922</v>
+        <v>-243.3853581007918</v>
       </c>
       <c r="H99" t="n">
         <v>1196.68</v>
       </c>
       <c r="I99" t="n">
-        <v>4200.154668095922</v>
+        <v>1758.745358100792</v>
       </c>
       <c r="J99" t="n">
-        <v>4170.41432631492</v>
+        <v>1758.645070341018</v>
       </c>
       <c r="K99" t="n">
-        <v>1226.29551445436</v>
+        <v>1196.766637283826</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1196.687964041847</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1196.680000039931</v>
       </c>
     </row>
     <row r="100">
@@ -3775,19 +4615,25 @@
         <v>132.28</v>
       </c>
       <c r="G100" t="n">
-        <v>-2512.787543718259</v>
+        <v>-168.8179518066331</v>
       </c>
       <c r="H100" t="n">
         <v>1196.45</v>
       </c>
       <c r="I100" t="n">
-        <v>3950.337543718259</v>
+        <v>1606.367951806633</v>
       </c>
       <c r="J100" t="n">
-        <v>3930.615935954426</v>
+        <v>1606.314530223961</v>
       </c>
       <c r="K100" t="n">
-        <v>1216.058878757331</v>
+        <v>1196.495137666527</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1196.454133631181</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1196.450000015586</v>
       </c>
     </row>
     <row r="101">
@@ -3801,19 +4647,25 @@
         <v>132.18</v>
       </c>
       <c r="G101" t="n">
-        <v>-2300.237916431171</v>
+        <v>-122.6807370384852</v>
       </c>
       <c r="H101" t="n">
         <v>1196.29</v>
       </c>
       <c r="I101" t="n">
-        <v>3666.707916431171</v>
+        <v>1489.150737038485</v>
       </c>
       <c r="J101" t="n">
-        <v>3653.842168102605</v>
+        <v>1489.122587309475</v>
       </c>
       <c r="K101" t="n">
-        <v>1209.055726140878</v>
+        <v>1196.313077569889</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1196.292105450948</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1196.290000005968</v>
       </c>
     </row>
     <row r="102">
@@ -3827,19 +4679,25 @@
         <v>132.08</v>
       </c>
       <c r="G102" t="n">
-        <v>-2053.136617350116</v>
+        <v>-89.57078141168063</v>
       </c>
       <c r="H102" t="n">
         <v>1196.17</v>
       </c>
       <c r="I102" t="n">
-        <v>3364.776617350115</v>
+        <v>1401.210781411681</v>
       </c>
       <c r="J102" t="n">
-        <v>3356.517369323996</v>
+        <v>1401.196072735646</v>
       </c>
       <c r="K102" t="n">
-        <v>1204.342139259948</v>
+        <v>1196.181578436943</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1196.171052363441</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1196.170000002242</v>
       </c>
     </row>
     <row r="103">
@@ -3853,19 +4711,25 @@
         <v>131.98</v>
       </c>
       <c r="G103" t="n">
-        <v>-1785.897991079824</v>
+        <v>-63.19429997993166</v>
       </c>
       <c r="H103" t="n">
         <v>1196.1</v>
       </c>
       <c r="I103" t="n">
-        <v>3059.527991079824</v>
+        <v>1336.824299979932</v>
       </c>
       <c r="J103" t="n">
-        <v>3054.308937523982</v>
+        <v>1336.816656874504</v>
       </c>
       <c r="K103" t="n">
-        <v>1201.244632498285</v>
+        <v>1196.105700462033</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1196.100516160583</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1196.100000000826</v>
       </c>
     </row>
     <row r="104">
@@ -3879,19 +4743,25 @@
         <v>131.88</v>
       </c>
       <c r="G104" t="n">
-        <v>-1502.395326368895</v>
+        <v>-29.14203841311405</v>
       </c>
       <c r="H104" t="n">
         <v>1196.04</v>
       </c>
       <c r="I104" t="n">
-        <v>2763.995326368894</v>
+        <v>1290.742038413114</v>
       </c>
       <c r="J104" t="n">
-        <v>2760.74784635487</v>
+        <v>1290.738075851973</v>
       </c>
       <c r="K104" t="n">
-        <v>1199.225120970107</v>
+        <v>1196.042753982787</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1196.040248423721</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1196.040000000299</v>
       </c>
     </row>
     <row r="105">
@@ -3905,19 +4775,25 @@
         <v>131.78</v>
       </c>
       <c r="G105" t="n">
-        <v>-1163.046144798611</v>
+        <v>66.94681603792651</v>
       </c>
       <c r="H105" t="n">
         <v>1195.96</v>
       </c>
       <c r="I105" t="n">
-        <v>2488.456144798611</v>
+        <v>1258.463183962074</v>
       </c>
       <c r="J105" t="n">
-        <v>2486.465487450339</v>
+        <v>1258.46112730034</v>
       </c>
       <c r="K105" t="n">
-        <v>1197.899410454139</v>
+        <v>1195.961305550849</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1195.960117322344</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1195.960000000106</v>
       </c>
     </row>
     <row r="106">
@@ -3931,19 +4807,25 @@
         <v>131.68</v>
       </c>
       <c r="G106" t="n">
-        <v>-947.3368084404951</v>
+        <v>56.41579061752736</v>
       </c>
       <c r="H106" t="n">
         <v>1195.87</v>
       </c>
       <c r="I106" t="n">
-        <v>2240.086808440495</v>
+        <v>1236.334209382473</v>
       </c>
       <c r="J106" t="n">
-        <v>2238.884048594153</v>
+        <v>1236.333137370737</v>
       </c>
       <c r="K106" t="n">
-        <v>1197.031449811187</v>
+        <v>1195.870607292429</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1195.870054367317</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1195.870000000037</v>
       </c>
     </row>
     <row r="107">
@@ -3957,19 +4839,25 @@
         <v>131.58</v>
       </c>
       <c r="G107" t="n">
-        <v>-856.9830783870862</v>
+        <v>-55.48948869281617</v>
       </c>
       <c r="H107" t="n">
         <v>1195.85</v>
       </c>
       <c r="I107" t="n">
-        <v>2023.043078387086</v>
+        <v>1221.549488692816</v>
       </c>
       <c r="J107" t="n">
-        <v>2022.326293255705</v>
+        <v>1221.548926151576</v>
       </c>
       <c r="K107" t="n">
-        <v>1196.534114672142</v>
+        <v>1195.850277180963</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1195.850024720344</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1195.850000000012</v>
       </c>
     </row>
     <row r="108">
@@ -3983,19 +4871,25 @@
         <v>131.48</v>
       </c>
       <c r="G108" t="n">
-        <v>-627.2141624403464</v>
+        <v>-0.4543021944500651</v>
       </c>
       <c r="H108" t="n">
         <v>1195.85</v>
       </c>
       <c r="I108" t="n">
-        <v>1838.624162440346</v>
+        <v>1211.86430219445</v>
       </c>
       <c r="J108" t="n">
-        <v>1838.202471407279</v>
+        <v>1211.864004612144</v>
       </c>
       <c r="K108" t="n">
-        <v>1196.246335229234</v>
+        <v>1195.850124131011</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1195.850011028602</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1195.850000000004</v>
       </c>
     </row>
     <row r="109">
@@ -4009,19 +4903,25 @@
         <v>131.38</v>
       </c>
       <c r="G109" t="n">
-        <v>-435.5223638801103</v>
+        <v>44.81833509536932</v>
       </c>
       <c r="H109" t="n">
         <v>1195.82</v>
       </c>
       <c r="I109" t="n">
-        <v>1685.95236388011</v>
+        <v>1205.611664904631</v>
       </c>
       <c r="J109" t="n">
-        <v>1685.707203880829</v>
+        <v>1205.611506220004</v>
       </c>
       <c r="K109" t="n">
-        <v>1196.045842987745</v>
+        <v>1195.820054542931</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1195.820004827538</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1195.820000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4035,19 +4935,25 @@
         <v>131.28</v>
       </c>
       <c r="G110" t="n">
-        <v>-348.3010177129634</v>
+        <v>12.70516077664638</v>
       </c>
       <c r="H110" t="n">
         <v>1195.79</v>
       </c>
       <c r="I110" t="n">
-        <v>1562.671017712963</v>
+        <v>1201.664839223354</v>
       </c>
       <c r="J110" t="n">
-        <v>1562.529988503307</v>
+        <v>1201.664754047542</v>
       </c>
       <c r="K110" t="n">
-        <v>1195.916579469565</v>
+        <v>1195.790023514078</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1195.790002073291</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1195.79</v>
       </c>
     </row>
     <row r="111">
@@ -4061,19 +4967,25 @@
         <v>131.18</v>
       </c>
       <c r="G111" t="n">
-        <v>-218.1693997008128</v>
+        <v>48.04104517657561</v>
       </c>
       <c r="H111" t="n">
         <v>1195.77</v>
       </c>
       <c r="I111" t="n">
-        <v>1465.439399700813</v>
+        <v>1199.228954823424</v>
       </c>
       <c r="J111" t="n">
-        <v>1465.359003612464</v>
+        <v>1199.228908919229</v>
       </c>
       <c r="K111" t="n">
-        <v>1195.83978038071</v>
+        <v>1195.770009945781</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1195.770000873603</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1195.77</v>
       </c>
     </row>
     <row r="112">
@@ -4087,19 +4999,25 @@
         <v>131.08</v>
       </c>
       <c r="G112" t="n">
-        <v>-260.9848257932442</v>
+        <v>-68.28855321761898</v>
       </c>
       <c r="H112" t="n">
         <v>1195.77</v>
       </c>
       <c r="I112" t="n">
-        <v>1390.464825793244</v>
+        <v>1197.768553217619</v>
       </c>
       <c r="J112" t="n">
-        <v>1390.419327443514</v>
+        <v>1197.768528457254</v>
       </c>
       <c r="K112" t="n">
-        <v>1195.807836931743</v>
+        <v>1195.770004127258</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1195.770000361142</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1195.77</v>
       </c>
     </row>
     <row r="113">
@@ -4113,19 +5031,25 @@
         <v>130.98</v>
       </c>
       <c r="G113" t="n">
-        <v>-110.9619428921951</v>
+        <v>26.00677547332657</v>
       </c>
       <c r="H113" t="n">
         <v>1195.79</v>
       </c>
       <c r="I113" t="n">
-        <v>1333.891942892195</v>
+        <v>1196.923224526673</v>
       </c>
       <c r="J113" t="n">
-        <v>1333.866330551034</v>
+        <v>1196.923211205136</v>
       </c>
       <c r="K113" t="n">
-        <v>1195.81017942703</v>
+        <v>1195.790001680299</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1195.790000146468</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1195.79</v>
       </c>
     </row>
     <row r="114">
@@ -4139,19 +5063,25 @@
         <v>130.88</v>
       </c>
       <c r="G114" t="n">
-        <v>-58.20304810474408</v>
+        <v>37.42940706261811</v>
       </c>
       <c r="H114" t="n">
         <v>1195.76</v>
       </c>
       <c r="I114" t="n">
-        <v>1292.023048104744</v>
+        <v>1196.390592937382</v>
       </c>
       <c r="J114" t="n">
-        <v>1292.008676484537</v>
+        <v>1196.390585811565</v>
       </c>
       <c r="K114" t="n">
-        <v>1195.770585439043</v>
+        <v>1195.760000671127</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1195.760000058277</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1195.76</v>
       </c>
     </row>
     <row r="115">
@@ -4165,19 +5095,25 @@
         <v>130.78</v>
       </c>
       <c r="G115" t="n">
-        <v>-65.94962316383157</v>
+        <v>-0.3443620989482952</v>
       </c>
       <c r="H115" t="n">
         <v>1207.42</v>
       </c>
       <c r="I115" t="n">
-        <v>1273.369623163832</v>
+        <v>1207.764362098948</v>
       </c>
       <c r="J115" t="n">
-        <v>1273.361568167437</v>
+        <v>1207.76435832018</v>
       </c>
       <c r="K115" t="n">
-        <v>1207.425461500593</v>
+        <v>1207.42000026297</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1207.420000022748</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1207.42</v>
       </c>
     </row>
     <row r="116">
@@ -4191,19 +5127,25 @@
         <v>130.68</v>
       </c>
       <c r="G116" t="n">
-        <v>-44.4144492594321</v>
+        <v>-0.1845492636089148</v>
       </c>
       <c r="H116" t="n">
         <v>1171.82</v>
       </c>
       <c r="I116" t="n">
-        <v>1216.234449259432</v>
+        <v>1172.004549263609</v>
       </c>
       <c r="J116" t="n">
-        <v>1216.229931359713</v>
+        <v>1172.004547281824</v>
       </c>
       <c r="K116" t="n">
-        <v>1171.822771490694</v>
+        <v>1171.820000101084</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1171.820000008711</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1171.82</v>
       </c>
     </row>
     <row r="117">
@@ -4217,19 +5159,25 @@
         <v>130.58</v>
       </c>
       <c r="G117" t="n">
-        <v>-29.40702478351909</v>
+        <v>-0.09705894637681922</v>
       </c>
       <c r="H117" t="n">
         <v>1193.28</v>
       </c>
       <c r="I117" t="n">
-        <v>1222.687024783519</v>
+        <v>1193.377058946377</v>
       </c>
       <c r="J117" t="n">
-        <v>1222.684485307728</v>
+        <v>1193.37705792046</v>
       </c>
       <c r="K117" t="n">
-        <v>1193.281383273094</v>
+        <v>1193.280000038118</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1193.280000003272</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1193.28</v>
       </c>
     </row>
     <row r="118">
@@ -4243,19 +5191,25 @@
         <v>130.48</v>
       </c>
       <c r="G118" t="n">
-        <v>-19.14427056458135</v>
+        <v>-0.0500932325624035</v>
       </c>
       <c r="H118" t="n">
         <v>1122.03</v>
       </c>
       <c r="I118" t="n">
-        <v>1141.174270564581</v>
+        <v>1122.080093232562</v>
       </c>
       <c r="J118" t="n">
-        <v>1141.172838884224</v>
+        <v>1122.080092709129</v>
       </c>
       <c r="K118" t="n">
-        <v>1122.03067903135</v>
+        <v>1122.0300000141</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1122.030000001206</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1122.03</v>
       </c>
     </row>
     <row r="119">
@@ -4269,19 +5223,25 @@
         <v>130.38</v>
       </c>
       <c r="G119" t="n">
-        <v>-12.25533736850093</v>
+        <v>-0.0253708763530085</v>
       </c>
       <c r="H119" t="n">
         <v>1224.98</v>
       </c>
       <c r="I119" t="n">
-        <v>1237.235337368501</v>
+        <v>1225.005370876353</v>
       </c>
       <c r="J119" t="n">
-        <v>1237.23452774611</v>
+        <v>1225.005370613448</v>
       </c>
       <c r="K119" t="n">
-        <v>1224.980327833348</v>
+        <v>1224.980000005117</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1224.980000000436</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1224.98</v>
       </c>
     </row>
     <row r="120">
@@ -4295,19 +5255,25 @@
         <v>130.28</v>
       </c>
       <c r="G120" t="n">
-        <v>-7.715090299217763</v>
+        <v>-0.01260946188563139</v>
       </c>
       <c r="H120" t="n">
         <v>1179.63</v>
       </c>
       <c r="I120" t="n">
-        <v>1187.345090299218</v>
+        <v>1179.642609461886</v>
       </c>
       <c r="J120" t="n">
-        <v>1187.344631345402</v>
+        <v>1179.642609332004</v>
       </c>
       <c r="K120" t="n">
-        <v>1179.630155665236</v>
+        <v>1179.630000001821</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1179.630000000155</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1179.63</v>
       </c>
     </row>
     <row r="121">
@@ -4321,19 +5287,25 @@
         <v>130.18</v>
       </c>
       <c r="G121" t="n">
-        <v>-4.776507174324706</v>
+        <v>-0.006149691921336853</v>
       </c>
       <c r="H121" t="n">
         <v>1160.65</v>
       </c>
       <c r="I121" t="n">
-        <v>1165.426507174325</v>
+        <v>1160.656149691921</v>
       </c>
       <c r="J121" t="n">
-        <v>1165.426246715984</v>
+        <v>1160.656149628851</v>
       </c>
       <c r="K121" t="n">
-        <v>1160.65007269407</v>
+        <v>1160.650000000636</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1160.650000000054</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1160.65</v>
       </c>
     </row>
     <row r="122">
@@ -4347,19 +5319,25 @@
         <v>130.08</v>
       </c>
       <c r="G122" t="n">
-        <v>-2.908389785407508</v>
+        <v>-0.002943041844218897</v>
       </c>
       <c r="H122" t="n">
         <v>1167.95</v>
       </c>
       <c r="I122" t="n">
-        <v>1170.858389785408</v>
+        <v>1167.952943041844</v>
       </c>
       <c r="J122" t="n">
-        <v>1170.858242072896</v>
+        <v>1167.952943011755</v>
       </c>
       <c r="K122" t="n">
-        <v>1167.950033386333</v>
+        <v>1167.950000000218</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1167.950000000018</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1167.95</v>
       </c>
     </row>
     <row r="123">
@@ -4373,19 +5351,25 @@
         <v>129.98</v>
       </c>
       <c r="G123" t="n">
-        <v>-1.741735085858409</v>
+        <v>-0.00138202531729803</v>
       </c>
       <c r="H123" t="n">
         <v>1094.96</v>
       </c>
       <c r="I123" t="n">
-        <v>1096.701735085858</v>
+        <v>1094.961382025317</v>
       </c>
       <c r="J123" t="n">
-        <v>1096.70165154119</v>
+        <v>1094.961382011219</v>
       </c>
       <c r="K123" t="n">
-        <v>1094.960015079758</v>
+        <v>1094.960000000073</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1094.960000000006</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1094.96</v>
       </c>
     </row>
     <row r="124">
@@ -4399,19 +5383,25 @@
         <v>129.88</v>
       </c>
       <c r="G124" t="n">
-        <v>-1.025910873294151</v>
+        <v>-0.0006367985367887741</v>
       </c>
       <c r="H124" t="n">
         <v>1127.85</v>
       </c>
       <c r="I124" t="n">
-        <v>1128.875910873294</v>
+        <v>1127.850636798537</v>
       </c>
       <c r="J124" t="n">
-        <v>1128.875863848451</v>
+        <v>1127.850636792051</v>
       </c>
       <c r="K124" t="n">
-        <v>1127.850006698374</v>
+        <v>1127.850000000024</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1127.850000000002</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1127.85</v>
       </c>
     </row>
     <row r="125">
@@ -4425,19 +5415,25 @@
         <v>129.78</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.5943506030505432</v>
+        <v>-0.0002879018970816105</v>
       </c>
       <c r="H125" t="n">
         <v>1153.15</v>
       </c>
       <c r="I125" t="n">
-        <v>1153.744350603051</v>
+        <v>1153.150287901897</v>
       </c>
       <c r="J125" t="n">
-        <v>1153.744324314468</v>
+        <v>1153.150287898968</v>
       </c>
       <c r="K125" t="n">
-        <v>1153.150002926088</v>
+        <v>1153.150000000008</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1153.150000000001</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1153.15</v>
       </c>
     </row>
     <row r="126">
@@ -4451,19 +5447,25 @@
         <v>129.68</v>
       </c>
       <c r="G126" t="n">
-        <v>-0.3386773200588777</v>
+        <v>-0.0001277124729313073</v>
       </c>
       <c r="H126" t="n">
         <v>1176.2</v>
       </c>
       <c r="I126" t="n">
-        <v>1176.538677320059</v>
+        <v>1176.200127712473</v>
       </c>
       <c r="J126" t="n">
-        <v>1176.538662750542</v>
+        <v>1176.200127711175</v>
       </c>
       <c r="K126" t="n">
-        <v>1176.200001257019</v>
+        <v>1176.200000000003</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1176.2</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1176.2</v>
       </c>
     </row>
     <row r="127">
@@ -4477,19 +5479,25 @@
         <v>129.58</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.1898201788906135</v>
+        <v>-5.558509906222753e-05</v>
       </c>
       <c r="H127" t="n">
         <v>1085.87</v>
       </c>
       <c r="I127" t="n">
-        <v>1086.059820178891</v>
+        <v>1085.870055585099</v>
       </c>
       <c r="J127" t="n">
-        <v>1086.059812186568</v>
+        <v>1085.870055584534</v>
       </c>
       <c r="K127" t="n">
-        <v>1085.870000531039</v>
+        <v>1085.870000000001</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1085.87</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1085.87</v>
       </c>
     </row>
     <row r="128">
@@ -4503,19 +5511,25 @@
         <v>129.48</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.1046434722923095</v>
+        <v>-2.373612460360164e-05</v>
       </c>
       <c r="H128" t="n">
         <v>1142.16</v>
       </c>
       <c r="I128" t="n">
-        <v>1142.264643472292</v>
+        <v>1142.160023736125</v>
       </c>
       <c r="J128" t="n">
-        <v>1142.264639138461</v>
+        <v>1142.160023735884</v>
       </c>
       <c r="K128" t="n">
-        <v>1142.160000220615</v>
+        <v>1142.16</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1142.16</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1142.16</v>
       </c>
     </row>
     <row r="129">
@@ -4529,19 +5543,25 @@
         <v>129.38</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.05674067437666963</v>
+        <v>-9.944382782123284e-06</v>
       </c>
       <c r="H129" t="n">
         <v>1166.26</v>
       </c>
       <c r="I129" t="n">
-        <v>1166.316740674377</v>
+        <v>1166.260009944383</v>
       </c>
       <c r="J129" t="n">
-        <v>1166.316738353952</v>
+        <v>1166.260009944282</v>
       </c>
       <c r="K129" t="n">
-        <v>1166.260000090128</v>
+        <v>1166.26</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1166.26</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1166.26</v>
       </c>
     </row>
     <row r="130">
@@ -4555,19 +5575,25 @@
         <v>129.28</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.03026127639259357</v>
+        <v>-4.087453817191999e-06</v>
       </c>
       <c r="H130" t="n">
         <v>1135.51</v>
       </c>
       <c r="I130" t="n">
-        <v>1135.540261276393</v>
+        <v>1135.510004087454</v>
       </c>
       <c r="J130" t="n">
-        <v>1135.540260050713</v>
+        <v>1135.510004087412</v>
       </c>
       <c r="K130" t="n">
-        <v>1135.510000036208</v>
+        <v>1135.51</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1135.51</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1135.51</v>
       </c>
     </row>
     <row r="131">
@@ -4581,19 +5607,25 @@
         <v>129.18</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.01587402860786824</v>
+        <v>-1.648259285502718e-06</v>
       </c>
       <c r="H131" t="n">
         <v>1121.77</v>
       </c>
       <c r="I131" t="n">
-        <v>1121.785874028608</v>
+        <v>1121.770001648259</v>
       </c>
       <c r="J131" t="n">
-        <v>1121.785873390349</v>
+        <v>1121.770001648243</v>
       </c>
       <c r="K131" t="n">
-        <v>1121.770000014304</v>
+        <v>1121.77</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1121.77</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1121.77</v>
       </c>
     </row>
     <row r="132">
@@ -4607,19 +5639,25 @@
         <v>129.08</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.008190118235461341</v>
+        <v>-6.520588158309693e-07</v>
       </c>
       <c r="H132" t="n">
         <v>1089.89</v>
       </c>
       <c r="I132" t="n">
-        <v>1089.898190118236</v>
+        <v>1089.890000652059</v>
       </c>
       <c r="J132" t="n">
-        <v>1089.898189790753</v>
+        <v>1089.890000652052</v>
       </c>
       <c r="K132" t="n">
-        <v>1089.890000005556</v>
+        <v>1089.89</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1089.89</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1089.89</v>
       </c>
     </row>
     <row r="133">
@@ -4633,19 +5671,25 @@
         <v>128.98</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.004156153109079241</v>
+        <v>-2.530623532948084e-07</v>
       </c>
       <c r="H133" t="n">
         <v>1107.11</v>
       </c>
       <c r="I133" t="n">
-        <v>1107.114156153109</v>
+        <v>1107.110000253062</v>
       </c>
       <c r="J133" t="n">
-        <v>1107.114155987622</v>
+        <v>1107.11000025306</v>
       </c>
       <c r="K133" t="n">
-        <v>1107.110000002122</v>
+        <v>1107.11</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1107.11</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1107.11</v>
       </c>
     </row>
     <row r="134">
@@ -4659,19 +5703,25 @@
         <v>128.88</v>
       </c>
       <c r="G134" t="n">
-        <v>-0.002074368878993482</v>
+        <v>-9.634732123231515e-08</v>
       </c>
       <c r="H134" t="n">
         <v>1103.83</v>
       </c>
       <c r="I134" t="n">
-        <v>1103.832074368879</v>
+        <v>1103.830000096347</v>
       </c>
       <c r="J134" t="n">
-        <v>1103.832074286545</v>
+        <v>1103.830000096346</v>
       </c>
       <c r="K134" t="n">
-        <v>1103.830000000797</v>
+        <v>1103.83</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1103.83</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1103.83</v>
       </c>
     </row>
     <row r="135">
@@ -4685,19 +5735,25 @@
         <v>128.78</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.001018281473989191</v>
+        <v>-3.598438524932135e-08</v>
       </c>
       <c r="H135" t="n">
         <v>1068.4</v>
       </c>
       <c r="I135" t="n">
-        <v>1068.401018281474</v>
+        <v>1068.400000035984</v>
       </c>
       <c r="J135" t="n">
-        <v>1068.401018241155</v>
+        <v>1068.400000035984</v>
       </c>
       <c r="K135" t="n">
-        <v>1068.400000000295</v>
+        <v>1068.4</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1068.4</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1068.4</v>
       </c>
     </row>
     <row r="136">
@@ -4711,19 +5767,25 @@
         <v>128.68</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.0004916217801564926</v>
+        <v>-1.318380782322492e-08</v>
       </c>
       <c r="H136" t="n">
         <v>1134.15</v>
       </c>
       <c r="I136" t="n">
-        <v>1134.15049162178</v>
+        <v>1134.150000013184</v>
       </c>
       <c r="J136" t="n">
-        <v>1134.15049160235</v>
+        <v>1134.150000013184</v>
       </c>
       <c r="K136" t="n">
-        <v>1134.150000000107</v>
+        <v>1134.15</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1134.15</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1134.15</v>
       </c>
     </row>
     <row r="137">
@@ -4737,19 +5799,25 @@
         <v>128.58</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.0002334369482923648</v>
+        <v>-4.738240022561513e-09</v>
       </c>
       <c r="H137" t="n">
         <v>1072.18</v>
       </c>
       <c r="I137" t="n">
-        <v>1072.180233436948</v>
+        <v>1072.180000004738</v>
       </c>
       <c r="J137" t="n">
-        <v>1072.180233427735</v>
+        <v>1072.180000004738</v>
       </c>
       <c r="K137" t="n">
-        <v>1072.180000000038</v>
+        <v>1072.18</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1072.18</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1072.18</v>
       </c>
     </row>
     <row r="138">
@@ -4763,19 +5831,25 @@
         <v>128.48</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.0001090126577310002</v>
+        <v>-1.670514393481426e-09</v>
       </c>
       <c r="H138" t="n">
         <v>1133.62</v>
       </c>
       <c r="I138" t="n">
-        <v>1133.620109012658</v>
+        <v>1133.62000000167</v>
       </c>
       <c r="J138" t="n">
-        <v>1133.620109008359</v>
+        <v>1133.62000000167</v>
       </c>
       <c r="K138" t="n">
-        <v>1133.620000000013</v>
+        <v>1133.62</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1133.62</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1133.62</v>
       </c>
     </row>
     <row r="139">
@@ -4789,19 +5863,25 @@
         <v>128.38</v>
       </c>
       <c r="G139" t="n">
-        <v>-5.006643323213211e-05</v>
+        <v>-5.777565093012527e-10</v>
       </c>
       <c r="H139" t="n">
         <v>1117.96</v>
       </c>
       <c r="I139" t="n">
-        <v>1117.960050066433</v>
+        <v>1117.960000000578</v>
       </c>
       <c r="J139" t="n">
-        <v>1117.960050064461</v>
+        <v>1117.960000000578</v>
       </c>
       <c r="K139" t="n">
-        <v>1117.960000000005</v>
+        <v>1117.96</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1117.96</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1117.96</v>
       </c>
     </row>
     <row r="140">
@@ -4815,19 +5895,25 @@
         <v>128.28</v>
       </c>
       <c r="G140" t="n">
-        <v>-2.261373401779565e-05</v>
+        <v>-1.95996108232066e-10</v>
       </c>
       <c r="H140" t="n">
         <v>1074.26</v>
       </c>
       <c r="I140" t="n">
-        <v>1074.260022613734</v>
+        <v>1074.260000000196</v>
       </c>
       <c r="J140" t="n">
-        <v>1074.260022612843</v>
+        <v>1074.260000000196</v>
       </c>
       <c r="K140" t="n">
-        <v>1074.260000000002</v>
+        <v>1074.26</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1074.26</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1074.26</v>
       </c>
     </row>
     <row r="141">
@@ -4841,19 +5927,25 @@
         <v>128.18</v>
       </c>
       <c r="G141" t="n">
-        <v>-1.004493879008805e-05</v>
+        <v>-6.52562448522076e-11</v>
       </c>
       <c r="H141" t="n">
         <v>1140.2</v>
       </c>
       <c r="I141" t="n">
-        <v>1140.200010044939</v>
+        <v>1140.200000000065</v>
       </c>
       <c r="J141" t="n">
-        <v>1140.200010044543</v>
+        <v>1140.200000000065</v>
       </c>
       <c r="K141" t="n">
-        <v>1140.200000000001</v>
+        <v>1140.2</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1140.2</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1140.2</v>
       </c>
     </row>
     <row r="142">
@@ -4867,18 +5959,24 @@
         <v>128.08</v>
       </c>
       <c r="G142" t="n">
-        <v>-4.387986109577469e-06</v>
+        <v>-2.137312549166381e-11</v>
       </c>
       <c r="H142" t="n">
         <v>1069.57</v>
       </c>
       <c r="I142" t="n">
-        <v>1069.570004387986</v>
+        <v>1069.570000000021</v>
       </c>
       <c r="J142" t="n">
-        <v>1069.570004387813</v>
+        <v>1069.570000000021</v>
       </c>
       <c r="K142" t="n">
+        <v>1069.57</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1069.57</v>
+      </c>
+      <c r="M142" t="n">
         <v>1069.57</v>
       </c>
     </row>
@@ -4893,18 +5991,24 @@
         <v>127.98</v>
       </c>
       <c r="G143" t="n">
-        <v>-1.885035999293905e-06</v>
+        <v>-6.821210263296962e-12</v>
       </c>
       <c r="H143" t="n">
         <v>1084.2</v>
       </c>
       <c r="I143" t="n">
-        <v>1084.200001885036</v>
+        <v>1084.200000000007</v>
       </c>
       <c r="J143" t="n">
-        <v>1084.200001884962</v>
+        <v>1084.200000000007</v>
       </c>
       <c r="K143" t="n">
+        <v>1084.2</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1084.2</v>
+      </c>
+      <c r="M143" t="n">
         <v>1084.2</v>
       </c>
     </row>
@@ -4919,18 +6023,24 @@
         <v>127.88</v>
       </c>
       <c r="G144" t="n">
-        <v>-7.963506050145952e-07</v>
+        <v>-2.046363078989089e-12</v>
       </c>
       <c r="H144" t="n">
         <v>1073.19</v>
       </c>
       <c r="I144" t="n">
-        <v>1073.190000796351</v>
+        <v>1073.190000000002</v>
       </c>
       <c r="J144" t="n">
-        <v>1073.190000796319</v>
+        <v>1073.190000000002</v>
       </c>
       <c r="K144" t="n">
+        <v>1073.19</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1073.19</v>
+      </c>
+      <c r="M144" t="n">
         <v>1073.19</v>
       </c>
     </row>
@@ -4945,18 +6055,24 @@
         <v>127.78</v>
       </c>
       <c r="G145" t="n">
-        <v>-3.308359737275168e-07</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="H145" t="n">
         <v>1042.02</v>
       </c>
       <c r="I145" t="n">
-        <v>1042.020000330836</v>
+        <v>1042.020000000001</v>
       </c>
       <c r="J145" t="n">
-        <v>1042.020000330823</v>
+        <v>1042.020000000001</v>
       </c>
       <c r="K145" t="n">
+        <v>1042.02</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1042.02</v>
+      </c>
+      <c r="M145" t="n">
         <v>1042.02</v>
       </c>
     </row>
@@ -4971,18 +6087,24 @@
         <v>127.68</v>
       </c>
       <c r="G146" t="n">
-        <v>-1.351572791463695e-07</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H146" t="n">
         <v>1090.89</v>
       </c>
       <c r="I146" t="n">
-        <v>1090.890000135157</v>
+        <v>1090.89</v>
       </c>
       <c r="J146" t="n">
-        <v>1090.890000135152</v>
+        <v>1090.89</v>
       </c>
       <c r="K146" t="n">
+        <v>1090.89</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1090.89</v>
+      </c>
+      <c r="M146" t="n">
         <v>1090.89</v>
       </c>
     </row>
@@ -4997,18 +6119,24 @@
         <v>127.58</v>
       </c>
       <c r="G147" t="n">
-        <v>-5.429706106951926e-08</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
         <v>1062.76</v>
       </c>
       <c r="I147" t="n">
-        <v>1062.760000054297</v>
+        <v>1062.76</v>
       </c>
       <c r="J147" t="n">
-        <v>1062.760000054295</v>
+        <v>1062.76</v>
       </c>
       <c r="K147" t="n">
+        <v>1062.76</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1062.76</v>
+      </c>
+      <c r="M147" t="n">
         <v>1062.76</v>
       </c>
     </row>
@@ -5023,18 +6151,24 @@
         <v>127.48</v>
       </c>
       <c r="G148" t="n">
-        <v>-2.144975042028818e-08</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
         <v>1063.27</v>
       </c>
       <c r="I148" t="n">
-        <v>1063.27000002145</v>
+        <v>1063.27</v>
       </c>
       <c r="J148" t="n">
-        <v>1063.270000021449</v>
+        <v>1063.27</v>
       </c>
       <c r="K148" t="n">
+        <v>1063.27</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1063.27</v>
+      </c>
+      <c r="M148" t="n">
         <v>1063.27</v>
       </c>
     </row>
@@ -5049,18 +6183,24 @@
         <v>127.38</v>
       </c>
       <c r="G149" t="n">
-        <v>-8.332335710292682e-09</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
         <v>1027.38</v>
       </c>
       <c r="I149" t="n">
-        <v>1027.380000008332</v>
+        <v>1027.38</v>
       </c>
       <c r="J149" t="n">
-        <v>1027.380000008332</v>
+        <v>1027.38</v>
       </c>
       <c r="K149" t="n">
+        <v>1027.38</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1027.38</v>
+      </c>
+      <c r="M149" t="n">
         <v>1027.38</v>
       </c>
     </row>
@@ -5075,18 +6215,24 @@
         <v>127.28</v>
       </c>
       <c r="G150" t="n">
-        <v>-3.182776708854362e-09</v>
+        <v>0</v>
       </c>
       <c r="H150" t="n">
         <v>1029.99</v>
       </c>
       <c r="I150" t="n">
-        <v>1029.990000003183</v>
+        <v>1029.99</v>
       </c>
       <c r="J150" t="n">
-        <v>1029.990000003183</v>
+        <v>1029.99</v>
       </c>
       <c r="K150" t="n">
+        <v>1029.99</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1029.99</v>
+      </c>
+      <c r="M150" t="n">
         <v>1029.99</v>
       </c>
     </row>
@@ -5101,18 +6247,24 @@
         <v>127.18</v>
       </c>
       <c r="G151" t="n">
-        <v>-1.195530785480514e-09</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
         <v>1056.85</v>
       </c>
       <c r="I151" t="n">
-        <v>1056.850000001195</v>
+        <v>1056.85</v>
       </c>
       <c r="J151" t="n">
-        <v>1056.850000001195</v>
+        <v>1056.85</v>
       </c>
       <c r="K151" t="n">
+        <v>1056.85</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1056.85</v>
+      </c>
+      <c r="M151" t="n">
         <v>1056.85</v>
       </c>
     </row>
@@ -5127,18 +6279,24 @@
         <v>127.08</v>
       </c>
       <c r="G152" t="n">
-        <v>-4.415596777107567e-10</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
         <v>1036.88</v>
       </c>
       <c r="I152" t="n">
-        <v>1036.880000000442</v>
+        <v>1036.88</v>
       </c>
       <c r="J152" t="n">
-        <v>1036.880000000442</v>
+        <v>1036.88</v>
       </c>
       <c r="K152" t="n">
+        <v>1036.88</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1036.88</v>
+      </c>
+      <c r="M152" t="n">
         <v>1036.88</v>
       </c>
     </row>
@@ -5153,18 +6311,24 @@
         <v>126.98</v>
       </c>
       <c r="G153" t="n">
-        <v>-1.602984411874786e-10</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
         <v>1070.09</v>
       </c>
       <c r="I153" t="n">
-        <v>1070.09000000016</v>
+        <v>1070.09</v>
       </c>
       <c r="J153" t="n">
-        <v>1070.09000000016</v>
+        <v>1070.09</v>
       </c>
       <c r="K153" t="n">
+        <v>1070.09</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1070.09</v>
+      </c>
+      <c r="M153" t="n">
         <v>1070.09</v>
       </c>
     </row>
@@ -5179,18 +6343,24 @@
         <v>126.88</v>
       </c>
       <c r="G154" t="n">
-        <v>-5.729816621169448e-11</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
         <v>1106.96</v>
       </c>
       <c r="I154" t="n">
-        <v>1106.960000000057</v>
+        <v>1106.96</v>
       </c>
       <c r="J154" t="n">
-        <v>1106.960000000057</v>
+        <v>1106.96</v>
       </c>
       <c r="K154" t="n">
+        <v>1106.96</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1106.96</v>
+      </c>
+      <c r="M154" t="n">
         <v>1106.96</v>
       </c>
     </row>
@@ -5205,18 +6375,24 @@
         <v>126.78</v>
       </c>
       <c r="G155" t="n">
-        <v>-2.000888343900442e-11</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
         <v>1057.51</v>
       </c>
       <c r="I155" t="n">
-        <v>1057.51000000002</v>
+        <v>1057.51</v>
       </c>
       <c r="J155" t="n">
-        <v>1057.51000000002</v>
+        <v>1057.51</v>
       </c>
       <c r="K155" t="n">
+        <v>1057.51</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1057.51</v>
+      </c>
+      <c r="M155" t="n">
         <v>1057.51</v>
       </c>
     </row>
@@ -5231,18 +6407,24 @@
         <v>126.68</v>
       </c>
       <c r="G156" t="n">
-        <v>-7.048583938740194e-12</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
         <v>1031.32</v>
       </c>
       <c r="I156" t="n">
-        <v>1031.320000000007</v>
+        <v>1031.32</v>
       </c>
       <c r="J156" t="n">
-        <v>1031.320000000007</v>
+        <v>1031.32</v>
       </c>
       <c r="K156" t="n">
+        <v>1031.32</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1031.32</v>
+      </c>
+      <c r="M156" t="n">
         <v>1031.32</v>
       </c>
     </row>
@@ -5257,18 +6439,24 @@
         <v>126.58</v>
       </c>
       <c r="G157" t="n">
-        <v>-2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H157" t="n">
         <v>1109.28</v>
       </c>
       <c r="I157" t="n">
-        <v>1109.280000000002</v>
+        <v>1109.28</v>
       </c>
       <c r="J157" t="n">
-        <v>1109.280000000002</v>
+        <v>1109.28</v>
       </c>
       <c r="K157" t="n">
+        <v>1109.28</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1109.28</v>
+      </c>
+      <c r="M157" t="n">
         <v>1109.28</v>
       </c>
     </row>
@@ -5283,18 +6471,24 @@
         <v>126.48</v>
       </c>
       <c r="G158" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
         <v>1068.33</v>
       </c>
       <c r="I158" t="n">
-        <v>1068.330000000001</v>
+        <v>1068.33</v>
       </c>
       <c r="J158" t="n">
-        <v>1068.330000000001</v>
+        <v>1068.33</v>
       </c>
       <c r="K158" t="n">
+        <v>1068.33</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1068.33</v>
+      </c>
+      <c r="M158" t="n">
         <v>1068.33</v>
       </c>
     </row>
@@ -5309,7 +6503,7 @@
         <v>126.38</v>
       </c>
       <c r="G159" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
         <v>1067.61</v>
@@ -5321,6 +6515,12 @@
         <v>1067.61</v>
       </c>
       <c r="K159" t="n">
+        <v>1067.61</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1067.61</v>
+      </c>
+      <c r="M159" t="n">
         <v>1067.61</v>
       </c>
     </row>
@@ -5349,6 +6549,12 @@
       <c r="K160" t="n">
         <v>1066.1</v>
       </c>
+      <c r="L160" t="n">
+        <v>1066.1</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1066.1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5375,6 +6581,12 @@
       <c r="K161" t="n">
         <v>1105</v>
       </c>
+      <c r="L161" t="n">
+        <v>1105</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1105</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5399,6 +6611,12 @@
         <v>1070.67</v>
       </c>
       <c r="K162" t="n">
+        <v>1070.67</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1070.67</v>
+      </c>
+      <c r="M162" t="n">
         <v>1070.67</v>
       </c>
     </row>

--- a/DATA/UKSAF/LaSrTiO3.xlsx
+++ b/DATA/UKSAF/LaSrTiO3.xlsx
@@ -405,7 +405,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4981575" cy="5086350"/>
+    <ext cx="5581650" cy="4076700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -975,13 +975,13 @@
         <v>142.08</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.97859514830634e-11</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1321.18</v>
       </c>
       <c r="I2" t="n">
-        <v>1321.18000000003</v>
+        <v>1321.18</v>
       </c>
       <c r="J2" t="n">
         <v>1321.18</v>
@@ -993,7 +993,7 @@
         <v>1321.18</v>
       </c>
       <c r="M2" t="n">
-        <v>1321.18000000003</v>
+        <v>1321.18</v>
       </c>
       <c r="X2" s="16" t="inlineStr">
         <is>
@@ -1007,27 +1007,27 @@
       </c>
       <c r="Z2" s="17" t="inlineStr">
         <is>
-          <t>133.60</t>
+          <t>133.53</t>
         </is>
       </c>
       <c r="AA2" s="17" t="inlineStr">
         <is>
-          <t>3998</t>
+          <t>3892</t>
         </is>
       </c>
       <c r="AB2" s="17" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AC2" s="17" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AD2" s="17" t="inlineStr">
         <is>
-          <t>6256</t>
+          <t>5179</t>
         </is>
       </c>
       <c r="AE2" s="17" t="inlineStr"/>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="AH2" s="17" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="AI2" s="17" t="inlineStr">
@@ -1094,13 +1094,13 @@
         <v>141.98</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.594724931754172e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1369.78</v>
       </c>
       <c r="I3" t="n">
-        <v>1369.780000000086</v>
+        <v>1369.78</v>
       </c>
       <c r="J3" t="n">
         <v>1369.78</v>
@@ -1112,7 +1112,7 @@
         <v>1369.78</v>
       </c>
       <c r="M3" t="n">
-        <v>1369.780000000086</v>
+        <v>1369.78</v>
       </c>
       <c r="X3" s="19" t="inlineStr"/>
       <c r="Y3" s="20" t="inlineStr"/>
@@ -1153,13 +1153,13 @@
         <v>141.88</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.435172063997015e-10</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1356.16</v>
       </c>
       <c r="I4" t="n">
-        <v>1356.160000000244</v>
+        <v>1356.16</v>
       </c>
       <c r="J4" t="n">
         <v>1356.16</v>
@@ -1171,7 +1171,7 @@
         <v>1356.16</v>
       </c>
       <c r="M4" t="n">
-        <v>1356.160000000243</v>
+        <v>1356.16</v>
       </c>
       <c r="X4" s="16" t="inlineStr">
         <is>
@@ -1185,27 +1185,27 @@
       </c>
       <c r="Z4" s="17" t="inlineStr">
         <is>
-          <t>135.35</t>
+          <t>135.32</t>
         </is>
       </c>
       <c r="AA4" s="17" t="inlineStr">
         <is>
-          <t>2582</t>
+          <t>2512</t>
         </is>
       </c>
       <c r="AB4" s="17" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AC4" s="17" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AD4" s="17" t="inlineStr">
         <is>
-          <t>4040</t>
+          <t>3342</t>
         </is>
       </c>
       <c r="AE4" s="17" t="inlineStr"/>
@@ -1217,17 +1217,17 @@
       </c>
       <c r="AH4" s="17" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>31.8</t>
         </is>
       </c>
       <c r="AI4" s="17" t="inlineStr">
         <is>
-          <t>64.6</t>
+          <t>64.5</t>
         </is>
       </c>
       <c r="AJ4" s="17" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="AK4" s="17" t="inlineStr">
@@ -1272,13 +1272,13 @@
         <v>141.78</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.762093107681721e-10</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1341.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1341.500000000676</v>
+        <v>1341.5</v>
       </c>
       <c r="J5" t="n">
         <v>1341.5</v>
@@ -1290,7 +1290,7 @@
         <v>1341.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1341.500000000675</v>
+        <v>1341.5</v>
       </c>
       <c r="X5" s="19" t="inlineStr"/>
       <c r="Y5" s="20" t="inlineStr"/>
@@ -1347,13 +1347,13 @@
         <v>141.68</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.842408892116509e-09</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1332.29</v>
       </c>
       <c r="I6" t="n">
-        <v>1332.290000001842</v>
+        <v>1332.29</v>
       </c>
       <c r="J6" t="n">
         <v>1332.29</v>
@@ -1365,7 +1365,7 @@
         <v>1332.29</v>
       </c>
       <c r="M6" t="n">
-        <v>1332.290000001839</v>
+        <v>1332.29</v>
       </c>
       <c r="X6" s="16" t="inlineStr">
         <is>
@@ -1379,27 +1379,27 @@
       </c>
       <c r="Z6" s="17" t="inlineStr">
         <is>
-          <t>135.37</t>
+          <t>134.58</t>
         </is>
       </c>
       <c r="AA6" s="17" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>927</t>
         </is>
       </c>
       <c r="AB6" s="17" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AC6" s="17" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AD6" s="17" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="AE6" s="17" t="inlineStr"/>
@@ -1411,17 +1411,17 @@
       </c>
       <c r="AH6" s="17" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="AI6" s="17" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="AJ6" s="17" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="AK6" s="17" t="inlineStr">
@@ -1446,12 +1446,12 @@
       </c>
       <c r="AO6" s="17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP6" s="18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1466,13 +1466,13 @@
         <v>141.58</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.923322194372304e-09</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>1338.15</v>
       </c>
       <c r="I7" t="n">
-        <v>1338.150000004923</v>
+        <v>1338.15</v>
       </c>
       <c r="J7" t="n">
         <v>1338.15</v>
@@ -1484,13 +1484,13 @@
         <v>1338.15</v>
       </c>
       <c r="M7" t="n">
-        <v>1338.150000004915</v>
+        <v>1338.15</v>
       </c>
       <c r="X7" s="19" t="inlineStr"/>
       <c r="Y7" s="20" t="inlineStr"/>
       <c r="Z7" s="20" t="inlineStr">
         <is>
-          <t>126.08,142.08</t>
+          <t>A+1.14#0.1</t>
         </is>
       </c>
       <c r="AA7" s="20" t="inlineStr">
@@ -1541,13 +1541,13 @@
         <v>141.48</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.290663931285962e-08</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>1335.29</v>
       </c>
       <c r="I8" t="n">
-        <v>1335.290000012907</v>
+        <v>1335.29</v>
       </c>
       <c r="J8" t="n">
         <v>1335.29</v>
@@ -1559,7 +1559,7 @@
         <v>1335.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1335.290000012883</v>
+        <v>1335.29</v>
       </c>
       <c r="X8" s="16" t="inlineStr">
         <is>
@@ -1573,27 +1573,27 @@
       </c>
       <c r="Z8" s="17" t="inlineStr">
         <is>
-          <t>136.87</t>
+          <t>136.22</t>
         </is>
       </c>
       <c r="AA8" s="17" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>576</t>
         </is>
       </c>
       <c r="AB8" s="17" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="AC8" s="17" t="inlineStr">
         <is>
-          <t>22.64</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="AD8" s="17" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>767</t>
         </is>
       </c>
       <c r="AE8" s="17" t="inlineStr"/>
@@ -1605,17 +1605,17 @@
       </c>
       <c r="AH8" s="17" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="AI8" s="17" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AJ8" s="17" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="AK8" s="17" t="inlineStr">
@@ -1640,12 +1640,12 @@
       </c>
       <c r="AO8" s="17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP8" s="18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1660,13 +1660,13 @@
         <v>141.38</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.319223651487846e-08</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>1341.58</v>
       </c>
       <c r="I9" t="n">
-        <v>1341.580000033192</v>
+        <v>1341.58</v>
       </c>
       <c r="J9" t="n">
         <v>1341.58</v>
@@ -1678,7 +1678,7 @@
         <v>1341.58</v>
       </c>
       <c r="M9" t="n">
-        <v>1341.580000033133</v>
+        <v>1341.58</v>
       </c>
       <c r="X9" s="19" t="inlineStr"/>
       <c r="Y9" s="20" t="inlineStr"/>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="AA9" s="20" t="inlineStr">
         <is>
-          <t>C*0.667#0.05</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB9" s="20" t="inlineStr">
@@ -1711,7 +1711,7 @@
       <c r="AF9" s="20" t="inlineStr"/>
       <c r="AG9" s="20" t="inlineStr">
         <is>
-          <t>C*1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH9" s="20" t="inlineStr"/>
@@ -1735,13 +1735,13 @@
         <v>141.28</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.374217941309325e-08</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>1349.18</v>
       </c>
       <c r="I10" t="n">
-        <v>1349.180000083742</v>
+        <v>1349.18</v>
       </c>
       <c r="J10" t="n">
         <v>1349.18</v>
@@ -1753,7 +1753,7 @@
         <v>1349.18</v>
       </c>
       <c r="M10" t="n">
-        <v>1349.180000083592</v>
+        <v>1349.18</v>
       </c>
     </row>
     <row r="11">
@@ -1767,25 +1767,25 @@
         <v>141.18</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.072722509183222e-07</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>1344.67</v>
       </c>
       <c r="I11" t="n">
-        <v>1344.670000207272</v>
+        <v>1344.67</v>
       </c>
       <c r="J11" t="n">
         <v>1344.67</v>
       </c>
       <c r="K11" t="n">
-        <v>1344.670000000001</v>
+        <v>1344.67</v>
       </c>
       <c r="L11" t="n">
         <v>1344.67</v>
       </c>
       <c r="M11" t="n">
-        <v>1344.670000206901</v>
+        <v>1344.67</v>
       </c>
     </row>
     <row r="12">
@@ -1799,25 +1799,25 @@
         <v>141.08</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.033111847296823e-07</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H12" t="n">
         <v>1336.42</v>
       </c>
       <c r="I12" t="n">
-        <v>1336.420000503311</v>
+        <v>1336.42</v>
       </c>
       <c r="J12" t="n">
         <v>1336.42</v>
       </c>
       <c r="K12" t="n">
-        <v>1336.420000000001</v>
+        <v>1336.42</v>
       </c>
       <c r="L12" t="n">
         <v>1336.42</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.42000050241</v>
+        <v>1336.42</v>
       </c>
     </row>
     <row r="13">
@@ -1831,25 +1831,25 @@
         <v>140.98</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.19905780593399e-06</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="H13" t="n">
         <v>1281.16</v>
       </c>
       <c r="I13" t="n">
-        <v>1281.160001199058</v>
+        <v>1281.160000000001</v>
       </c>
       <c r="J13" t="n">
         <v>1281.16</v>
       </c>
       <c r="K13" t="n">
-        <v>1281.160000000004</v>
+        <v>1281.16</v>
       </c>
       <c r="L13" t="n">
+        <v>1281.16</v>
+      </c>
+      <c r="M13" t="n">
         <v>1281.160000000001</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1281.160001196911</v>
       </c>
     </row>
     <row r="14">
@@ -1863,25 +1863,25 @@
         <v>140.88</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.802602011797717e-06</v>
+        <v>-2.728484105318785e-12</v>
       </c>
       <c r="H14" t="n">
         <v>1323.55</v>
       </c>
       <c r="I14" t="n">
-        <v>1323.550002802602</v>
+        <v>1323.550000000003</v>
       </c>
       <c r="J14" t="n">
         <v>1323.55</v>
       </c>
       <c r="K14" t="n">
-        <v>1323.550000000012</v>
+        <v>1323.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1323.550000000002</v>
+        <v>1323.55</v>
       </c>
       <c r="M14" t="n">
-        <v>1323.55000279758</v>
+        <v>1323.550000000003</v>
       </c>
     </row>
     <row r="15">
@@ -1895,25 +1895,25 @@
         <v>140.78</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.427029120459338e-06</v>
+        <v>-1.000444171950221e-11</v>
       </c>
       <c r="H15" t="n">
         <v>1322.81</v>
       </c>
       <c r="I15" t="n">
-        <v>1322.810006427029</v>
+        <v>1322.81000000001</v>
       </c>
       <c r="J15" t="n">
         <v>1322.81</v>
       </c>
       <c r="K15" t="n">
-        <v>1322.810000000038</v>
+        <v>1322.81</v>
       </c>
       <c r="L15" t="n">
-        <v>1322.810000000005</v>
+        <v>1322.81</v>
       </c>
       <c r="M15" t="n">
-        <v>1322.810006415502</v>
+        <v>1322.81000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1927,25 +1927,25 @@
         <v>140.68</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.446094324819569e-05</v>
+        <v>-3.728928277269006e-11</v>
       </c>
       <c r="H16" t="n">
         <v>1352.14</v>
       </c>
       <c r="I16" t="n">
-        <v>1352.140014460943</v>
+        <v>1352.140000000037</v>
       </c>
       <c r="J16" t="n">
         <v>1352.14</v>
       </c>
       <c r="K16" t="n">
-        <v>1352.140000000114</v>
+        <v>1352.14</v>
       </c>
       <c r="L16" t="n">
-        <v>1352.140000000015</v>
+        <v>1352.14</v>
       </c>
       <c r="M16" t="n">
-        <v>1352.140014434975</v>
+        <v>1352.140000000037</v>
       </c>
     </row>
     <row r="17">
@@ -1959,25 +1959,25 @@
         <v>140.58</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.192498002135835e-05</v>
+        <v>-1.336957211606205e-10</v>
       </c>
       <c r="H17" t="n">
         <v>1304.84</v>
       </c>
       <c r="I17" t="n">
-        <v>1304.84003192498</v>
+        <v>1304.840000000134</v>
       </c>
       <c r="J17" t="n">
         <v>1304.84</v>
       </c>
       <c r="K17" t="n">
-        <v>1304.840000000335</v>
+        <v>1304.84</v>
       </c>
       <c r="L17" t="n">
-        <v>1304.840000000043</v>
+        <v>1304.84</v>
       </c>
       <c r="M17" t="n">
-        <v>1304.840031867556</v>
+        <v>1304.840000000134</v>
       </c>
     </row>
     <row r="18">
@@ -1991,25 +1991,25 @@
         <v>140.48</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.915482731528755e-05</v>
+        <v>-4.677076503867283e-10</v>
       </c>
       <c r="H18" t="n">
         <v>1296.85</v>
       </c>
       <c r="I18" t="n">
-        <v>1296.850069154827</v>
+        <v>1296.850000000468</v>
       </c>
       <c r="J18" t="n">
         <v>1296.85</v>
       </c>
       <c r="K18" t="n">
-        <v>1296.850000000971</v>
+        <v>1296.85</v>
       </c>
       <c r="L18" t="n">
-        <v>1296.850000000125</v>
+        <v>1296.85</v>
       </c>
       <c r="M18" t="n">
-        <v>1296.850069030162</v>
+        <v>1296.850000000467</v>
       </c>
     </row>
     <row r="19">
@@ -2023,25 +2023,25 @@
         <v>140.38</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.000146988191318087</v>
+        <v>-1.591388354427181e-09</v>
       </c>
       <c r="H19" t="n">
         <v>1297.71</v>
       </c>
       <c r="I19" t="n">
-        <v>1297.710146988191</v>
+        <v>1297.710000001591</v>
       </c>
       <c r="J19" t="n">
         <v>1297.71</v>
       </c>
       <c r="K19" t="n">
-        <v>1297.710000002759</v>
+        <v>1297.71</v>
       </c>
       <c r="L19" t="n">
-        <v>1297.710000000355</v>
+        <v>1297.71</v>
       </c>
       <c r="M19" t="n">
-        <v>1297.710146722433</v>
+        <v>1297.71000000159</v>
       </c>
     </row>
     <row r="20">
@@ -2055,25 +2055,25 @@
         <v>140.28</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0003065636349219858</v>
+        <v>-5.269839675747789e-09</v>
       </c>
       <c r="H20" t="n">
         <v>1346.66</v>
       </c>
       <c r="I20" t="n">
-        <v>1346.660306563635</v>
+        <v>1346.66000000527</v>
       </c>
       <c r="J20" t="n">
         <v>1346.66</v>
       </c>
       <c r="K20" t="n">
-        <v>1346.660000007693</v>
+        <v>1346.66</v>
       </c>
       <c r="L20" t="n">
-        <v>1346.660000000985</v>
+        <v>1346.66</v>
       </c>
       <c r="M20" t="n">
-        <v>1346.660306007183</v>
+        <v>1346.660000005266</v>
       </c>
     </row>
     <row r="21">
@@ -2087,25 +2087,25 @@
         <v>140.18</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0006274037209550443</v>
+        <v>-1.698344931355678e-08</v>
       </c>
       <c r="H21" t="n">
         <v>1293.78</v>
       </c>
       <c r="I21" t="n">
-        <v>1293.780627403721</v>
+        <v>1293.780000016983</v>
       </c>
       <c r="J21" t="n">
         <v>1293.78</v>
       </c>
       <c r="K21" t="n">
-        <v>1293.780000021037</v>
+        <v>1293.780000000001</v>
       </c>
       <c r="L21" t="n">
-        <v>1293.780000002684</v>
+        <v>1293.78</v>
       </c>
       <c r="M21" t="n">
-        <v>1293.780626258954</v>
+        <v>1293.78000001697</v>
       </c>
     </row>
     <row r="22">
@@ -2119,25 +2119,25 @@
         <v>140.08</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.001260002931076087</v>
+        <v>-5.326637619873509e-08</v>
       </c>
       <c r="H22" t="n">
         <v>1294.58</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.581260002931</v>
+        <v>1294.580000053266</v>
       </c>
       <c r="J22" t="n">
         <v>1294.58</v>
       </c>
       <c r="K22" t="n">
-        <v>1294.580000056435</v>
+        <v>1294.580000000003</v>
       </c>
       <c r="L22" t="n">
-        <v>1294.580000007172</v>
+        <v>1294.58</v>
       </c>
       <c r="M22" t="n">
-        <v>1294.581257687979</v>
+        <v>1294.580000053223</v>
       </c>
     </row>
     <row r="23">
@@ -2151,25 +2151,25 @@
         <v>139.98</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.002483152424474611</v>
+        <v>-1.625903678359464e-07</v>
       </c>
       <c r="H23" t="n">
         <v>1282.76</v>
       </c>
       <c r="I23" t="n">
-        <v>1282.762483152424</v>
+        <v>1282.76000016259</v>
       </c>
       <c r="J23" t="n">
         <v>1282.76</v>
       </c>
       <c r="K23" t="n">
-        <v>1282.760000148516</v>
+        <v>1282.760000000012</v>
       </c>
       <c r="L23" t="n">
-        <v>1282.760000018803</v>
+        <v>1282.76</v>
       </c>
       <c r="M23" t="n">
-        <v>1282.762478548349</v>
+        <v>1282.760000162455</v>
       </c>
     </row>
     <row r="24">
@@ -2183,25 +2183,25 @@
         <v>139.88</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.004802322629757327</v>
+        <v>-4.830196758121019e-07</v>
       </c>
       <c r="H24" t="n">
         <v>1291.45</v>
       </c>
       <c r="I24" t="n">
-        <v>1291.45480232263</v>
+        <v>1291.45000048302</v>
       </c>
       <c r="J24" t="n">
         <v>1291.45</v>
       </c>
       <c r="K24" t="n">
-        <v>1291.450000383411</v>
+        <v>1291.450000000044</v>
       </c>
       <c r="L24" t="n">
-        <v>1291.450000048356</v>
+        <v>1291.45</v>
       </c>
       <c r="M24" t="n">
-        <v>1291.454793310556</v>
+        <v>1291.450000482608</v>
       </c>
     </row>
     <row r="25">
@@ -2215,25 +2215,25 @@
         <v>139.78</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.009114302045873046</v>
+        <v>-1.396616198690026e-06</v>
       </c>
       <c r="H25" t="n">
         <v>1275.21</v>
       </c>
       <c r="I25" t="n">
-        <v>1275.219114302046</v>
+        <v>1275.210001396616</v>
       </c>
       <c r="J25" t="n">
         <v>1275.21</v>
       </c>
       <c r="K25" t="n">
-        <v>1275.210000971035</v>
+        <v>1275.210000000162</v>
       </c>
       <c r="L25" t="n">
-        <v>1275.210000122</v>
+        <v>1275.21</v>
       </c>
       <c r="M25" t="n">
-        <v>1275.219096925031</v>
+        <v>1275.210001395391</v>
       </c>
     </row>
     <row r="26">
@@ -2247,25 +2247,25 @@
         <v>139.68</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.01697565770064102</v>
+        <v>-3.930484808734036e-06</v>
       </c>
       <c r="H26" t="n">
         <v>1311.33</v>
       </c>
       <c r="I26" t="n">
-        <v>1311.346975657701</v>
+        <v>1311.330003930485</v>
       </c>
       <c r="J26" t="n">
         <v>1311.33</v>
       </c>
       <c r="K26" t="n">
-        <v>1311.330002412642</v>
+        <v>1311.330000000583</v>
       </c>
       <c r="L26" t="n">
-        <v>1311.330000301964</v>
+        <v>1311.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1311.346942615031</v>
+        <v>1311.330003926911</v>
       </c>
     </row>
     <row r="27">
@@ -2279,25 +2279,25 @@
         <v>139.58</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.03102891483899839</v>
+        <v>-1.0766816103569e-05</v>
       </c>
       <c r="H27" t="n">
         <v>1287.86</v>
       </c>
       <c r="I27" t="n">
-        <v>1287.891028914839</v>
+        <v>1287.860010766816</v>
       </c>
       <c r="J27" t="n">
         <v>1287.86</v>
       </c>
       <c r="K27" t="n">
-        <v>1287.860005880953</v>
+        <v>1287.860000002038</v>
       </c>
       <c r="L27" t="n">
-        <v>1287.860000733247</v>
+        <v>1287.86</v>
       </c>
       <c r="M27" t="n">
-        <v>1287.890966868805</v>
+        <v>1287.860010756586</v>
       </c>
     </row>
     <row r="28">
@@ -2311,25 +2311,25 @@
         <v>139.48</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.05566053609118171</v>
+        <v>-2.870887169592606e-05</v>
       </c>
       <c r="H28" t="n">
         <v>1305.54</v>
       </c>
       <c r="I28" t="n">
-        <v>1305.595660536091</v>
+        <v>1305.540028708872</v>
       </c>
       <c r="J28" t="n">
         <v>1305.54</v>
       </c>
       <c r="K28" t="n">
-        <v>1305.540014063991</v>
+        <v>1305.540000006934</v>
       </c>
       <c r="L28" t="n">
-        <v>1305.540001746843</v>
+        <v>1305.54</v>
       </c>
       <c r="M28" t="n">
-        <v>1305.595545297828</v>
+        <v>1305.540028680093</v>
       </c>
     </row>
     <row r="29">
@@ -2343,25 +2343,25 @@
         <v>139.38</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.09798757247085632</v>
+        <v>-7.451582587236771e-05</v>
       </c>
       <c r="H29" t="n">
         <v>1286.85</v>
       </c>
       <c r="I29" t="n">
-        <v>1286.947987572471</v>
+        <v>1286.850074515826</v>
       </c>
       <c r="J29" t="n">
+        <v>1286.85</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1286.850000022964</v>
+      </c>
+      <c r="L29" t="n">
         <v>1286.850000000001</v>
       </c>
-      <c r="K29" t="n">
-        <v>1286.850032997804</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1286.850004082955</v>
-      </c>
       <c r="M29" t="n">
-        <v>1286.947775472868</v>
+        <v>1286.850074436169</v>
       </c>
     </row>
     <row r="30">
@@ -2375,25 +2375,25 @@
         <v>139.28</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1692921933165508</v>
+        <v>-0.0001882784838471707</v>
       </c>
       <c r="H30" t="n">
         <v>1284.54</v>
       </c>
       <c r="I30" t="n">
-        <v>1284.709292193317</v>
+        <v>1284.540188278484</v>
       </c>
       <c r="J30" t="n">
-        <v>1284.540000000003</v>
+        <v>1284.54</v>
       </c>
       <c r="K30" t="n">
-        <v>1284.540075960338</v>
+        <v>1284.540000074007</v>
       </c>
       <c r="L30" t="n">
-        <v>1284.540009363165</v>
+        <v>1284.540000000002</v>
       </c>
       <c r="M30" t="n">
-        <v>1284.708904533136</v>
+        <v>1284.540188061246</v>
       </c>
     </row>
     <row r="31">
@@ -2407,25 +2407,25 @@
         <v>139.18</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.2870395045492842</v>
+        <v>-0.0004631152414731332</v>
       </c>
       <c r="H31" t="n">
         <v>1296.58</v>
       </c>
       <c r="I31" t="n">
-        <v>1296.867039504549</v>
+        <v>1296.580463115241</v>
       </c>
       <c r="J31" t="n">
-        <v>1296.580000000011</v>
+        <v>1296.58</v>
       </c>
       <c r="K31" t="n">
-        <v>1296.580171563152</v>
+        <v>1296.580000232111</v>
       </c>
       <c r="L31" t="n">
-        <v>1296.580021067261</v>
+        <v>1296.580000000009</v>
       </c>
       <c r="M31" t="n">
-        <v>1296.866334348172</v>
+        <v>1296.580462530861</v>
       </c>
     </row>
     <row r="32">
@@ -2439,25 +2439,25 @@
         <v>139.08</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.4776151641183333</v>
+        <v>-0.00110899661399344</v>
       </c>
       <c r="H32" t="n">
         <v>1288.78</v>
       </c>
       <c r="I32" t="n">
-        <v>1289.257615164118</v>
+        <v>1288.781108996614</v>
       </c>
       <c r="J32" t="n">
-        <v>1288.780000000033</v>
+        <v>1288.78</v>
       </c>
       <c r="K32" t="n">
-        <v>1288.780380195049</v>
+        <v>1288.780000708485</v>
       </c>
       <c r="L32" t="n">
-        <v>1288.780046509406</v>
+        <v>1288.780000000036</v>
       </c>
       <c r="M32" t="n">
-        <v>1289.256335857829</v>
+        <v>1288.781107444691</v>
       </c>
     </row>
     <row r="33">
@@ -2471,25 +2471,25 @@
         <v>138.98</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.7798927551314137</v>
+        <v>-0.002585477009233728</v>
       </c>
       <c r="H33" t="n">
         <v>1262.37</v>
       </c>
       <c r="I33" t="n">
-        <v>1263.149892755131</v>
+        <v>1262.372585477009</v>
       </c>
       <c r="J33" t="n">
-        <v>1262.370000000101</v>
+        <v>1262.37</v>
       </c>
       <c r="K33" t="n">
-        <v>1262.37082669307</v>
+        <v>1262.370002104708</v>
       </c>
       <c r="L33" t="n">
-        <v>1262.370100746723</v>
+        <v>1262.370000000129</v>
       </c>
       <c r="M33" t="n">
-        <v>1263.147573563051</v>
+        <v>1262.372581406295</v>
       </c>
     </row>
     <row r="34">
@@ -2503,25 +2503,25 @@
         <v>138.88</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.249671140608825</v>
+        <v>-0.005868631508519684</v>
       </c>
       <c r="H34" t="n">
         <v>1298.36</v>
       </c>
       <c r="I34" t="n">
-        <v>1299.609671140609</v>
+        <v>1298.365868631508</v>
       </c>
       <c r="J34" t="n">
-        <v>1298.360000000303</v>
+        <v>1298.36</v>
       </c>
       <c r="K34" t="n">
-        <v>1298.361763793038</v>
+        <v>1298.360006085456</v>
       </c>
       <c r="L34" t="n">
-        <v>1298.360214135443</v>
+        <v>1298.360000000457</v>
       </c>
       <c r="M34" t="n">
-        <v>1299.605464084018</v>
+        <v>1298.365858084522</v>
       </c>
     </row>
     <row r="35">
@@ -2535,25 +2535,25 @@
         <v>138.78</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.964892568323194</v>
+        <v>-0.01296984323153083</v>
       </c>
       <c r="H35" t="n">
         <v>1231.15</v>
       </c>
       <c r="I35" t="n">
-        <v>1233.114892568323</v>
+        <v>1231.162969843232</v>
       </c>
       <c r="J35" t="n">
-        <v>1231.150000000885</v>
+        <v>1231.15</v>
       </c>
       <c r="K35" t="n">
-        <v>1231.153692550472</v>
+        <v>1231.150017125696</v>
       </c>
       <c r="L35" t="n">
-        <v>1231.150446605078</v>
+        <v>1231.150000001573</v>
       </c>
       <c r="M35" t="n">
-        <v>1233.107250509573</v>
+        <v>1231.162942860131</v>
       </c>
     </row>
     <row r="36">
@@ -2567,25 +2567,25 @@
         <v>138.68</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.031349624708355</v>
+        <v>-0.02790935212146906</v>
       </c>
       <c r="H36" t="n">
         <v>1288.75</v>
       </c>
       <c r="I36" t="n">
-        <v>1291.781349624708</v>
+        <v>1288.777909352121</v>
       </c>
       <c r="J36" t="n">
-        <v>1288.750000002541</v>
+        <v>1288.75</v>
       </c>
       <c r="K36" t="n">
-        <v>1288.757585610795</v>
+        <v>1288.750046910666</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.750913999554</v>
+        <v>1288.750000005266</v>
       </c>
       <c r="M36" t="n">
-        <v>1291.767450030729</v>
+        <v>1288.77784123671</v>
       </c>
     </row>
     <row r="37">
@@ -2599,25 +2599,25 @@
         <v>138.58</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.588309309000579</v>
+        <v>-0.05847852893680283</v>
       </c>
       <c r="H37" t="n">
         <v>1264.45</v>
       </c>
       <c r="I37" t="n">
-        <v>1269.038309309001</v>
+        <v>1264.508478528937</v>
       </c>
       <c r="J37" t="n">
-        <v>1264.450000007151</v>
+        <v>1264.45</v>
       </c>
       <c r="K37" t="n">
-        <v>1264.465291477876</v>
+        <v>1264.450125077075</v>
       </c>
       <c r="L37" t="n">
-        <v>1264.451835544618</v>
+        <v>1264.450000017158</v>
       </c>
       <c r="M37" t="n">
-        <v>1269.013017113105</v>
+        <v>1264.508309039189</v>
       </c>
     </row>
     <row r="38">
@@ -2631,25 +2631,25 @@
         <v>138.48</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.813140225260213</v>
+        <v>-0.1193130725389437</v>
       </c>
       <c r="H38" t="n">
         <v>1303.52</v>
       </c>
       <c r="I38" t="n">
-        <v>1310.33314022526</v>
+        <v>1303.639313072539</v>
       </c>
       <c r="J38" t="n">
-        <v>1303.520000019746</v>
+        <v>1303.52</v>
       </c>
       <c r="K38" t="n">
-        <v>1303.550249079376</v>
+        <v>1303.520324624405</v>
       </c>
       <c r="L38" t="n">
-        <v>1303.523617340833</v>
+        <v>1303.5200000544</v>
       </c>
       <c r="M38" t="n">
-        <v>1310.287165922625</v>
+        <v>1303.638897875772</v>
       </c>
     </row>
     <row r="39">
@@ -2663,25 +2663,25 @@
         <v>138.38</v>
       </c>
       <c r="G39" t="n">
-        <v>-9.923668636016146</v>
+        <v>-0.2370478884881777</v>
       </c>
       <c r="H39" t="n">
         <v>1312.96</v>
       </c>
       <c r="I39" t="n">
-        <v>1322.883668636016</v>
+        <v>1313.197047888488</v>
       </c>
       <c r="J39" t="n">
-        <v>1312.960000053481</v>
+        <v>1312.960000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>1313.018720127006</v>
+        <v>1312.960820155987</v>
       </c>
       <c r="L39" t="n">
-        <v>1312.966995642433</v>
+        <v>1312.960000167861</v>
       </c>
       <c r="M39" t="n">
-        <v>1322.800349217209</v>
+        <v>1313.196047881772</v>
       </c>
     </row>
     <row r="40">
@@ -2695,25 +2695,25 @@
         <v>138.28</v>
       </c>
       <c r="G40" t="n">
-        <v>-14.17669646134868</v>
+        <v>-0.4586168524917866</v>
       </c>
       <c r="H40" t="n">
         <v>1276.13</v>
       </c>
       <c r="I40" t="n">
-        <v>1290.306696461349</v>
+        <v>1276.588616852492</v>
       </c>
       <c r="J40" t="n">
-        <v>1276.130000142099</v>
+        <v>1276.130000000005</v>
       </c>
       <c r="K40" t="n">
-        <v>1276.241861680857</v>
+        <v>1276.132017148477</v>
       </c>
       <c r="L40" t="n">
-        <v>1276.143276593288</v>
+        <v>1276.130000504103</v>
       </c>
       <c r="M40" t="n">
-        <v>1290.156471205217</v>
+        <v>1276.586251949723</v>
       </c>
     </row>
     <row r="41">
@@ -2727,25 +2727,25 @@
         <v>138.18</v>
       </c>
       <c r="G41" t="n">
-        <v>-19.8610241466572</v>
+        <v>-0.8640451512985692</v>
       </c>
       <c r="H41" t="n">
         <v>1283.01</v>
       </c>
       <c r="I41" t="n">
-        <v>1302.871024146657</v>
+        <v>1283.874045151299</v>
       </c>
       <c r="J41" t="n">
-        <v>1283.010000370379</v>
+        <v>1283.01000000002</v>
       </c>
       <c r="K41" t="n">
-        <v>1283.219122813703</v>
+        <v>1283.014829689348</v>
       </c>
       <c r="L41" t="n">
-        <v>1283.034727059774</v>
+        <v>1283.010001473408</v>
       </c>
       <c r="M41" t="n">
-        <v>1302.602142760997</v>
+        <v>1283.868560675641</v>
       </c>
     </row>
     <row r="42">
@@ -2759,25 +2759,25 @@
         <v>138.08</v>
       </c>
       <c r="G42" t="n">
-        <v>-53.89361732972884</v>
+        <v>-28.19525340734094</v>
       </c>
       <c r="H42" t="n">
         <v>1278.08</v>
       </c>
       <c r="I42" t="n">
-        <v>1305.363617329729</v>
+        <v>1279.665253407341</v>
       </c>
       <c r="J42" t="n">
-        <v>1278.080000947056</v>
+        <v>1278.080000000077</v>
       </c>
       <c r="K42" t="n">
-        <v>1278.463664675242</v>
+        <v>1278.091257799674</v>
       </c>
       <c r="L42" t="n">
-        <v>1278.125194889607</v>
+        <v>1278.080004191552</v>
       </c>
       <c r="M42" t="n">
-        <v>1304.886844225679</v>
+        <v>1279.652794920835</v>
       </c>
     </row>
     <row r="43">
@@ -2791,25 +2791,25 @@
         <v>137.98</v>
       </c>
       <c r="G43" t="n">
-        <v>-46.21845308062075</v>
+        <v>-12.30227986857267</v>
       </c>
       <c r="H43" t="n">
         <v>1277.73</v>
       </c>
       <c r="I43" t="n">
-        <v>1314.478453080621</v>
+        <v>1280.562279868573</v>
       </c>
       <c r="J43" t="n">
-        <v>1277.730002375685</v>
+        <v>1277.730000000286</v>
       </c>
       <c r="K43" t="n">
-        <v>1278.42077265643</v>
+        <v>1277.755547757501</v>
       </c>
       <c r="L43" t="n">
-        <v>1277.811066110343</v>
+        <v>1277.730011606178</v>
       </c>
       <c r="M43" t="n">
-        <v>1313.642458228095</v>
+        <v>1280.534587626218</v>
       </c>
     </row>
     <row r="44">
@@ -2823,25 +2823,25 @@
         <v>137.88</v>
       </c>
       <c r="G44" t="n">
-        <v>-11.74927892575238</v>
+        <v>31.85230568361339</v>
       </c>
       <c r="H44" t="n">
         <v>1277.74</v>
       </c>
       <c r="I44" t="n">
-        <v>1326.269278925752</v>
+        <v>1282.667694316387</v>
       </c>
       <c r="J44" t="n">
-        <v>1277.740005846477</v>
+        <v>1277.740000001025</v>
       </c>
       <c r="K44" t="n">
-        <v>1278.960538354746</v>
+        <v>1277.796445251128</v>
       </c>
       <c r="L44" t="n">
-        <v>1277.882699338781</v>
+        <v>1277.740031280991</v>
       </c>
       <c r="M44" t="n">
-        <v>1324.821988205624</v>
+        <v>1282.607517593877</v>
       </c>
     </row>
     <row r="45">
@@ -2855,25 +2855,25 @@
         <v>137.78</v>
       </c>
       <c r="G45" t="n">
-        <v>-26.22011543102803</v>
+        <v>28.27143968879227</v>
       </c>
       <c r="H45" t="n">
         <v>1277.73</v>
       </c>
       <c r="I45" t="n">
-        <v>1340.570115431028</v>
+        <v>1286.078560311208</v>
       </c>
       <c r="J45" t="n">
-        <v>1277.730014115649</v>
+        <v>1277.730000003573</v>
       </c>
       <c r="K45" t="n">
-        <v>1279.846399038339</v>
+        <v>1277.851418726763</v>
       </c>
       <c r="L45" t="n">
-        <v>1277.976509318631</v>
+        <v>1277.730082066001</v>
       </c>
       <c r="M45" t="n">
-        <v>1338.099530104346</v>
+        <v>1285.950813532466</v>
       </c>
     </row>
     <row r="46">
@@ -2887,25 +2887,25 @@
         <v>137.68</v>
       </c>
       <c r="G46" t="n">
-        <v>4.079299731895617</v>
+        <v>70.1171101748655</v>
       </c>
       <c r="H46" t="n">
         <v>1277.7</v>
       </c>
       <c r="I46" t="n">
-        <v>1357.510700268104</v>
+        <v>1291.472889825134</v>
       </c>
       <c r="J46" t="n">
-        <v>1277.700033436307</v>
+        <v>1277.700000012126</v>
       </c>
       <c r="K46" t="n">
-        <v>1281.301358985457</v>
+        <v>1277.954292198687</v>
       </c>
       <c r="L46" t="n">
-        <v>1278.117893373007</v>
+        <v>1277.700209581092</v>
       </c>
       <c r="M46" t="n">
-        <v>1353.356667526453</v>
+        <v>1291.208131825697</v>
       </c>
     </row>
     <row r="47">
@@ -2919,25 +2919,25 @@
         <v>137.58</v>
       </c>
       <c r="G47" t="n">
-        <v>-57.70768767957202</v>
+        <v>19.6458888323416</v>
       </c>
       <c r="H47" t="n">
         <v>1277.65</v>
       </c>
       <c r="I47" t="n">
-        <v>1377.127687679572</v>
+        <v>1299.774111167658</v>
       </c>
       <c r="J47" t="n">
-        <v>1277.650077706299</v>
+        <v>1277.650000040046</v>
       </c>
       <c r="K47" t="n">
-        <v>1283.663759163622</v>
+        <v>1278.168526847119</v>
       </c>
       <c r="L47" t="n">
-        <v>1278.345192873588</v>
+        <v>1277.650521028371</v>
       </c>
       <c r="M47" t="n">
-        <v>1370.254029192014</v>
+        <v>1299.238686010642</v>
       </c>
     </row>
     <row r="48">
@@ -2951,25 +2951,25 @@
         <v>137.48</v>
       </c>
       <c r="G48" t="n">
-        <v>-94.34523357054741</v>
+        <v>-7.143014042426103</v>
       </c>
       <c r="H48" t="n">
         <v>1277.6</v>
       </c>
       <c r="I48" t="n">
-        <v>1399.405233570547</v>
+        <v>1312.203014042426</v>
       </c>
       <c r="J48" t="n">
-        <v>1277.600177183987</v>
+        <v>1277.600000128706</v>
       </c>
       <c r="K48" t="n">
-        <v>1287.45413373546</v>
+        <v>1278.629431039949</v>
       </c>
       <c r="L48" t="n">
-        <v>1278.73483709202</v>
+        <v>1277.601260971052</v>
       </c>
       <c r="M48" t="n">
-        <v>1388.219929656147</v>
+        <v>1311.146901461421</v>
       </c>
     </row>
     <row r="49">
@@ -2983,25 +2983,25 @@
         <v>137.38</v>
       </c>
       <c r="G49" t="n">
-        <v>-29.16902897607793</v>
+        <v>64.88707703559726</v>
       </c>
       <c r="H49" t="n">
         <v>1277.57</v>
       </c>
       <c r="I49" t="n">
-        <v>1424.319028976078</v>
+        <v>1330.262922964403</v>
       </c>
       <c r="J49" t="n">
-        <v>1277.570396399407</v>
+        <v>1277.570000402571</v>
       </c>
       <c r="K49" t="n">
-        <v>1293.413766592244</v>
+        <v>1279.559765447402</v>
       </c>
       <c r="L49" t="n">
-        <v>1279.387704338837</v>
+        <v>1277.572970959518</v>
       </c>
       <c r="M49" t="n">
-        <v>1406.429479409646</v>
+        <v>1328.231851761161</v>
       </c>
     </row>
     <row r="50">
@@ -3015,25 +3015,25 @@
         <v>137.28</v>
       </c>
       <c r="G50" t="n">
-        <v>-69.74404425464763</v>
+        <v>26.50780021173068</v>
       </c>
       <c r="H50" t="n">
         <v>1277.52</v>
       </c>
       <c r="I50" t="n">
-        <v>1451.894044254648</v>
+        <v>1355.642199788269</v>
       </c>
       <c r="J50" t="n">
-        <v>1277.520870145488</v>
+        <v>1277.520001225461</v>
       </c>
       <c r="K50" t="n">
-        <v>1302.513779070279</v>
+        <v>1281.264278502103</v>
       </c>
       <c r="L50" t="n">
-        <v>1280.376527770728</v>
+        <v>1277.526814730349</v>
       </c>
       <c r="M50" t="n">
-        <v>1423.78573830978</v>
+        <v>1351.834977514774</v>
       </c>
     </row>
     <row r="51">
@@ -3047,25 +3047,25 @@
         <v>137.18</v>
       </c>
       <c r="G51" t="n">
-        <v>-59.97676156347165</v>
+        <v>32.27903860485549</v>
       </c>
       <c r="H51" t="n">
         <v>1277.43</v>
       </c>
       <c r="I51" t="n">
-        <v>1482.456761563472</v>
+        <v>1390.200961395145</v>
       </c>
       <c r="J51" t="n">
-        <v>1277.431874179565</v>
+        <v>1277.430003630649</v>
       </c>
       <c r="K51" t="n">
-        <v>1316.110694547229</v>
+        <v>1284.289133404753</v>
       </c>
       <c r="L51" t="n">
-        <v>1281.833845990793</v>
+        <v>1277.44521850639</v>
       </c>
       <c r="M51" t="n">
-        <v>1439.088217144659</v>
+        <v>1383.24687807375</v>
       </c>
     </row>
     <row r="52">
@@ -3079,25 +3079,25 @@
         <v>137.08</v>
       </c>
       <c r="G52" t="n">
-        <v>-54.24743458920648</v>
+        <v>26.78136281701677</v>
       </c>
       <c r="H52" t="n">
         <v>1277.33</v>
       </c>
       <c r="I52" t="n">
-        <v>1516.877434589207</v>
+        <v>1435.848637182983</v>
       </c>
       <c r="J52" t="n">
-        <v>1277.333960965218</v>
+        <v>1277.33001046912</v>
       </c>
       <c r="K52" t="n">
-        <v>1336.050280834115</v>
+        <v>1289.561118258781</v>
       </c>
       <c r="L52" t="n">
-        <v>1283.989538489397</v>
+        <v>1277.363088418402</v>
       </c>
       <c r="M52" t="n">
-        <v>1451.193402974732</v>
+        <v>1423.474653768738</v>
       </c>
     </row>
     <row r="53">
@@ -3111,25 +3111,25 @@
         <v>136.98</v>
       </c>
       <c r="G53" t="n">
-        <v>-30.12914168719453</v>
+        <v>32.31281859236947</v>
       </c>
       <c r="H53" t="n">
         <v>1277.2</v>
       </c>
       <c r="I53" t="n">
-        <v>1556.689141687194</v>
+        <v>1494.24718140763</v>
       </c>
       <c r="J53" t="n">
-        <v>1277.208214313717</v>
+        <v>1277.200029382684</v>
       </c>
       <c r="K53" t="n">
-        <v>1364.626116737397</v>
+        <v>1298.427785062185</v>
       </c>
       <c r="L53" t="n">
-        <v>1287.076404319507</v>
+        <v>1277.270043411841</v>
       </c>
       <c r="M53" t="n">
-        <v>1459.069145749753</v>
+        <v>1472.803018380537</v>
       </c>
     </row>
     <row r="54">
@@ -3143,25 +3143,25 @@
         <v>136.88</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.632748809111263</v>
+        <v>35.0200276101184</v>
       </c>
       <c r="H54" t="n">
         <v>1277.02</v>
       </c>
       <c r="I54" t="n">
-        <v>1604.312748809111</v>
+        <v>1566.659972389882</v>
       </c>
       <c r="J54" t="n">
-        <v>1277.036715972009</v>
+        <v>1277.020080268</v>
       </c>
       <c r="K54" t="n">
-        <v>1404.653167756159</v>
+        <v>1312.871881238811</v>
       </c>
       <c r="L54" t="n">
-        <v>1291.38159074944</v>
+        <v>1277.164360784531</v>
       </c>
       <c r="M54" t="n">
-        <v>1461.993886136954</v>
+        <v>1530.475114229045</v>
       </c>
     </row>
     <row r="55">
@@ -3175,25 +3175,25 @@
         <v>136.78</v>
       </c>
       <c r="G55" t="n">
-        <v>-12.83630537823296</v>
+        <v>-3.522030516444602</v>
       </c>
       <c r="H55" t="n">
         <v>1276.79</v>
       </c>
       <c r="I55" t="n">
-        <v>1663.146305378233</v>
+        <v>1653.832030516445</v>
       </c>
       <c r="J55" t="n">
-        <v>1276.823380385617</v>
+        <v>1276.790213440897</v>
       </c>
       <c r="K55" t="n">
-        <v>1459.450608349626</v>
+        <v>1335.700463795401</v>
       </c>
       <c r="L55" t="n">
-        <v>1297.26106608329</v>
+        <v>1277.079681559654</v>
       </c>
       <c r="M55" t="n">
-        <v>1459.687714272684</v>
+        <v>1594.397151267937</v>
       </c>
     </row>
     <row r="56">
@@ -3207,25 +3207,25 @@
         <v>136.68</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.968803858029105</v>
+        <v>-21.48987226331519</v>
       </c>
       <c r="H56" t="n">
         <v>1276.52</v>
       </c>
       <c r="I56" t="n">
-        <v>1737.458803858029</v>
+        <v>1755.979872263315</v>
       </c>
       <c r="J56" t="n">
-        <v>1276.585412255223</v>
+        <v>1276.520552473716</v>
       </c>
       <c r="K56" t="n">
-        <v>1532.703778356438</v>
+        <v>1370.670658435301</v>
       </c>
       <c r="L56" t="n">
-        <v>1305.113938083618</v>
+        <v>1277.085946776529</v>
       </c>
       <c r="M56" t="n">
-        <v>1452.348289444448</v>
+        <v>1660.981647098361</v>
       </c>
     </row>
     <row r="57">
@@ -3239,25 +3239,25 @@
         <v>136.58</v>
       </c>
       <c r="G57" t="n">
-        <v>-22.32345323055392</v>
+        <v>-63.23095984685051</v>
       </c>
       <c r="H57" t="n">
         <v>1276.18</v>
       </c>
       <c r="I57" t="n">
-        <v>1832.033453230554</v>
+        <v>1872.940959846851</v>
       </c>
       <c r="J57" t="n">
-        <v>1276.305789055147</v>
+        <v>1276.181392062997</v>
       </c>
       <c r="K57" t="n">
-        <v>1628.164817744347</v>
+        <v>1422.481764706734</v>
       </c>
       <c r="L57" t="n">
-        <v>1315.303502383424</v>
+        <v>1277.256464747957</v>
       </c>
       <c r="M57" t="n">
-        <v>1440.569955759633</v>
+        <v>1725.237497431799</v>
       </c>
     </row>
     <row r="58">
@@ -3271,25 +3271,25 @@
         <v>136.48</v>
       </c>
       <c r="G58" t="n">
-        <v>50.56714905195736</v>
+        <v>-2.368177524795328</v>
       </c>
       <c r="H58" t="n">
         <v>1275.79</v>
       </c>
       <c r="I58" t="n">
-        <v>1951.722850948043</v>
+        <v>2004.658177524795</v>
       </c>
       <c r="J58" t="n">
-        <v>1276.0273828745</v>
+        <v>1275.793414551578</v>
       </c>
       <c r="K58" t="n">
-        <v>1749.348099040245</v>
+        <v>1496.731964625065</v>
       </c>
       <c r="L58" t="n">
-        <v>1328.202776873437</v>
+        <v>1277.783291970702</v>
       </c>
       <c r="M58" t="n">
-        <v>1425.333930632157</v>
+        <v>1781.361735852745</v>
       </c>
     </row>
     <row r="59">
@@ -3303,25 +3303,25 @@
         <v>136.38</v>
       </c>
       <c r="G59" t="n">
-        <v>38.07603755878699</v>
+        <v>-12.87609474424789</v>
       </c>
       <c r="H59" t="n">
         <v>1275.28</v>
       </c>
       <c r="I59" t="n">
-        <v>2100.563962441213</v>
+        <v>2151.516094744248</v>
       </c>
       <c r="J59" t="n">
-        <v>1275.719626800375</v>
+        <v>1275.28815360623</v>
       </c>
       <c r="K59" t="n">
-        <v>1898.843141791127</v>
+        <v>1599.375874161651</v>
       </c>
       <c r="L59" t="n">
-        <v>1343.994253056857</v>
+        <v>1278.872982422749</v>
       </c>
       <c r="M59" t="n">
-        <v>1407.724109942574</v>
+        <v>1823.44132406164</v>
       </c>
     </row>
     <row r="60">
@@ -3335,25 +3335,25 @@
         <v>136.28</v>
       </c>
       <c r="G60" t="n">
-        <v>-12.87145145313161</v>
+        <v>-46.65648141980637</v>
       </c>
       <c r="H60" t="n">
         <v>1274.64</v>
       </c>
       <c r="I60" t="n">
-        <v>2281.031451453131</v>
+        <v>2314.816481419806</v>
       </c>
       <c r="J60" t="n">
-        <v>1275.439007476973</v>
+        <v>1274.658954836013</v>
       </c>
       <c r="K60" t="n">
-        <v>2077.786553187206</v>
+        <v>1736.119162710522</v>
       </c>
       <c r="L60" t="n">
-        <v>1362.746881773911</v>
+        <v>1280.943831304452</v>
       </c>
       <c r="M60" t="n">
-        <v>1388.921136209738</v>
+        <v>1846.634939993901</v>
       </c>
     </row>
     <row r="61">
@@ -3367,25 +3367,25 @@
         <v>136.18</v>
       </c>
       <c r="G61" t="n">
-        <v>-12.15191624917497</v>
+        <v>-15.71658824484257</v>
       </c>
       <c r="H61" t="n">
         <v>1273.89</v>
       </c>
       <c r="I61" t="n">
-        <v>2493.061916249175</v>
+        <v>2496.626588244842</v>
       </c>
       <c r="J61" t="n">
-        <v>1275.315118010057</v>
+        <v>1273.932899911647</v>
       </c>
       <c r="K61" t="n">
-        <v>2285.085716991376</v>
+        <v>1911.243073380329</v>
       </c>
       <c r="L61" t="n">
-        <v>1384.307839092661</v>
+        <v>1284.653523063591</v>
       </c>
       <c r="M61" t="n">
-        <v>1370.035240304529</v>
+        <v>1848.106260071336</v>
       </c>
     </row>
     <row r="62">
@@ -3399,25 +3399,25 @@
         <v>136.08</v>
       </c>
       <c r="G62" t="n">
-        <v>31.70336937716274</v>
+        <v>65.93172283812464</v>
       </c>
       <c r="H62" t="n">
         <v>1272.99</v>
       </c>
       <c r="I62" t="n">
-        <v>2733.116630622837</v>
+        <v>2698.888277161876</v>
       </c>
       <c r="J62" t="n">
-        <v>1275.484495111828</v>
+        <v>1273.084529868549</v>
       </c>
       <c r="K62" t="n">
-        <v>2516.626183714561</v>
+        <v>2126.036496826163</v>
       </c>
       <c r="L62" t="n">
-        <v>1408.141826388345</v>
+        <v>1290.872109413807</v>
       </c>
       <c r="M62" t="n">
-        <v>1351.918508771754</v>
+        <v>1827.543633309299</v>
       </c>
     </row>
     <row r="63">
@@ -3431,25 +3431,25 @@
         <v>135.98</v>
       </c>
       <c r="G63" t="n">
-        <v>-29.08939888531768</v>
+        <v>42.5981669588773</v>
       </c>
       <c r="H63" t="n">
         <v>1271.89</v>
       </c>
       <c r="I63" t="n">
-        <v>2993.669398885318</v>
+        <v>2921.981833041123</v>
       </c>
       <c r="J63" t="n">
-        <v>1276.174906177856</v>
+        <v>1272.09279910622</v>
       </c>
       <c r="K63" t="n">
-        <v>2764.821498145023</v>
+        <v>2377.235914832223</v>
       </c>
       <c r="L63" t="n">
-        <v>1433.335302741404</v>
+        <v>1300.789224214895</v>
       </c>
       <c r="M63" t="n">
-        <v>1335.164400963017</v>
+        <v>1787.269503902772</v>
       </c>
     </row>
     <row r="64">
@@ -3463,25 +3463,25 @@
         <v>135.88</v>
       </c>
       <c r="G64" t="n">
-        <v>-58.03414677291994</v>
+        <v>42.21503897417688</v>
       </c>
       <c r="H64" t="n">
         <v>1270.59</v>
       </c>
       <c r="I64" t="n">
-        <v>3263.19414677292</v>
+        <v>3162.944961025823</v>
       </c>
       <c r="J64" t="n">
-        <v>1277.812996390604</v>
+        <v>1271.013596609142</v>
       </c>
       <c r="K64" t="n">
-        <v>3018.561170501622</v>
+        <v>2655.710076362946</v>
       </c>
       <c r="L64" t="n">
-        <v>1458.655186165429</v>
+        <v>1316.006659004556</v>
       </c>
       <c r="M64" t="n">
-        <v>1320.161024218497</v>
+        <v>1731.789833798305</v>
       </c>
     </row>
     <row r="65">
@@ -3495,25 +3495,25 @@
         <v>135.78</v>
       </c>
       <c r="G65" t="n">
-        <v>-85.37233587595529</v>
+        <v>27.46966117612601</v>
       </c>
       <c r="H65" t="n">
         <v>1269.11</v>
       </c>
       <c r="I65" t="n">
-        <v>3526.732335875955</v>
+        <v>3413.890338823874</v>
       </c>
       <c r="J65" t="n">
-        <v>1281.058023917505</v>
+        <v>1269.971449240506</v>
       </c>
       <c r="K65" t="n">
-        <v>3263.628005293375</v>
+        <v>2945.78996095674</v>
       </c>
       <c r="L65" t="n">
-        <v>1482.57891537103</v>
+        <v>1338.489094779957</v>
       </c>
       <c r="M65" t="n">
-        <v>1307.087469063136</v>
+        <v>1666.849878214772</v>
       </c>
     </row>
     <row r="66">
@@ -3527,25 +3527,25 @@
         <v>135.68</v>
       </c>
       <c r="G66" t="n">
-        <v>-105.0031887233636</v>
+        <v>0.7440651699089358</v>
       </c>
       <c r="H66" t="n">
         <v>1267.42</v>
       </c>
       <c r="I66" t="n">
-        <v>3767.183188723363</v>
+        <v>3661.435934830091</v>
       </c>
       <c r="J66" t="n">
-        <v>1286.81348919579</v>
+        <v>1269.125666397691</v>
       </c>
       <c r="K66" t="n">
-        <v>3483.731599353617</v>
+        <v>3225.809641577566</v>
       </c>
       <c r="L66" t="n">
-        <v>1503.353614211124</v>
+        <v>1370.389478138817</v>
       </c>
       <c r="M66" t="n">
-        <v>1295.889870163029</v>
+        <v>1598.323035038897</v>
       </c>
     </row>
     <row r="67">
@@ -3559,25 +3559,25 @@
         <v>135.58</v>
       </c>
       <c r="G67" t="n">
-        <v>-101.2055494593637</v>
+        <v>-21.67022595747994</v>
       </c>
       <c r="H67" t="n">
         <v>1265.55</v>
       </c>
       <c r="I67" t="n">
-        <v>3967.475549459364</v>
+        <v>3887.94022595748</v>
       </c>
       <c r="J67" t="n">
-        <v>1296.436419424834</v>
+        <v>1268.838030154374</v>
       </c>
       <c r="K67" t="n">
-        <v>3662.337255184297</v>
+        <v>3470.404514691078</v>
       </c>
       <c r="L67" t="n">
-        <v>1519.296588125285</v>
+        <v>1413.935334269443</v>
       </c>
       <c r="M67" t="n">
-        <v>1286.444792357167</v>
+        <v>1531.424886478241</v>
       </c>
     </row>
     <row r="68">
@@ -3591,25 +3591,25 @@
         <v>135.48</v>
       </c>
       <c r="G68" t="n">
-        <v>7.686030366867271</v>
+        <v>46.44047846890408</v>
       </c>
       <c r="H68" t="n">
         <v>1263.48</v>
       </c>
       <c r="I68" t="n">
-        <v>4112.963969633132</v>
+        <v>4074.209521531096</v>
       </c>
       <c r="J68" t="n">
-        <v>1311.740498223386</v>
+        <v>1269.650735376152</v>
       </c>
       <c r="K68" t="n">
-        <v>3784.672633257857</v>
+        <v>3654.072441046594</v>
       </c>
       <c r="L68" t="n">
-        <v>1528.910645148288</v>
+        <v>1470.953469002</v>
       </c>
       <c r="M68" t="n">
-        <v>1278.500499266168</v>
+        <v>1470.027802936351</v>
       </c>
     </row>
     <row r="69">
@@ -3623,25 +3623,25 @@
         <v>135.38</v>
       </c>
       <c r="G69" t="n">
-        <v>-50.27130832246803</v>
+        <v>-59.74346637717827</v>
       </c>
       <c r="H69" t="n">
         <v>1261.23</v>
       </c>
       <c r="I69" t="n">
-        <v>4194.031308322468</v>
+        <v>4203.503466377178</v>
       </c>
       <c r="J69" t="n">
-        <v>1335.203802678077</v>
+        <v>1272.503780925539</v>
       </c>
       <c r="K69" t="n">
-        <v>3839.951830950685</v>
+        <v>3755.763488306735</v>
       </c>
       <c r="L69" t="n">
-        <v>1531.191887875555</v>
+        <v>1542.458065798794</v>
       </c>
       <c r="M69" t="n">
-        <v>1271.810237802416</v>
+        <v>1416.542162669627</v>
       </c>
     </row>
     <row r="70">
@@ -3655,25 +3655,25 @@
         <v>135.28</v>
       </c>
       <c r="G70" t="n">
-        <v>26.17951945488312</v>
+        <v>-31.16016923502502</v>
       </c>
       <c r="H70" t="n">
         <v>1258.88</v>
       </c>
       <c r="I70" t="n">
-        <v>4208.100480545117</v>
+        <v>4265.440169235025</v>
       </c>
       <c r="J70" t="n">
-        <v>1370.094517643892</v>
+        <v>1278.929030888606</v>
       </c>
       <c r="K70" t="n">
-        <v>3823.086879304071</v>
+        <v>3763.10091197777</v>
       </c>
       <c r="L70" t="n">
-        <v>1525.811799208783</v>
+        <v>1628.083242572323</v>
       </c>
       <c r="M70" t="n">
-        <v>1266.18491213363</v>
+        <v>1372.034591402011</v>
       </c>
     </row>
     <row r="71">
@@ -3687,25 +3687,25 @@
         <v>135.18</v>
       </c>
       <c r="G71" t="n">
-        <v>156.7046953403933</v>
+        <v>58.73440295478213</v>
       </c>
       <c r="H71" t="n">
         <v>1256.47</v>
       </c>
       <c r="I71" t="n">
-        <v>4160.535304659606</v>
+        <v>4258.505597045218</v>
       </c>
       <c r="J71" t="n">
-        <v>1420.438959325261</v>
+        <v>1291.171831388686</v>
       </c>
       <c r="K71" t="n">
-        <v>3735.4317624291</v>
+        <v>3674.940011932222</v>
       </c>
       <c r="L71" t="n">
-        <v>1513.084260270276</v>
+        <v>1725.420860539588</v>
       </c>
       <c r="M71" t="n">
-        <v>1261.414955039828</v>
+        <v>1336.419426064088</v>
       </c>
     </row>
     <row r="72">
@@ -3719,25 +3719,25 @@
         <v>135.08</v>
       </c>
       <c r="G72" t="n">
-        <v>126.453773940988</v>
+        <v>0.2722048730865936</v>
       </c>
       <c r="H72" t="n">
         <v>1254.01</v>
       </c>
       <c r="I72" t="n">
-        <v>4064.396226059012</v>
+        <v>4190.577795126914</v>
       </c>
       <c r="J72" t="n">
-        <v>1491.026549919445</v>
+        <v>1312.458274725497</v>
       </c>
       <c r="K72" t="n">
-        <v>3584.575752323656</v>
+        <v>3501.637280909368</v>
       </c>
       <c r="L72" t="n">
-        <v>1493.930475973518</v>
+        <v>1829.661882804896</v>
       </c>
       <c r="M72" t="n">
-        <v>1257.292730291559</v>
+        <v>1308.835063532342</v>
       </c>
     </row>
     <row r="73">
@@ -3751,25 +3751,25 @@
         <v>134.98</v>
       </c>
       <c r="G73" t="n">
-        <v>223.7739283950955</v>
+        <v>85.39891059421825</v>
       </c>
       <c r="H73" t="n">
         <v>1251.58</v>
       </c>
       <c r="I73" t="n">
-        <v>3939.056071604904</v>
+        <v>4077.431089405782</v>
       </c>
       <c r="J73" t="n">
-        <v>1587.387958507385</v>
+        <v>1347.355240275107</v>
       </c>
       <c r="K73" t="n">
-        <v>3383.221449765759</v>
+        <v>3262.923719620387</v>
       </c>
       <c r="L73" t="n">
-        <v>1469.833304165851</v>
+        <v>1933.716819130009</v>
       </c>
       <c r="M73" t="n">
-        <v>1253.717531842024</v>
+        <v>1288.093783973114</v>
       </c>
     </row>
     <row r="74">
@@ -3783,25 +3783,25 @@
         <v>134.88</v>
       </c>
       <c r="G74" t="n">
-        <v>67.97040465788314</v>
+        <v>-64.04893144935113</v>
       </c>
       <c r="H74" t="n">
         <v>1249.24</v>
       </c>
       <c r="I74" t="n">
-        <v>3807.689595342117</v>
+        <v>3939.708931449351</v>
       </c>
       <c r="J74" t="n">
-        <v>1715.418475490941</v>
+        <v>1401.881019927432</v>
       </c>
       <c r="K74" t="n">
-        <v>3147.171245885023</v>
+        <v>2983.827802214424</v>
       </c>
       <c r="L74" t="n">
-        <v>1442.536809105378</v>
+        <v>2028.694125855478</v>
       </c>
       <c r="M74" t="n">
-        <v>1250.605392598804</v>
+        <v>1272.871616036764</v>
       </c>
     </row>
     <row r="75">
@@ -3815,25 +3815,25 @@
         <v>134.78</v>
       </c>
       <c r="G75" t="n">
-        <v>47.24269205527162</v>
+        <v>-58.16264014659737</v>
       </c>
       <c r="H75" t="n">
         <v>1247.05</v>
       </c>
       <c r="I75" t="n">
-        <v>3694.387307944728</v>
+        <v>3799.792640146597</v>
       </c>
       <c r="J75" t="n">
-        <v>1880.902909833403</v>
+        <v>1483.569554997711</v>
       </c>
       <c r="K75" t="n">
-        <v>2893.166845129073</v>
+        <v>2690.154902808522</v>
       </c>
       <c r="L75" t="n">
-        <v>1413.838685279076</v>
+        <v>2105.073101290293</v>
       </c>
       <c r="M75" t="n">
-        <v>1247.905696035875</v>
+        <v>1261.919278828364</v>
       </c>
     </row>
     <row r="76">
@@ -3847,25 +3847,25 @@
         <v>134.68</v>
       </c>
       <c r="G76" t="n">
-        <v>47.27450661582361</v>
+        <v>-10.84113492759798</v>
       </c>
       <c r="H76" t="n">
         <v>1245</v>
       </c>
       <c r="I76" t="n">
-        <v>3621.155493384176</v>
+        <v>3679.271134927598</v>
       </c>
       <c r="J76" t="n">
-        <v>2088.715649433504</v>
+        <v>1601.158839411843</v>
       </c>
       <c r="K76" t="n">
-        <v>2636.824065424426</v>
+        <v>2404.509921585661</v>
       </c>
       <c r="L76" t="n">
-        <v>1385.320080444447</v>
+        <v>2154.214193689567</v>
       </c>
       <c r="M76" t="n">
-        <v>1245.526182728735</v>
+        <v>1254.099311736579</v>
       </c>
     </row>
     <row r="77">
@@ -3879,25 +3879,25 @@
         <v>134.58</v>
       </c>
       <c r="G77" t="n">
-        <v>-27.10350670085109</v>
+        <v>-19.23172081690518</v>
       </c>
       <c r="H77" t="n">
         <v>1243.03</v>
       </c>
       <c r="I77" t="n">
-        <v>3605.343506700851</v>
+        <v>3597.471720816905</v>
       </c>
       <c r="J77" t="n">
-        <v>2341.884401866602</v>
+        <v>1763.937867190295</v>
       </c>
       <c r="K77" t="n">
-        <v>2391.164258499113</v>
+        <v>2143.807918361377</v>
       </c>
       <c r="L77" t="n">
-        <v>1358.222958747965</v>
+        <v>2170.03</v>
       </c>
       <c r="M77" t="n">
-        <v>1243.347495313567</v>
+        <v>1248.44724136699</v>
       </c>
     </row>
     <row r="78">
@@ -3911,25 +3911,25 @@
         <v>134.48</v>
       </c>
       <c r="G78" t="n">
-        <v>-70.58858457920724</v>
+        <v>16.44416409429459</v>
       </c>
       <c r="H78" t="n">
         <v>1241.11</v>
       </c>
       <c r="I78" t="n">
-        <v>3657.688584579207</v>
+        <v>3570.655835905705</v>
       </c>
       <c r="J78" t="n">
-        <v>2640.550688668549</v>
+        <v>1980.596625507602</v>
       </c>
       <c r="K78" t="n">
-        <v>2165.857377704097</v>
+        <v>1918.443598309207</v>
       </c>
       <c r="L78" t="n">
-        <v>1333.456423027106</v>
+        <v>2150.324193689557</v>
       </c>
       <c r="M78" t="n">
-        <v>1241.297993317426</v>
+        <v>1244.248335920997</v>
       </c>
     </row>
     <row r="79">
@@ -3943,25 +3943,25 @@
         <v>134.38</v>
       </c>
       <c r="G79" t="n">
-        <v>-148.3368839643067</v>
+        <v>21.55245360222625</v>
       </c>
       <c r="H79" t="n">
         <v>1239.2</v>
       </c>
       <c r="I79" t="n">
-        <v>3780.906883964307</v>
+        <v>3611.017546397774</v>
       </c>
       <c r="J79" t="n">
-        <v>2980.781531154917</v>
+        <v>2257.352686132098</v>
       </c>
       <c r="K79" t="n">
-        <v>1966.975659314375</v>
+        <v>1732.679745836548</v>
       </c>
       <c r="L79" t="n">
-        <v>1311.546900210779</v>
+        <v>2097.223101290275</v>
       </c>
       <c r="M79" t="n">
-        <v>1239.309236076127</v>
+        <v>1240.969494887422</v>
       </c>
     </row>
     <row r="80">
@@ -3975,25 +3975,25 @@
         <v>134.28</v>
       </c>
       <c r="G80" t="n">
-        <v>-247.3023410627843</v>
+        <v>-3.365955898469565</v>
       </c>
       <c r="H80" t="n">
         <v>1237.25</v>
       </c>
       <c r="I80" t="n">
-        <v>3969.052341062784</v>
+        <v>3725.11595589847</v>
       </c>
       <c r="J80" t="n">
-        <v>3353.603816662769</v>
+        <v>2595.622752879568</v>
       </c>
       <c r="K80" t="n">
-        <v>1797.283450021999</v>
+        <v>1585.918330335051</v>
       </c>
       <c r="L80" t="n">
-        <v>1292.676576470523</v>
+        <v>2016.704125855453</v>
       </c>
       <c r="M80" t="n">
-        <v>1237.312289850179</v>
+        <v>1238.22114813813</v>
       </c>
     </row>
     <row r="81">
@@ -4007,25 +4007,25 @@
         <v>134.18</v>
       </c>
       <c r="G81" t="n">
-        <v>-263.3130993663849</v>
+        <v>32.67337104129138</v>
       </c>
       <c r="H81" t="n">
         <v>1235.2</v>
       </c>
       <c r="I81" t="n">
-        <v>4207.673099366385</v>
+        <v>3911.686628958709</v>
       </c>
       <c r="J81" t="n">
-        <v>3744.493883879744</v>
+        <v>2989.534691913414</v>
       </c>
       <c r="K81" t="n">
-        <v>1656.839817183008</v>
+        <v>1474.298193738268</v>
       </c>
       <c r="L81" t="n">
-        <v>1276.750621319015</v>
+        <v>1917.33681912998</v>
       </c>
       <c r="M81" t="n">
-        <v>1235.234857851694</v>
+        <v>1235.718859480412</v>
       </c>
     </row>
     <row r="82">
@@ -4039,25 +4039,25 @@
         <v>134.08</v>
       </c>
       <c r="G82" t="n">
-        <v>-229.8151540673962</v>
+        <v>85.6125010551541</v>
       </c>
       <c r="H82" t="n">
         <v>1232.97</v>
       </c>
       <c r="I82" t="n">
-        <v>4474.845154067396</v>
+        <v>4159.417498944846</v>
       </c>
       <c r="J82" t="n">
-        <v>4133.598776410158</v>
+        <v>3423.863366964075</v>
       </c>
       <c r="K82" t="n">
-        <v>1543.725294549248</v>
+        <v>1392.210668993878</v>
       </c>
       <c r="L82" t="n">
-        <v>1263.465102359108</v>
+        <v>1808.621882804896</v>
       </c>
       <c r="M82" t="n">
-        <v>1232.989143318695</v>
+        <v>1233.239880286888</v>
       </c>
     </row>
     <row r="83">
@@ -4071,25 +4071,25 @@
         <v>133.98</v>
       </c>
       <c r="G83" t="n">
-        <v>-219.3782588401318</v>
+        <v>78.06012811590608</v>
       </c>
       <c r="H83" t="n">
         <v>1230.5</v>
       </c>
       <c r="I83" t="n">
-        <v>4743.208258840132</v>
+        <v>4445.769871884094</v>
       </c>
       <c r="J83" t="n">
-        <v>4496.969378267173</v>
+        <v>3873.238847095994</v>
       </c>
       <c r="K83" t="n">
-        <v>1454.811479233164</v>
+        <v>1333.560103271442</v>
       </c>
       <c r="L83" t="n">
-        <v>1252.421809739813</v>
+        <v>1699.450860539558</v>
       </c>
       <c r="M83" t="n">
-        <v>1230.510317286163</v>
+        <v>1230.636668513243</v>
       </c>
     </row>
     <row r="84">
@@ -4103,25 +4103,25 @@
         <v>133.88</v>
       </c>
       <c r="G84" t="n">
-        <v>-266.2480669372371</v>
+        <v>-21.19433894055692</v>
       </c>
       <c r="H84" t="n">
         <v>1227.8</v>
       </c>
       <c r="I84" t="n">
-        <v>4982.918066937237</v>
+        <v>4737.864338940557</v>
       </c>
       <c r="J84" t="n">
-        <v>4808.81989337462</v>
+        <v>4303.372551348447</v>
       </c>
       <c r="K84" t="n">
-        <v>1386.441670813442</v>
+        <v>1292.646577112587</v>
       </c>
       <c r="L84" t="n">
-        <v>1243.241428144067</v>
+        <v>1597.003242572296</v>
       </c>
       <c r="M84" t="n">
-        <v>1227.805456843488</v>
+        <v>1227.867383300629</v>
       </c>
     </row>
     <row r="85">
@@ -4135,25 +4135,25 @@
         <v>133.78</v>
       </c>
       <c r="G85" t="n">
-        <v>-241.8589474558657</v>
+        <v>-72.65616835827495</v>
       </c>
       <c r="H85" t="n">
         <v>1224.91</v>
       </c>
       <c r="I85" t="n">
-        <v>5165.168947455866</v>
+        <v>4995.966168358275</v>
       </c>
       <c r="J85" t="n">
-        <v>5044.516984484383</v>
+        <v>4674.657438225157</v>
       </c>
       <c r="K85" t="n">
-        <v>1334.87762806938</v>
+        <v>1264.59310951786</v>
       </c>
       <c r="L85" t="n">
-        <v>1235.571223113946</v>
+        <v>1506.138065798772</v>
       </c>
       <c r="M85" t="n">
-        <v>1224.912832302846</v>
+        <v>1224.942346459513</v>
       </c>
     </row>
     <row r="86">
@@ -4167,25 +4167,25 @@
         <v>133.68</v>
       </c>
       <c r="G86" t="n">
-        <v>-142.2463281572072</v>
+        <v>-55.82235400784157</v>
       </c>
       <c r="H86" t="n">
         <v>1221.84</v>
       </c>
       <c r="I86" t="n">
-        <v>5265.876328157207</v>
+        <v>5179.452354007842</v>
       </c>
       <c r="J86" t="n">
-        <v>5183.896258462491</v>
+        <v>4947.984511291234</v>
       </c>
       <c r="K86" t="n">
-        <v>1296.573992905864</v>
+        <v>1245.465191517151</v>
       </c>
       <c r="L86" t="n">
-        <v>1229.056961409479</v>
+        <v>1429.313469001982</v>
       </c>
       <c r="M86" t="n">
-        <v>1221.841442623797</v>
+        <v>1221.855117883674</v>
       </c>
     </row>
     <row r="87">
@@ -4199,25 +4199,25 @@
         <v>133.58</v>
       </c>
       <c r="G87" t="n">
-        <v>-67.35279809639724</v>
+        <v>-52.58374614412514</v>
       </c>
       <c r="H87" t="n">
         <v>1218.63</v>
       </c>
       <c r="I87" t="n">
-        <v>5269.002798096397</v>
+        <v>5254.233746144125</v>
       </c>
       <c r="J87" t="n">
-        <v>5214.373153002078</v>
+        <v>5091.815419524526</v>
       </c>
       <c r="K87" t="n">
-        <v>1268.435701392857</v>
+        <v>1232.316631655463</v>
       </c>
       <c r="L87" t="n">
-        <v>1223.421011776871</v>
+        <v>1367.015334269443</v>
       </c>
       <c r="M87" t="n">
-        <v>1218.630721063839</v>
+        <v>1218.636879236343</v>
       </c>
     </row>
     <row r="88">
@@ -4231,25 +4231,25 @@
         <v>133.48</v>
       </c>
       <c r="G88" t="n">
-        <v>20.18969457897492</v>
+        <v>-10.67494089832599</v>
       </c>
       <c r="H88" t="n">
         <v>1215.36</v>
       </c>
       <c r="I88" t="n">
-        <v>5168.690305421025</v>
+        <v>5199.554940898326</v>
       </c>
       <c r="J88" t="n">
-        <v>5132.980072666029</v>
+        <v>5088.545419524526</v>
       </c>
       <c r="K88" t="n">
-        <v>1247.915924031719</v>
+        <v>1223.07696381459</v>
       </c>
       <c r="L88" t="n">
-        <v>1218.479641066738</v>
+        <v>1318.329478138805</v>
       </c>
       <c r="M88" t="n">
-        <v>1215.360353665585</v>
+        <v>1215.363047661045</v>
       </c>
     </row>
     <row r="89">
@@ -4263,25 +4263,25 @@
         <v>133.38</v>
       </c>
       <c r="G89" t="n">
-        <v>56.31865800405558</v>
+        <v>13.88471385763023</v>
       </c>
       <c r="H89" t="n">
         <v>1212.13</v>
       </c>
       <c r="I89" t="n">
-        <v>4969.751341995944</v>
+        <v>5012.185286142369</v>
       </c>
       <c r="J89" t="n">
-        <v>4946.848512074313</v>
+        <v>4938.274511291234</v>
       </c>
       <c r="K89" t="n">
-        <v>1233.00551063419</v>
+        <v>1216.365284935732</v>
       </c>
       <c r="L89" t="n">
-        <v>1214.122735144201</v>
+        <v>1281.509094779949</v>
       </c>
       <c r="M89" t="n">
-        <v>1212.130170216254</v>
+        <v>1212.131314499027</v>
       </c>
     </row>
     <row r="90">
@@ -4295,25 +4295,25 @@
         <v>133.28</v>
       </c>
       <c r="G90" t="n">
-        <v>32.49754276849853</v>
+        <v>12.21751614279947</v>
       </c>
       <c r="H90" t="n">
         <v>1209.08</v>
       </c>
       <c r="I90" t="n">
-        <v>4686.492457231501</v>
+        <v>4706.7724838572</v>
       </c>
       <c r="J90" t="n">
-        <v>4672.077925153156</v>
+        <v>4658.827438225157</v>
       </c>
       <c r="K90" t="n">
-        <v>1222.212647799601</v>
+        <v>1211.342803845131</v>
       </c>
       <c r="L90" t="n">
-        <v>1210.328853673979</v>
+        <v>1254.49665900455</v>
       </c>
       <c r="M90" t="n">
-        <v>1209.080080387532</v>
+        <v>1209.080551962225</v>
       </c>
     </row>
     <row r="91">
@@ -4327,25 +4327,25 @@
         <v>133.18</v>
       </c>
       <c r="G91" t="n">
-        <v>21.86248957686166</v>
+        <v>49.71978719434719</v>
       </c>
       <c r="H91" t="n">
         <v>1206.3</v>
       </c>
       <c r="I91" t="n">
-        <v>4340.037510423138</v>
+        <v>4312.180212805652</v>
       </c>
       <c r="J91" t="n">
-        <v>4331.133002626723</v>
+        <v>4281.872551348447</v>
       </c>
       <c r="K91" t="n">
-        <v>1214.40617141078</v>
+        <v>1207.476977917817</v>
       </c>
       <c r="L91" t="n">
-        <v>1207.067942360857</v>
+        <v>1235.199224214891</v>
       </c>
       <c r="M91" t="n">
-        <v>1206.300037251681</v>
+        <v>1206.300225632186</v>
       </c>
     </row>
     <row r="92">
@@ -4359,25 +4359,25 @@
         <v>133.08</v>
       </c>
       <c r="G92" t="n">
-        <v>-75.74548941980493</v>
+        <v>13.98727519759223</v>
       </c>
       <c r="H92" t="n">
         <v>1203.88</v>
       </c>
       <c r="I92" t="n">
-        <v>3955.025489419805</v>
+        <v>3865.292724802408</v>
       </c>
       <c r="J92" t="n">
-        <v>3949.625325601821</v>
+        <v>3846.618847095994</v>
       </c>
       <c r="K92" t="n">
-        <v>1208.789733222127</v>
+        <v>1204.476026571642</v>
       </c>
       <c r="L92" t="n">
-        <v>1204.343371538719</v>
+        <v>1221.762109413807</v>
       </c>
       <c r="M92" t="n">
-        <v>1203.880016938014</v>
+        <v>1203.880089788696</v>
       </c>
     </row>
     <row r="93">
@@ -4391,25 +4391,25 @@
         <v>132.98</v>
       </c>
       <c r="G93" t="n">
-        <v>-128.1191770930745</v>
+        <v>24.07879057864557</v>
       </c>
       <c r="H93" t="n">
         <v>1201.85</v>
       </c>
       <c r="I93" t="n">
-        <v>3556.159177093075</v>
+        <v>3403.961209421354</v>
       </c>
       <c r="J93" t="n">
-        <v>3552.943328101049</v>
+        <v>3392.743366964075</v>
       </c>
       <c r="K93" t="n">
-        <v>1204.768104147277</v>
+        <v>1202.143866061078</v>
       </c>
       <c r="L93" t="n">
-        <v>1202.124368625432</v>
+        <v>1212.613523063589</v>
       </c>
       <c r="M93" t="n">
-        <v>1201.850007556635</v>
+        <v>1201.850034782196</v>
       </c>
     </row>
     <row r="94">
@@ -4423,25 +4423,25 @@
         <v>132.88</v>
       </c>
       <c r="G94" t="n">
-        <v>-252.0303543838368</v>
+        <v>-47.7270382405959</v>
       </c>
       <c r="H94" t="n">
         <v>1200.23</v>
       </c>
       <c r="I94" t="n">
-        <v>3165.440354383837</v>
+        <v>2961.137038240596</v>
       </c>
       <c r="J94" t="n">
-        <v>3163.559288052263</v>
+        <v>2954.564691913413</v>
       </c>
       <c r="K94" t="n">
-        <v>1201.932001277524</v>
+        <v>1200.371066503986</v>
       </c>
       <c r="L94" t="n">
-        <v>1200.389425624618</v>
+        <v>1206.533831304451</v>
       </c>
       <c r="M94" t="n">
-        <v>1200.230003307758</v>
+        <v>1200.230013115734</v>
       </c>
     </row>
     <row r="95">
@@ -4455,25 +4455,25 @@
         <v>132.78</v>
       </c>
       <c r="G95" t="n">
-        <v>-328.639454966949</v>
+        <v>-89.49977588189859</v>
       </c>
       <c r="H95" t="n">
         <v>1199</v>
       </c>
       <c r="I95" t="n">
-        <v>2800.269454966949</v>
+        <v>2561.129775881899</v>
       </c>
       <c r="J95" t="n">
-        <v>2799.188278478298</v>
+        <v>2557.372752879568</v>
       </c>
       <c r="K95" t="n">
-        <v>1199.974193166596</v>
+        <v>1199.065930770468</v>
       </c>
       <c r="L95" t="n">
-        <v>1199.090909511073</v>
+        <v>1202.592982422749</v>
       </c>
       <c r="M95" t="n">
-        <v>1199.000001420588</v>
+        <v>1199.000004814086</v>
       </c>
     </row>
     <row r="96">
@@ -4487,25 +4487,25 @@
         <v>132.68</v>
       </c>
       <c r="G96" t="n">
-        <v>-300.5587960871167</v>
+        <v>-46.29920550431871</v>
       </c>
       <c r="H96" t="n">
         <v>1198.09</v>
       </c>
       <c r="I96" t="n">
-        <v>2472.598796087117</v>
+        <v>2218.339205504319</v>
       </c>
       <c r="J96" t="n">
-        <v>2471.98786935721</v>
+        <v>2216.242686132098</v>
       </c>
       <c r="K96" t="n">
-        <v>1198.637219784938</v>
+        <v>1198.12000111405</v>
       </c>
       <c r="L96" t="n">
-        <v>1198.140873621391</v>
+        <v>1200.083291970701</v>
       </c>
       <c r="M96" t="n">
-        <v>1198.09000059858</v>
+        <v>1198.090001719912</v>
       </c>
     </row>
     <row r="97">
@@ -4519,25 +4519,25 @@
         <v>132.58</v>
       </c>
       <c r="G97" t="n">
-        <v>-342.5754088475835</v>
+        <v>-91.58940109608557</v>
       </c>
       <c r="H97" t="n">
         <v>1197.43</v>
       </c>
       <c r="I97" t="n">
-        <v>2189.045408847584</v>
+        <v>1938.059401096086</v>
       </c>
       <c r="J97" t="n">
-        <v>2188.705807708642</v>
+        <v>1936.916625507602</v>
       </c>
       <c r="K97" t="n">
-        <v>1197.731655881945</v>
+        <v>1197.443291188445</v>
       </c>
       <c r="L97" t="n">
-        <v>1197.457938897554</v>
+        <v>1198.506464747957</v>
       </c>
       <c r="M97" t="n">
-        <v>1197.430000247449</v>
+        <v>1197.430000598075</v>
       </c>
     </row>
     <row r="98">
@@ -4551,25 +4551,25 @@
         <v>132.48</v>
       </c>
       <c r="G98" t="n">
-        <v>-299.2334502789599</v>
+        <v>-66.1068093152453</v>
       </c>
       <c r="H98" t="n">
         <v>1196.99</v>
       </c>
       <c r="I98" t="n">
-        <v>1951.63345027896</v>
+        <v>1718.506809315245</v>
       </c>
       <c r="J98" t="n">
-        <v>1951.447575845725</v>
+        <v>1717.897867190295</v>
       </c>
       <c r="K98" t="n">
-        <v>1197.153190158118</v>
+        <v>1196.995732676314</v>
       </c>
       <c r="L98" t="n">
-        <v>1197.005057660886</v>
+        <v>1197.555946776529</v>
       </c>
       <c r="M98" t="n">
-        <v>1196.990000100358</v>
+        <v>1196.990000202417</v>
       </c>
     </row>
     <row r="99">
@@ -4583,25 +4583,25 @@
         <v>132.38</v>
       </c>
       <c r="G99" t="n">
-        <v>-243.3853581007918</v>
+        <v>-37.79636247866074</v>
       </c>
       <c r="H99" t="n">
         <v>1196.68</v>
       </c>
       <c r="I99" t="n">
-        <v>1758.745358100792</v>
+        <v>1553.156362478661</v>
       </c>
       <c r="J99" t="n">
-        <v>1758.645070341018</v>
+        <v>1552.838839411844</v>
       </c>
       <c r="K99" t="n">
-        <v>1196.766637283826</v>
+        <v>1196.682407168591</v>
       </c>
       <c r="L99" t="n">
-        <v>1196.687964041847</v>
+        <v>1196.969681559654</v>
       </c>
       <c r="M99" t="n">
-        <v>1196.680000039931</v>
+        <v>1196.680000066676</v>
       </c>
     </row>
     <row r="100">
@@ -4615,25 +4615,25 @@
         <v>132.28</v>
       </c>
       <c r="G100" t="n">
-        <v>-168.8179518066331</v>
+        <v>4.418230969639581</v>
       </c>
       <c r="H100" t="n">
         <v>1196.45</v>
       </c>
       <c r="I100" t="n">
-        <v>1606.367951806633</v>
+        <v>1433.13176903036</v>
       </c>
       <c r="J100" t="n">
-        <v>1606.314530223961</v>
+        <v>1432.969554997711</v>
       </c>
       <c r="K100" t="n">
-        <v>1196.495137666527</v>
+        <v>1196.450984007032</v>
       </c>
       <c r="L100" t="n">
-        <v>1196.454133631181</v>
+        <v>1196.594360784531</v>
       </c>
       <c r="M100" t="n">
-        <v>1196.450000015586</v>
+        <v>1196.450000021375</v>
       </c>
     </row>
     <row r="101">
@@ -4647,25 +4647,25 @@
         <v>132.18</v>
       </c>
       <c r="G101" t="n">
-        <v>-122.6807370384852</v>
+        <v>17.45766855902275</v>
       </c>
       <c r="H101" t="n">
         <v>1196.29</v>
       </c>
       <c r="I101" t="n">
-        <v>1489.150737038485</v>
+        <v>1349.012331440977</v>
       </c>
       <c r="J101" t="n">
-        <v>1489.122587309475</v>
+        <v>1348.931019927432</v>
       </c>
       <c r="K101" t="n">
-        <v>1196.313077569889</v>
+        <v>1196.29039157848</v>
       </c>
       <c r="L101" t="n">
-        <v>1196.292105450948</v>
+        <v>1196.360043411841</v>
       </c>
       <c r="M101" t="n">
-        <v>1196.290000005968</v>
+        <v>1196.290000006669</v>
       </c>
     </row>
     <row r="102">
@@ -4679,25 +4679,25 @@
         <v>132.08</v>
       </c>
       <c r="G102" t="n">
-        <v>-89.57078141168063</v>
+        <v>19.65469992066255</v>
       </c>
       <c r="H102" t="n">
         <v>1196.17</v>
       </c>
       <c r="I102" t="n">
-        <v>1401.210781411681</v>
+        <v>1291.985300079338</v>
       </c>
       <c r="J102" t="n">
-        <v>1401.196072735646</v>
+        <v>1291.945240275107</v>
       </c>
       <c r="K102" t="n">
-        <v>1196.181578436943</v>
+        <v>1196.170151689023</v>
       </c>
       <c r="L102" t="n">
-        <v>1196.171052363441</v>
+        <v>1196.203088418402</v>
       </c>
       <c r="M102" t="n">
-        <v>1196.170000002242</v>
+        <v>1196.170000002025</v>
       </c>
     </row>
     <row r="103">
@@ -4711,25 +4711,25 @@
         <v>131.98</v>
       </c>
       <c r="G103" t="n">
-        <v>-63.19429997993166</v>
+        <v>19.06228995629567</v>
       </c>
       <c r="H103" t="n">
         <v>1196.1</v>
       </c>
       <c r="I103" t="n">
-        <v>1336.824299979932</v>
+        <v>1254.567710043704</v>
       </c>
       <c r="J103" t="n">
-        <v>1336.816656874504</v>
+        <v>1254.548274725497</v>
       </c>
       <c r="K103" t="n">
-        <v>1196.105700462033</v>
+        <v>1196.100057199171</v>
       </c>
       <c r="L103" t="n">
-        <v>1196.100516160583</v>
+        <v>1196.11521850639</v>
       </c>
       <c r="M103" t="n">
-        <v>1196.100000000826</v>
+        <v>1196.100000000598</v>
       </c>
     </row>
     <row r="104">
@@ -4743,25 +4743,25 @@
         <v>131.88</v>
       </c>
       <c r="G104" t="n">
-        <v>-29.14203841311405</v>
+        <v>30.84886423324951</v>
       </c>
       <c r="H104" t="n">
         <v>1196.04</v>
       </c>
       <c r="I104" t="n">
-        <v>1290.742038413114</v>
+        <v>1230.75113576675</v>
       </c>
       <c r="J104" t="n">
-        <v>1290.738075851973</v>
+        <v>1230.741831388686</v>
       </c>
       <c r="K104" t="n">
-        <v>1196.042753982787</v>
+        <v>1196.040020994763</v>
       </c>
       <c r="L104" t="n">
-        <v>1196.040248423721</v>
+        <v>1196.046814730349</v>
       </c>
       <c r="M104" t="n">
-        <v>1196.040000000299</v>
+        <v>1196.040000000172</v>
       </c>
     </row>
     <row r="105">
@@ -4775,25 +4775,25 @@
         <v>131.78</v>
       </c>
       <c r="G105" t="n">
-        <v>66.94681603792651</v>
+        <v>109.3965648129169</v>
       </c>
       <c r="H105" t="n">
         <v>1195.96</v>
       </c>
       <c r="I105" t="n">
-        <v>1258.463183962074</v>
+        <v>1216.013435187083</v>
       </c>
       <c r="J105" t="n">
-        <v>1258.46112730034</v>
+        <v>1216.009030888606</v>
       </c>
       <c r="K105" t="n">
-        <v>1195.961305550849</v>
+        <v>1195.960007500727</v>
       </c>
       <c r="L105" t="n">
-        <v>1195.960117322344</v>
+        <v>1195.962970959518</v>
       </c>
       <c r="M105" t="n">
-        <v>1195.960000000106</v>
+        <v>1195.960000000048</v>
       </c>
     </row>
     <row r="106">
@@ -4807,25 +4807,25 @@
         <v>131.68</v>
       </c>
       <c r="G106" t="n">
-        <v>56.41579061752736</v>
+        <v>85.60415391338506</v>
       </c>
       <c r="H106" t="n">
         <v>1195.87</v>
       </c>
       <c r="I106" t="n">
-        <v>1236.334209382473</v>
+        <v>1207.145846086615</v>
       </c>
       <c r="J106" t="n">
-        <v>1236.333137370737</v>
+        <v>1207.143780925539</v>
       </c>
       <c r="K106" t="n">
-        <v>1195.870607292429</v>
+        <v>1195.87000260827</v>
       </c>
       <c r="L106" t="n">
-        <v>1195.870054367317</v>
+        <v>1195.871260971052</v>
       </c>
       <c r="M106" t="n">
-        <v>1195.870000000037</v>
+        <v>1195.870000000013</v>
       </c>
     </row>
     <row r="107">
@@ -4839,25 +4839,25 @@
         <v>131.58</v>
       </c>
       <c r="G107" t="n">
-        <v>-55.48948869281617</v>
+        <v>-35.96169596008349</v>
       </c>
       <c r="H107" t="n">
         <v>1195.85</v>
       </c>
       <c r="I107" t="n">
-        <v>1221.549488692816</v>
+        <v>1202.021695960083</v>
       </c>
       <c r="J107" t="n">
-        <v>1221.548926151576</v>
+        <v>1202.020735376152</v>
       </c>
       <c r="K107" t="n">
-        <v>1195.850277180963</v>
+        <v>1195.850000882763</v>
       </c>
       <c r="L107" t="n">
-        <v>1195.850024720344</v>
+        <v>1195.850521028371</v>
       </c>
       <c r="M107" t="n">
-        <v>1195.850000000012</v>
+        <v>1195.850000000003</v>
       </c>
     </row>
     <row r="108">
@@ -4871,25 +4871,25 @@
         <v>131.48</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.4543021944500651</v>
+        <v>12.27152626049292</v>
       </c>
       <c r="H108" t="n">
         <v>1195.85</v>
       </c>
       <c r="I108" t="n">
-        <v>1211.86430219445</v>
+        <v>1199.138473739507</v>
       </c>
       <c r="J108" t="n">
-        <v>1211.864004612144</v>
+        <v>1199.138030154374</v>
       </c>
       <c r="K108" t="n">
-        <v>1195.850124131011</v>
+        <v>1195.85000029078</v>
       </c>
       <c r="L108" t="n">
-        <v>1195.850011028602</v>
+        <v>1195.850209581092</v>
       </c>
       <c r="M108" t="n">
-        <v>1195.850000000004</v>
+        <v>1195.850000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4903,25 +4903,25 @@
         <v>131.38</v>
       </c>
       <c r="G109" t="n">
-        <v>44.81833509536932</v>
+        <v>52.90413021613449</v>
       </c>
       <c r="H109" t="n">
         <v>1195.82</v>
       </c>
       <c r="I109" t="n">
-        <v>1205.611664904631</v>
+        <v>1197.525869783866</v>
       </c>
       <c r="J109" t="n">
-        <v>1205.611506220004</v>
+        <v>1197.525666397691</v>
       </c>
       <c r="K109" t="n">
-        <v>1195.820054542931</v>
+        <v>1195.820000093218</v>
       </c>
       <c r="L109" t="n">
-        <v>1195.820004827538</v>
+        <v>1195.820082066001</v>
       </c>
       <c r="M109" t="n">
-        <v>1195.820000000001</v>
+        <v>1195.82</v>
       </c>
     </row>
     <row r="110">
@@ -4935,22 +4935,22 @@
         <v>131.28</v>
       </c>
       <c r="G110" t="n">
-        <v>12.70516077664638</v>
+        <v>17.71845822809541</v>
       </c>
       <c r="H110" t="n">
         <v>1195.79</v>
       </c>
       <c r="I110" t="n">
-        <v>1201.664839223354</v>
+        <v>1196.651541771904</v>
       </c>
       <c r="J110" t="n">
-        <v>1201.664754047542</v>
+        <v>1196.651449240506</v>
       </c>
       <c r="K110" t="n">
-        <v>1195.790023514078</v>
+        <v>1195.790000029083</v>
       </c>
       <c r="L110" t="n">
-        <v>1195.790002073291</v>
+        <v>1195.790031280991</v>
       </c>
       <c r="M110" t="n">
         <v>1195.79</v>
@@ -4967,22 +4967,22 @@
         <v>131.18</v>
       </c>
       <c r="G111" t="n">
-        <v>48.04104517657561</v>
+        <v>51.07636167343844</v>
       </c>
       <c r="H111" t="n">
         <v>1195.77</v>
       </c>
       <c r="I111" t="n">
-        <v>1199.228954823424</v>
+        <v>1196.193638326562</v>
       </c>
       <c r="J111" t="n">
-        <v>1199.228908919229</v>
+        <v>1196.193596609143</v>
       </c>
       <c r="K111" t="n">
-        <v>1195.770009945781</v>
+        <v>1195.77000000883</v>
       </c>
       <c r="L111" t="n">
-        <v>1195.770000873603</v>
+        <v>1195.770011606178</v>
       </c>
       <c r="M111" t="n">
         <v>1195.77</v>
@@ -4999,22 +4999,22 @@
         <v>131.08</v>
       </c>
       <c r="G112" t="n">
-        <v>-68.28855321761898</v>
+        <v>-66.49281771146161</v>
       </c>
       <c r="H112" t="n">
         <v>1195.77</v>
       </c>
       <c r="I112" t="n">
-        <v>1197.768553217619</v>
+        <v>1195.972817711462</v>
       </c>
       <c r="J112" t="n">
-        <v>1197.768528457254</v>
+        <v>1195.97279910622</v>
       </c>
       <c r="K112" t="n">
-        <v>1195.770004127258</v>
+        <v>1195.770000002609</v>
       </c>
       <c r="L112" t="n">
-        <v>1195.770000361142</v>
+        <v>1195.770004191553</v>
       </c>
       <c r="M112" t="n">
         <v>1195.77</v>
@@ -5031,22 +5031,22 @@
         <v>130.98</v>
       </c>
       <c r="G113" t="n">
-        <v>26.00677547332657</v>
+        <v>27.04546194013233</v>
       </c>
       <c r="H113" t="n">
         <v>1195.79</v>
       </c>
       <c r="I113" t="n">
-        <v>1196.923224526673</v>
+        <v>1195.884538059868</v>
       </c>
       <c r="J113" t="n">
-        <v>1196.923211205136</v>
+        <v>1195.884529868549</v>
       </c>
       <c r="K113" t="n">
-        <v>1195.790001680299</v>
+        <v>1195.79000000075</v>
       </c>
       <c r="L113" t="n">
-        <v>1195.790000146468</v>
+        <v>1195.790001473408</v>
       </c>
       <c r="M113" t="n">
         <v>1195.79</v>
@@ -5063,22 +5063,22 @@
         <v>130.88</v>
       </c>
       <c r="G114" t="n">
-        <v>37.42940706261811</v>
+        <v>38.01709653570492</v>
       </c>
       <c r="H114" t="n">
         <v>1195.76</v>
       </c>
       <c r="I114" t="n">
-        <v>1196.390592937382</v>
+        <v>1195.802903464295</v>
       </c>
       <c r="J114" t="n">
-        <v>1196.390585811565</v>
+        <v>1195.802899911647</v>
       </c>
       <c r="K114" t="n">
-        <v>1195.760000671127</v>
+        <v>1195.76000000021</v>
       </c>
       <c r="L114" t="n">
-        <v>1195.760000058277</v>
+        <v>1195.760000504103</v>
       </c>
       <c r="M114" t="n">
         <v>1195.76</v>
@@ -5095,22 +5095,22 @@
         <v>130.78</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.3443620989482952</v>
+        <v>-0.0189563507785806</v>
       </c>
       <c r="H115" t="n">
         <v>1207.42</v>
       </c>
       <c r="I115" t="n">
-        <v>1207.764362098948</v>
+        <v>1207.438956350779</v>
       </c>
       <c r="J115" t="n">
-        <v>1207.76435832018</v>
+        <v>1207.438954836013</v>
       </c>
       <c r="K115" t="n">
-        <v>1207.42000026297</v>
+        <v>1207.420000000057</v>
       </c>
       <c r="L115" t="n">
-        <v>1207.420000022748</v>
+        <v>1207.420000167861</v>
       </c>
       <c r="M115" t="n">
         <v>1207.42</v>
@@ -5127,22 +5127,22 @@
         <v>130.68</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.1845492636089148</v>
+        <v>-0.008154239997566037</v>
       </c>
       <c r="H116" t="n">
         <v>1171.82</v>
       </c>
       <c r="I116" t="n">
-        <v>1172.004549263609</v>
+        <v>1171.828154239998</v>
       </c>
       <c r="J116" t="n">
-        <v>1172.004547281824</v>
+        <v>1171.82815360623</v>
       </c>
       <c r="K116" t="n">
-        <v>1171.820000101084</v>
+        <v>1171.820000000015</v>
       </c>
       <c r="L116" t="n">
-        <v>1171.820000008711</v>
+        <v>1171.8200000544</v>
       </c>
       <c r="M116" t="n">
         <v>1171.82</v>
@@ -5159,22 +5159,22 @@
         <v>130.58</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.09705894637681922</v>
+        <v>-0.003414811356378777</v>
       </c>
       <c r="H117" t="n">
         <v>1193.28</v>
       </c>
       <c r="I117" t="n">
-        <v>1193.377058946377</v>
+        <v>1193.283414811356</v>
       </c>
       <c r="J117" t="n">
-        <v>1193.37705792046</v>
+        <v>1193.283414551578</v>
       </c>
       <c r="K117" t="n">
-        <v>1193.280000038118</v>
+        <v>1193.280000000004</v>
       </c>
       <c r="L117" t="n">
-        <v>1193.280000003272</v>
+        <v>1193.280000017158</v>
       </c>
       <c r="M117" t="n">
         <v>1193.28</v>
@@ -5191,22 +5191,22 @@
         <v>130.48</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.0500932325624035</v>
+        <v>-0.001392167175481518</v>
       </c>
       <c r="H118" t="n">
         <v>1122.03</v>
       </c>
       <c r="I118" t="n">
-        <v>1122.080093232562</v>
+        <v>1122.031392167175</v>
       </c>
       <c r="J118" t="n">
-        <v>1122.080092709129</v>
+        <v>1122.031392062997</v>
       </c>
       <c r="K118" t="n">
-        <v>1122.0300000141</v>
+        <v>1122.030000000001</v>
       </c>
       <c r="L118" t="n">
-        <v>1122.030000001206</v>
+        <v>1122.030000005266</v>
       </c>
       <c r="M118" t="n">
         <v>1122.03</v>
@@ -5223,22 +5223,22 @@
         <v>130.38</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.0253708763530085</v>
+        <v>-0.000552514544551741</v>
       </c>
       <c r="H119" t="n">
         <v>1224.98</v>
       </c>
       <c r="I119" t="n">
-        <v>1225.005370876353</v>
+        <v>1224.980552514545</v>
       </c>
       <c r="J119" t="n">
-        <v>1225.005370613448</v>
+        <v>1224.980552473716</v>
       </c>
       <c r="K119" t="n">
-        <v>1224.980000005117</v>
+        <v>1224.98</v>
       </c>
       <c r="L119" t="n">
-        <v>1224.980000000436</v>
+        <v>1224.980000001573</v>
       </c>
       <c r="M119" t="n">
         <v>1224.98</v>
@@ -5255,22 +5255,22 @@
         <v>130.28</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.01260946188563139</v>
+        <v>-0.0002134565193046001</v>
       </c>
       <c r="H120" t="n">
         <v>1179.63</v>
       </c>
       <c r="I120" t="n">
-        <v>1179.642609461886</v>
+        <v>1179.630213456519</v>
       </c>
       <c r="J120" t="n">
-        <v>1179.642609332004</v>
+        <v>1179.630213440897</v>
       </c>
       <c r="K120" t="n">
-        <v>1179.630000001821</v>
+        <v>1179.63</v>
       </c>
       <c r="L120" t="n">
-        <v>1179.630000000155</v>
+        <v>1179.630000000457</v>
       </c>
       <c r="M120" t="n">
         <v>1179.63</v>
@@ -5287,22 +5287,22 @@
         <v>130.18</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.006149691921336853</v>
+        <v>-8.027383228181861e-05</v>
       </c>
       <c r="H121" t="n">
         <v>1160.65</v>
       </c>
       <c r="I121" t="n">
-        <v>1160.656149691921</v>
+        <v>1160.650080273832</v>
       </c>
       <c r="J121" t="n">
-        <v>1160.656149628851</v>
+        <v>1160.650080268</v>
       </c>
       <c r="K121" t="n">
-        <v>1160.650000000636</v>
+        <v>1160.65</v>
       </c>
       <c r="L121" t="n">
-        <v>1160.650000000054</v>
+        <v>1160.650000000129</v>
       </c>
       <c r="M121" t="n">
         <v>1160.65</v>
@@ -5319,22 +5319,22 @@
         <v>130.08</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.002943041844218897</v>
+        <v>-2.938480702141533e-05</v>
       </c>
       <c r="H122" t="n">
         <v>1167.95</v>
       </c>
       <c r="I122" t="n">
-        <v>1167.952943041844</v>
+        <v>1167.950029384807</v>
       </c>
       <c r="J122" t="n">
-        <v>1167.952943011755</v>
+        <v>1167.950029382684</v>
       </c>
       <c r="K122" t="n">
-        <v>1167.950000000218</v>
+        <v>1167.95</v>
       </c>
       <c r="L122" t="n">
-        <v>1167.950000000018</v>
+        <v>1167.950000000036</v>
       </c>
       <c r="M122" t="n">
         <v>1167.95</v>
@@ -5351,22 +5351,22 @@
         <v>129.98</v>
       </c>
       <c r="G123" t="n">
-        <v>-0.00138202531729803</v>
+        <v>-1.046987335939775e-05</v>
       </c>
       <c r="H123" t="n">
         <v>1094.96</v>
       </c>
       <c r="I123" t="n">
-        <v>1094.961382025317</v>
+        <v>1094.960010469873</v>
       </c>
       <c r="J123" t="n">
-        <v>1094.961382011219</v>
+        <v>1094.96001046912</v>
       </c>
       <c r="K123" t="n">
-        <v>1094.960000000073</v>
+        <v>1094.96</v>
       </c>
       <c r="L123" t="n">
-        <v>1094.960000000006</v>
+        <v>1094.96000000001</v>
       </c>
       <c r="M123" t="n">
         <v>1094.96</v>
@@ -5383,19 +5383,19 @@
         <v>129.88</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.0006367985367887741</v>
+        <v>-3.630909304774832e-06</v>
       </c>
       <c r="H124" t="n">
         <v>1127.85</v>
       </c>
       <c r="I124" t="n">
-        <v>1127.850636798537</v>
+        <v>1127.850003630909</v>
       </c>
       <c r="J124" t="n">
-        <v>1127.850636792051</v>
+        <v>1127.850003630649</v>
       </c>
       <c r="K124" t="n">
-        <v>1127.850000000024</v>
+        <v>1127.85</v>
       </c>
       <c r="L124" t="n">
         <v>1127.850000000002</v>
@@ -5415,19 +5415,19 @@
         <v>129.78</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.0002879018970816105</v>
+        <v>-1.225548885486205e-06</v>
       </c>
       <c r="H125" t="n">
         <v>1153.15</v>
       </c>
       <c r="I125" t="n">
-        <v>1153.150287901897</v>
+        <v>1153.150001225549</v>
       </c>
       <c r="J125" t="n">
-        <v>1153.150287898968</v>
+        <v>1153.150001225461</v>
       </c>
       <c r="K125" t="n">
-        <v>1153.150000000008</v>
+        <v>1153.15</v>
       </c>
       <c r="L125" t="n">
         <v>1153.150000000001</v>
@@ -5447,19 +5447,19 @@
         <v>129.68</v>
       </c>
       <c r="G126" t="n">
-        <v>-0.0001277124729313073</v>
+        <v>-4.025996531709097e-07</v>
       </c>
       <c r="H126" t="n">
         <v>1176.2</v>
       </c>
       <c r="I126" t="n">
-        <v>1176.200127712473</v>
+        <v>1176.2000004026</v>
       </c>
       <c r="J126" t="n">
-        <v>1176.200127711175</v>
+        <v>1176.200000402571</v>
       </c>
       <c r="K126" t="n">
-        <v>1176.200000000003</v>
+        <v>1176.2</v>
       </c>
       <c r="L126" t="n">
         <v>1176.2</v>
@@ -5479,19 +5479,19 @@
         <v>129.58</v>
       </c>
       <c r="G127" t="n">
-        <v>-5.558509906222753e-05</v>
+        <v>-1.287153281737119e-07</v>
       </c>
       <c r="H127" t="n">
         <v>1085.87</v>
       </c>
       <c r="I127" t="n">
-        <v>1085.870055585099</v>
+        <v>1085.870000128715</v>
       </c>
       <c r="J127" t="n">
-        <v>1085.870055584534</v>
+        <v>1085.870000128706</v>
       </c>
       <c r="K127" t="n">
-        <v>1085.870000000001</v>
+        <v>1085.87</v>
       </c>
       <c r="L127" t="n">
         <v>1085.87</v>
@@ -5511,16 +5511,16 @@
         <v>129.48</v>
       </c>
       <c r="G128" t="n">
-        <v>-2.373612460360164e-05</v>
+        <v>-4.004868969786912e-08</v>
       </c>
       <c r="H128" t="n">
         <v>1142.16</v>
       </c>
       <c r="I128" t="n">
-        <v>1142.160023736125</v>
+        <v>1142.160000040049</v>
       </c>
       <c r="J128" t="n">
-        <v>1142.160023735884</v>
+        <v>1142.160000040046</v>
       </c>
       <c r="K128" t="n">
         <v>1142.16</v>
@@ -5543,16 +5543,16 @@
         <v>129.38</v>
       </c>
       <c r="G129" t="n">
-        <v>-9.944382782123284e-06</v>
+        <v>-1.21265202324139e-08</v>
       </c>
       <c r="H129" t="n">
         <v>1166.26</v>
       </c>
       <c r="I129" t="n">
-        <v>1166.260009944383</v>
+        <v>1166.260000012127</v>
       </c>
       <c r="J129" t="n">
-        <v>1166.260009944282</v>
+        <v>1166.260000012126</v>
       </c>
       <c r="K129" t="n">
         <v>1166.26</v>
@@ -5575,16 +5575,16 @@
         <v>129.28</v>
       </c>
       <c r="G130" t="n">
-        <v>-4.087453817191999e-06</v>
+        <v>-3.573177309590392e-09</v>
       </c>
       <c r="H130" t="n">
         <v>1135.51</v>
       </c>
       <c r="I130" t="n">
-        <v>1135.510004087454</v>
+        <v>1135.510000003573</v>
       </c>
       <c r="J130" t="n">
-        <v>1135.510004087412</v>
+        <v>1135.510000003573</v>
       </c>
       <c r="K130" t="n">
         <v>1135.51</v>
@@ -5607,16 +5607,16 @@
         <v>129.18</v>
       </c>
       <c r="G131" t="n">
-        <v>-1.648259285502718e-06</v>
+        <v>-1.024545781547204e-09</v>
       </c>
       <c r="H131" t="n">
         <v>1121.77</v>
       </c>
       <c r="I131" t="n">
-        <v>1121.770001648259</v>
+        <v>1121.770000001025</v>
       </c>
       <c r="J131" t="n">
-        <v>1121.770001648243</v>
+        <v>1121.770000001025</v>
       </c>
       <c r="K131" t="n">
         <v>1121.77</v>
@@ -5639,16 +5639,16 @@
         <v>129.08</v>
       </c>
       <c r="G132" t="n">
-        <v>-6.520588158309693e-07</v>
+        <v>-2.858087100321427e-10</v>
       </c>
       <c r="H132" t="n">
         <v>1089.89</v>
       </c>
       <c r="I132" t="n">
-        <v>1089.890000652059</v>
+        <v>1089.890000000286</v>
       </c>
       <c r="J132" t="n">
-        <v>1089.890000652052</v>
+        <v>1089.890000000286</v>
       </c>
       <c r="K132" t="n">
         <v>1089.89</v>
@@ -5671,16 +5671,16 @@
         <v>128.98</v>
       </c>
       <c r="G133" t="n">
-        <v>-2.530623532948084e-07</v>
+        <v>-7.753442332614213e-11</v>
       </c>
       <c r="H133" t="n">
         <v>1107.11</v>
       </c>
       <c r="I133" t="n">
-        <v>1107.110000253062</v>
+        <v>1107.110000000077</v>
       </c>
       <c r="J133" t="n">
-        <v>1107.11000025306</v>
+        <v>1107.110000000077</v>
       </c>
       <c r="K133" t="n">
         <v>1107.11</v>
@@ -5703,16 +5703,16 @@
         <v>128.88</v>
       </c>
       <c r="G134" t="n">
-        <v>-9.634732123231515e-08</v>
+        <v>-2.046363078989089e-11</v>
       </c>
       <c r="H134" t="n">
         <v>1103.83</v>
       </c>
       <c r="I134" t="n">
-        <v>1103.830000096347</v>
+        <v>1103.83000000002</v>
       </c>
       <c r="J134" t="n">
-        <v>1103.830000096346</v>
+        <v>1103.83000000002</v>
       </c>
       <c r="K134" t="n">
         <v>1103.83</v>
@@ -5735,16 +5735,16 @@
         <v>128.78</v>
       </c>
       <c r="G135" t="n">
-        <v>-3.598438524932135e-08</v>
+        <v>-5.229594535194337e-12</v>
       </c>
       <c r="H135" t="n">
         <v>1068.4</v>
       </c>
       <c r="I135" t="n">
-        <v>1068.400000035984</v>
+        <v>1068.400000000005</v>
       </c>
       <c r="J135" t="n">
-        <v>1068.400000035984</v>
+        <v>1068.400000000005</v>
       </c>
       <c r="K135" t="n">
         <v>1068.4</v>
@@ -5767,16 +5767,16 @@
         <v>128.68</v>
       </c>
       <c r="G136" t="n">
-        <v>-1.318380782322492e-08</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="H136" t="n">
         <v>1134.15</v>
       </c>
       <c r="I136" t="n">
-        <v>1134.150000013184</v>
+        <v>1134.150000000001</v>
       </c>
       <c r="J136" t="n">
-        <v>1134.150000013184</v>
+        <v>1134.150000000001</v>
       </c>
       <c r="K136" t="n">
         <v>1134.15</v>
@@ -5799,16 +5799,16 @@
         <v>128.58</v>
       </c>
       <c r="G137" t="n">
-        <v>-4.738240022561513e-09</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H137" t="n">
         <v>1072.18</v>
       </c>
       <c r="I137" t="n">
-        <v>1072.180000004738</v>
+        <v>1072.18</v>
       </c>
       <c r="J137" t="n">
-        <v>1072.180000004738</v>
+        <v>1072.18</v>
       </c>
       <c r="K137" t="n">
         <v>1072.18</v>
@@ -5831,16 +5831,16 @@
         <v>128.48</v>
       </c>
       <c r="G138" t="n">
-        <v>-1.670514393481426e-09</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
         <v>1133.62</v>
       </c>
       <c r="I138" t="n">
-        <v>1133.62000000167</v>
+        <v>1133.62</v>
       </c>
       <c r="J138" t="n">
-        <v>1133.62000000167</v>
+        <v>1133.62</v>
       </c>
       <c r="K138" t="n">
         <v>1133.62</v>
@@ -5863,16 +5863,16 @@
         <v>128.38</v>
       </c>
       <c r="G139" t="n">
-        <v>-5.777565093012527e-10</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
         <v>1117.96</v>
       </c>
       <c r="I139" t="n">
-        <v>1117.960000000578</v>
+        <v>1117.96</v>
       </c>
       <c r="J139" t="n">
-        <v>1117.960000000578</v>
+        <v>1117.96</v>
       </c>
       <c r="K139" t="n">
         <v>1117.96</v>
@@ -5895,16 +5895,16 @@
         <v>128.28</v>
       </c>
       <c r="G140" t="n">
-        <v>-1.95996108232066e-10</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
         <v>1074.26</v>
       </c>
       <c r="I140" t="n">
-        <v>1074.260000000196</v>
+        <v>1074.26</v>
       </c>
       <c r="J140" t="n">
-        <v>1074.260000000196</v>
+        <v>1074.26</v>
       </c>
       <c r="K140" t="n">
         <v>1074.26</v>
@@ -5927,16 +5927,16 @@
         <v>128.18</v>
       </c>
       <c r="G141" t="n">
-        <v>-6.52562448522076e-11</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
         <v>1140.2</v>
       </c>
       <c r="I141" t="n">
-        <v>1140.200000000065</v>
+        <v>1140.2</v>
       </c>
       <c r="J141" t="n">
-        <v>1140.200000000065</v>
+        <v>1140.2</v>
       </c>
       <c r="K141" t="n">
         <v>1140.2</v>
@@ -5959,16 +5959,16 @@
         <v>128.08</v>
       </c>
       <c r="G142" t="n">
-        <v>-2.137312549166381e-11</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
         <v>1069.57</v>
       </c>
       <c r="I142" t="n">
-        <v>1069.570000000021</v>
+        <v>1069.57</v>
       </c>
       <c r="J142" t="n">
-        <v>1069.570000000021</v>
+        <v>1069.57</v>
       </c>
       <c r="K142" t="n">
         <v>1069.57</v>
@@ -5991,16 +5991,16 @@
         <v>127.98</v>
       </c>
       <c r="G143" t="n">
-        <v>-6.821210263296962e-12</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
         <v>1084.2</v>
       </c>
       <c r="I143" t="n">
-        <v>1084.200000000007</v>
+        <v>1084.2</v>
       </c>
       <c r="J143" t="n">
-        <v>1084.200000000007</v>
+        <v>1084.2</v>
       </c>
       <c r="K143" t="n">
         <v>1084.2</v>
@@ -6023,16 +6023,16 @@
         <v>127.88</v>
       </c>
       <c r="G144" t="n">
-        <v>-2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
         <v>1073.19</v>
       </c>
       <c r="I144" t="n">
-        <v>1073.190000000002</v>
+        <v>1073.19</v>
       </c>
       <c r="J144" t="n">
-        <v>1073.190000000002</v>
+        <v>1073.19</v>
       </c>
       <c r="K144" t="n">
         <v>1073.19</v>
@@ -6055,16 +6055,16 @@
         <v>127.78</v>
       </c>
       <c r="G145" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
         <v>1042.02</v>
       </c>
       <c r="I145" t="n">
-        <v>1042.020000000001</v>
+        <v>1042.02</v>
       </c>
       <c r="J145" t="n">
-        <v>1042.020000000001</v>
+        <v>1042.02</v>
       </c>
       <c r="K145" t="n">
         <v>1042.02</v>
@@ -6087,7 +6087,7 @@
         <v>127.68</v>
       </c>
       <c r="G146" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
         <v>1090.89</v>

--- a/DATA/UKSAF/LaSrTiO3.xlsx
+++ b/DATA/UKSAF/LaSrTiO3.xlsx
@@ -405,7 +405,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5581650" cy="4076700"/>
+    <ext cx="5619750" cy="4114800"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -1034,7 +1034,7 @@
       <c r="AF2" s="17" t="inlineStr"/>
       <c r="AG2" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AH2" s="17" t="inlineStr">
@@ -1116,15 +1116,31 @@
       </c>
       <c r="X3" s="19" t="inlineStr"/>
       <c r="Y3" s="20" t="inlineStr"/>
-      <c r="Z3" s="20" t="inlineStr"/>
+      <c r="Z3" s="20" t="inlineStr">
+        <is>
+          <t>130.53:136.53</t>
+        </is>
+      </c>
       <c r="AA3" s="20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB3" s="20" t="inlineStr"/>
-      <c r="AC3" s="20" t="inlineStr"/>
-      <c r="AD3" s="20" t="inlineStr"/>
+      <c r="AB3" s="20" t="inlineStr">
+        <is>
+          <t>0.25:2.25</t>
+        </is>
+      </c>
+      <c r="AC3" s="20" t="inlineStr">
+        <is>
+          <t>0.91:40.91</t>
+        </is>
+      </c>
+      <c r="AD3" s="20" t="inlineStr">
+        <is>
+          <t>1:1E7</t>
+        </is>
+      </c>
       <c r="AE3" s="20" t="inlineStr"/>
       <c r="AF3" s="20" t="inlineStr"/>
       <c r="AG3" s="20" t="inlineStr">
@@ -1212,7 +1228,7 @@
       <c r="AF4" s="17" t="inlineStr"/>
       <c r="AG4" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AH4" s="17" t="inlineStr">
@@ -1406,7 +1422,7 @@
       <c r="AF6" s="17" t="inlineStr"/>
       <c r="AG6" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AH6" s="17" t="inlineStr">
@@ -1600,7 +1616,7 @@
       <c r="AF8" s="17" t="inlineStr"/>
       <c r="AG8" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AH8" s="17" t="inlineStr">

--- a/DATA/UKSAF/LaSrTiO3.xlsx
+++ b/DATA/UKSAF/LaSrTiO3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="924" yWindow="23808" windowWidth="16464" windowHeight="11556" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="920" yWindow="880" windowWidth="35080" windowHeight="22500" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sr3d" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -42,10 +42,15 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Aptos Narrow"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -66,12 +71,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF90EE90"/>
+        <bgColor rgb="FF90EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0090EE90"/>
         <bgColor rgb="0090EE90"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -364,13 +375,140 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -408,11 +546,47 @@
       <top style="medium"/>
       <bottom style="medium"/>
     </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -453,28 +627,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -483,8 +639,50 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,10 +769,10 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5619750" cy="4114800"/>
+    <ext cx="5505450" cy="4114800"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Image 1" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -584,9 +782,7 @@
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
@@ -620,7 +816,7 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
+          <avLst/>
         </a:prstGeom>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
@@ -644,7 +840,7 @@
     <ext cx="5553075" cy="4038600"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr id="2" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -654,7 +850,12 @@
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -989,178 +1190,178 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="32" t="inlineStr">
         <is>
           <t>Binding Energy (E)</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="32" t="inlineStr">
         <is>
           <t>Raw Data</t>
         </is>
       </c>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="C1" s="32" t="inlineStr"/>
+      <c r="D1" s="32" t="inlineStr"/>
+      <c r="E1" s="32" t="inlineStr"/>
+      <c r="F1" s="32" t="inlineStr">
         <is>
           <t>BE</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="G1" s="32" t="inlineStr">
         <is>
           <t>Residuals</t>
         </is>
       </c>
-      <c r="H1" s="12" t="inlineStr">
+      <c r="H1" s="32" t="inlineStr">
         <is>
           <t>Background</t>
         </is>
       </c>
-      <c r="I1" s="12" t="inlineStr">
+      <c r="I1" s="32" t="inlineStr">
         <is>
           <t>Calculated Fit</t>
         </is>
       </c>
-      <c r="J1" s="12" t="inlineStr">
+      <c r="J1" s="32" t="inlineStr">
         <is>
           <t>Sr3d5/2 p1</t>
         </is>
       </c>
-      <c r="K1" s="12" t="inlineStr">
+      <c r="K1" s="32" t="inlineStr">
         <is>
           <t>Sr3d3/2 p2</t>
         </is>
       </c>
-      <c r="L1" s="12" t="inlineStr">
+      <c r="L1" s="32" t="inlineStr">
         <is>
           <t>Sr3d5/2 p3</t>
         </is>
       </c>
-      <c r="M1" s="12" t="inlineStr">
+      <c r="M1" s="32" t="inlineStr">
         <is>
           <t>Sr3d3/2 p4</t>
         </is>
       </c>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="12" t="n"/>
-      <c r="P1" s="12" t="n"/>
-      <c r="Q1" s="12" t="n"/>
-      <c r="R1" s="12" t="n"/>
-      <c r="S1" s="12" t="n"/>
-      <c r="T1" s="12" t="n"/>
-      <c r="U1" s="12" t="n"/>
-      <c r="V1" s="12" t="n"/>
-      <c r="W1" s="12" t="n"/>
-      <c r="X1" s="13" t="inlineStr">
+      <c r="N1" s="32" t="inlineStr"/>
+      <c r="O1" s="32" t="inlineStr"/>
+      <c r="P1" s="32" t="inlineStr"/>
+      <c r="Q1" s="32" t="inlineStr"/>
+      <c r="R1" s="32" t="inlineStr"/>
+      <c r="S1" s="32" t="inlineStr"/>
+      <c r="T1" s="32" t="inlineStr"/>
+      <c r="U1" s="32" t="inlineStr"/>
+      <c r="V1" s="32" t="inlineStr"/>
+      <c r="W1" s="32" t="inlineStr"/>
+      <c r="X1" s="33" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="Y1" s="14" t="inlineStr">
+      <c r="Y1" s="34" t="inlineStr">
         <is>
           <t>Peak
 Label</t>
         </is>
       </c>
-      <c r="Z1" s="14" t="inlineStr">
+      <c r="Z1" s="34" t="inlineStr">
         <is>
           <t>Position
 (eV)</t>
         </is>
       </c>
-      <c r="AA1" s="14" t="inlineStr">
+      <c r="AA1" s="34" t="inlineStr">
         <is>
           <t>Height
 (CPS)</t>
         </is>
       </c>
-      <c r="AB1" s="14" t="inlineStr">
+      <c r="AB1" s="34" t="inlineStr">
         <is>
           <t>FWHM
 (eV)</t>
         </is>
       </c>
-      <c r="AC1" s="14" t="inlineStr">
+      <c r="AC1" s="34" t="inlineStr">
         <is>
           <t xml:space="preserve">σ/γ (%)
 L/G 
 </t>
         </is>
       </c>
-      <c r="AD1" s="14" t="inlineStr">
+      <c r="AD1" s="34" t="inlineStr">
         <is>
           <t>Area
 (CPS.eV)</t>
         </is>
       </c>
-      <c r="AE1" s="14" t="inlineStr">
+      <c r="AE1" s="34" t="inlineStr">
         <is>
           <t>σ
 W_g</t>
         </is>
       </c>
-      <c r="AF1" s="14" t="inlineStr">
+      <c r="AF1" s="34" t="inlineStr">
         <is>
           <t>γ
 W_l</t>
         </is>
       </c>
-      <c r="AG1" s="14" t="inlineStr">
+      <c r="AG1" s="34" t="inlineStr">
         <is>
           <t>W_g
 Skew</t>
         </is>
       </c>
-      <c r="AH1" s="14" t="inlineStr">
+      <c r="AH1" s="34" t="inlineStr">
         <is>
           <t>Conc.
 (%)</t>
         </is>
       </c>
-      <c r="AI1" s="14" t="inlineStr">
+      <c r="AI1" s="34" t="inlineStr">
         <is>
           <t>A/Aᴀ</t>
         </is>
       </c>
-      <c r="AJ1" s="14" t="inlineStr">
+      <c r="AJ1" s="34" t="inlineStr">
         <is>
           <t>Split
 (eV)</t>
         </is>
       </c>
-      <c r="AK1" s="14" t="inlineStr">
+      <c r="AK1" s="34" t="inlineStr">
         <is>
           <t>Fitting Model</t>
         </is>
       </c>
-      <c r="AL1" s="14" t="inlineStr">
+      <c r="AL1" s="34" t="inlineStr">
         <is>
           <t>Bkg Type</t>
         </is>
       </c>
-      <c r="AM1" s="14" t="inlineStr">
+      <c r="AM1" s="34" t="inlineStr">
         <is>
           <t>Bkg Low
 (eV)</t>
         </is>
       </c>
-      <c r="AN1" s="14" t="inlineStr">
+      <c r="AN1" s="34" t="inlineStr">
         <is>
           <t>Bkg High
 (eV)</t>
         </is>
       </c>
-      <c r="AO1" s="14" t="inlineStr">
+      <c r="AO1" s="34" t="inlineStr">
         <is>
           <t>Bkg Offset Low
 (CPS)</t>
         </is>
       </c>
-      <c r="AP1" s="15" t="inlineStr">
+      <c r="AP1" s="35" t="inlineStr">
         <is>
           <t>Bkg Offset High
 (CPS)</t>
@@ -1178,109 +1379,117 @@
         <v>142.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-12.63023281822029</v>
       </c>
       <c r="H2" t="n">
         <v>1321.18</v>
       </c>
       <c r="I2" t="n">
-        <v>1321.18</v>
+        <v>1333.81023281822</v>
       </c>
       <c r="J2" t="n">
-        <v>1321.18</v>
+        <v>1325.286095581752</v>
       </c>
       <c r="K2" t="n">
-        <v>1321.18</v>
+        <v>1325.58237247373</v>
       </c>
       <c r="L2" t="n">
-        <v>1321.18</v>
+        <v>1323.099918860681</v>
       </c>
       <c r="M2" t="n">
-        <v>1321.18</v>
-      </c>
-      <c r="X2" s="16" t="inlineStr">
+        <v>1323.381845902058</v>
+      </c>
+      <c r="X2" s="36" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="Y2" s="17" t="inlineStr">
+      <c r="Y2" s="37" t="inlineStr">
         <is>
           <t>Sr3d5/2 p1</t>
         </is>
       </c>
-      <c r="Z2" s="17" t="inlineStr">
-        <is>
-          <t>133.53</t>
-        </is>
-      </c>
-      <c r="AA2" s="17" t="inlineStr">
-        <is>
-          <t>3892</t>
-        </is>
-      </c>
-      <c r="AB2" s="17" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="AC2" s="17" t="inlineStr">
-        <is>
-          <t>20.91</t>
-        </is>
-      </c>
-      <c r="AD2" s="17" t="inlineStr">
-        <is>
-          <t>5179</t>
-        </is>
-      </c>
-      <c r="AE2" s="17" t="n"/>
-      <c r="AF2" s="17" t="n"/>
-      <c r="AG2" s="17" t="inlineStr">
+      <c r="Z2" s="37" t="inlineStr">
+        <is>
+          <t>133.44</t>
+        </is>
+      </c>
+      <c r="AA2" s="37" t="inlineStr">
+        <is>
+          <t>3515</t>
+        </is>
+      </c>
+      <c r="AB2" s="37" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="AC2" s="37" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="AD2" s="37" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+      <c r="AE2" s="37" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="AF2" s="37" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="AG2" s="37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="AH2" s="37" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="AI2" s="37" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="AJ2" s="37" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="AH2" s="17" t="inlineStr">
-        <is>
-          <t>49.2</t>
-        </is>
-      </c>
-      <c r="AI2" s="17" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="AJ2" s="17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AK2" s="17" t="inlineStr">
-        <is>
-          <t>GL (Area)</t>
-        </is>
-      </c>
-      <c r="AL2" s="17" t="inlineStr">
+      <c r="AK2" s="37" t="inlineStr">
+        <is>
+          <t>Voigt (Area, L/G, σ, S)</t>
+        </is>
+      </c>
+      <c r="AL2" s="37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AM2" s="17" t="inlineStr">
+      <c r="AM2" s="37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AN2" s="17" t="inlineStr">
+      <c r="AN2" s="37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AO2" s="17" t="inlineStr">
+      <c r="AO2" s="37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AP2" s="18" t="inlineStr">
+      <c r="AP2" s="38" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1297,69 +1506,77 @@
         <v>141.98</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-12.95979406702372</v>
       </c>
       <c r="H3" t="n">
         <v>1369.78</v>
       </c>
       <c r="I3" t="n">
-        <v>1369.78</v>
+        <v>1382.739794067024</v>
       </c>
       <c r="J3" t="n">
-        <v>1369.78</v>
+        <v>1373.97603081392</v>
       </c>
       <c r="K3" t="n">
-        <v>1369.78</v>
+        <v>1374.305922807017</v>
       </c>
       <c r="L3" t="n">
-        <v>1369.78</v>
+        <v>1371.746236103741</v>
       </c>
       <c r="M3" t="n">
-        <v>1369.78</v>
-      </c>
-      <c r="X3" s="19" t="n"/>
-      <c r="Y3" s="20" t="n"/>
-      <c r="Z3" s="20" t="inlineStr">
-        <is>
-          <t>130.53:136.53</t>
-        </is>
-      </c>
-      <c r="AA3" s="20" t="inlineStr">
+        <v>1372.051604342346</v>
+      </c>
+      <c r="X3" s="39" t="inlineStr"/>
+      <c r="Y3" s="40" t="inlineStr"/>
+      <c r="Z3" s="40" t="inlineStr">
+        <is>
+          <t>126.08,142.08</t>
+        </is>
+      </c>
+      <c r="AA3" s="40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB3" s="20" t="inlineStr">
-        <is>
-          <t>0.25:2.25</t>
-        </is>
-      </c>
-      <c r="AC3" s="20" t="inlineStr">
-        <is>
-          <t>0.91:40.91</t>
-        </is>
-      </c>
-      <c r="AD3" s="20" t="inlineStr">
-        <is>
-          <t>1:1E7</t>
-        </is>
-      </c>
-      <c r="AE3" s="20" t="n"/>
-      <c r="AF3" s="20" t="n"/>
-      <c r="AG3" s="20" t="inlineStr">
+      <c r="AB3" s="40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH3" s="20" t="n"/>
-      <c r="AI3" s="20" t="n"/>
-      <c r="AJ3" s="20" t="n"/>
-      <c r="AK3" s="20" t="n"/>
-      <c r="AL3" s="20" t="n"/>
-      <c r="AM3" s="20" t="n"/>
-      <c r="AN3" s="20" t="n"/>
-      <c r="AO3" s="20" t="n"/>
-      <c r="AP3" s="21" t="n"/>
+      <c r="AC3" s="40" t="inlineStr">
+        <is>
+          <t>15:85</t>
+        </is>
+      </c>
+      <c r="AD3" s="40" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AE3" s="40" t="inlineStr">
+        <is>
+          <t>0.2:1.5</t>
+        </is>
+      </c>
+      <c r="AF3" s="40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" s="40" t="inlineStr">
+        <is>
+          <t>0.01:0.7</t>
+        </is>
+      </c>
+      <c r="AH3" s="40" t="inlineStr"/>
+      <c r="AI3" s="40" t="inlineStr"/>
+      <c r="AJ3" s="40" t="inlineStr"/>
+      <c r="AK3" s="40" t="inlineStr"/>
+      <c r="AL3" s="40" t="inlineStr"/>
+      <c r="AM3" s="40" t="inlineStr"/>
+      <c r="AN3" s="40" t="inlineStr"/>
+      <c r="AO3" s="40" t="inlineStr"/>
+      <c r="AP3" s="41" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1372,109 +1589,117 @@
         <v>141.88</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-13.30332328073928</v>
       </c>
       <c r="H4" t="n">
         <v>1356.16</v>
       </c>
       <c r="I4" t="n">
-        <v>1356.16</v>
+        <v>1369.463323280739</v>
       </c>
       <c r="J4" t="n">
-        <v>1356.16</v>
+        <v>1360.449114124456</v>
       </c>
       <c r="K4" t="n">
-        <v>1356.16</v>
+        <v>1360.814994328402</v>
       </c>
       <c r="L4" t="n">
-        <v>1356.16</v>
+        <v>1358.174336110919</v>
       </c>
       <c r="M4" t="n">
-        <v>1356.16</v>
-      </c>
-      <c r="X4" s="16" t="inlineStr">
+        <v>1358.504878716963</v>
+      </c>
+      <c r="X4" s="36" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="Y4" s="17" t="inlineStr">
+      <c r="Y4" s="37" t="inlineStr">
         <is>
           <t>Sr3d3/2 p2</t>
         </is>
       </c>
-      <c r="Z4" s="17" t="inlineStr">
-        <is>
-          <t>135.32</t>
-        </is>
-      </c>
-      <c r="AA4" s="17" t="inlineStr">
-        <is>
-          <t>2512</t>
-        </is>
-      </c>
-      <c r="AB4" s="17" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="AC4" s="17" t="inlineStr">
-        <is>
-          <t>20.91</t>
-        </is>
-      </c>
-      <c r="AD4" s="17" t="inlineStr">
-        <is>
-          <t>3342</t>
-        </is>
-      </c>
-      <c r="AE4" s="17" t="n"/>
-      <c r="AF4" s="17" t="n"/>
-      <c r="AG4" s="17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AH4" s="17" t="inlineStr">
-        <is>
-          <t>31.8</t>
-        </is>
-      </c>
-      <c r="AI4" s="17" t="inlineStr">
-        <is>
-          <t>64.5</t>
-        </is>
-      </c>
-      <c r="AJ4" s="17" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="AK4" s="17" t="inlineStr">
-        <is>
-          <t>GL (Area)</t>
-        </is>
-      </c>
-      <c r="AL4" s="17" t="inlineStr">
-        <is>
-          <t>Multi-Regions Smart</t>
-        </is>
-      </c>
-      <c r="AM4" s="17" t="inlineStr">
-        <is>
-          <t>126.08</t>
-        </is>
-      </c>
-      <c r="AN4" s="17" t="inlineStr">
-        <is>
-          <t>142.08</t>
-        </is>
-      </c>
-      <c r="AO4" s="17" t="inlineStr">
+      <c r="Z4" s="37" t="inlineStr">
+        <is>
+          <t>135.19</t>
+        </is>
+      </c>
+      <c r="AA4" s="37" t="inlineStr">
+        <is>
+          <t>2465</t>
+        </is>
+      </c>
+      <c r="AB4" s="37" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="AC4" s="37" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="AD4" s="37" t="inlineStr">
+        <is>
+          <t>3250</t>
+        </is>
+      </c>
+      <c r="AE4" s="37" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="AF4" s="37" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="AG4" s="37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="AH4" s="37" t="inlineStr">
+        <is>
+          <t>29.4</t>
+        </is>
+      </c>
+      <c r="AI4" s="37" t="inlineStr">
+        <is>
+          <t>70.1</t>
+        </is>
+      </c>
+      <c r="AJ4" s="37" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="AK4" s="37" t="inlineStr">
+        <is>
+          <t>Voigt (Area, L/G, σ, S)</t>
+        </is>
+      </c>
+      <c r="AL4" s="37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AP4" s="18" t="inlineStr">
+      <c r="AM4" s="37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN4" s="37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO4" s="37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" s="38" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1491,69 +1716,77 @@
         <v>141.78</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-13.66164882839053</v>
       </c>
       <c r="H5" t="n">
         <v>1341.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1341.5</v>
+        <v>1355.161648828391</v>
       </c>
       <c r="J5" t="n">
-        <v>1341.5</v>
+        <v>1345.88549670424</v>
       </c>
       <c r="K5" t="n">
-        <v>1341.5</v>
+        <v>1346.289926105238</v>
       </c>
       <c r="L5" t="n">
-        <v>1341.5</v>
+        <v>1343.564313064893</v>
       </c>
       <c r="M5" t="n">
-        <v>1341.5</v>
-      </c>
-      <c r="X5" s="19" t="n"/>
-      <c r="Y5" s="20" t="n"/>
-      <c r="Z5" s="20" t="inlineStr">
+        <v>1343.92191295402</v>
+      </c>
+      <c r="X5" s="39" t="inlineStr"/>
+      <c r="Y5" s="40" t="inlineStr"/>
+      <c r="Z5" s="40" t="inlineStr">
         <is>
           <t>A+1.7#0.2</t>
         </is>
       </c>
-      <c r="AA5" s="20" t="inlineStr">
+      <c r="AA5" s="40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB5" s="20" t="inlineStr">
+      <c r="AB5" s="40" t="inlineStr">
+        <is>
+          <t>0.3:3.5</t>
+        </is>
+      </c>
+      <c r="AC5" s="40" t="inlineStr">
         <is>
           <t>A*1</t>
         </is>
       </c>
-      <c r="AC5" s="20" t="inlineStr">
+      <c r="AD5" s="40" t="inlineStr">
+        <is>
+          <t>A*0.667#0.05</t>
+        </is>
+      </c>
+      <c r="AE5" s="40" t="inlineStr">
         <is>
           <t>A*1</t>
         </is>
       </c>
-      <c r="AD5" s="20" t="inlineStr">
-        <is>
-          <t>A*0.667#0.05</t>
-        </is>
-      </c>
-      <c r="AE5" s="20" t="n"/>
-      <c r="AF5" s="20" t="n"/>
-      <c r="AG5" s="20" t="inlineStr">
+      <c r="AF5" s="40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH5" s="20" t="n"/>
-      <c r="AI5" s="20" t="n"/>
-      <c r="AJ5" s="20" t="n"/>
-      <c r="AK5" s="20" t="n"/>
-      <c r="AL5" s="20" t="n"/>
-      <c r="AM5" s="20" t="n"/>
-      <c r="AN5" s="20" t="n"/>
-      <c r="AO5" s="20" t="n"/>
-      <c r="AP5" s="21" t="n"/>
+      <c r="AG5" s="40" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AH5" s="40" t="inlineStr"/>
+      <c r="AI5" s="40" t="inlineStr"/>
+      <c r="AJ5" s="40" t="inlineStr"/>
+      <c r="AK5" s="40" t="inlineStr"/>
+      <c r="AL5" s="40" t="inlineStr"/>
+      <c r="AM5" s="40" t="inlineStr"/>
+      <c r="AN5" s="40" t="inlineStr"/>
+      <c r="AO5" s="40" t="inlineStr"/>
+      <c r="AP5" s="41" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1566,109 +1799,117 @@
         <v>141.68</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-14.03566305721893</v>
       </c>
       <c r="H6" t="n">
         <v>1332.29</v>
       </c>
       <c r="I6" t="n">
-        <v>1332.29</v>
+        <v>1346.325663057219</v>
       </c>
       <c r="J6" t="n">
-        <v>1332.29</v>
+        <v>1336.775339003991</v>
       </c>
       <c r="K6" t="n">
-        <v>1332.29</v>
+        <v>1337.221083855737</v>
       </c>
       <c r="L6" t="n">
-        <v>1332.29</v>
+        <v>1334.406267501152</v>
       </c>
       <c r="M6" t="n">
-        <v>1332.29</v>
-      </c>
-      <c r="X6" s="16" t="inlineStr">
+        <v>1334.792972696338</v>
+      </c>
+      <c r="X6" s="36" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="Y6" s="17" t="inlineStr">
+      <c r="Y6" s="37" t="inlineStr">
         <is>
           <t>Sr3d5/2 p3</t>
         </is>
       </c>
-      <c r="Z6" s="17" t="inlineStr">
-        <is>
-          <t>134.58</t>
-        </is>
-      </c>
-      <c r="AA6" s="17" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="AB6" s="17" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="AC6" s="17" t="inlineStr">
-        <is>
-          <t>20.91</t>
-        </is>
-      </c>
-      <c r="AD6" s="17" t="inlineStr">
-        <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="AE6" s="17" t="n"/>
-      <c r="AF6" s="17" t="n"/>
-      <c r="AG6" s="17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AH6" s="17" t="inlineStr">
-        <is>
-          <t>11.7</t>
-        </is>
-      </c>
-      <c r="AI6" s="17" t="inlineStr">
-        <is>
-          <t>23.8</t>
-        </is>
-      </c>
-      <c r="AJ6" s="17" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="AK6" s="17" t="inlineStr">
-        <is>
-          <t>GL (Area)</t>
-        </is>
-      </c>
-      <c r="AL6" s="17" t="inlineStr">
-        <is>
-          <t>Multi-Regions Smart</t>
-        </is>
-      </c>
-      <c r="AM6" s="17" t="inlineStr">
-        <is>
-          <t>126.08</t>
-        </is>
-      </c>
-      <c r="AN6" s="17" t="inlineStr">
-        <is>
-          <t>142.08</t>
-        </is>
-      </c>
-      <c r="AO6" s="17" t="inlineStr">
+      <c r="Z6" s="37" t="inlineStr">
+        <is>
+          <t>134.17</t>
+        </is>
+      </c>
+      <c r="AA6" s="37" t="inlineStr">
+        <is>
+          <t>1394</t>
+        </is>
+      </c>
+      <c r="AB6" s="37" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="AC6" s="37" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="AD6" s="37" t="inlineStr">
+        <is>
+          <t>1838</t>
+        </is>
+      </c>
+      <c r="AE6" s="37" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="AF6" s="37" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="AG6" s="37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="AH6" s="37" t="inlineStr">
+        <is>
+          <t>16.6</t>
+        </is>
+      </c>
+      <c r="AI6" s="37" t="inlineStr">
+        <is>
+          <t>39.7</t>
+        </is>
+      </c>
+      <c r="AJ6" s="37" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="AK6" s="37" t="inlineStr">
+        <is>
+          <t>Voigt (Area, L/G, σ, S)</t>
+        </is>
+      </c>
+      <c r="AL6" s="37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AP6" s="18" t="inlineStr">
+      <c r="AM6" s="37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN6" s="37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO6" s="37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" s="38" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1685,69 +1926,77 @@
         <v>141.58</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-14.42632845605931</v>
       </c>
       <c r="H7" t="n">
         <v>1338.15</v>
       </c>
       <c r="I7" t="n">
-        <v>1338.15</v>
+        <v>1352.576328456059</v>
       </c>
       <c r="J7" t="n">
-        <v>1338.15</v>
+        <v>1342.738811426789</v>
       </c>
       <c r="K7" t="n">
-        <v>1338.15</v>
+        <v>1343.228862518079</v>
       </c>
       <c r="L7" t="n">
-        <v>1338.15</v>
+        <v>1340.320306832022</v>
       </c>
       <c r="M7" t="n">
-        <v>1338.15</v>
-      </c>
-      <c r="X7" s="19" t="n"/>
-      <c r="Y7" s="20" t="n"/>
-      <c r="Z7" s="20" t="inlineStr">
-        <is>
-          <t>A+1.14#0.1</t>
-        </is>
-      </c>
-      <c r="AA7" s="20" t="inlineStr">
+        <v>1340.738347679171</v>
+      </c>
+      <c r="X7" s="39" t="inlineStr"/>
+      <c r="Y7" s="40" t="inlineStr"/>
+      <c r="Z7" s="40" t="inlineStr">
+        <is>
+          <t>126.08,142.08</t>
+        </is>
+      </c>
+      <c r="AA7" s="40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB7" s="20" t="inlineStr">
+      <c r="AB7" s="40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC7" s="40" t="inlineStr">
         <is>
           <t>A*1</t>
         </is>
       </c>
-      <c r="AC7" s="20" t="inlineStr">
+      <c r="AD7" s="40" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AE7" s="40" t="inlineStr">
         <is>
           <t>A*1</t>
         </is>
       </c>
-      <c r="AD7" s="20" t="inlineStr">
-        <is>
-          <t>1:1e7</t>
-        </is>
-      </c>
-      <c r="AE7" s="20" t="n"/>
-      <c r="AF7" s="20" t="n"/>
-      <c r="AG7" s="20" t="inlineStr">
+      <c r="AF7" s="40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH7" s="20" t="n"/>
-      <c r="AI7" s="20" t="n"/>
-      <c r="AJ7" s="20" t="n"/>
-      <c r="AK7" s="20" t="n"/>
-      <c r="AL7" s="20" t="n"/>
-      <c r="AM7" s="20" t="n"/>
-      <c r="AN7" s="20" t="n"/>
-      <c r="AO7" s="20" t="n"/>
-      <c r="AP7" s="21" t="n"/>
+      <c r="AG7" s="40" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AH7" s="40" t="inlineStr"/>
+      <c r="AI7" s="40" t="inlineStr"/>
+      <c r="AJ7" s="40" t="inlineStr"/>
+      <c r="AK7" s="40" t="inlineStr"/>
+      <c r="AL7" s="40" t="inlineStr"/>
+      <c r="AM7" s="40" t="inlineStr"/>
+      <c r="AN7" s="40" t="inlineStr"/>
+      <c r="AO7" s="40" t="inlineStr"/>
+      <c r="AP7" s="41" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1760,109 +2009,117 @@
         <v>141.48</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-14.83468453792284</v>
       </c>
       <c r="H8" t="n">
         <v>1335.29</v>
       </c>
       <c r="I8" t="n">
-        <v>1335.29</v>
+        <v>1350.124684537923</v>
       </c>
       <c r="J8" t="n">
-        <v>1335.29</v>
+        <v>1339.986095082002</v>
       </c>
       <c r="K8" t="n">
-        <v>1335.29</v>
+        <v>1340.523689114662</v>
       </c>
       <c r="L8" t="n">
-        <v>1335.29</v>
+        <v>1337.516545922038</v>
       </c>
       <c r="M8" t="n">
-        <v>1335.29</v>
-      </c>
-      <c r="X8" s="16" t="inlineStr">
+        <v>1337.96835441922</v>
+      </c>
+      <c r="X8" s="36" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="Y8" s="17" t="inlineStr">
+      <c r="Y8" s="37" t="inlineStr">
         <is>
           <t>Sr3d3/2 p4</t>
         </is>
       </c>
-      <c r="Z8" s="17" t="inlineStr">
-        <is>
-          <t>136.22</t>
-        </is>
-      </c>
-      <c r="AA8" s="17" t="inlineStr">
-        <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="AB8" s="17" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="AC8" s="17" t="inlineStr">
-        <is>
-          <t>20.91</t>
-        </is>
-      </c>
-      <c r="AD8" s="17" t="inlineStr">
-        <is>
-          <t>767</t>
-        </is>
-      </c>
-      <c r="AE8" s="17" t="n"/>
-      <c r="AF8" s="17" t="n"/>
-      <c r="AG8" s="17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AH8" s="17" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="AI8" s="17" t="inlineStr">
-        <is>
-          <t>14.8</t>
-        </is>
-      </c>
-      <c r="AJ8" s="17" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="AK8" s="17" t="inlineStr">
-        <is>
-          <t>GL (Area)</t>
-        </is>
-      </c>
-      <c r="AL8" s="17" t="inlineStr">
-        <is>
-          <t>Multi-Regions Smart</t>
-        </is>
-      </c>
-      <c r="AM8" s="17" t="inlineStr">
-        <is>
-          <t>126.08</t>
-        </is>
-      </c>
-      <c r="AN8" s="17" t="inlineStr">
-        <is>
-          <t>142.08</t>
-        </is>
-      </c>
-      <c r="AO8" s="17" t="inlineStr">
+      <c r="Z8" s="37" t="inlineStr">
+        <is>
+          <t>135.91</t>
+        </is>
+      </c>
+      <c r="AA8" s="37" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="AB8" s="37" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="AC8" s="37" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="AD8" s="37" t="inlineStr">
+        <is>
+          <t>1318</t>
+        </is>
+      </c>
+      <c r="AE8" s="37" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="AF8" s="37" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="AG8" s="37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="AH8" s="37" t="inlineStr">
+        <is>
+          <t>11.9</t>
+        </is>
+      </c>
+      <c r="AI8" s="37" t="inlineStr">
+        <is>
+          <t>28.4</t>
+        </is>
+      </c>
+      <c r="AJ8" s="37" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="AK8" s="37" t="inlineStr">
+        <is>
+          <t>Voigt (Area, L/G, σ, S)</t>
+        </is>
+      </c>
+      <c r="AL8" s="37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AP8" s="18" t="inlineStr">
+      <c r="AM8" s="37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN8" s="37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO8" s="37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" s="38" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1879,69 +2136,77 @@
         <v>141.38</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-15.26185554129211</v>
       </c>
       <c r="H9" t="n">
         <v>1341.58</v>
       </c>
       <c r="I9" t="n">
-        <v>1341.58</v>
+        <v>1356.841855541292</v>
       </c>
       <c r="J9" t="n">
-        <v>1341.58</v>
+        <v>1346.387382606991</v>
       </c>
       <c r="K9" t="n">
-        <v>1341.58</v>
+        <v>1346.976025951098</v>
       </c>
       <c r="L9" t="n">
-        <v>1341.58</v>
+        <v>1343.865107720535</v>
       </c>
       <c r="M9" t="n">
-        <v>1341.58</v>
-      </c>
-      <c r="X9" s="19" t="n"/>
-      <c r="Y9" s="20" t="n"/>
-      <c r="Z9" s="20" t="inlineStr">
+        <v>1344.353339262668</v>
+      </c>
+      <c r="X9" s="39" t="inlineStr"/>
+      <c r="Y9" s="40" t="inlineStr"/>
+      <c r="Z9" s="40" t="inlineStr">
         <is>
           <t>C+1.7#0.2</t>
         </is>
       </c>
-      <c r="AA9" s="20" t="inlineStr">
+      <c r="AA9" s="40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB9" s="20" t="inlineStr">
+      <c r="AB9" s="40" t="inlineStr">
+        <is>
+          <t>0.3:3.5</t>
+        </is>
+      </c>
+      <c r="AC9" s="40" t="inlineStr">
         <is>
           <t>C*1</t>
         </is>
       </c>
-      <c r="AC9" s="20" t="inlineStr">
+      <c r="AD9" s="40" t="inlineStr">
+        <is>
+          <t>C*0.667#0.05</t>
+        </is>
+      </c>
+      <c r="AE9" s="40" t="inlineStr">
         <is>
           <t>C*1</t>
         </is>
       </c>
-      <c r="AD9" s="20" t="inlineStr">
-        <is>
-          <t>C*0.667#0.05</t>
-        </is>
-      </c>
-      <c r="AE9" s="20" t="n"/>
-      <c r="AF9" s="20" t="n"/>
-      <c r="AG9" s="20" t="inlineStr">
+      <c r="AF9" s="40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH9" s="20" t="n"/>
-      <c r="AI9" s="20" t="n"/>
-      <c r="AJ9" s="20" t="n"/>
-      <c r="AK9" s="20" t="n"/>
-      <c r="AL9" s="20" t="n"/>
-      <c r="AM9" s="20" t="n"/>
-      <c r="AN9" s="20" t="n"/>
-      <c r="AO9" s="20" t="n"/>
-      <c r="AP9" s="21" t="n"/>
+      <c r="AG9" s="40" t="inlineStr">
+        <is>
+          <t>C*1</t>
+        </is>
+      </c>
+      <c r="AH9" s="40" t="inlineStr"/>
+      <c r="AI9" s="40" t="inlineStr"/>
+      <c r="AJ9" s="40" t="inlineStr"/>
+      <c r="AK9" s="40" t="inlineStr"/>
+      <c r="AL9" s="40" t="inlineStr"/>
+      <c r="AM9" s="40" t="inlineStr"/>
+      <c r="AN9" s="40" t="inlineStr"/>
+      <c r="AO9" s="40" t="inlineStr"/>
+      <c r="AP9" s="41" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1954,25 +2219,25 @@
         <v>141.28</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-15.70905906568601</v>
       </c>
       <c r="H10" t="n">
         <v>1349.18</v>
       </c>
       <c r="I10" t="n">
-        <v>1349.18</v>
+        <v>1364.889059065686</v>
       </c>
       <c r="J10" t="n">
-        <v>1349.18</v>
+        <v>1354.102879063613</v>
       </c>
       <c r="K10" t="n">
-        <v>1349.18</v>
+        <v>1354.746374195617</v>
       </c>
       <c r="L10" t="n">
-        <v>1349.18</v>
+        <v>1351.526123958047</v>
       </c>
       <c r="M10" t="n">
-        <v>1349.18</v>
+        <v>1352.053681848409</v>
       </c>
     </row>
     <row r="11">
@@ -1986,25 +2251,25 @@
         <v>141.18</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-16.17761577612009</v>
       </c>
       <c r="H11" t="n">
         <v>1344.67</v>
       </c>
       <c r="I11" t="n">
-        <v>1344.67</v>
+        <v>1360.84761577612</v>
       </c>
       <c r="J11" t="n">
-        <v>1344.67</v>
+        <v>1349.71280291749</v>
       </c>
       <c r="K11" t="n">
-        <v>1344.67</v>
+        <v>1350.41527789176</v>
       </c>
       <c r="L11" t="n">
-        <v>1344.67</v>
+        <v>1347.079735914038</v>
       </c>
       <c r="M11" t="n">
-        <v>1344.67</v>
+        <v>1347.649799052832</v>
       </c>
     </row>
     <row r="12">
@@ -2018,25 +2283,25 @@
         <v>141.08</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>-16.6689603337154</v>
       </c>
       <c r="H12" t="n">
         <v>1336.42</v>
       </c>
       <c r="I12" t="n">
-        <v>1336.42</v>
+        <v>1353.088960333715</v>
       </c>
       <c r="J12" t="n">
-        <v>1336.42</v>
+        <v>1341.58738710888</v>
       </c>
       <c r="K12" t="n">
-        <v>1336.42</v>
+        <v>1342.353328465652</v>
       </c>
       <c r="L12" t="n">
-        <v>1336.42</v>
+        <v>1338.896095264457</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.42</v>
+        <v>1339.512149494726</v>
       </c>
     </row>
     <row r="13">
@@ -2050,25 +2315,25 @@
         <v>140.98</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>-17.1846537368026</v>
       </c>
       <c r="H13" t="n">
         <v>1281.16</v>
       </c>
       <c r="I13" t="n">
-        <v>1281.160000000001</v>
+        <v>1298.344653736803</v>
       </c>
       <c r="J13" t="n">
-        <v>1281.16</v>
+        <v>1286.456880225135</v>
       </c>
       <c r="K13" t="n">
-        <v>1281.16</v>
+        <v>1287.291169799166</v>
       </c>
       <c r="L13" t="n">
-        <v>1281.16</v>
+        <v>1283.705365018781</v>
       </c>
       <c r="M13" t="n">
-        <v>1281.160000000001</v>
+        <v>1284.371238693722</v>
       </c>
     </row>
     <row r="14">
@@ -2082,25 +2347,25 @@
         <v>140.88</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.728484105318785e-12</v>
+        <v>-17.72639728928789</v>
       </c>
       <c r="H14" t="n">
         <v>1323.55</v>
       </c>
       <c r="I14" t="n">
-        <v>1323.550000000003</v>
+        <v>1341.276397289288</v>
       </c>
       <c r="J14" t="n">
-        <v>1323.55</v>
+        <v>1328.981547785942</v>
       </c>
       <c r="K14" t="n">
-        <v>1323.55</v>
+        <v>1329.88950395209</v>
       </c>
       <c r="L14" t="n">
-        <v>1323.55</v>
+        <v>1326.167720557575</v>
       </c>
       <c r="M14" t="n">
-        <v>1323.550000000003</v>
+        <v>1326.887624993681</v>
       </c>
     </row>
     <row r="15">
@@ -2114,25 +2379,25 @@
         <v>140.78</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.000444171950221e-11</v>
+        <v>-18.29604845208951</v>
       </c>
       <c r="H15" t="n">
         <v>1322.81</v>
       </c>
       <c r="I15" t="n">
-        <v>1322.81000000001</v>
+        <v>1341.106048452089</v>
       </c>
       <c r="J15" t="n">
-        <v>1322.81</v>
+        <v>1328.381673653976</v>
       </c>
       <c r="K15" t="n">
-        <v>1322.81</v>
+        <v>1329.369097630519</v>
       </c>
       <c r="L15" t="n">
-        <v>1322.81</v>
+        <v>1325.503350783113</v>
       </c>
       <c r="M15" t="n">
-        <v>1322.81000000001</v>
+        <v>1326.281926384481</v>
       </c>
     </row>
     <row r="16">
@@ -2146,25 +2411,25 @@
         <v>140.68</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.728928277269006e-11</v>
+        <v>-18.89563888062457</v>
       </c>
       <c r="H16" t="n">
         <v>1352.14</v>
       </c>
       <c r="I16" t="n">
-        <v>1352.140000000037</v>
+        <v>1371.035638880625</v>
       </c>
       <c r="J16" t="n">
-        <v>1352.14</v>
+        <v>1357.857561585176</v>
       </c>
       <c r="K16" t="n">
-        <v>1352.14</v>
+        <v>1358.930789515444</v>
       </c>
       <c r="L16" t="n">
-        <v>1352.14</v>
+        <v>1354.91245939744</v>
       </c>
       <c r="M16" t="n">
-        <v>1352.140000000037</v>
+        <v>1355.754828382566</v>
       </c>
     </row>
     <row r="17">
@@ -2178,25 +2443,25 @@
         <v>140.58</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.336957211606205e-10</v>
+        <v>-19.52739500856774</v>
       </c>
       <c r="H17" t="n">
         <v>1304.84</v>
       </c>
       <c r="I17" t="n">
-        <v>1304.840000000134</v>
+        <v>1324.367395008568</v>
       </c>
       <c r="J17" t="n">
-        <v>1304.84</v>
+        <v>1310.709536934761</v>
       </c>
       <c r="K17" t="n">
-        <v>1304.84</v>
+        <v>1311.875498585606</v>
       </c>
       <c r="L17" t="n">
-        <v>1304.84</v>
+        <v>1307.695266324338</v>
       </c>
       <c r="M17" t="n">
-        <v>1304.840000000134</v>
+        <v>1308.607093163863</v>
       </c>
     </row>
     <row r="18">
@@ -2210,25 +2475,25 @@
         <v>140.48</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.677076503867283e-10</v>
+        <v>-20.19376160787897</v>
       </c>
       <c r="H18" t="n">
         <v>1296.85</v>
       </c>
       <c r="I18" t="n">
-        <v>1296.850000000468</v>
+        <v>1317.043761607879</v>
       </c>
       <c r="J18" t="n">
-        <v>1296.85</v>
+        <v>1302.87794853717</v>
       </c>
       <c r="K18" t="n">
-        <v>1296.85</v>
+        <v>1304.144233592835</v>
       </c>
       <c r="L18" t="n">
-        <v>1296.85</v>
+        <v>1299.792009294101</v>
       </c>
       <c r="M18" t="n">
-        <v>1296.850000000467</v>
+        <v>1300.779570183772</v>
       </c>
     </row>
     <row r="19">
@@ -2242,25 +2507,25 @@
         <v>140.38</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.591388354427181e-09</v>
+        <v>-20.89742884058819</v>
       </c>
       <c r="H19" t="n">
         <v>1297.71</v>
       </c>
       <c r="I19" t="n">
-        <v>1297.710000001591</v>
+        <v>1318.607428840588</v>
       </c>
       <c r="J19" t="n">
-        <v>1297.71</v>
+        <v>1303.903170780581</v>
       </c>
       <c r="K19" t="n">
-        <v>1297.71</v>
+        <v>1305.278103877108</v>
       </c>
       <c r="L19" t="n">
-        <v>1297.71</v>
+        <v>1300.742945612875</v>
       </c>
       <c r="M19" t="n">
-        <v>1297.71000000159</v>
+        <v>1301.813208570024</v>
       </c>
     </row>
     <row r="20">
@@ -2274,25 +2539,25 @@
         <v>140.28</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.269839675747789e-09</v>
+        <v>-21.64136342303073</v>
       </c>
       <c r="H20" t="n">
         <v>1346.66</v>
       </c>
       <c r="I20" t="n">
-        <v>1346.66000000527</v>
+        <v>1368.301363423031</v>
       </c>
       <c r="J20" t="n">
-        <v>1346.66</v>
+        <v>1353.025605899468</v>
       </c>
       <c r="K20" t="n">
-        <v>1346.66</v>
+        <v>1354.518331743787</v>
       </c>
       <c r="L20" t="n">
-        <v>1346.66</v>
+        <v>1349.78835414167</v>
       </c>
       <c r="M20" t="n">
-        <v>1346.660000005266</v>
+        <v>1350.949071638106</v>
       </c>
     </row>
     <row r="21">
@@ -2306,25 +2571,25 @@
         <v>140.18</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.698344931355678e-08</v>
+        <v>-22.42884465347061</v>
       </c>
       <c r="H21" t="n">
         <v>1293.78</v>
       </c>
       <c r="I21" t="n">
-        <v>1293.780000016983</v>
+        <v>1316.208844653471</v>
       </c>
       <c r="J21" t="n">
-        <v>1293.78</v>
+        <v>1300.325686511889</v>
       </c>
       <c r="K21" t="n">
-        <v>1293.780000000001</v>
+        <v>1301.946266668192</v>
       </c>
       <c r="L21" t="n">
-        <v>1293.78</v>
+        <v>1297.008537514074</v>
       </c>
       <c r="M21" t="n">
-        <v>1293.78000001697</v>
+        <v>1298.268353959316</v>
       </c>
     </row>
     <row r="22">
@@ -2338,25 +2603,25 @@
         <v>140.08</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.326637619873509e-08</v>
+        <v>-23.26350621611118</v>
       </c>
       <c r="H22" t="n">
         <v>1294.58</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.580000053266</v>
+        <v>1317.843506216111</v>
       </c>
       <c r="J22" t="n">
-        <v>1294.58</v>
+        <v>1301.313878431969</v>
       </c>
       <c r="K22" t="n">
-        <v>1294.580000000003</v>
+        <v>1303.073401644762</v>
       </c>
       <c r="L22" t="n">
-        <v>1294.58</v>
+        <v>1297.91382462632</v>
       </c>
       <c r="M22" t="n">
-        <v>1294.580000053223</v>
+        <v>1299.282401513061</v>
       </c>
     </row>
     <row r="23">
@@ -2370,25 +2635,25 @@
         <v>139.98</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.625903678359464e-07</v>
+        <v>-24.14938487741938</v>
       </c>
       <c r="H23" t="n">
         <v>1282.76</v>
       </c>
       <c r="I23" t="n">
-        <v>1282.76000016259</v>
+        <v>1306.909384877419</v>
       </c>
       <c r="J23" t="n">
-        <v>1282.76</v>
+        <v>1289.69068379235</v>
       </c>
       <c r="K23" t="n">
-        <v>1282.760000000012</v>
+        <v>1291.601392061895</v>
       </c>
       <c r="L23" t="n">
-        <v>1282.76</v>
+        <v>1286.204573438818</v>
       </c>
       <c r="M23" t="n">
-        <v>1282.760000162455</v>
+        <v>1287.692735584356</v>
       </c>
     </row>
     <row r="24">
@@ -2402,25 +2667,25 @@
         <v>139.88</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.830196758121019e-07</v>
+        <v>-25.09097744634414</v>
       </c>
       <c r="H24" t="n">
         <v>1291.45</v>
       </c>
       <c r="I24" t="n">
-        <v>1291.45000048302</v>
+        <v>1316.540977446344</v>
       </c>
       <c r="J24" t="n">
-        <v>1291.45</v>
+        <v>1298.586644516482</v>
       </c>
       <c r="K24" t="n">
-        <v>1291.450000000044</v>
+        <v>1300.66207756206</v>
       </c>
       <c r="L24" t="n">
-        <v>1291.45</v>
+        <v>1295.011174134728</v>
       </c>
       <c r="M24" t="n">
-        <v>1291.450000482608</v>
+        <v>1296.631081233075</v>
       </c>
     </row>
     <row r="25">
@@ -2434,25 +2699,25 @@
         <v>139.78</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.396616198690026e-06</v>
+        <v>-26.09330769430198</v>
       </c>
       <c r="H25" t="n">
         <v>1275.21</v>
       </c>
       <c r="I25" t="n">
-        <v>1275.210001396616</v>
+        <v>1301.303307694302</v>
       </c>
       <c r="J25" t="n">
-        <v>1275.21</v>
+        <v>1282.562346186457</v>
       </c>
       <c r="K25" t="n">
-        <v>1275.210000000162</v>
+        <v>1284.817507443845</v>
       </c>
       <c r="L25" t="n">
-        <v>1275.21</v>
+        <v>1278.894052688854</v>
       </c>
       <c r="M25" t="n">
-        <v>1275.210001395391</v>
+        <v>1280.659401375146</v>
       </c>
     </row>
     <row r="26">
@@ -2466,25 +2731,25 @@
         <v>139.68</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.930484808734036e-06</v>
+        <v>-27.16200534511108</v>
       </c>
       <c r="H26" t="n">
         <v>1311.33</v>
       </c>
       <c r="I26" t="n">
-        <v>1311.330003930485</v>
+        <v>1338.492005345111</v>
       </c>
       <c r="J26" t="n">
-        <v>1311.33</v>
+        <v>1318.908422359006</v>
       </c>
       <c r="K26" t="n">
-        <v>1311.330000000583</v>
+        <v>1321.359970283225</v>
       </c>
       <c r="L26" t="n">
-        <v>1311.33</v>
+        <v>1315.143674909274</v>
       </c>
       <c r="M26" t="n">
-        <v>1311.330003926911</v>
+        <v>1317.069937793605</v>
       </c>
     </row>
     <row r="27">
@@ -2498,25 +2763,25 @@
         <v>139.58</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.0766816103569e-05</v>
+        <v>-28.30339977846461</v>
       </c>
       <c r="H27" t="n">
         <v>1287.86</v>
       </c>
       <c r="I27" t="n">
-        <v>1287.860010766816</v>
+        <v>1316.163399778465</v>
       </c>
       <c r="J27" t="n">
-        <v>1287.86</v>
+        <v>1295.675559390271</v>
       </c>
       <c r="K27" t="n">
-        <v>1287.860000002038</v>
+        <v>1298.342028601924</v>
       </c>
       <c r="L27" t="n">
-        <v>1287.86</v>
+        <v>1291.810551025095</v>
       </c>
       <c r="M27" t="n">
-        <v>1287.860010756586</v>
+        <v>1293.915260761174</v>
       </c>
     </row>
     <row r="28">
@@ -2530,25 +2795,25 @@
         <v>139.48</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.870887169592606e-05</v>
+        <v>-29.52463178295261</v>
       </c>
       <c r="H28" t="n">
         <v>1305.54</v>
       </c>
       <c r="I28" t="n">
-        <v>1305.540028708872</v>
+        <v>1335.064631782953</v>
       </c>
       <c r="J28" t="n">
-        <v>1305.54</v>
+        <v>1313.604501839425</v>
       </c>
       <c r="K28" t="n">
-        <v>1305.540000006934</v>
+        <v>1316.506559599914</v>
       </c>
       <c r="L28" t="n">
-        <v>1305.54</v>
+        <v>1309.635240906861</v>
       </c>
       <c r="M28" t="n">
-        <v>1305.540028680093</v>
+        <v>1311.938329436752</v>
       </c>
     </row>
     <row r="29">
@@ -2562,25 +2827,25 @@
         <v>139.38</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.451582587236771e-05</v>
+        <v>-9.603787601598469</v>
       </c>
       <c r="H29" t="n">
-        <v>1286.85</v>
+        <v>1265.62</v>
       </c>
       <c r="I29" t="n">
-        <v>1286.850074515826</v>
+        <v>1296.453787601598</v>
       </c>
       <c r="J29" t="n">
-        <v>1286.85</v>
+        <v>1273.946058532304</v>
       </c>
       <c r="K29" t="n">
-        <v>1286.850000022964</v>
+        <v>1277.106803208016</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.850000000001</v>
+        <v>1269.868360021979</v>
       </c>
       <c r="M29" t="n">
-        <v>1286.850074436169</v>
+        <v>1272.392565839298</v>
       </c>
     </row>
     <row r="30">
@@ -2594,25 +2859,25 @@
         <v>139.28</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.0001882784838471707</v>
+        <v>-12.21006071224906</v>
       </c>
       <c r="H30" t="n">
-        <v>1284.54</v>
+        <v>1264.51</v>
       </c>
       <c r="I30" t="n">
-        <v>1284.540188278484</v>
+        <v>1296.750060712249</v>
       </c>
       <c r="J30" t="n">
-        <v>1284.54</v>
+        <v>1273.111109379291</v>
       </c>
       <c r="K30" t="n">
-        <v>1284.540000074007</v>
+        <v>1276.556419020209</v>
       </c>
       <c r="L30" t="n">
-        <v>1284.540000000002</v>
+        <v>1268.920586246683</v>
       </c>
       <c r="M30" t="n">
-        <v>1284.540188061246</v>
+        <v>1271.691946066066</v>
       </c>
     </row>
     <row r="31">
@@ -2626,25 +2891,25 @@
         <v>139.18</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.0004631152414731332</v>
+        <v>-1.653948388077879</v>
       </c>
       <c r="H31" t="n">
-        <v>1296.58</v>
+        <v>1264.48</v>
       </c>
       <c r="I31" t="n">
-        <v>1296.580463115241</v>
+        <v>1298.233948388078</v>
       </c>
       <c r="J31" t="n">
-        <v>1296.58</v>
+        <v>1273.370613057234</v>
       </c>
       <c r="K31" t="n">
-        <v>1296.580000232111</v>
+        <v>1277.129554053716</v>
       </c>
       <c r="L31" t="n">
-        <v>1296.580000000009</v>
+        <v>1269.062667679244</v>
       </c>
       <c r="M31" t="n">
-        <v>1296.580462530861</v>
+        <v>1272.111113597883</v>
       </c>
     </row>
     <row r="32">
@@ -2658,25 +2923,25 @@
         <v>139.08</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.00110899661399344</v>
+        <v>-11.04749225037381</v>
       </c>
       <c r="H32" t="n">
-        <v>1288.78</v>
+        <v>1264.44</v>
       </c>
       <c r="I32" t="n">
-        <v>1288.781108996614</v>
+        <v>1299.827492250374</v>
       </c>
       <c r="J32" t="n">
-        <v>1288.78</v>
+        <v>1273.635615683523</v>
       </c>
       <c r="K32" t="n">
-        <v>1288.780000708485</v>
+        <v>1277.740923785329</v>
       </c>
       <c r="L32" t="n">
-        <v>1288.780000000036</v>
+        <v>1269.20543162751</v>
       </c>
       <c r="M32" t="n">
-        <v>1288.781107444691</v>
+        <v>1272.565521154012</v>
       </c>
     </row>
     <row r="33">
@@ -2690,25 +2955,25 @@
         <v>138.98</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.002585477009233728</v>
+        <v>-39.17457499244915</v>
       </c>
       <c r="H33" t="n">
-        <v>1262.37</v>
+        <v>1264.39</v>
       </c>
       <c r="I33" t="n">
-        <v>1262.372585477009</v>
+        <v>1301.544574992449</v>
       </c>
       <c r="J33" t="n">
-        <v>1262.37</v>
+        <v>1273.907260632406</v>
       </c>
       <c r="K33" t="n">
-        <v>1262.370002104708</v>
+        <v>1278.395909561756</v>
       </c>
       <c r="L33" t="n">
-        <v>1262.370000000129</v>
+        <v>1269.34979497844</v>
       </c>
       <c r="M33" t="n">
-        <v>1262.372581406295</v>
+        <v>1273.061609819848</v>
       </c>
     </row>
     <row r="34">
@@ -2722,25 +2987,25 @@
         <v>138.88</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.005868631508519684</v>
+        <v>-5.091289572372034</v>
       </c>
       <c r="H34" t="n">
-        <v>1298.36</v>
+        <v>1264.38</v>
       </c>
       <c r="I34" t="n">
-        <v>1298.365868631508</v>
+        <v>1303.451289572372</v>
       </c>
       <c r="J34" t="n">
-        <v>1298.36</v>
+        <v>1274.236799669779</v>
       </c>
       <c r="K34" t="n">
-        <v>1298.360006085456</v>
+        <v>1279.15067633112</v>
       </c>
       <c r="L34" t="n">
-        <v>1298.360000000457</v>
+        <v>1269.546776199923</v>
       </c>
       <c r="M34" t="n">
-        <v>1298.365858084522</v>
+        <v>1273.65703737155</v>
       </c>
     </row>
     <row r="35">
@@ -2754,25 +3019,25 @@
         <v>138.78</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01296984323153083</v>
+        <v>-74.35640298134263</v>
       </c>
       <c r="H35" t="n">
-        <v>1231.15</v>
+        <v>1264.35</v>
       </c>
       <c r="I35" t="n">
-        <v>1231.162969843232</v>
+        <v>1305.506402981343</v>
       </c>
       <c r="J35" t="n">
-        <v>1231.15</v>
+        <v>1274.565605614049</v>
       </c>
       <c r="K35" t="n">
-        <v>1231.150017125696</v>
+        <v>1279.952315763032</v>
       </c>
       <c r="L35" t="n">
-        <v>1231.150000001573</v>
+        <v>1269.737509277756</v>
       </c>
       <c r="M35" t="n">
-        <v>1231.162942860131</v>
+        <v>1274.300972326505</v>
       </c>
     </row>
     <row r="36">
@@ -2786,25 +3051,25 @@
         <v>138.68</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.02790935212146906</v>
+        <v>-19.03194503424947</v>
       </c>
       <c r="H36" t="n">
-        <v>1288.75</v>
+        <v>1264.35</v>
       </c>
       <c r="I36" t="n">
-        <v>1288.777909352121</v>
+        <v>1307.781945034249</v>
       </c>
       <c r="J36" t="n">
-        <v>1288.75</v>
+        <v>1274.94518676846</v>
       </c>
       <c r="K36" t="n">
-        <v>1288.750046910666</v>
+        <v>1280.859021315836</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.750000005266</v>
+        <v>1269.973259955928</v>
       </c>
       <c r="M36" t="n">
-        <v>1288.77784123671</v>
+        <v>1275.054476994025</v>
       </c>
     </row>
     <row r="37">
@@ -2818,25 +3083,25 @@
         <v>138.58</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.05847852893680283</v>
+        <v>-45.83396484793116</v>
       </c>
       <c r="H37" t="n">
-        <v>1264.45</v>
+        <v>1264.36</v>
       </c>
       <c r="I37" t="n">
-        <v>1264.508478528937</v>
+        <v>1310.283964847931</v>
       </c>
       <c r="J37" t="n">
-        <v>1264.45</v>
+        <v>1275.357203415798</v>
       </c>
       <c r="K37" t="n">
-        <v>1264.450125077075</v>
+        <v>1281.860303814133</v>
       </c>
       <c r="L37" t="n">
-        <v>1264.450000017158</v>
+        <v>1270.235444729817</v>
       </c>
       <c r="M37" t="n">
-        <v>1264.508309039189</v>
+        <v>1275.911012888183</v>
       </c>
     </row>
     <row r="38">
@@ -2850,25 +3115,25 @@
         <v>138.48</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1193130725389437</v>
+        <v>-9.483516002255328</v>
       </c>
       <c r="H38" t="n">
-        <v>1303.52</v>
+        <v>1264.34</v>
       </c>
       <c r="I38" t="n">
-        <v>1303.639313072539</v>
+        <v>1313.003516002255</v>
       </c>
       <c r="J38" t="n">
-        <v>1303.52</v>
+        <v>1275.763486721702</v>
       </c>
       <c r="K38" t="n">
-        <v>1303.520324624405</v>
+        <v>1282.9272588228</v>
       </c>
       <c r="L38" t="n">
-        <v>1303.5200000544</v>
+        <v>1270.485653144054</v>
       </c>
       <c r="M38" t="n">
-        <v>1303.638897875772</v>
+        <v>1276.847117313698</v>
       </c>
     </row>
     <row r="39">
@@ -2882,25 +3147,25 @@
         <v>138.38</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2370478884881777</v>
+        <v>-3.037959638631492</v>
       </c>
       <c r="H39" t="n">
-        <v>1312.96</v>
+        <v>1264.31</v>
       </c>
       <c r="I39" t="n">
-        <v>1313.197047888488</v>
+        <v>1315.997959638632</v>
       </c>
       <c r="J39" t="n">
-        <v>1312.960000000001</v>
+        <v>1276.18606046002</v>
       </c>
       <c r="K39" t="n">
-        <v>1312.960820155987</v>
+        <v>1284.092900846321</v>
       </c>
       <c r="L39" t="n">
-        <v>1312.960000167861</v>
+        <v>1270.745674075697</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.196047881772</v>
+        <v>1277.903324256593</v>
       </c>
     </row>
     <row r="40">
@@ -2914,25 +3179,25 @@
         <v>138.28</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.4586168524917866</v>
+        <v>-43.15271970717959</v>
       </c>
       <c r="H40" t="n">
-        <v>1276.13</v>
+        <v>1264.24</v>
       </c>
       <c r="I40" t="n">
-        <v>1276.588616852492</v>
+        <v>1319.28271970718</v>
       </c>
       <c r="J40" t="n">
-        <v>1276.130000000005</v>
+        <v>1276.597166055845</v>
       </c>
       <c r="K40" t="n">
-        <v>1276.132017148477</v>
+        <v>1285.342584591637</v>
       </c>
       <c r="L40" t="n">
-        <v>1276.130000504103</v>
+        <v>1270.987526846969</v>
       </c>
       <c r="M40" t="n">
-        <v>1276.586251949723</v>
+        <v>1279.075442212728</v>
       </c>
     </row>
     <row r="41">
@@ -2946,25 +3211,25 @@
         <v>138.18</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.8640451512985692</v>
+        <v>-39.96369857851664</v>
       </c>
       <c r="H41" t="n">
-        <v>1283.01</v>
+        <v>1264.19</v>
       </c>
       <c r="I41" t="n">
-        <v>1283.874045151299</v>
+        <v>1322.973698578517</v>
       </c>
       <c r="J41" t="n">
-        <v>1283.01000000002</v>
+        <v>1277.059291542778</v>
       </c>
       <c r="K41" t="n">
-        <v>1283.014829689348</v>
+        <v>1286.754540886254</v>
       </c>
       <c r="L41" t="n">
-        <v>1283.010001473408</v>
+        <v>1271.273498220837</v>
       </c>
       <c r="M41" t="n">
-        <v>1283.868560675641</v>
+        <v>1280.456367928649</v>
       </c>
     </row>
     <row r="42">
@@ -2978,25 +3243,25 @@
         <v>138.08</v>
       </c>
       <c r="G42" t="n">
-        <v>-28.19525340734094</v>
+        <v>-75.68068720935662</v>
       </c>
       <c r="H42" t="n">
-        <v>1278.08</v>
+        <v>1264.17</v>
       </c>
       <c r="I42" t="n">
-        <v>1279.665253407341</v>
+        <v>1327.150687209357</v>
       </c>
       <c r="J42" t="n">
-        <v>1278.080000000077</v>
+        <v>1277.585205155378</v>
       </c>
       <c r="K42" t="n">
-        <v>1278.091257799674</v>
+        <v>1288.360565387049</v>
       </c>
       <c r="L42" t="n">
-        <v>1278.080004191552</v>
+        <v>1271.616186601531</v>
       </c>
       <c r="M42" t="n">
-        <v>1279.652794920835</v>
+        <v>1282.098730065399</v>
       </c>
     </row>
     <row r="43">
@@ -3010,25 +3275,25 @@
         <v>137.98</v>
       </c>
       <c r="G43" t="n">
-        <v>-12.30227986857267</v>
+        <v>-63.62232426477658</v>
       </c>
       <c r="H43" t="n">
-        <v>1277.73</v>
+        <v>1264.16</v>
       </c>
       <c r="I43" t="n">
-        <v>1280.562279868573</v>
+        <v>1331.882324264777</v>
       </c>
       <c r="J43" t="n">
-        <v>1277.730000000286</v>
+        <v>1278.157994431993</v>
       </c>
       <c r="K43" t="n">
-        <v>1277.755547757501</v>
+        <v>1290.166913601908</v>
       </c>
       <c r="L43" t="n">
-        <v>1277.730011606178</v>
+        <v>1271.998555110523</v>
       </c>
       <c r="M43" t="n">
-        <v>1280.534587626218</v>
+        <v>1284.038861120353</v>
       </c>
     </row>
     <row r="44">
@@ -3042,25 +3307,25 @@
         <v>137.88</v>
       </c>
       <c r="G44" t="n">
-        <v>31.85230568361339</v>
+        <v>-22.77354800620515</v>
       </c>
       <c r="H44" t="n">
-        <v>1277.74</v>
+        <v>1264.17</v>
       </c>
       <c r="I44" t="n">
-        <v>1282.667694316387</v>
+        <v>1337.293548006205</v>
       </c>
       <c r="J44" t="n">
-        <v>1277.740000001025</v>
+        <v>1278.791111895212</v>
       </c>
       <c r="K44" t="n">
-        <v>1277.796445251128</v>
+        <v>1292.215478655856</v>
       </c>
       <c r="L44" t="n">
-        <v>1277.740031280991</v>
+        <v>1272.433995663352</v>
       </c>
       <c r="M44" t="n">
-        <v>1282.607517593877</v>
+        <v>1286.362961791785</v>
       </c>
     </row>
     <row r="45">
@@ -3074,25 +3339,25 @@
         <v>137.78</v>
       </c>
       <c r="G45" t="n">
-        <v>28.27143968879227</v>
+        <v>-29.11716510334145</v>
       </c>
       <c r="H45" t="n">
-        <v>1277.73</v>
+        <v>1264.13</v>
       </c>
       <c r="I45" t="n">
-        <v>1286.078560311208</v>
+        <v>1343.467165103341</v>
       </c>
       <c r="J45" t="n">
-        <v>1277.730000003573</v>
+        <v>1279.418428617761</v>
       </c>
       <c r="K45" t="n">
-        <v>1277.851418726763</v>
+        <v>1294.475363142835</v>
       </c>
       <c r="L45" t="n">
-        <v>1277.730082066001</v>
+        <v>1272.856406771721</v>
       </c>
       <c r="M45" t="n">
-        <v>1285.950813532466</v>
+        <v>1289.106966571025</v>
       </c>
     </row>
     <row r="46">
@@ -3106,25 +3371,25 @@
         <v>137.68</v>
       </c>
       <c r="G46" t="n">
-        <v>70.1171101748655</v>
+        <v>10.96770188976302</v>
       </c>
       <c r="H46" t="n">
-        <v>1277.7</v>
+        <v>1264.05</v>
       </c>
       <c r="I46" t="n">
-        <v>1291.472889825134</v>
+        <v>1350.622298110237</v>
       </c>
       <c r="J46" t="n">
-        <v>1277.700000012126</v>
+        <v>1280.054297284609</v>
       </c>
       <c r="K46" t="n">
-        <v>1277.954292198687</v>
+        <v>1297.005011041989</v>
       </c>
       <c r="L46" t="n">
-        <v>1277.700209581092</v>
+        <v>1273.280288591129</v>
       </c>
       <c r="M46" t="n">
-        <v>1291.208131825697</v>
+        <v>1292.43270119251</v>
       </c>
     </row>
     <row r="47">
@@ -3138,25 +3403,25 @@
         <v>137.58</v>
       </c>
       <c r="G47" t="n">
-        <v>19.6458888323416</v>
+        <v>-39.63421565232602</v>
       </c>
       <c r="H47" t="n">
-        <v>1277.65</v>
+        <v>1263.93</v>
       </c>
       <c r="I47" t="n">
-        <v>1299.774111167658</v>
+        <v>1359.054215652326</v>
       </c>
       <c r="J47" t="n">
-        <v>1277.650000040046</v>
+        <v>1280.703626745846</v>
       </c>
       <c r="K47" t="n">
-        <v>1278.168526847119</v>
+        <v>1299.865153844322</v>
       </c>
       <c r="L47" t="n">
-        <v>1277.650521028371</v>
+        <v>1273.71085980192</v>
       </c>
       <c r="M47" t="n">
-        <v>1299.238686010642</v>
+        <v>1296.564575260239</v>
       </c>
     </row>
     <row r="48">
@@ -3170,25 +3435,25 @@
         <v>137.48</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.143014042426103</v>
+        <v>-64.17231942362082</v>
       </c>
       <c r="H48" t="n">
-        <v>1277.6</v>
+        <v>1263.81</v>
       </c>
       <c r="I48" t="n">
-        <v>1312.203014042426</v>
+        <v>1369.232319423621</v>
       </c>
       <c r="J48" t="n">
-        <v>1277.600000128706</v>
+        <v>1281.411970544362</v>
       </c>
       <c r="K48" t="n">
-        <v>1278.629431039949</v>
+        <v>1303.172972115338</v>
       </c>
       <c r="L48" t="n">
-        <v>1277.601260971052</v>
+        <v>1274.1942023588</v>
       </c>
       <c r="M48" t="n">
-        <v>1311.146901461421</v>
+        <v>1301.883174405121</v>
       </c>
     </row>
     <row r="49">
@@ -3202,25 +3467,25 @@
         <v>137.38</v>
       </c>
       <c r="G49" t="n">
-        <v>64.88707703559726</v>
+        <v>13.30487881673707</v>
       </c>
       <c r="H49" t="n">
-        <v>1277.57</v>
+        <v>1263.74</v>
       </c>
       <c r="I49" t="n">
-        <v>1330.262922964403</v>
+        <v>1381.845121183263</v>
       </c>
       <c r="J49" t="n">
-        <v>1277.570000402571</v>
+        <v>1282.23563253048</v>
       </c>
       <c r="K49" t="n">
-        <v>1279.559765447402</v>
+        <v>1307.078127231895</v>
       </c>
       <c r="L49" t="n">
-        <v>1277.572970959518</v>
+        <v>1274.787442128148</v>
       </c>
       <c r="M49" t="n">
-        <v>1328.231851761161</v>
+        <v>1308.96391929274</v>
       </c>
     </row>
     <row r="50">
@@ -3234,25 +3499,25 @@
         <v>137.28</v>
       </c>
       <c r="G50" t="n">
-        <v>26.50780021173068</v>
+        <v>-15.58084424363665</v>
       </c>
       <c r="H50" t="n">
-        <v>1277.52</v>
+        <v>1263.6</v>
       </c>
       <c r="I50" t="n">
-        <v>1355.642199788269</v>
+        <v>1397.730844243637</v>
       </c>
       <c r="J50" t="n">
-        <v>1277.520001225461</v>
+        <v>1283.061793487922</v>
       </c>
       <c r="K50" t="n">
-        <v>1281.264278502103</v>
+        <v>1311.591766608418</v>
       </c>
       <c r="L50" t="n">
-        <v>1277.526814730349</v>
+        <v>1275.378976186996</v>
       </c>
       <c r="M50" t="n">
-        <v>1351.834977514774</v>
+        <v>1318.498307960301</v>
       </c>
     </row>
     <row r="51">
@@ -3266,25 +3531,25 @@
         <v>137.18</v>
       </c>
       <c r="G51" t="n">
-        <v>32.27903860485549</v>
+        <v>4.144012541966958</v>
       </c>
       <c r="H51" t="n">
-        <v>1277.43</v>
+        <v>1263.41</v>
       </c>
       <c r="I51" t="n">
-        <v>1390.200961395145</v>
+        <v>1418.335987458033</v>
       </c>
       <c r="J51" t="n">
-        <v>1277.430003630649</v>
+        <v>1283.91866375348</v>
       </c>
       <c r="K51" t="n">
-        <v>1284.289133404753</v>
+        <v>1316.910408973317</v>
       </c>
       <c r="L51" t="n">
-        <v>1277.44521850639</v>
+        <v>1275.998761434596</v>
       </c>
       <c r="M51" t="n">
-        <v>1383.24687807375</v>
+        <v>1331.738153296641</v>
       </c>
     </row>
     <row r="52">
@@ -3298,25 +3563,25 @@
         <v>137.08</v>
       </c>
       <c r="G52" t="n">
-        <v>26.78136281701677</v>
+        <v>16.88321690547286</v>
       </c>
       <c r="H52" t="n">
-        <v>1277.33</v>
+        <v>1263.19</v>
       </c>
       <c r="I52" t="n">
-        <v>1435.848637182983</v>
+        <v>1445.746783094527</v>
       </c>
       <c r="J52" t="n">
-        <v>1277.33001046912</v>
+        <v>1284.835668202383</v>
       </c>
       <c r="K52" t="n">
-        <v>1289.561118258781</v>
+        <v>1323.298039371433</v>
       </c>
       <c r="L52" t="n">
-        <v>1277.363088418402</v>
+        <v>1276.678684708306</v>
       </c>
       <c r="M52" t="n">
-        <v>1423.474653768738</v>
+        <v>1350.504390812405</v>
       </c>
     </row>
     <row r="53">
@@ -3330,25 +3595,25 @@
         <v>136.98</v>
       </c>
       <c r="G53" t="n">
-        <v>32.31281859236947</v>
+        <v>43.77316396279753</v>
       </c>
       <c r="H53" t="n">
-        <v>1277.2</v>
+        <v>1262.91</v>
       </c>
       <c r="I53" t="n">
-        <v>1494.24718140763</v>
+        <v>1482.786836037202</v>
       </c>
       <c r="J53" t="n">
-        <v>1277.200029382684</v>
+        <v>1285.793671812532</v>
       </c>
       <c r="K53" t="n">
-        <v>1298.427785062185</v>
+        <v>1331.072162794223</v>
       </c>
       <c r="L53" t="n">
-        <v>1277.270043411841</v>
+        <v>1277.403042651475</v>
       </c>
       <c r="M53" t="n">
-        <v>1472.803018380537</v>
+        <v>1377.247958778973</v>
       </c>
     </row>
     <row r="54">
@@ -3362,25 +3627,25 @@
         <v>136.88</v>
       </c>
       <c r="G54" t="n">
-        <v>35.0200276101184</v>
+        <v>68.56683288728459</v>
       </c>
       <c r="H54" t="n">
-        <v>1277.02</v>
+        <v>1262.55</v>
       </c>
       <c r="I54" t="n">
-        <v>1566.659972389882</v>
+        <v>1533.113167112715</v>
       </c>
       <c r="J54" t="n">
-        <v>1277.020080268</v>
+        <v>1286.785256483245</v>
       </c>
       <c r="K54" t="n">
-        <v>1312.871881238811</v>
+        <v>1340.723349019135</v>
       </c>
       <c r="L54" t="n">
-        <v>1277.164360784531</v>
+        <v>1278.169171524913</v>
       </c>
       <c r="M54" t="n">
-        <v>1530.475114229045</v>
+        <v>1415.085390085422</v>
       </c>
     </row>
     <row r="55">
@@ -3394,25 +3659,25 @@
         <v>136.78</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.522030516444602</v>
+        <v>49.31811196900344</v>
       </c>
       <c r="H55" t="n">
-        <v>1276.79</v>
+        <v>1262.07</v>
       </c>
       <c r="I55" t="n">
-        <v>1653.832030516445</v>
+        <v>1600.991888030997</v>
       </c>
       <c r="J55" t="n">
-        <v>1276.790213440897</v>
+        <v>1287.785063111588</v>
       </c>
       <c r="K55" t="n">
-        <v>1335.700463795401</v>
+        <v>1352.982880319512</v>
       </c>
       <c r="L55" t="n">
-        <v>1277.079681559654</v>
+        <v>1278.95828526459</v>
       </c>
       <c r="M55" t="n">
-        <v>1594.397151267937</v>
+        <v>1467.475659335306</v>
       </c>
     </row>
     <row r="56">
@@ -3426,25 +3691,25 @@
         <v>136.68</v>
       </c>
       <c r="G56" t="n">
-        <v>-21.48987226331519</v>
+        <v>43.63138854759609</v>
       </c>
       <c r="H56" t="n">
-        <v>1276.52</v>
+        <v>1261.5</v>
       </c>
       <c r="I56" t="n">
-        <v>1755.979872263315</v>
+        <v>1690.858611452404</v>
       </c>
       <c r="J56" t="n">
-        <v>1276.520552473716</v>
+        <v>1288.840217475301</v>
       </c>
       <c r="K56" t="n">
-        <v>1370.670658435301</v>
+        <v>1369.068005870456</v>
       </c>
       <c r="L56" t="n">
-        <v>1277.085946776529</v>
+        <v>1279.826608274212</v>
       </c>
       <c r="M56" t="n">
-        <v>1660.981647098361</v>
+        <v>1537.623779832435</v>
       </c>
     </row>
     <row r="57">
@@ -3458,25 +3723,25 @@
         <v>136.58</v>
       </c>
       <c r="G57" t="n">
-        <v>-63.23095984685051</v>
+        <v>3.376791540052182</v>
       </c>
       <c r="H57" t="n">
-        <v>1276.18</v>
+        <v>1260.83</v>
       </c>
       <c r="I57" t="n">
-        <v>1872.940959846851</v>
+        <v>1806.333208459948</v>
       </c>
       <c r="J57" t="n">
-        <v>1276.181392062997</v>
+        <v>1289.960864758091</v>
       </c>
       <c r="K57" t="n">
-        <v>1422.481764706734</v>
+        <v>1390.804548062921</v>
       </c>
       <c r="L57" t="n">
-        <v>1277.256464747957</v>
+        <v>1280.796934634785</v>
       </c>
       <c r="M57" t="n">
-        <v>1725.237497431799</v>
+        <v>1627.260861004151</v>
       </c>
     </row>
     <row r="58">
@@ -3490,25 +3755,25 @@
         <v>136.48</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.368177524795328</v>
+        <v>53.11158037800442</v>
       </c>
       <c r="H58" t="n">
-        <v>1275.79</v>
+        <v>1260.02</v>
       </c>
       <c r="I58" t="n">
-        <v>2004.658177524795</v>
+        <v>1949.178419621996</v>
       </c>
       <c r="J58" t="n">
-        <v>1275.793414551578</v>
+        <v>1291.130846363659</v>
       </c>
       <c r="K58" t="n">
-        <v>1496.731964625065</v>
+        <v>1420.9532699408</v>
       </c>
       <c r="L58" t="n">
-        <v>1277.783291970702</v>
+        <v>1281.870820297824</v>
       </c>
       <c r="M58" t="n">
-        <v>1781.361735852745</v>
+        <v>1735.283483019711</v>
       </c>
     </row>
     <row r="59">
@@ -3522,25 +3787,25 @@
         <v>136.38</v>
       </c>
       <c r="G59" t="n">
-        <v>-12.87609474424789</v>
+        <v>20.19417545366787</v>
       </c>
       <c r="H59" t="n">
-        <v>1275.28</v>
+        <v>1259</v>
       </c>
       <c r="I59" t="n">
-        <v>2151.516094744248</v>
+        <v>2118.445824546332</v>
       </c>
       <c r="J59" t="n">
-        <v>1275.28815360623</v>
+        <v>1292.308565196567</v>
       </c>
       <c r="K59" t="n">
-        <v>1599.375874161651</v>
+        <v>1463.576754613509</v>
       </c>
       <c r="L59" t="n">
-        <v>1278.872982422749</v>
+        <v>1283.031743099005</v>
       </c>
       <c r="M59" t="n">
-        <v>1823.44132406164</v>
+        <v>1856.528761637251</v>
       </c>
     </row>
     <row r="60">
@@ -3554,25 +3819,25 @@
         <v>136.28</v>
       </c>
       <c r="G60" t="n">
-        <v>-46.65648141980637</v>
+        <v>-42.1687899034232</v>
       </c>
       <c r="H60" t="n">
-        <v>1274.64</v>
+        <v>1257.71</v>
       </c>
       <c r="I60" t="n">
-        <v>2314.816481419806</v>
+        <v>2310.328789903423</v>
       </c>
       <c r="J60" t="n">
-        <v>1274.658954836013</v>
+        <v>1293.468103710591</v>
       </c>
       <c r="K60" t="n">
-        <v>1736.119162710522</v>
+        <v>1524.387063660493</v>
       </c>
       <c r="L60" t="n">
-        <v>1280.943831304452</v>
+        <v>1284.289791407201</v>
       </c>
       <c r="M60" t="n">
-        <v>1846.634939993901</v>
+        <v>1981.313831125138</v>
       </c>
     </row>
     <row r="61">
@@ -3586,25 +3851,25 @@
         <v>136.18</v>
       </c>
       <c r="G61" t="n">
-        <v>-15.71658824484257</v>
+        <v>-38.15563516344946</v>
       </c>
       <c r="H61" t="n">
-        <v>1273.89</v>
+        <v>1256.21</v>
       </c>
       <c r="I61" t="n">
-        <v>2496.626588244842</v>
+        <v>2519.065635163449</v>
       </c>
       <c r="J61" t="n">
-        <v>1273.932899911647</v>
+        <v>1294.710685729395</v>
       </c>
       <c r="K61" t="n">
-        <v>1911.243073380329</v>
+        <v>1610.886680758869</v>
       </c>
       <c r="L61" t="n">
-        <v>1284.653523063591</v>
+        <v>1285.79884653374</v>
       </c>
       <c r="M61" t="n">
-        <v>1848.106260071336</v>
+        <v>2096.299422141446</v>
       </c>
     </row>
     <row r="62">
@@ -3618,25 +3883,25 @@
         <v>136.08</v>
       </c>
       <c r="G62" t="n">
-        <v>65.93172283812464</v>
+        <v>26.49489031988605</v>
       </c>
       <c r="H62" t="n">
-        <v>1272.99</v>
+        <v>1254.43</v>
       </c>
       <c r="I62" t="n">
-        <v>2698.888277161876</v>
+        <v>2738.325109680114</v>
       </c>
       <c r="J62" t="n">
-        <v>1273.084529868549</v>
+        <v>1296.016613250877</v>
       </c>
       <c r="K62" t="n">
-        <v>2126.036496826163</v>
+        <v>1731.555909535542</v>
       </c>
       <c r="L62" t="n">
-        <v>1290.872109413807</v>
+        <v>1287.617943441709</v>
       </c>
       <c r="M62" t="n">
-        <v>1827.543633309299</v>
+        <v>2186.424643451986</v>
       </c>
     </row>
     <row r="63">
@@ -3650,25 +3915,25 @@
         <v>135.98</v>
       </c>
       <c r="G63" t="n">
-        <v>42.5981669588773</v>
+        <v>1.54640379233706</v>
       </c>
       <c r="H63" t="n">
-        <v>1271.89</v>
+        <v>1252.24</v>
       </c>
       <c r="I63" t="n">
-        <v>2921.981833041123</v>
+        <v>2963.033596207663</v>
       </c>
       <c r="J63" t="n">
-        <v>1272.09279910622</v>
+        <v>1297.317871508586</v>
       </c>
       <c r="K63" t="n">
-        <v>2377.235914832223</v>
+        <v>1894.441297455449</v>
       </c>
       <c r="L63" t="n">
-        <v>1300.789224214895</v>
+        <v>1289.799730997239</v>
       </c>
       <c r="M63" t="n">
-        <v>1787.269503902772</v>
+        <v>2238.19469624639</v>
       </c>
     </row>
     <row r="64">
@@ -3682,25 +3947,25 @@
         <v>135.88</v>
       </c>
       <c r="G64" t="n">
-        <v>42.21503897417688</v>
+        <v>14.77504387617319</v>
       </c>
       <c r="H64" t="n">
-        <v>1270.59</v>
+        <v>1249.66</v>
       </c>
       <c r="I64" t="n">
-        <v>3162.944961025823</v>
+        <v>3190.384956123827</v>
       </c>
       <c r="J64" t="n">
-        <v>1271.013596609142</v>
+        <v>1298.711694149515</v>
       </c>
       <c r="K64" t="n">
-        <v>2655.710076362946</v>
+        <v>2104.823781514271</v>
       </c>
       <c r="L64" t="n">
-        <v>1316.006659004556</v>
+        <v>1292.630928074177</v>
       </c>
       <c r="M64" t="n">
-        <v>1731.789833798305</v>
+        <v>2243.198552385864</v>
       </c>
     </row>
     <row r="65">
@@ -3714,25 +3979,25 @@
         <v>135.78</v>
       </c>
       <c r="G65" t="n">
-        <v>27.46966117612601</v>
+        <v>22.67772949194705</v>
       </c>
       <c r="H65" t="n">
-        <v>1269.11</v>
+        <v>1246.71</v>
       </c>
       <c r="I65" t="n">
-        <v>3413.890338823874</v>
+        <v>3418.682270508053</v>
       </c>
       <c r="J65" t="n">
-        <v>1269.971449240506</v>
+        <v>1300.315542105969</v>
       </c>
       <c r="K65" t="n">
-        <v>2945.78996095674</v>
+        <v>2361.756365203453</v>
       </c>
       <c r="L65" t="n">
-        <v>1338.489094779957</v>
+        <v>1296.532428228412</v>
       </c>
       <c r="M65" t="n">
-        <v>1666.849878214772</v>
+        <v>2200.207934970219</v>
       </c>
     </row>
     <row r="66">
@@ -3746,25 +4011,25 @@
         <v>135.68</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7440651699089358</v>
+        <v>17.64785118666668</v>
       </c>
       <c r="H66" t="n">
-        <v>1267.42</v>
+        <v>1243.37</v>
       </c>
       <c r="I66" t="n">
-        <v>3661.435934830091</v>
+        <v>3644.532148813333</v>
       </c>
       <c r="J66" t="n">
-        <v>1269.125666397691</v>
+        <v>1302.234224067206</v>
       </c>
       <c r="K66" t="n">
-        <v>3225.809641577566</v>
+        <v>2654.825555305367</v>
       </c>
       <c r="L66" t="n">
-        <v>1370.389478138817</v>
+        <v>1302.099626951641</v>
       </c>
       <c r="M66" t="n">
-        <v>1598.323035038897</v>
+        <v>2115.482742489119</v>
       </c>
     </row>
     <row r="67">
@@ -3778,25 +4043,25 @@
         <v>135.58</v>
       </c>
       <c r="G67" t="n">
-        <v>-21.67022595747994</v>
+        <v>6.625160924082138</v>
       </c>
       <c r="H67" t="n">
-        <v>1265.55</v>
+        <v>1239.65</v>
       </c>
       <c r="I67" t="n">
-        <v>3887.94022595748</v>
+        <v>3859.644839075918</v>
       </c>
       <c r="J67" t="n">
-        <v>1268.838030154374</v>
+        <v>1304.640366150437</v>
       </c>
       <c r="K67" t="n">
-        <v>3470.404514691078</v>
+        <v>2962.511096976226</v>
       </c>
       <c r="L67" t="n">
-        <v>1413.935334269443</v>
+        <v>1310.29452392641</v>
       </c>
       <c r="M67" t="n">
-        <v>1531.424886478241</v>
+        <v>2001.148852022844</v>
       </c>
     </row>
     <row r="68">
@@ -3810,25 +4075,25 @@
         <v>135.48</v>
       </c>
       <c r="G68" t="n">
-        <v>46.44047846890408</v>
+        <v>71.58004458165033</v>
       </c>
       <c r="H68" t="n">
-        <v>1263.48</v>
+        <v>1235.56</v>
       </c>
       <c r="I68" t="n">
-        <v>4074.209521531096</v>
+        <v>4049.069955418349</v>
       </c>
       <c r="J68" t="n">
-        <v>1269.650735376152</v>
+        <v>1307.760294210855</v>
       </c>
       <c r="K68" t="n">
-        <v>3654.072441046594</v>
+        <v>3253.322348755948</v>
       </c>
       <c r="L68" t="n">
-        <v>1470.953469002</v>
+        <v>1322.585677864487</v>
       </c>
       <c r="M68" t="n">
-        <v>1470.027802936351</v>
+        <v>1872.081634587058</v>
       </c>
     </row>
     <row r="69">
@@ -3842,25 +4107,25 @@
         <v>135.38</v>
       </c>
       <c r="G69" t="n">
-        <v>-59.74346637717827</v>
+        <v>-49.00330220861815</v>
       </c>
       <c r="H69" t="n">
-        <v>1261.23</v>
+        <v>1231.11</v>
       </c>
       <c r="I69" t="n">
-        <v>4203.503466377178</v>
+        <v>4192.763302208618</v>
       </c>
       <c r="J69" t="n">
-        <v>1272.503780925539</v>
+        <v>1311.898921679437</v>
       </c>
       <c r="K69" t="n">
-        <v>3755.763488306735</v>
+        <v>3490.509117844992</v>
       </c>
       <c r="L69" t="n">
-        <v>1542.458065798794</v>
+        <v>1341.153240102408</v>
       </c>
       <c r="M69" t="n">
-        <v>1416.542162669627</v>
+        <v>1742.53202258178</v>
       </c>
     </row>
     <row r="70">
@@ -3874,25 +4139,25 @@
         <v>135.28</v>
       </c>
       <c r="G70" t="n">
-        <v>-31.16016923502502</v>
+        <v>-36.65155942331694</v>
       </c>
       <c r="H70" t="n">
-        <v>1258.88</v>
+        <v>1226.45</v>
       </c>
       <c r="I70" t="n">
-        <v>4265.440169235025</v>
+        <v>4270.931559423317</v>
       </c>
       <c r="J70" t="n">
-        <v>1278.929030888606</v>
+        <v>1317.619901799075</v>
       </c>
       <c r="K70" t="n">
-        <v>3763.10091197777</v>
+        <v>3639.777271506213</v>
       </c>
       <c r="L70" t="n">
-        <v>1628.083242572323</v>
+        <v>1369.217389581692</v>
       </c>
       <c r="M70" t="n">
-        <v>1372.034591402011</v>
+        <v>1623.666996536338</v>
       </c>
     </row>
     <row r="71">
@@ -3906,25 +4171,25 @@
         <v>135.18</v>
       </c>
       <c r="G71" t="n">
-        <v>58.73440295478213</v>
+        <v>46.16870816993469</v>
       </c>
       <c r="H71" t="n">
-        <v>1256.47</v>
+        <v>1221.67</v>
       </c>
       <c r="I71" t="n">
-        <v>4258.505597045218</v>
+        <v>4271.071291830065</v>
       </c>
       <c r="J71" t="n">
-        <v>1291.171831388686</v>
+        <v>1325.611677673959</v>
       </c>
       <c r="K71" t="n">
-        <v>3674.940011932222</v>
+        <v>3677.42818054364</v>
       </c>
       <c r="L71" t="n">
-        <v>1725.420860539588</v>
+        <v>1410.900045761365</v>
       </c>
       <c r="M71" t="n">
-        <v>1336.419426064088</v>
+        <v>1522.141387851102</v>
       </c>
     </row>
     <row r="72">
@@ -3938,25 +4203,25 @@
         <v>135.08</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2722048730865936</v>
+        <v>-3.3990035167717</v>
       </c>
       <c r="H72" t="n">
-        <v>1254.01</v>
+        <v>1216.79</v>
       </c>
       <c r="I72" t="n">
-        <v>4190.577795126914</v>
+        <v>4194.249003516772</v>
       </c>
       <c r="J72" t="n">
-        <v>1312.458274725497</v>
+        <v>1336.78647797697</v>
       </c>
       <c r="K72" t="n">
-        <v>3501.637280909368</v>
+        <v>3596.625362732843</v>
       </c>
       <c r="L72" t="n">
-        <v>1829.661882804896</v>
+        <v>1470.979614326593</v>
       </c>
       <c r="M72" t="n">
-        <v>1308.835063532342</v>
+        <v>1440.227548480366</v>
       </c>
     </row>
     <row r="73">
@@ -3970,25 +4235,25 @@
         <v>134.98</v>
       </c>
       <c r="G73" t="n">
-        <v>85.39891059421825</v>
+        <v>105.1335008491251</v>
       </c>
       <c r="H73" t="n">
-        <v>1251.58</v>
+        <v>1211.96</v>
       </c>
       <c r="I73" t="n">
-        <v>4077.431089405782</v>
+        <v>4057.696499150875</v>
       </c>
       <c r="J73" t="n">
-        <v>1347.355240275107</v>
+        <v>1352.656886827422</v>
       </c>
       <c r="K73" t="n">
-        <v>3262.923719620387</v>
+        <v>3409.476373798072</v>
       </c>
       <c r="L73" t="n">
-        <v>1933.716819130009</v>
+        <v>1554.368747164668</v>
       </c>
       <c r="M73" t="n">
-        <v>1288.093783973114</v>
+        <v>1377.074491360714</v>
       </c>
     </row>
     <row r="74">
@@ -4002,25 +4267,25 @@
         <v>134.88</v>
       </c>
       <c r="G74" t="n">
-        <v>-64.04893144935113</v>
+        <v>-16.08788923747124</v>
       </c>
       <c r="H74" t="n">
-        <v>1249.24</v>
+        <v>1207.3</v>
       </c>
       <c r="I74" t="n">
-        <v>3939.708931449351</v>
+        <v>3891.747889237471</v>
       </c>
       <c r="J74" t="n">
-        <v>1401.881019927432</v>
+        <v>1375.449436712118</v>
       </c>
       <c r="K74" t="n">
-        <v>2983.827802214424</v>
+        <v>3143.633510771475</v>
       </c>
       <c r="L74" t="n">
-        <v>2028.694125855478</v>
+        <v>1664.6333771137</v>
       </c>
       <c r="M74" t="n">
-        <v>1272.871616036764</v>
+        <v>1329.931564640179</v>
       </c>
     </row>
     <row r="75">
@@ -4034,25 +4299,25 @@
         <v>134.78</v>
       </c>
       <c r="G75" t="n">
-        <v>-58.16264014659737</v>
+        <v>9.075938580088405</v>
       </c>
       <c r="H75" t="n">
-        <v>1247.05</v>
+        <v>1202.93</v>
       </c>
       <c r="I75" t="n">
-        <v>3799.792640146597</v>
+        <v>3732.554061419912</v>
       </c>
       <c r="J75" t="n">
-        <v>1483.569554997711</v>
+        <v>1408.527354477482</v>
       </c>
       <c r="K75" t="n">
-        <v>2690.154902808522</v>
+        <v>2835.201774539995</v>
       </c>
       <c r="L75" t="n">
-        <v>2105.073101290293</v>
+        <v>1802.20777342866</v>
       </c>
       <c r="M75" t="n">
-        <v>1261.919278828364</v>
+        <v>1295.407158973775</v>
       </c>
     </row>
     <row r="76">
@@ -4066,25 +4331,25 @@
         <v>134.68</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.84113492759798</v>
+        <v>55.43410321422971</v>
       </c>
       <c r="H76" t="n">
-        <v>1245</v>
+        <v>1198.84</v>
       </c>
       <c r="I76" t="n">
-        <v>3679.271134927598</v>
+        <v>3612.99589678577</v>
       </c>
       <c r="J76" t="n">
-        <v>1601.158839411843</v>
+        <v>1456.759200564367</v>
       </c>
       <c r="K76" t="n">
-        <v>2404.509921585661</v>
+        <v>2520.199693309755</v>
       </c>
       <c r="L76" t="n">
-        <v>2154.214193689567</v>
+        <v>1962.386920263266</v>
       </c>
       <c r="M76" t="n">
-        <v>1254.099311736579</v>
+        <v>1270.170082648382</v>
       </c>
     </row>
     <row r="77">
@@ -4098,25 +4363,25 @@
         <v>134.58</v>
       </c>
       <c r="G77" t="n">
-        <v>-19.23172081690518</v>
+        <v>22.78505862936527</v>
       </c>
       <c r="H77" t="n">
-        <v>1243.03</v>
+        <v>1194.9</v>
       </c>
       <c r="I77" t="n">
-        <v>3597.471720816905</v>
+        <v>3555.454941370635</v>
       </c>
       <c r="J77" t="n">
-        <v>1763.937867190295</v>
+        <v>1527.038354171284</v>
       </c>
       <c r="K77" t="n">
-        <v>2143.807918361377</v>
+        <v>2227.612958432144</v>
       </c>
       <c r="L77" t="n">
-        <v>2170.03</v>
+        <v>2134.132894608298</v>
       </c>
       <c r="M77" t="n">
-        <v>1248.44724136699</v>
+        <v>1251.370734158909</v>
       </c>
     </row>
     <row r="78">
@@ -4130,25 +4395,25 @@
         <v>134.48</v>
       </c>
       <c r="G78" t="n">
-        <v>16.44416409429459</v>
+        <v>18.16516318065396</v>
       </c>
       <c r="H78" t="n">
-        <v>1241.11</v>
+        <v>1191.06</v>
       </c>
       <c r="I78" t="n">
-        <v>3570.655835905705</v>
+        <v>3568.934836819346</v>
       </c>
       <c r="J78" t="n">
-        <v>1980.596625507602</v>
+        <v>1628.773464771611</v>
       </c>
       <c r="K78" t="n">
-        <v>1918.443598309207</v>
+        <v>1975.844584816014</v>
       </c>
       <c r="L78" t="n">
-        <v>2150.324193689557</v>
+        <v>2300.559595680787</v>
       </c>
       <c r="M78" t="n">
-        <v>1244.248335920997</v>
+        <v>1236.937191550934</v>
       </c>
     </row>
     <row r="79">
@@ -4162,25 +4427,25 @@
         <v>134.38</v>
       </c>
       <c r="G79" t="n">
-        <v>21.55245360222625</v>
+        <v>-17.97276731154625</v>
       </c>
       <c r="H79" t="n">
-        <v>1239.2</v>
+        <v>1187.23</v>
       </c>
       <c r="I79" t="n">
-        <v>3611.017546397774</v>
+        <v>3650.542767311546</v>
       </c>
       <c r="J79" t="n">
-        <v>2257.352686132098</v>
+        <v>1773.451353804479</v>
       </c>
       <c r="K79" t="n">
-        <v>1732.679745836548</v>
+        <v>1772.327848000786</v>
       </c>
       <c r="L79" t="n">
-        <v>2097.223101290275</v>
+        <v>2441.079122932905</v>
       </c>
       <c r="M79" t="n">
-        <v>1240.969494887422</v>
+        <v>1225.374442573376</v>
       </c>
     </row>
     <row r="80">
@@ -4194,25 +4459,25 @@
         <v>134.28</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.365955898469565</v>
+        <v>-68.53344839608644</v>
       </c>
       <c r="H80" t="n">
-        <v>1237.25</v>
+        <v>1183.32</v>
       </c>
       <c r="I80" t="n">
-        <v>3725.11595589847</v>
+        <v>3790.283448396086</v>
       </c>
       <c r="J80" t="n">
-        <v>2595.622752879568</v>
+        <v>1973.268957606581</v>
       </c>
       <c r="K80" t="n">
-        <v>1585.918330335051</v>
+        <v>1615.841308811259</v>
       </c>
       <c r="L80" t="n">
-        <v>2016.704125855453</v>
+        <v>2535.47430671719</v>
       </c>
       <c r="M80" t="n">
-        <v>1238.22114813813</v>
+        <v>1215.658875261056</v>
       </c>
     </row>
     <row r="81">
@@ -4226,25 +4491,25 @@
         <v>134.18</v>
       </c>
       <c r="G81" t="n">
-        <v>32.67337104129138</v>
+        <v>-31.77756934173476</v>
       </c>
       <c r="H81" t="n">
-        <v>1235.2</v>
+        <v>1179.22</v>
       </c>
       <c r="I81" t="n">
-        <v>3911.686628958709</v>
+        <v>3976.137569341735</v>
       </c>
       <c r="J81" t="n">
-        <v>2989.534691913414</v>
+        <v>2238.239187488976</v>
       </c>
       <c r="K81" t="n">
-        <v>1474.298193738268</v>
+        <v>1499.851232861932</v>
       </c>
       <c r="L81" t="n">
-        <v>1917.33681912998</v>
+        <v>2568.632260579234</v>
       </c>
       <c r="M81" t="n">
-        <v>1235.718859480412</v>
+        <v>1207.074888411593</v>
       </c>
     </row>
     <row r="82">
@@ -4258,25 +4523,25 @@
         <v>134.08</v>
       </c>
       <c r="G82" t="n">
-        <v>85.6125010551541</v>
+        <v>48.31631365289923</v>
       </c>
       <c r="H82" t="n">
-        <v>1232.97</v>
+        <v>1174.76</v>
       </c>
       <c r="I82" t="n">
-        <v>4159.417498944846</v>
+        <v>4196.713686347101</v>
       </c>
       <c r="J82" t="n">
-        <v>3423.863366964075</v>
+        <v>2571.87403733777</v>
       </c>
       <c r="K82" t="n">
-        <v>1392.210668993878</v>
+        <v>1415.64554409728</v>
       </c>
       <c r="L82" t="n">
-        <v>1808.621882804896</v>
+        <v>2534.412525465104</v>
       </c>
       <c r="M82" t="n">
-        <v>1233.239880286888</v>
+        <v>1199.061579446946</v>
       </c>
     </row>
     <row r="83">
@@ -4290,25 +4555,25 @@
         <v>133.98</v>
       </c>
       <c r="G83" t="n">
-        <v>78.06012811590608</v>
+        <v>83.49962579457861</v>
       </c>
       <c r="H83" t="n">
-        <v>1230.5</v>
+        <v>1169.83</v>
       </c>
       <c r="I83" t="n">
-        <v>4445.769871884094</v>
+        <v>4440.330374205421</v>
       </c>
       <c r="J83" t="n">
-        <v>3873.238847095994</v>
+        <v>2966.450928066778</v>
       </c>
       <c r="K83" t="n">
-        <v>1333.560103271442</v>
+        <v>1354.718985068413</v>
       </c>
       <c r="L83" t="n">
-        <v>1699.450860539558</v>
+        <v>2437.396784639631</v>
       </c>
       <c r="M83" t="n">
-        <v>1230.636668513243</v>
+        <v>1191.253676430599</v>
       </c>
     </row>
     <row r="84">
@@ -4322,25 +4587,25 @@
         <v>133.88</v>
       </c>
       <c r="G84" t="n">
-        <v>-21.19433894055692</v>
+        <v>25.48156422627926</v>
       </c>
       <c r="H84" t="n">
-        <v>1227.8</v>
+        <v>1164.44</v>
       </c>
       <c r="I84" t="n">
-        <v>4737.864338940557</v>
+        <v>4691.188435773721</v>
       </c>
       <c r="J84" t="n">
-        <v>4303.372551348447</v>
+        <v>3399.304067484583</v>
       </c>
       <c r="K84" t="n">
-        <v>1292.646577112587</v>
+        <v>1310.039871406919</v>
       </c>
       <c r="L84" t="n">
-        <v>1597.003242572296</v>
+        <v>2291.6740145164</v>
       </c>
       <c r="M84" t="n">
-        <v>1227.867383300629</v>
+        <v>1183.490482365818</v>
       </c>
     </row>
     <row r="85">
@@ -4354,25 +4619,25 @@
         <v>133.78</v>
       </c>
       <c r="G85" t="n">
-        <v>-72.65616835827495</v>
+        <v>-2.066924192317856</v>
       </c>
       <c r="H85" t="n">
-        <v>1224.91</v>
+        <v>1158.68</v>
       </c>
       <c r="I85" t="n">
-        <v>4995.966168358275</v>
+        <v>4925.376924192318</v>
       </c>
       <c r="J85" t="n">
-        <v>4674.657438225157</v>
+        <v>3832.187344538153</v>
       </c>
       <c r="K85" t="n">
-        <v>1264.59310951786</v>
+        <v>1276.374980376235</v>
       </c>
       <c r="L85" t="n">
-        <v>1506.138065798772</v>
+        <v>2117.110225774372</v>
       </c>
       <c r="M85" t="n">
-        <v>1224.942346459513</v>
+        <v>1175.744373503558</v>
       </c>
     </row>
     <row r="86">
@@ -4386,25 +4651,25 @@
         <v>133.68</v>
       </c>
       <c r="G86" t="n">
-        <v>-55.82235400784157</v>
+        <v>13.63801403786874</v>
       </c>
       <c r="H86" t="n">
-        <v>1221.84</v>
+        <v>1152.56</v>
       </c>
       <c r="I86" t="n">
-        <v>5179.452354007842</v>
+        <v>5109.991985962131</v>
       </c>
       <c r="J86" t="n">
-        <v>4947.984511291234</v>
+        <v>4215.291767136567</v>
       </c>
       <c r="K86" t="n">
-        <v>1245.465191517151</v>
+        <v>1249.992196260152</v>
       </c>
       <c r="L86" t="n">
-        <v>1429.313469001982</v>
+        <v>1934.446286834626</v>
       </c>
       <c r="M86" t="n">
-        <v>1221.855117883674</v>
+        <v>1167.941735730786</v>
       </c>
     </row>
     <row r="87">
@@ -4418,25 +4683,25 @@
         <v>133.58</v>
       </c>
       <c r="G87" t="n">
-        <v>-52.58374614412514</v>
+        <v>-6.088488105523538</v>
       </c>
       <c r="H87" t="n">
-        <v>1218.63</v>
+        <v>1146.15</v>
       </c>
       <c r="I87" t="n">
-        <v>5254.233746144125</v>
+        <v>5207.738488105523</v>
       </c>
       <c r="J87" t="n">
-        <v>5091.815419524526</v>
+        <v>4496.404809155933</v>
       </c>
       <c r="K87" t="n">
-        <v>1232.316631655463</v>
+        <v>1228.456834520749</v>
       </c>
       <c r="L87" t="n">
-        <v>1367.015334269443</v>
+        <v>1761.235444597268</v>
       </c>
       <c r="M87" t="n">
-        <v>1218.636879236343</v>
+        <v>1160.091399831573</v>
       </c>
     </row>
     <row r="88">
@@ -4450,25 +4715,25 @@
         <v>133.48</v>
       </c>
       <c r="G88" t="n">
-        <v>-10.67494089832599</v>
+        <v>2.979386291353876</v>
       </c>
       <c r="H88" t="n">
-        <v>1215.36</v>
+        <v>1139.62</v>
       </c>
       <c r="I88" t="n">
-        <v>5199.554940898326</v>
+        <v>5185.900613708646</v>
       </c>
       <c r="J88" t="n">
-        <v>5088.545419524526</v>
+        <v>4632.773760827711</v>
       </c>
       <c r="K88" t="n">
-        <v>1223.07696381459</v>
+        <v>1210.308936058695</v>
       </c>
       <c r="L88" t="n">
-        <v>1318.329478138805</v>
+        <v>1609.360425399101</v>
       </c>
       <c r="M88" t="n">
-        <v>1215.363047661045</v>
+        <v>1152.317491423139</v>
       </c>
     </row>
     <row r="89">
@@ -4482,25 +4747,25 @@
         <v>133.38</v>
       </c>
       <c r="G89" t="n">
-        <v>13.88471385763023</v>
+        <v>-0.2977537801543804</v>
       </c>
       <c r="H89" t="n">
-        <v>1212.13</v>
+        <v>1133.16</v>
       </c>
       <c r="I89" t="n">
-        <v>5012.185286142369</v>
+        <v>5026.367753780154</v>
       </c>
       <c r="J89" t="n">
-        <v>4938.274511291234</v>
+        <v>4601.952083503689</v>
       </c>
       <c r="K89" t="n">
-        <v>1216.365284935732</v>
+        <v>1194.686870723668</v>
       </c>
       <c r="L89" t="n">
-        <v>1281.509094779949</v>
+        <v>1484.433919174279</v>
       </c>
       <c r="M89" t="n">
-        <v>1212.131314499027</v>
+        <v>1144.774880378518</v>
       </c>
     </row>
     <row r="90">
@@ -4514,25 +4779,25 @@
         <v>133.28</v>
       </c>
       <c r="G90" t="n">
-        <v>12.21751614279947</v>
+        <v>-13.680791423345</v>
       </c>
       <c r="H90" t="n">
-        <v>1209.08</v>
+        <v>1127.05</v>
       </c>
       <c r="I90" t="n">
-        <v>4706.7724838572</v>
+        <v>4732.670791423345</v>
       </c>
       <c r="J90" t="n">
-        <v>4658.827438225157</v>
+        <v>4407.987781458505</v>
       </c>
       <c r="K90" t="n">
-        <v>1211.342803845131</v>
+        <v>1181.186263137969</v>
       </c>
       <c r="L90" t="n">
-        <v>1254.49665900455</v>
+        <v>1386.930557953326</v>
       </c>
       <c r="M90" t="n">
-        <v>1209.080551962225</v>
+        <v>1137.716188873545</v>
       </c>
     </row>
     <row r="91">
@@ -4546,25 +4811,25 @@
         <v>133.18</v>
       </c>
       <c r="G91" t="n">
-        <v>49.71978719434719</v>
+        <v>31.44226865083601</v>
       </c>
       <c r="H91" t="n">
-        <v>1206.3</v>
+        <v>1121.45</v>
       </c>
       <c r="I91" t="n">
-        <v>4312.180212805652</v>
+        <v>4330.457731349164</v>
       </c>
       <c r="J91" t="n">
-        <v>4281.872551348447</v>
+        <v>4080.195074560297</v>
       </c>
       <c r="K91" t="n">
-        <v>1207.476977917817</v>
+        <v>1169.511960312601</v>
       </c>
       <c r="L91" t="n">
-        <v>1235.199224214891</v>
+        <v>1313.820935085731</v>
       </c>
       <c r="M91" t="n">
-        <v>1206.300225632186</v>
+        <v>1131.279761390535</v>
       </c>
     </row>
     <row r="92">
@@ -4578,25 +4843,25 @@
         <v>133.08</v>
       </c>
       <c r="G92" t="n">
-        <v>13.98727519759223</v>
+        <v>17.63815523793073</v>
       </c>
       <c r="H92" t="n">
-        <v>1203.88</v>
+        <v>1116.54</v>
       </c>
       <c r="I92" t="n">
-        <v>3865.292724802408</v>
+        <v>3861.641844762069</v>
       </c>
       <c r="J92" t="n">
-        <v>3846.618847095994</v>
+        <v>3665.529487831428</v>
       </c>
       <c r="K92" t="n">
-        <v>1204.476026571642</v>
+        <v>1159.532277768397</v>
       </c>
       <c r="L92" t="n">
-        <v>1221.762109413807</v>
+        <v>1260.571830862382</v>
       </c>
       <c r="M92" t="n">
-        <v>1203.880089788696</v>
+        <v>1125.628248299862</v>
       </c>
     </row>
     <row r="93">
@@ -4610,25 +4875,25 @@
         <v>132.98</v>
       </c>
       <c r="G93" t="n">
-        <v>24.07879057864557</v>
+        <v>54.00635113462431</v>
       </c>
       <c r="H93" t="n">
-        <v>1201.85</v>
+        <v>1112.4</v>
       </c>
       <c r="I93" t="n">
-        <v>3403.961209421354</v>
+        <v>3374.033648865376</v>
       </c>
       <c r="J93" t="n">
-        <v>3392.743366964075</v>
+        <v>3216.873121189928</v>
       </c>
       <c r="K93" t="n">
-        <v>1202.143866061078</v>
+        <v>1151.107001281629</v>
       </c>
       <c r="L93" t="n">
-        <v>1212.613523063589</v>
+        <v>1222.425932845791</v>
       </c>
       <c r="M93" t="n">
-        <v>1201.850034782196</v>
+        <v>1120.827593548028</v>
       </c>
     </row>
     <row r="94">
@@ -4642,25 +4907,25 @@
         <v>132.88</v>
       </c>
       <c r="G94" t="n">
-        <v>-47.7270382405959</v>
+        <v>2.651440437181918</v>
       </c>
       <c r="H94" t="n">
-        <v>1200.23</v>
+        <v>1109.05</v>
       </c>
       <c r="I94" t="n">
-        <v>2961.137038240596</v>
+        <v>2910.758559562818</v>
       </c>
       <c r="J94" t="n">
-        <v>2954.564691913413</v>
+        <v>2781.687618561215</v>
       </c>
       <c r="K94" t="n">
-        <v>1200.371066503986</v>
+        <v>1144.095905815406</v>
       </c>
       <c r="L94" t="n">
-        <v>1206.533831304451</v>
+        <v>1195.238738948423</v>
       </c>
       <c r="M94" t="n">
-        <v>1200.230013115734</v>
+        <v>1116.886296237774</v>
       </c>
     </row>
     <row r="95">
@@ -4674,25 +4939,25 @@
         <v>132.78</v>
       </c>
       <c r="G95" t="n">
-        <v>-89.49977588189859</v>
+        <v>-31.10552550744887</v>
       </c>
       <c r="H95" t="n">
-        <v>1199</v>
+        <v>1106.48</v>
       </c>
       <c r="I95" t="n">
-        <v>2561.129775881899</v>
+        <v>2502.735525507449</v>
       </c>
       <c r="J95" t="n">
-        <v>2557.372752879568</v>
+        <v>2394.226014235432</v>
       </c>
       <c r="K95" t="n">
-        <v>1199.065930770468</v>
+        <v>1138.36938539782</v>
       </c>
       <c r="L95" t="n">
-        <v>1202.592982422749</v>
+        <v>1175.795263378642</v>
       </c>
       <c r="M95" t="n">
-        <v>1199.000004814086</v>
+        <v>1113.784862495555</v>
       </c>
     </row>
     <row r="96">
@@ -4706,25 +4971,25 @@
         <v>132.68</v>
       </c>
       <c r="G96" t="n">
-        <v>-46.29920550431871</v>
+        <v>6.327414041296379</v>
       </c>
       <c r="H96" t="n">
-        <v>1198.09</v>
+        <v>1104.52</v>
       </c>
       <c r="I96" t="n">
-        <v>2218.339205504319</v>
+        <v>2165.712585958704</v>
       </c>
       <c r="J96" t="n">
-        <v>2216.242686132098</v>
+        <v>2072.616874124858</v>
       </c>
       <c r="K96" t="n">
-        <v>1198.12000111405</v>
+        <v>1133.666202261593</v>
       </c>
       <c r="L96" t="n">
-        <v>1200.083291970701</v>
+        <v>1161.644117202077</v>
       </c>
       <c r="M96" t="n">
-        <v>1198.090001719912</v>
+        <v>1111.345392370176</v>
       </c>
     </row>
     <row r="97">
@@ -4738,25 +5003,25 @@
         <v>132.58</v>
       </c>
       <c r="G97" t="n">
-        <v>-91.58940109608557</v>
+        <v>-55.50861559409668</v>
       </c>
       <c r="H97" t="n">
-        <v>1197.43</v>
+        <v>1103.07</v>
       </c>
       <c r="I97" t="n">
-        <v>1938.059401096086</v>
+        <v>1901.978615594097</v>
       </c>
       <c r="J97" t="n">
-        <v>1936.916625507602</v>
+        <v>1820.765950382583</v>
       </c>
       <c r="K97" t="n">
-        <v>1197.443291188445</v>
+        <v>1129.815484509711</v>
       </c>
       <c r="L97" t="n">
-        <v>1198.506464747957</v>
+        <v>1151.145916386953</v>
       </c>
       <c r="M97" t="n">
-        <v>1197.430000598075</v>
+        <v>1109.461264314849</v>
       </c>
     </row>
     <row r="98">
@@ -4770,25 +5035,25 @@
         <v>132.48</v>
       </c>
       <c r="G98" t="n">
-        <v>-66.1068093152453</v>
+        <v>-51.97167765677796</v>
       </c>
       <c r="H98" t="n">
-        <v>1196.99</v>
+        <v>1102.04</v>
       </c>
       <c r="I98" t="n">
-        <v>1718.506809315245</v>
+        <v>1704.371677656778</v>
       </c>
       <c r="J98" t="n">
-        <v>1717.897867190295</v>
+        <v>1632.578602305142</v>
       </c>
       <c r="K98" t="n">
-        <v>1196.995732676314</v>
+        <v>1126.671329424074</v>
       </c>
       <c r="L98" t="n">
-        <v>1197.555946776529</v>
+        <v>1143.204854606988</v>
       </c>
       <c r="M98" t="n">
-        <v>1196.990000202417</v>
+        <v>1108.036891320574</v>
       </c>
     </row>
     <row r="99">
@@ -4802,25 +5067,25 @@
         <v>132.38</v>
       </c>
       <c r="G99" t="n">
-        <v>-37.79636247866074</v>
+        <v>-45.50308548591761</v>
       </c>
       <c r="H99" t="n">
-        <v>1196.68</v>
+        <v>1101.27</v>
       </c>
       <c r="I99" t="n">
-        <v>1553.156362478661</v>
+        <v>1560.863085485918</v>
       </c>
       <c r="J99" t="n">
-        <v>1552.838839411844</v>
+        <v>1496.724659069901</v>
       </c>
       <c r="K99" t="n">
-        <v>1196.682407168591</v>
+        <v>1124.02905777627</v>
       </c>
       <c r="L99" t="n">
-        <v>1196.969681559654</v>
+        <v>1137.011838235411</v>
       </c>
       <c r="M99" t="n">
-        <v>1196.680000066676</v>
+        <v>1106.907530404335</v>
       </c>
     </row>
     <row r="100">
@@ -4834,25 +5099,25 @@
         <v>132.28</v>
       </c>
       <c r="G100" t="n">
-        <v>4.418230969639581</v>
+        <v>-20.97732649053569</v>
       </c>
       <c r="H100" t="n">
-        <v>1196.45</v>
+        <v>1100.68</v>
       </c>
       <c r="I100" t="n">
-        <v>1433.13176903036</v>
+        <v>1458.527326490536</v>
       </c>
       <c r="J100" t="n">
-        <v>1432.969554997711</v>
+        <v>1400.739955649763</v>
       </c>
       <c r="K100" t="n">
-        <v>1196.450984007032</v>
+        <v>1121.772548795205</v>
       </c>
       <c r="L100" t="n">
-        <v>1196.594360784531</v>
+        <v>1132.065689715861</v>
       </c>
       <c r="M100" t="n">
-        <v>1196.450000021375</v>
+        <v>1105.989132329707</v>
       </c>
     </row>
     <row r="101">
@@ -4866,25 +5131,25 @@
         <v>132.18</v>
       </c>
       <c r="G101" t="n">
-        <v>17.45766855902275</v>
+        <v>-19.37575969256864</v>
       </c>
       <c r="H101" t="n">
-        <v>1196.29</v>
+        <v>1100.2</v>
       </c>
       <c r="I101" t="n">
-        <v>1349.012331440977</v>
+        <v>1385.845759692569</v>
       </c>
       <c r="J101" t="n">
-        <v>1348.931019927432</v>
+        <v>1333.417500558141</v>
       </c>
       <c r="K101" t="n">
-        <v>1196.29039157848</v>
+        <v>1119.802303613459</v>
       </c>
       <c r="L101" t="n">
-        <v>1196.360043411841</v>
+        <v>1128.017733510575</v>
       </c>
       <c r="M101" t="n">
-        <v>1196.290000006669</v>
+        <v>1105.208222010394</v>
       </c>
     </row>
     <row r="102">
@@ -4898,25 +5163,25 @@
         <v>132.08</v>
       </c>
       <c r="G102" t="n">
-        <v>19.65469992066255</v>
+        <v>-22.1254148828923</v>
       </c>
       <c r="H102" t="n">
-        <v>1196.17</v>
+        <v>1099.82</v>
       </c>
       <c r="I102" t="n">
-        <v>1291.985300079338</v>
+        <v>1333.765414882892</v>
       </c>
       <c r="J102" t="n">
-        <v>1291.945240275107</v>
+        <v>1285.921291180736</v>
       </c>
       <c r="K102" t="n">
-        <v>1196.170151689023</v>
+        <v>1118.084012481483</v>
       </c>
       <c r="L102" t="n">
-        <v>1196.203088418402</v>
+        <v>1124.668308664579</v>
       </c>
       <c r="M102" t="n">
-        <v>1196.170000002025</v>
+        <v>1104.551802556094</v>
       </c>
     </row>
     <row r="103">
@@ -4930,25 +5195,25 @@
         <v>131.98</v>
       </c>
       <c r="G103" t="n">
-        <v>19.06228995629567</v>
+        <v>-22.06712794519808</v>
       </c>
       <c r="H103" t="n">
-        <v>1196.1</v>
+        <v>1099.52</v>
       </c>
       <c r="I103" t="n">
-        <v>1254.567710043704</v>
+        <v>1295.697127945198</v>
       </c>
       <c r="J103" t="n">
-        <v>1254.548274725497</v>
+        <v>1251.818130564407</v>
       </c>
       <c r="K103" t="n">
-        <v>1196.100057199171</v>
+        <v>1116.57747804489</v>
       </c>
       <c r="L103" t="n">
-        <v>1196.11521850639</v>
+        <v>1121.864241627831</v>
       </c>
       <c r="M103" t="n">
-        <v>1196.100000000598</v>
+        <v>1103.997277708071</v>
       </c>
     </row>
     <row r="104">
@@ -4962,25 +5227,25 @@
         <v>131.88</v>
       </c>
       <c r="G104" t="n">
-        <v>30.84886423324951</v>
+        <v>-5.498244734423679</v>
       </c>
       <c r="H104" t="n">
-        <v>1196.04</v>
+        <v>1099.26</v>
       </c>
       <c r="I104" t="n">
-        <v>1230.75113576675</v>
+        <v>1267.098244734424</v>
       </c>
       <c r="J104" t="n">
-        <v>1230.741831388686</v>
+        <v>1226.68088213649</v>
       </c>
       <c r="K104" t="n">
-        <v>1196.040020994763</v>
+        <v>1115.225795054852</v>
       </c>
       <c r="L104" t="n">
-        <v>1196.046814730349</v>
+        <v>1119.469178839725</v>
       </c>
       <c r="M104" t="n">
-        <v>1196.040000000172</v>
+        <v>1103.502388703357</v>
       </c>
     </row>
     <row r="105">
@@ -4994,25 +5259,25 @@
         <v>131.78</v>
       </c>
       <c r="G105" t="n">
-        <v>109.3965648129169</v>
+        <v>80.50713796274886</v>
       </c>
       <c r="H105" t="n">
-        <v>1195.96</v>
+        <v>1098.95</v>
       </c>
       <c r="I105" t="n">
-        <v>1216.013435187083</v>
+        <v>1244.902862037251</v>
       </c>
       <c r="J105" t="n">
-        <v>1216.009030888606</v>
+        <v>1207.53144355788</v>
       </c>
       <c r="K105" t="n">
-        <v>1195.960007500727</v>
+        <v>1113.92471779878</v>
       </c>
       <c r="L105" t="n">
-        <v>1195.962970959518</v>
+        <v>1117.321538129813</v>
       </c>
       <c r="M105" t="n">
-        <v>1195.960000000048</v>
+        <v>1102.975162550779</v>
       </c>
     </row>
     <row r="106">
@@ -5026,25 +5291,25 @@
         <v>131.68</v>
       </c>
       <c r="G106" t="n">
-        <v>85.60415391338506</v>
+        <v>65.53425511476166</v>
       </c>
       <c r="H106" t="n">
-        <v>1195.87</v>
+        <v>1098.63</v>
       </c>
       <c r="I106" t="n">
-        <v>1207.145846086615</v>
+        <v>1227.215744885238</v>
       </c>
       <c r="J106" t="n">
-        <v>1207.143780925539</v>
+        <v>1192.542773885974</v>
       </c>
       <c r="K106" t="n">
-        <v>1195.87000260827</v>
+        <v>1112.702166941865</v>
       </c>
       <c r="L106" t="n">
-        <v>1195.871260971052</v>
+        <v>1115.406934657265</v>
       </c>
       <c r="M106" t="n">
-        <v>1195.870000000013</v>
+        <v>1102.453869400135</v>
       </c>
     </row>
     <row r="107">
@@ -5058,25 +5323,25 @@
         <v>131.58</v>
       </c>
       <c r="G107" t="n">
-        <v>-35.96169596008349</v>
+        <v>-46.83551601568206</v>
       </c>
       <c r="H107" t="n">
-        <v>1195.85</v>
+        <v>1098.42</v>
       </c>
       <c r="I107" t="n">
-        <v>1202.021695960083</v>
+        <v>1212.895516015682</v>
       </c>
       <c r="J107" t="n">
-        <v>1202.020735376152</v>
+        <v>1180.627421743109</v>
       </c>
       <c r="K107" t="n">
-        <v>1195.850000882763</v>
+        <v>1111.667841239348</v>
       </c>
       <c r="L107" t="n">
-        <v>1195.850521028371</v>
+        <v>1113.803265825862</v>
       </c>
       <c r="M107" t="n">
-        <v>1195.850000000003</v>
+        <v>1102.056987207363</v>
       </c>
     </row>
     <row r="108">
@@ -5090,25 +5355,25 @@
         <v>131.48</v>
       </c>
       <c r="G108" t="n">
-        <v>12.27152626049292</v>
+        <v>10.34443581112191</v>
       </c>
       <c r="H108" t="n">
-        <v>1195.85</v>
+        <v>1098.28</v>
       </c>
       <c r="I108" t="n">
-        <v>1199.138473739507</v>
+        <v>1201.065564188878</v>
       </c>
       <c r="J108" t="n">
-        <v>1199.138030154374</v>
+        <v>1170.952065796156</v>
       </c>
       <c r="K108" t="n">
-        <v>1195.85000029078</v>
+        <v>1110.772909053719</v>
       </c>
       <c r="L108" t="n">
-        <v>1195.850209581092</v>
+        <v>1112.437417047267</v>
       </c>
       <c r="M108" t="n">
-        <v>1195.850000000001</v>
+        <v>1101.743172291736</v>
       </c>
     </row>
     <row r="109">
@@ -5122,25 +5387,25 @@
         <v>131.38</v>
       </c>
       <c r="G109" t="n">
-        <v>52.90413021613449</v>
+        <v>59.41438058333893</v>
       </c>
       <c r="H109" t="n">
-        <v>1195.82</v>
+        <v>1098.07</v>
       </c>
       <c r="I109" t="n">
-        <v>1197.525869783866</v>
+        <v>1191.015619416661</v>
       </c>
       <c r="J109" t="n">
-        <v>1197.525666397691</v>
+        <v>1162.841635783234</v>
       </c>
       <c r="K109" t="n">
-        <v>1195.820000093218</v>
+        <v>1109.869761242563</v>
       </c>
       <c r="L109" t="n">
-        <v>1195.820082066001</v>
+        <v>1111.142987710627</v>
       </c>
       <c r="M109" t="n">
-        <v>1195.82</v>
+        <v>1101.371234680237</v>
       </c>
     </row>
     <row r="110">
@@ -5154,25 +5419,25 @@
         <v>131.28</v>
       </c>
       <c r="G110" t="n">
-        <v>17.71845822809541</v>
+        <v>31.95545499394143</v>
       </c>
       <c r="H110" t="n">
-        <v>1195.79</v>
+        <v>1097.86</v>
       </c>
       <c r="I110" t="n">
-        <v>1196.651541771904</v>
+        <v>1182.414545006058</v>
       </c>
       <c r="J110" t="n">
-        <v>1196.651449240506</v>
+        <v>1155.993935224875</v>
       </c>
       <c r="K110" t="n">
-        <v>1195.790000029083</v>
+        <v>1109.02181169554</v>
       </c>
       <c r="L110" t="n">
-        <v>1195.790031280991</v>
+        <v>1109.968680721938</v>
       </c>
       <c r="M110" t="n">
-        <v>1195.79</v>
+        <v>1101.010117363705</v>
       </c>
     </row>
     <row r="111">
@@ -5186,25 +5451,25 @@
         <v>131.18</v>
       </c>
       <c r="G111" t="n">
-        <v>51.07636167343844</v>
+        <v>72.29864855018036</v>
       </c>
       <c r="H111" t="n">
-        <v>1195.77</v>
+        <v>1097.65</v>
       </c>
       <c r="I111" t="n">
-        <v>1196.193638326562</v>
+        <v>1174.97135144982</v>
       </c>
       <c r="J111" t="n">
-        <v>1196.193596609143</v>
+        <v>1150.142000618163</v>
       </c>
       <c r="K111" t="n">
-        <v>1195.77000000883</v>
+        <v>1108.223335194317</v>
       </c>
       <c r="L111" t="n">
-        <v>1195.770011606178</v>
+        <v>1108.897136870728</v>
       </c>
       <c r="M111" t="n">
-        <v>1195.77</v>
+        <v>1100.658878766611</v>
       </c>
     </row>
     <row r="112">
@@ -5218,25 +5483,25 @@
         <v>131.08</v>
       </c>
       <c r="G112" t="n">
-        <v>-66.49281771146161</v>
+        <v>-39.05907366996712</v>
       </c>
       <c r="H112" t="n">
-        <v>1195.77</v>
+        <v>1097.51</v>
       </c>
       <c r="I112" t="n">
-        <v>1195.972817711462</v>
+        <v>1168.539073669967</v>
       </c>
       <c r="J112" t="n">
-        <v>1195.97279910622</v>
+        <v>1145.158985714509</v>
       </c>
       <c r="K112" t="n">
-        <v>1195.770000002609</v>
+        <v>1107.539334745935</v>
       </c>
       <c r="L112" t="n">
-        <v>1195.770004191553</v>
+        <v>1107.984075339154</v>
       </c>
       <c r="M112" t="n">
-        <v>1195.77</v>
+        <v>1100.386677870369</v>
       </c>
     </row>
     <row r="113">
@@ -5250,25 +5515,25 @@
         <v>130.98</v>
       </c>
       <c r="G113" t="n">
-        <v>27.04546194013233</v>
+        <v>60.02787904048978</v>
       </c>
       <c r="H113" t="n">
-        <v>1195.79</v>
+        <v>1097.39</v>
       </c>
       <c r="I113" t="n">
-        <v>1195.884538059868</v>
+        <v>1162.90212095951</v>
       </c>
       <c r="J113" t="n">
-        <v>1195.884529868549</v>
+        <v>1140.846277346889</v>
       </c>
       <c r="K113" t="n">
-        <v>1195.79000000075</v>
+        <v>1106.915432367297</v>
       </c>
       <c r="L113" t="n">
-        <v>1195.790001473408</v>
+        <v>1107.167649707129</v>
       </c>
       <c r="M113" t="n">
-        <v>1195.79</v>
+        <v>1100.142761538195</v>
       </c>
     </row>
     <row r="114">
@@ -5282,25 +5547,25 @@
         <v>130.88</v>
       </c>
       <c r="G114" t="n">
-        <v>38.01709653570492</v>
+        <v>75.98837653724058</v>
       </c>
       <c r="H114" t="n">
-        <v>1195.76</v>
+        <v>1097.19</v>
       </c>
       <c r="I114" t="n">
-        <v>1195.802903464295</v>
+        <v>1157.831623462759</v>
       </c>
       <c r="J114" t="n">
-        <v>1195.802899911647</v>
+        <v>1136.989432520151</v>
       </c>
       <c r="K114" t="n">
-        <v>1195.76000000021</v>
+        <v>1106.247778660535</v>
       </c>
       <c r="L114" t="n">
-        <v>1195.760000504103</v>
+        <v>1106.337958607201</v>
       </c>
       <c r="M114" t="n">
-        <v>1195.76</v>
+        <v>1099.826453674872</v>
       </c>
     </row>
     <row r="115">
@@ -5314,25 +5579,25 @@
         <v>130.78</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.0189563507785806</v>
+        <v>54.11436517976563</v>
       </c>
       <c r="H115" t="n">
-        <v>1207.42</v>
+        <v>1096.99</v>
       </c>
       <c r="I115" t="n">
-        <v>1207.438956350779</v>
+        <v>1153.305634820234</v>
       </c>
       <c r="J115" t="n">
-        <v>1207.438954836013</v>
+        <v>1133.578842113719</v>
       </c>
       <c r="K115" t="n">
-        <v>1207.420000000057</v>
+        <v>1105.612977544211</v>
       </c>
       <c r="L115" t="n">
-        <v>1207.420000167861</v>
+        <v>1105.566669239881</v>
       </c>
       <c r="M115" t="n">
-        <v>1207.42</v>
+        <v>1099.517145922423</v>
       </c>
     </row>
     <row r="116">
@@ -5346,25 +5611,25 @@
         <v>130.68</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.008154239997566037</v>
+        <v>22.51762230796385</v>
       </c>
       <c r="H116" t="n">
-        <v>1171.82</v>
+        <v>1096.85</v>
       </c>
       <c r="I116" t="n">
-        <v>1171.828154239998</v>
+        <v>1149.302377692036</v>
       </c>
       <c r="J116" t="n">
-        <v>1171.82815360623</v>
+        <v>1130.603340285939</v>
       </c>
       <c r="K116" t="n">
-        <v>1171.820000000015</v>
+        <v>1105.068023283891</v>
       </c>
       <c r="L116" t="n">
-        <v>1171.8200000544</v>
+        <v>1104.906724475504</v>
       </c>
       <c r="M116" t="n">
-        <v>1171.82</v>
+        <v>1099.274289646702</v>
       </c>
     </row>
     <row r="117">
@@ -5378,25 +5643,25 @@
         <v>130.58</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.003414811356378777</v>
+        <v>47.58453935125317</v>
       </c>
       <c r="H117" t="n">
-        <v>1193.28</v>
+        <v>1096.71</v>
       </c>
       <c r="I117" t="n">
-        <v>1193.283414811356</v>
+        <v>1145.695460648747</v>
       </c>
       <c r="J117" t="n">
-        <v>1193.283414551578</v>
+        <v>1127.945711394654</v>
       </c>
       <c r="K117" t="n">
-        <v>1193.280000000004</v>
+        <v>1104.550247561714</v>
       </c>
       <c r="L117" t="n">
-        <v>1193.280000017158</v>
+        <v>1104.292112679138</v>
       </c>
       <c r="M117" t="n">
-        <v>1193.28</v>
+        <v>1099.03738901324</v>
       </c>
     </row>
     <row r="118">
@@ -5410,25 +5675,25 @@
         <v>130.48</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.001392167175481518</v>
+        <v>-20.45041287853246</v>
       </c>
       <c r="H118" t="n">
-        <v>1122.03</v>
+        <v>1096.62</v>
       </c>
       <c r="I118" t="n">
-        <v>1122.031392167175</v>
+        <v>1142.480412878532</v>
       </c>
       <c r="J118" t="n">
-        <v>1122.031392062997</v>
+        <v>1125.609457947324</v>
       </c>
       <c r="K118" t="n">
-        <v>1122.030000000001</v>
+        <v>1104.107274784697</v>
       </c>
       <c r="L118" t="n">
-        <v>1122.030000005266</v>
+        <v>1103.767685160904</v>
       </c>
       <c r="M118" t="n">
-        <v>1122.03</v>
+        <v>1098.855994985607</v>
       </c>
     </row>
     <row r="119">
@@ -5442,25 +5707,25 @@
         <v>130.38</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.000552514544551741</v>
+        <v>85.44787556487154</v>
       </c>
       <c r="H119" t="n">
-        <v>1224.98</v>
+        <v>1096.5</v>
       </c>
       <c r="I119" t="n">
-        <v>1224.980552514545</v>
+        <v>1139.532124435128</v>
       </c>
       <c r="J119" t="n">
-        <v>1224.980552473716</v>
+        <v>1123.476429961537</v>
       </c>
       <c r="K119" t="n">
-        <v>1224.98</v>
+        <v>1103.65698418907</v>
       </c>
       <c r="L119" t="n">
-        <v>1224.980000001573</v>
+        <v>1103.249010176671</v>
       </c>
       <c r="M119" t="n">
-        <v>1224.98</v>
+        <v>1098.649700107851</v>
       </c>
     </row>
     <row r="120">
@@ -5474,25 +5739,25 @@
         <v>130.28</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.0002134565193046001</v>
+        <v>42.83707639658996</v>
       </c>
       <c r="H120" t="n">
-        <v>1179.63</v>
+        <v>1096.33</v>
       </c>
       <c r="I120" t="n">
-        <v>1179.630213456519</v>
+        <v>1136.79292360341</v>
       </c>
       <c r="J120" t="n">
-        <v>1179.630213440897</v>
+        <v>1121.495056815415</v>
       </c>
       <c r="K120" t="n">
-        <v>1179.63</v>
+        <v>1103.177477577815</v>
       </c>
       <c r="L120" t="n">
-        <v>1179.630000000457</v>
+        <v>1102.712255254545</v>
       </c>
       <c r="M120" t="n">
-        <v>1179.63</v>
+        <v>1098.398133955635</v>
       </c>
     </row>
     <row r="121">
@@ -5506,25 +5771,25 @@
         <v>130.18</v>
       </c>
       <c r="G121" t="n">
-        <v>-8.027383228181861e-05</v>
+        <v>26.30888832089249</v>
       </c>
       <c r="H121" t="n">
-        <v>1160.65</v>
+        <v>1096.22</v>
       </c>
       <c r="I121" t="n">
-        <v>1160.650080273832</v>
+        <v>1134.341111679108</v>
       </c>
       <c r="J121" t="n">
-        <v>1160.650080268</v>
+        <v>1119.749009099768</v>
       </c>
       <c r="K121" t="n">
-        <v>1160.65</v>
+        <v>1102.777051749054</v>
       </c>
       <c r="L121" t="n">
-        <v>1160.650000000129</v>
+        <v>1102.264091670788</v>
       </c>
       <c r="M121" t="n">
-        <v>1160.65</v>
+        <v>1098.210959159498</v>
       </c>
     </row>
     <row r="122">
@@ -5538,25 +5803,25 @@
         <v>130.08</v>
       </c>
       <c r="G122" t="n">
-        <v>-2.938480702141533e-05</v>
+        <v>35.86016806808743</v>
       </c>
       <c r="H122" t="n">
-        <v>1167.95</v>
+        <v>1096.11</v>
       </c>
       <c r="I122" t="n">
-        <v>1167.950029384807</v>
+        <v>1132.089831931913</v>
       </c>
       <c r="J122" t="n">
-        <v>1167.950029382684</v>
+        <v>1118.156172775886</v>
       </c>
       <c r="K122" t="n">
-        <v>1167.95</v>
+        <v>1102.394174847603</v>
       </c>
       <c r="L122" t="n">
-        <v>1167.950000000036</v>
+        <v>1101.841616389255</v>
       </c>
       <c r="M122" t="n">
-        <v>1167.95</v>
+        <v>1098.027867919167</v>
       </c>
     </row>
     <row r="123">
@@ -5570,25 +5835,25 @@
         <v>129.98</v>
       </c>
       <c r="G123" t="n">
-        <v>-1.046987335939775e-05</v>
+        <v>-35.11618648256376</v>
       </c>
       <c r="H123" t="n">
-        <v>1094.96</v>
+        <v>1096.06</v>
       </c>
       <c r="I123" t="n">
-        <v>1094.960010469873</v>
+        <v>1130.076186482564</v>
       </c>
       <c r="J123" t="n">
-        <v>1094.96001046912</v>
+        <v>1116.757853655002</v>
       </c>
       <c r="K123" t="n">
-        <v>1094.96</v>
+        <v>1102.087466011284</v>
       </c>
       <c r="L123" t="n">
-        <v>1094.96000000001</v>
+        <v>1101.502287875692</v>
       </c>
       <c r="M123" t="n">
-        <v>1094.96</v>
+        <v>1097.908578940586</v>
       </c>
     </row>
     <row r="124">
@@ -5602,25 +5867,25 @@
         <v>129.88</v>
       </c>
       <c r="G124" t="n">
-        <v>-3.630909304774832e-06</v>
+        <v>-0.3905396050975014</v>
       </c>
       <c r="H124" t="n">
-        <v>1127.85</v>
+        <v>1096.03</v>
       </c>
       <c r="I124" t="n">
-        <v>1127.850003630909</v>
+        <v>1128.240539605097</v>
       </c>
       <c r="J124" t="n">
-        <v>1127.850003630649</v>
+        <v>1115.498154057638</v>
       </c>
       <c r="K124" t="n">
-        <v>1127.85</v>
+        <v>1101.815677795139</v>
       </c>
       <c r="L124" t="n">
-        <v>1127.850000000002</v>
+        <v>1101.203873014457</v>
       </c>
       <c r="M124" t="n">
-        <v>1127.85</v>
+        <v>1097.812834737863</v>
       </c>
     </row>
     <row r="125">
@@ -5634,25 +5899,25 @@
         <v>129.78</v>
       </c>
       <c r="G125" t="n">
-        <v>-1.225548885486205e-06</v>
+        <v>26.64403707049337</v>
       </c>
       <c r="H125" t="n">
-        <v>1153.15</v>
+        <v>1095.96</v>
       </c>
       <c r="I125" t="n">
-        <v>1153.150001225549</v>
+        <v>1126.505962929507</v>
       </c>
       <c r="J125" t="n">
-        <v>1153.150001225461</v>
+        <v>1114.303479763196</v>
       </c>
       <c r="K125" t="n">
-        <v>1153.15</v>
+        <v>1101.517680946631</v>
       </c>
       <c r="L125" t="n">
-        <v>1153.150000000001</v>
+        <v>1100.884402968535</v>
       </c>
       <c r="M125" t="n">
-        <v>1153.15</v>
+        <v>1097.680399251145</v>
       </c>
     </row>
     <row r="126">
@@ -5666,25 +5931,25 @@
         <v>129.68</v>
       </c>
       <c r="G126" t="n">
-        <v>-4.025996531709097e-07</v>
+        <v>51.33221015328013</v>
       </c>
       <c r="H126" t="n">
-        <v>1176.2</v>
+        <v>1095.86</v>
       </c>
       <c r="I126" t="n">
-        <v>1176.2000004026</v>
+        <v>1124.86778984672</v>
       </c>
       <c r="J126" t="n">
-        <v>1176.200000402571</v>
+        <v>1113.17214664186</v>
       </c>
       <c r="K126" t="n">
-        <v>1176.2</v>
+        <v>1101.202451177615</v>
       </c>
       <c r="L126" t="n">
-        <v>1176.2</v>
+        <v>1100.552136288545</v>
       </c>
       <c r="M126" t="n">
-        <v>1176.2</v>
+        <v>1097.521055738699</v>
       </c>
     </row>
     <row r="127">
@@ -5698,25 +5963,25 @@
         <v>129.58</v>
       </c>
       <c r="G127" t="n">
-        <v>-1.287153281737119e-07</v>
+        <v>-37.51325479698426</v>
       </c>
       <c r="H127" t="n">
-        <v>1085.87</v>
+        <v>1095.8</v>
       </c>
       <c r="I127" t="n">
-        <v>1085.870000128715</v>
+        <v>1123.383254796984</v>
       </c>
       <c r="J127" t="n">
-        <v>1085.870000128706</v>
+        <v>1112.164064319366</v>
       </c>
       <c r="K127" t="n">
-        <v>1085.87</v>
+        <v>1100.939057638109</v>
       </c>
       <c r="L127" t="n">
-        <v>1085.87</v>
+        <v>1100.275527931904</v>
       </c>
       <c r="M127" t="n">
-        <v>1085.87</v>
+        <v>1097.404604907606</v>
       </c>
     </row>
     <row r="128">
@@ -5730,25 +5995,25 @@
         <v>129.48</v>
       </c>
       <c r="G128" t="n">
-        <v>-4.004868969786912e-08</v>
+        <v>20.12880085432766</v>
       </c>
       <c r="H128" t="n">
-        <v>1142.16</v>
+        <v>1095.77</v>
       </c>
       <c r="I128" t="n">
-        <v>1142.160000040049</v>
+        <v>1122.031199145672</v>
       </c>
       <c r="J128" t="n">
-        <v>1142.160000040046</v>
+        <v>1111.260479920767</v>
       </c>
       <c r="K128" t="n">
-        <v>1142.16</v>
+        <v>1100.716652845176</v>
       </c>
       <c r="L128" t="n">
-        <v>1142.16</v>
+        <v>1100.04320312712</v>
       </c>
       <c r="M128" t="n">
-        <v>1142.16</v>
+        <v>1097.32086325261</v>
       </c>
     </row>
     <row r="129">
@@ -5762,25 +6027,25 @@
         <v>129.38</v>
       </c>
       <c r="G129" t="n">
-        <v>-1.21265202324139e-08</v>
+        <v>45.54817026339288</v>
       </c>
       <c r="H129" t="n">
-        <v>1166.26</v>
+        <v>1095.68</v>
       </c>
       <c r="I129" t="n">
-        <v>1166.260000012127</v>
+        <v>1120.711829736607</v>
       </c>
       <c r="J129" t="n">
-        <v>1166.260000012126</v>
+        <v>1110.363769068886</v>
       </c>
       <c r="K129" t="n">
-        <v>1166.26</v>
+        <v>1100.444463859953</v>
       </c>
       <c r="L129" t="n">
-        <v>1166.26</v>
+        <v>1099.763935230788</v>
       </c>
       <c r="M129" t="n">
-        <v>1166.26</v>
+        <v>1097.17966157698</v>
       </c>
     </row>
     <row r="130">
@@ -5794,25 +6059,25 @@
         <v>129.28</v>
       </c>
       <c r="G130" t="n">
-        <v>-3.573177309590392e-09</v>
+        <v>16.02348055482162</v>
       </c>
       <c r="H130" t="n">
-        <v>1135.51</v>
+        <v>1095.6</v>
       </c>
       <c r="I130" t="n">
-        <v>1135.510000003573</v>
+        <v>1119.486519445178</v>
       </c>
       <c r="J130" t="n">
-        <v>1135.510000003573</v>
+        <v>1109.537264342841</v>
       </c>
       <c r="K130" t="n">
-        <v>1135.51</v>
+        <v>1100.191784538478</v>
       </c>
       <c r="L130" t="n">
-        <v>1135.51</v>
+        <v>1099.50662689098</v>
       </c>
       <c r="M130" t="n">
-        <v>1135.51</v>
+        <v>1097.050843672879</v>
       </c>
     </row>
     <row r="131">
@@ -5826,25 +6091,25 @@
         <v>129.18</v>
       </c>
       <c r="G131" t="n">
-        <v>-1.024545781547204e-09</v>
+        <v>3.412358538576655</v>
       </c>
       <c r="H131" t="n">
-        <v>1121.77</v>
+        <v>1095.54</v>
       </c>
       <c r="I131" t="n">
-        <v>1121.770000001025</v>
+        <v>1118.357641461423</v>
       </c>
       <c r="J131" t="n">
-        <v>1121.770000001025</v>
+        <v>1108.785113649117</v>
       </c>
       <c r="K131" t="n">
-        <v>1121.77</v>
+        <v>1099.967968709024</v>
       </c>
       <c r="L131" t="n">
-        <v>1121.77</v>
+        <v>1099.280293961438</v>
       </c>
       <c r="M131" t="n">
-        <v>1121.77</v>
+        <v>1096.944265141843</v>
       </c>
     </row>
     <row r="132">
@@ -5858,25 +6123,25 @@
         <v>129.08</v>
       </c>
       <c r="G132" t="n">
-        <v>-2.858087100321427e-10</v>
+        <v>-27.45843084508283</v>
       </c>
       <c r="H132" t="n">
-        <v>1089.89</v>
+        <v>1095.53</v>
       </c>
       <c r="I132" t="n">
-        <v>1089.890000000286</v>
+        <v>1117.348430845083</v>
       </c>
       <c r="J132" t="n">
-        <v>1089.890000000286</v>
+        <v>1108.132162641007</v>
       </c>
       <c r="K132" t="n">
-        <v>1089.89</v>
+        <v>1099.80242415107</v>
       </c>
       <c r="L132" t="n">
-        <v>1089.89</v>
+        <v>1099.11405171443</v>
       </c>
       <c r="M132" t="n">
-        <v>1089.89</v>
+        <v>1096.889792338576</v>
       </c>
     </row>
     <row r="133">
@@ -5890,25 +6155,25 @@
         <v>128.98</v>
       </c>
       <c r="G133" t="n">
-        <v>-7.753442332614213e-11</v>
+        <v>-9.292868270701319</v>
       </c>
       <c r="H133" t="n">
-        <v>1107.11</v>
+        <v>1095.52</v>
       </c>
       <c r="I133" t="n">
-        <v>1107.110000000077</v>
+        <v>1116.402868270701</v>
       </c>
       <c r="J133" t="n">
-        <v>1107.110000000077</v>
+        <v>1107.523856594986</v>
       </c>
       <c r="K133" t="n">
-        <v>1107.11</v>
+        <v>1099.644607269697</v>
       </c>
       <c r="L133" t="n">
-        <v>1107.11</v>
+        <v>1098.9571029825</v>
       </c>
       <c r="M133" t="n">
-        <v>1107.11</v>
+        <v>1096.837301423518</v>
       </c>
     </row>
     <row r="134">
@@ -5922,25 +6187,25 @@
         <v>128.88</v>
       </c>
       <c r="G134" t="n">
-        <v>-2.046363078989089e-11</v>
+        <v>-11.68558193491253</v>
       </c>
       <c r="H134" t="n">
-        <v>1103.83</v>
+        <v>1095.51</v>
       </c>
       <c r="I134" t="n">
-        <v>1103.83000000002</v>
+        <v>1115.515581934912</v>
       </c>
       <c r="J134" t="n">
-        <v>1103.83000000002</v>
+        <v>1106.956158123227</v>
       </c>
       <c r="K134" t="n">
-        <v>1103.83</v>
+        <v>1099.494018374864</v>
       </c>
       <c r="L134" t="n">
-        <v>1103.83</v>
+        <v>1098.808727925277</v>
       </c>
       <c r="M134" t="n">
-        <v>1103.83</v>
+        <v>1096.786677511544</v>
       </c>
     </row>
     <row r="135">
@@ -5954,25 +6219,25 @@
         <v>128.78</v>
       </c>
       <c r="G135" t="n">
-        <v>-5.229594535194337e-12</v>
+        <v>-46.30176441202275</v>
       </c>
       <c r="H135" t="n">
-        <v>1068.4</v>
+        <v>1095.52</v>
       </c>
       <c r="I135" t="n">
-        <v>1068.400000000005</v>
+        <v>1114.701764412023</v>
       </c>
       <c r="J135" t="n">
-        <v>1068.400000000005</v>
+        <v>1106.445477847625</v>
       </c>
       <c r="K135" t="n">
-        <v>1068.4</v>
+        <v>1099.37019748806</v>
       </c>
       <c r="L135" t="n">
-        <v>1068.4</v>
+        <v>1098.688275170562</v>
       </c>
       <c r="M135" t="n">
-        <v>1068.4</v>
+        <v>1096.757813905776</v>
       </c>
     </row>
     <row r="136">
@@ -5986,25 +6251,25 @@
         <v>128.68</v>
       </c>
       <c r="G136" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>20.23289812271014</v>
       </c>
       <c r="H136" t="n">
-        <v>1134.15</v>
+        <v>1095.51</v>
       </c>
       <c r="I136" t="n">
-        <v>1134.150000000001</v>
+        <v>1113.91710187729</v>
       </c>
       <c r="J136" t="n">
-        <v>1134.150000000001</v>
+        <v>1105.948615738635</v>
       </c>
       <c r="K136" t="n">
-        <v>1134.15</v>
+        <v>1099.232720609898</v>
       </c>
       <c r="L136" t="n">
-        <v>1134.15</v>
+        <v>1098.555154121849</v>
       </c>
       <c r="M136" t="n">
-        <v>1134.15</v>
+        <v>1096.710611406909</v>
       </c>
     </row>
     <row r="137">
@@ -6018,25 +6283,25 @@
         <v>128.58</v>
       </c>
       <c r="G137" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>-40.99771361344574</v>
       </c>
       <c r="H137" t="n">
-        <v>1072.18</v>
+        <v>1095.5</v>
       </c>
       <c r="I137" t="n">
-        <v>1072.18</v>
+        <v>1113.177713613446</v>
       </c>
       <c r="J137" t="n">
-        <v>1072.18</v>
+        <v>1105.482711273049</v>
       </c>
       <c r="K137" t="n">
-        <v>1072.18</v>
+        <v>1099.101196391486</v>
       </c>
       <c r="L137" t="n">
-        <v>1072.18</v>
+        <v>1098.428828259262</v>
       </c>
       <c r="M137" t="n">
-        <v>1072.18</v>
+        <v>1096.664977689648</v>
       </c>
     </row>
     <row r="138">
@@ -6050,25 +6315,25 @@
         <v>128.48</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>21.13989989262541</v>
       </c>
       <c r="H138" t="n">
-        <v>1133.62</v>
+        <v>1095.49</v>
       </c>
       <c r="I138" t="n">
-        <v>1133.62</v>
+        <v>1112.480100107374</v>
       </c>
       <c r="J138" t="n">
-        <v>1133.62</v>
+        <v>1105.04520091879</v>
       </c>
       <c r="K138" t="n">
-        <v>1133.62</v>
+        <v>1098.9752631603</v>
       </c>
       <c r="L138" t="n">
-        <v>1133.62</v>
+        <v>1098.308809289392</v>
       </c>
       <c r="M138" t="n">
-        <v>1133.62</v>
+        <v>1096.620826738893</v>
       </c>
     </row>
     <row r="139">
@@ -6082,25 +6347,25 @@
         <v>128.38</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>6.17890164557366</v>
       </c>
       <c r="H139" t="n">
-        <v>1117.96</v>
+        <v>1095.44</v>
       </c>
       <c r="I139" t="n">
-        <v>1117.96</v>
+        <v>1111.781098354426</v>
       </c>
       <c r="J139" t="n">
-        <v>1117.96</v>
+        <v>1104.593781734464</v>
       </c>
       <c r="K139" t="n">
-        <v>1117.96</v>
+        <v>1098.814586257952</v>
       </c>
       <c r="L139" t="n">
-        <v>1117.96</v>
+        <v>1098.154652022815</v>
       </c>
       <c r="M139" t="n">
-        <v>1117.96</v>
+        <v>1096.538078339196</v>
       </c>
     </row>
     <row r="140">
@@ -6114,25 +6379,25 @@
         <v>128.28</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>-36.9078432358001</v>
       </c>
       <c r="H140" t="n">
-        <v>1074.26</v>
+        <v>1095.44</v>
       </c>
       <c r="I140" t="n">
-        <v>1074.26</v>
+        <v>1111.1678432358</v>
       </c>
       <c r="J140" t="n">
-        <v>1074.26</v>
+        <v>1104.216380093724</v>
       </c>
       <c r="K140" t="n">
-        <v>1074.26</v>
+        <v>1098.70885565295</v>
       </c>
       <c r="L140" t="n">
-        <v>1074.26</v>
+        <v>1098.0559498773</v>
       </c>
       <c r="M140" t="n">
-        <v>1074.26</v>
+        <v>1096.506657611826</v>
       </c>
     </row>
     <row r="141">
@@ -6146,25 +6411,25 @@
         <v>128.18</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>-15.14773403347613</v>
       </c>
       <c r="H141" t="n">
         <v>1140.2</v>
       </c>
       <c r="I141" t="n">
-        <v>1140.2</v>
+        <v>1155.347734033476</v>
       </c>
       <c r="J141" t="n">
-        <v>1140.2</v>
+        <v>1148.621124722124</v>
       </c>
       <c r="K141" t="n">
-        <v>1140.2</v>
+        <v>1143.36778379639</v>
       </c>
       <c r="L141" t="n">
-        <v>1140.2</v>
+        <v>1142.722330920553</v>
       </c>
       <c r="M141" t="n">
-        <v>1140.2</v>
+        <v>1141.236494594408</v>
       </c>
     </row>
     <row r="142">
@@ -6178,25 +6443,25 @@
         <v>128.08</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>-14.59840530783185</v>
       </c>
       <c r="H142" t="n">
         <v>1069.57</v>
       </c>
       <c r="I142" t="n">
-        <v>1069.57</v>
+        <v>1084.168405307832</v>
       </c>
       <c r="J142" t="n">
-        <v>1069.57</v>
+        <v>1077.656323376894</v>
       </c>
       <c r="K142" t="n">
-        <v>1069.57</v>
+        <v>1072.641103692669</v>
       </c>
       <c r="L142" t="n">
-        <v>1069.57</v>
+        <v>1072.003454379538</v>
       </c>
       <c r="M142" t="n">
-        <v>1069.57</v>
+        <v>1070.577523858731</v>
       </c>
     </row>
     <row r="143">
@@ -6210,25 +6475,25 @@
         <v>127.98</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>-14.07770149336807</v>
       </c>
       <c r="H143" t="n">
         <v>1084.2</v>
       </c>
       <c r="I143" t="n">
-        <v>1084.2</v>
+        <v>1098.277701493368</v>
       </c>
       <c r="J143" t="n">
-        <v>1084.2</v>
+        <v>1091.970442615346</v>
       </c>
       <c r="K143" t="n">
-        <v>1084.2</v>
+        <v>1087.178567160892</v>
       </c>
       <c r="L143" t="n">
-        <v>1084.2</v>
+        <v>1086.549007554343</v>
       </c>
       <c r="M143" t="n">
-        <v>1084.2</v>
+        <v>1085.179684162786</v>
       </c>
     </row>
     <row r="144">
@@ -6242,25 +6507,25 @@
         <v>127.88</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>-13.58365467416843</v>
       </c>
       <c r="H144" t="n">
         <v>1073.19</v>
       </c>
       <c r="I144" t="n">
-        <v>1073.19</v>
+        <v>1086.773654674168</v>
       </c>
       <c r="J144" t="n">
-        <v>1073.19</v>
+        <v>1080.662090191144</v>
       </c>
       <c r="K144" t="n">
-        <v>1073.19</v>
+        <v>1076.079943265683</v>
       </c>
       <c r="L144" t="n">
-        <v>1073.19</v>
+        <v>1075.458703083739</v>
       </c>
       <c r="M144" t="n">
-        <v>1073.19</v>
+        <v>1074.142918133603</v>
       </c>
     </row>
     <row r="145">
@@ -6274,25 +6539,25 @@
         <v>127.78</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>-13.11446508766107</v>
       </c>
       <c r="H145" t="n">
         <v>1042.02</v>
       </c>
       <c r="I145" t="n">
-        <v>1042.02</v>
+        <v>1055.134465087661</v>
       </c>
       <c r="J145" t="n">
-        <v>1042.02</v>
+        <v>1049.209999693909</v>
       </c>
       <c r="K145" t="n">
-        <v>1042.02</v>
+        <v>1044.825016898766</v>
       </c>
       <c r="L145" t="n">
-        <v>1042.02</v>
+        <v>1044.212276517217</v>
       </c>
       <c r="M145" t="n">
-        <v>1042.02</v>
+        <v>1042.947171977769</v>
       </c>
     </row>
     <row r="146">
@@ -6306,25 +6571,25 @@
         <v>127.68</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>-12.66848397673425</v>
       </c>
       <c r="H146" t="n">
         <v>1090.89</v>
       </c>
       <c r="I146" t="n">
-        <v>1090.89</v>
+        <v>1103.558483976734</v>
       </c>
       <c r="J146" t="n">
-        <v>1090.89</v>
+        <v>1097.813017110063</v>
       </c>
       <c r="K146" t="n">
-        <v>1090.89</v>
+        <v>1093.613587494957</v>
       </c>
       <c r="L146" t="n">
-        <v>1090.89</v>
+        <v>1093.009484154779</v>
       </c>
       <c r="M146" t="n">
-        <v>1090.89</v>
+        <v>1091.792395216935</v>
       </c>
     </row>
     <row r="147">
@@ -6338,25 +6603,25 @@
         <v>127.58</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>-12.24419846929663</v>
       </c>
       <c r="H147" t="n">
         <v>1062.76</v>
       </c>
       <c r="I147" t="n">
-        <v>1062.76</v>
+        <v>1075.004198469297</v>
       </c>
       <c r="J147" t="n">
-        <v>1062.76</v>
+        <v>1069.43008903411</v>
       </c>
       <c r="K147" t="n">
-        <v>1062.76</v>
+        <v>1065.405467868189</v>
       </c>
       <c r="L147" t="n">
-        <v>1062.76</v>
+        <v>1064.810101121156</v>
       </c>
       <c r="M147" t="n">
-        <v>1062.76</v>
+        <v>1063.638540445842</v>
       </c>
     </row>
     <row r="148">
@@ -6370,25 +6635,25 @@
         <v>127.48</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>-11.84021821328952</v>
       </c>
       <c r="H148" t="n">
         <v>1063.27</v>
       </c>
       <c r="I148" t="n">
-        <v>1063.27</v>
+        <v>1075.110218213289</v>
       </c>
       <c r="J148" t="n">
-        <v>1063.27</v>
+        <v>1069.70025230192</v>
       </c>
       <c r="K148" t="n">
-        <v>1063.27</v>
+        <v>1065.840483154879</v>
       </c>
       <c r="L148" t="n">
-        <v>1063.27</v>
+        <v>1065.253919645774</v>
       </c>
       <c r="M148" t="n">
-        <v>1063.27</v>
+        <v>1064.125563110716</v>
       </c>
     </row>
     <row r="149">
@@ -6402,25 +6667,25 @@
         <v>127.38</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>-11.45526353588639</v>
       </c>
       <c r="H149" t="n">
         <v>1027.38</v>
       </c>
       <c r="I149" t="n">
-        <v>1027.38</v>
+        <v>1038.835263535886</v>
       </c>
       <c r="J149" t="n">
-        <v>1027.38</v>
+        <v>1033.582624852667</v>
       </c>
       <c r="K149" t="n">
-        <v>1027.38</v>
+        <v>1029.878469853482</v>
       </c>
       <c r="L149" t="n">
-        <v>1027.38</v>
+        <v>1029.300747523641</v>
       </c>
       <c r="M149" t="n">
-        <v>1027.38</v>
+        <v>1028.213421306097</v>
       </c>
     </row>
     <row r="150">
@@ -6434,25 +6699,25 @@
         <v>127.28</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>-11.0881549296189</v>
       </c>
       <c r="H150" t="n">
         <v>1029.99</v>
       </c>
       <c r="I150" t="n">
-        <v>1029.99</v>
+        <v>1041.078154929619</v>
       </c>
       <c r="J150" t="n">
-        <v>1029.99</v>
+        <v>1035.976397655254</v>
       </c>
       <c r="K150" t="n">
-        <v>1029.99</v>
+        <v>1032.419274950308</v>
       </c>
       <c r="L150" t="n">
-        <v>1029.99</v>
+        <v>1031.850406735704</v>
       </c>
       <c r="M150" t="n">
-        <v>1029.99</v>
+        <v>1030.802075588353</v>
       </c>
     </row>
     <row r="151">
@@ -6466,25 +6731,25 @@
         <v>127.18</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>-10.73780369665064</v>
       </c>
       <c r="H151" t="n">
         <v>1056.85</v>
       </c>
       <c r="I151" t="n">
-        <v>1056.85</v>
+        <v>1067.587803696651</v>
       </c>
       <c r="J151" t="n">
-        <v>1056.85</v>
+        <v>1062.630827559414</v>
       </c>
       <c r="K151" t="n">
-        <v>1056.85</v>
+        <v>1059.21275512288</v>
       </c>
       <c r="L151" t="n">
-        <v>1056.85</v>
+        <v>1058.652732210011</v>
       </c>
       <c r="M151" t="n">
-        <v>1056.85</v>
+        <v>1057.641488804345</v>
       </c>
     </row>
     <row r="152">
@@ -6498,25 +6763,25 @@
         <v>127.08</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>-10.40320360640862</v>
       </c>
       <c r="H152" t="n">
         <v>1036.88</v>
       </c>
       <c r="I152" t="n">
-        <v>1036.88</v>
+        <v>1047.283203606409</v>
       </c>
       <c r="J152" t="n">
-        <v>1036.88</v>
+        <v>1042.465230952052</v>
       </c>
       <c r="K152" t="n">
-        <v>1036.88</v>
+        <v>1039.178776013044</v>
       </c>
       <c r="L152" t="n">
-        <v>1036.88</v>
+        <v>1038.627570707471</v>
       </c>
       <c r="M152" t="n">
-        <v>1036.88</v>
+        <v>1037.651625933843</v>
       </c>
     </row>
     <row r="153">
@@ -6530,25 +6795,25 @@
         <v>126.98</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>-10.08342344196262</v>
       </c>
       <c r="H153" t="n">
         <v>1070.09</v>
       </c>
       <c r="I153" t="n">
-        <v>1070.09</v>
+        <v>1080.173423441963</v>
       </c>
       <c r="J153" t="n">
-        <v>1070.09</v>
+        <v>1075.488978116539</v>
       </c>
       <c r="K153" t="n">
-        <v>1070.09</v>
+        <v>1072.327211562921</v>
       </c>
       <c r="L153" t="n">
-        <v>1070.09</v>
+        <v>1071.784779818053</v>
       </c>
       <c r="M153" t="n">
-        <v>1070.09</v>
+        <v>1070.842453944448</v>
       </c>
     </row>
     <row r="154">
@@ -6562,25 +6827,25 @@
         <v>126.88</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>-9.777600327679693</v>
       </c>
       <c r="H154" t="n">
         <v>1106.96</v>
       </c>
       <c r="I154" t="n">
-        <v>1106.96</v>
+        <v>1116.73760032768</v>
       </c>
       <c r="J154" t="n">
-        <v>1106.96</v>
+        <v>1112.181488207103</v>
       </c>
       <c r="K154" t="n">
-        <v>1106.96</v>
+        <v>1109.137943407595</v>
       </c>
       <c r="L154" t="n">
-        <v>1106.96</v>
+        <v>1108.604227055083</v>
       </c>
       <c r="M154" t="n">
-        <v>1106.96</v>
+        <v>1107.6939416579</v>
       </c>
     </row>
     <row r="155">
@@ -6594,25 +6859,25 @@
         <v>126.78</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>-9.484933745173066</v>
       </c>
       <c r="H155" t="n">
         <v>1057.51</v>
       </c>
       <c r="I155" t="n">
-        <v>1057.51</v>
+        <v>1066.994933745173</v>
       </c>
       <c r="J155" t="n">
-        <v>1057.51</v>
+        <v>1062.562224762618</v>
       </c>
       <c r="K155" t="n">
-        <v>1057.51</v>
+        <v>1059.630860319014</v>
       </c>
       <c r="L155" t="n">
-        <v>1057.51</v>
+        <v>1059.105789036789</v>
       </c>
       <c r="M155" t="n">
-        <v>1057.51</v>
+        <v>1058.226059626752</v>
       </c>
     </row>
     <row r="156">
@@ -6626,25 +6891,25 @@
         <v>126.68</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>-9.20468015693541</v>
       </c>
       <c r="H156" t="n">
         <v>1031.32</v>
       </c>
       <c r="I156" t="n">
-        <v>1031.32</v>
+        <v>1040.524680156935</v>
       </c>
       <c r="J156" t="n">
-        <v>1031.32</v>
+        <v>1036.210691694517</v>
       </c>
       <c r="K156" t="n">
-        <v>1031.32</v>
+        <v>1033.385857696266</v>
       </c>
       <c r="L156" t="n">
-        <v>1031.32</v>
+        <v>1032.869350745636</v>
       </c>
       <c r="M156" t="n">
-        <v>1031.32</v>
+        <v>1032.018780020516</v>
       </c>
     </row>
     <row r="157">
@@ -6658,25 +6923,25 @@
         <v>126.58</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>-8.936148167582814</v>
       </c>
       <c r="H157" t="n">
         <v>1109.28</v>
       </c>
       <c r="I157" t="n">
-        <v>1109.28</v>
+        <v>1118.216148167583</v>
       </c>
       <c r="J157" t="n">
-        <v>1109.28</v>
+        <v>1114.016429692244</v>
       </c>
       <c r="K157" t="n">
-        <v>1109.28</v>
+        <v>1111.292837097817</v>
       </c>
       <c r="L157" t="n">
-        <v>1109.28</v>
+        <v>1110.784804857075</v>
       </c>
       <c r="M157" t="n">
-        <v>1109.28</v>
+        <v>1109.962076520446</v>
       </c>
     </row>
     <row r="158">
@@ -6690,25 +6955,25 @@
         <v>126.48</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>-8.678694161669</v>
       </c>
       <c r="H158" t="n">
         <v>1068.33</v>
       </c>
       <c r="I158" t="n">
-        <v>1068.33</v>
+        <v>1077.008694161669</v>
       </c>
       <c r="J158" t="n">
-        <v>1068.33</v>
+        <v>1072.919012997238</v>
       </c>
       <c r="K158" t="n">
-        <v>1068.33</v>
+        <v>1070.291705811848</v>
       </c>
       <c r="L158" t="n">
-        <v>1068.33</v>
+        <v>1069.792051130366</v>
       </c>
       <c r="M158" t="n">
-        <v>1068.33</v>
+        <v>1068.995924222217</v>
       </c>
     </row>
     <row r="159">
@@ -6722,25 +6987,25 @@
         <v>126.38</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>-8.43171836476381</v>
       </c>
       <c r="H159" t="n">
         <v>1067.61</v>
       </c>
       <c r="I159" t="n">
-        <v>1067.61</v>
+        <v>1076.041718364764</v>
       </c>
       <c r="J159" t="n">
-        <v>1067.61</v>
+        <v>1072.058046502784</v>
       </c>
       <c r="K159" t="n">
-        <v>1067.61</v>
+        <v>1069.522376461139</v>
       </c>
       <c r="L159" t="n">
-        <v>1067.61</v>
+        <v>1069.030995854998</v>
       </c>
       <c r="M159" t="n">
-        <v>1067.61</v>
+        <v>1068.260299545842</v>
       </c>
     </row>
     <row r="160">
@@ -6754,25 +7019,25 @@
         <v>126.28</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>-8.194661281157778</v>
       </c>
       <c r="H160" t="n">
         <v>1066.1</v>
       </c>
       <c r="I160" t="n">
-        <v>1066.1</v>
+        <v>1074.294661281158</v>
       </c>
       <c r="J160" t="n">
-        <v>1066.1</v>
+        <v>1070.413163142583</v>
       </c>
       <c r="K160" t="n">
-        <v>1066.1</v>
+        <v>1067.964766639401</v>
       </c>
       <c r="L160" t="n">
-        <v>1066.1</v>
+        <v>1067.481551346968</v>
       </c>
       <c r="M160" t="n">
-        <v>1066.1</v>
+        <v>1066.735180152205</v>
       </c>
     </row>
     <row r="161">
@@ -6786,25 +7051,25 @@
         <v>126.18</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>-7.967000467294611</v>
       </c>
       <c r="H161" t="n">
         <v>1105</v>
       </c>
       <c r="I161" t="n">
-        <v>1105</v>
+        <v>1112.967000467295</v>
       </c>
       <c r="J161" t="n">
-        <v>1105</v>
+        <v>1109.184021535596</v>
       </c>
       <c r="K161" t="n">
-        <v>1105</v>
+        <v>1106.818798576195</v>
       </c>
       <c r="L161" t="n">
-        <v>1105</v>
+        <v>1106.343635489843</v>
       </c>
       <c r="M161" t="n">
-        <v>1105</v>
+        <v>1105.620544865661</v>
       </c>
     </row>
     <row r="162">
@@ -6818,25 +7083,25 @@
         <v>126.08</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>-7.748247604989729</v>
       </c>
       <c r="H162" t="n">
         <v>1070.67</v>
       </c>
       <c r="I162" t="n">
-        <v>1070.67</v>
+        <v>1078.41824760499</v>
       </c>
       <c r="J162" t="n">
-        <v>1070.67</v>
+        <v>1074.730303858754</v>
       </c>
       <c r="K162" t="n">
-        <v>1070.67</v>
+        <v>1072.444398827906</v>
       </c>
       <c r="L162" t="n">
-        <v>1070.67</v>
+        <v>1071.97717131611</v>
       </c>
       <c r="M162" t="n">
-        <v>1070.67</v>
+        <v>1071.27637360222</v>
       </c>
     </row>
   </sheetData>
@@ -6857,7 +7122,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="inlineStr">
@@ -16301,7 +16566,7 @@
       <selection activeCell="D1" sqref="D1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -18363,7 +18628,7 @@
       <selection activeCell="D1" sqref="D1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -22495,7 +22760,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="inlineStr">
@@ -26330,7 +26595,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="inlineStr">
@@ -32975,166 +33240,166 @@
   </sheetPr>
   <dimension ref="A1:AP202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Binding Energy (E)</t>
         </is>
       </c>
-      <c r="B1" s="29" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>Raw Data</t>
         </is>
       </c>
-      <c r="C1" s="29" t="inlineStr"/>
-      <c r="D1" s="29" t="inlineStr"/>
-      <c r="E1" s="29" t="inlineStr"/>
-      <c r="F1" s="29" t="inlineStr">
+      <c r="C1" s="22" t="n"/>
+      <c r="D1" s="22" t="n"/>
+      <c r="E1" s="22" t="n"/>
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>BE</t>
         </is>
       </c>
-      <c r="G1" s="29" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>Residuals</t>
         </is>
       </c>
-      <c r="H1" s="29" t="inlineStr">
+      <c r="H1" s="22" t="inlineStr">
         <is>
           <t>Background</t>
         </is>
       </c>
-      <c r="I1" s="29" t="inlineStr">
+      <c r="I1" s="22" t="inlineStr">
         <is>
           <t>Calculated Fit</t>
         </is>
       </c>
-      <c r="J1" s="29" t="inlineStr"/>
-      <c r="K1" s="29" t="inlineStr"/>
-      <c r="L1" s="29" t="inlineStr"/>
-      <c r="M1" s="29" t="inlineStr"/>
-      <c r="N1" s="29" t="inlineStr"/>
-      <c r="O1" s="29" t="inlineStr"/>
-      <c r="P1" s="29" t="inlineStr"/>
-      <c r="Q1" s="29" t="inlineStr"/>
-      <c r="R1" s="29" t="inlineStr"/>
-      <c r="S1" s="29" t="inlineStr"/>
-      <c r="T1" s="29" t="inlineStr"/>
-      <c r="U1" s="29" t="inlineStr"/>
-      <c r="V1" s="29" t="inlineStr"/>
-      <c r="W1" s="29" t="inlineStr"/>
-      <c r="X1" s="30" t="inlineStr">
+      <c r="J1" s="22" t="n"/>
+      <c r="K1" s="22" t="n"/>
+      <c r="L1" s="22" t="n"/>
+      <c r="M1" s="22" t="n"/>
+      <c r="N1" s="22" t="n"/>
+      <c r="O1" s="22" t="n"/>
+      <c r="P1" s="22" t="n"/>
+      <c r="Q1" s="22" t="n"/>
+      <c r="R1" s="22" t="n"/>
+      <c r="S1" s="22" t="n"/>
+      <c r="T1" s="22" t="n"/>
+      <c r="U1" s="22" t="n"/>
+      <c r="V1" s="22" t="n"/>
+      <c r="W1" s="22" t="n"/>
+      <c r="X1" s="23" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="Y1" s="31" t="inlineStr">
+      <c r="Y1" s="24" t="inlineStr">
         <is>
           <t>Peak
 Label</t>
         </is>
       </c>
-      <c r="Z1" s="31" t="inlineStr">
+      <c r="Z1" s="24" t="inlineStr">
         <is>
           <t>Position
 (eV)</t>
         </is>
       </c>
-      <c r="AA1" s="31" t="inlineStr">
+      <c r="AA1" s="24" t="inlineStr">
         <is>
           <t>Height
 (CPS)</t>
         </is>
       </c>
-      <c r="AB1" s="31" t="inlineStr">
+      <c r="AB1" s="24" t="inlineStr">
         <is>
           <t>FWHM
 (eV)</t>
         </is>
       </c>
-      <c r="AC1" s="31" t="inlineStr">
+      <c r="AC1" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">σ/γ (%)
 L/G 
 </t>
         </is>
       </c>
-      <c r="AD1" s="31" t="inlineStr">
+      <c r="AD1" s="24" t="inlineStr">
         <is>
           <t>Area
 (CPS.eV)</t>
         </is>
       </c>
-      <c r="AE1" s="31" t="inlineStr">
+      <c r="AE1" s="24" t="inlineStr">
         <is>
           <t>σ
 W_g</t>
         </is>
       </c>
-      <c r="AF1" s="31" t="inlineStr">
+      <c r="AF1" s="24" t="inlineStr">
         <is>
           <t>γ
 W_l</t>
         </is>
       </c>
-      <c r="AG1" s="31" t="inlineStr">
+      <c r="AG1" s="24" t="inlineStr">
         <is>
           <t>W_g
 Skew</t>
         </is>
       </c>
-      <c r="AH1" s="31" t="inlineStr">
+      <c r="AH1" s="24" t="inlineStr">
         <is>
           <t>Conc.
 (%)</t>
         </is>
       </c>
-      <c r="AI1" s="31" t="inlineStr">
+      <c r="AI1" s="24" t="inlineStr">
         <is>
           <t>A/Aᴀ</t>
         </is>
       </c>
-      <c r="AJ1" s="31" t="inlineStr">
+      <c r="AJ1" s="24" t="inlineStr">
         <is>
           <t>Split
 (eV)</t>
         </is>
       </c>
-      <c r="AK1" s="31" t="inlineStr">
+      <c r="AK1" s="24" t="inlineStr">
         <is>
           <t>Fitting Model</t>
         </is>
       </c>
-      <c r="AL1" s="31" t="inlineStr">
+      <c r="AL1" s="24" t="inlineStr">
         <is>
           <t>Bkg Type</t>
         </is>
       </c>
-      <c r="AM1" s="31" t="inlineStr">
+      <c r="AM1" s="24" t="inlineStr">
         <is>
           <t>Bkg Low
 (eV)</t>
         </is>
       </c>
-      <c r="AN1" s="31" t="inlineStr">
+      <c r="AN1" s="24" t="inlineStr">
         <is>
           <t>Bkg High
 (eV)</t>
         </is>
       </c>
-      <c r="AO1" s="31" t="inlineStr">
+      <c r="AO1" s="24" t="inlineStr">
         <is>
           <t>Bkg Offset Low
 (CPS)</t>
         </is>
       </c>
-      <c r="AP1" s="32" t="inlineStr">
+      <c r="AP1" s="25" t="inlineStr">
         <is>
           <t>Bkg Offset High
 (CPS)</t>
@@ -35967,13 +36232,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:AD5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
@@ -35983,12 +36248,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="11"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="13" customWidth="1" min="13" max="13"/>
-    <col width="22" customWidth="1" min="14" max="14"/>
+    <col width="25" customWidth="1" min="14" max="14"/>
     <col width="23" customWidth="1" min="15" max="15"/>
-    <col width="12" customWidth="1" min="16" max="17"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="12" customWidth="1" min="17" max="17"/>
     <col width="10" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="15" customWidth="1" min="20" max="20"/>
@@ -36000,171 +36268,173 @@
     <col width="17" customWidth="1" min="26" max="26"/>
     <col width="16" customWidth="1" min="27" max="27"/>
     <col width="17" customWidth="1" min="28" max="28"/>
-    <col width="14" customWidth="1" min="29" max="30"/>
+    <col width="14" customWidth="1" min="29" max="29"/>
+    <col width="14" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2">
-      <c r="B2" s="22" t="inlineStr">
+      <c r="B2" s="42" t="inlineStr">
         <is>
           <t>Peak
 Label</t>
         </is>
       </c>
-      <c r="C2" s="22" t="inlineStr">
+      <c r="C2" s="42" t="inlineStr">
         <is>
           <t>Position
 (eV)</t>
         </is>
       </c>
-      <c r="D2" s="22" t="inlineStr">
+      <c r="D2" s="42" t="inlineStr">
         <is>
           <t>Height
 (CPS)</t>
         </is>
       </c>
-      <c r="E2" s="22" t="inlineStr">
+      <c r="E2" s="42" t="inlineStr">
         <is>
           <t>FWHM
 (eV)</t>
         </is>
       </c>
-      <c r="F2" s="22" t="inlineStr">
+      <c r="F2" s="42" t="inlineStr">
         <is>
           <t>L/G 
 σ/γ (%)</t>
         </is>
       </c>
-      <c r="G2" s="22" t="inlineStr">
+      <c r="G2" s="42" t="inlineStr">
         <is>
           <t>Area
 (CPS.eV)</t>
         </is>
       </c>
-      <c r="H2" s="22" t="inlineStr">
+      <c r="H2" s="42" t="inlineStr">
         <is>
           <t>Atomic
 (%)</t>
         </is>
       </c>
-      <c r="I2" s="22" t="inlineStr">
+      <c r="I2" s="42" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="J2" s="22" t="inlineStr">
+      <c r="J2" s="42" t="inlineStr">
         <is>
           <t>RSF</t>
         </is>
       </c>
-      <c r="K2" s="22" t="inlineStr">
+      <c r="K2" s="42" t="inlineStr">
         <is>
           <t>TXFN</t>
         </is>
       </c>
-      <c r="L2" s="22" t="inlineStr">
+      <c r="L2" s="42" t="inlineStr">
         <is>
           <t>ECF</t>
         </is>
       </c>
-      <c r="M2" s="22" t="inlineStr">
+      <c r="M2" s="42" t="inlineStr">
         <is>
           <t>Instr.</t>
         </is>
       </c>
-      <c r="N2" s="22" t="inlineStr">
+      <c r="N2" s="42" t="inlineStr">
         <is>
           <t>Fitting Model</t>
         </is>
       </c>
-      <c r="O2" s="22" t="inlineStr">
+      <c r="O2" s="42" t="inlineStr">
         <is>
           <t>Corr. Area
  Ac (a.u.)</t>
         </is>
       </c>
-      <c r="P2" s="22" t="inlineStr">
+      <c r="P2" s="42" t="inlineStr">
         <is>
           <t>σ or α
 W_g</t>
         </is>
       </c>
-      <c r="Q2" s="22" t="inlineStr">
+      <c r="Q2" s="42" t="inlineStr">
         <is>
           <t>γ or β
 W_l</t>
         </is>
       </c>
-      <c r="R2" s="22" t="inlineStr">
+      <c r="R2" s="42" t="inlineStr">
         <is>
           <t>Bkg Type</t>
         </is>
       </c>
-      <c r="S2" s="22" t="inlineStr">
+      <c r="S2" s="42" t="inlineStr">
         <is>
           <t>Bkg Low
 (eV)</t>
         </is>
       </c>
-      <c r="T2" s="22" t="inlineStr">
+      <c r="T2" s="42" t="inlineStr">
         <is>
           <t>Bkg High
 (eV)</t>
         </is>
       </c>
-      <c r="U2" s="22" t="inlineStr">
+      <c r="U2" s="42" t="inlineStr">
         <is>
           <t>Bkg Offset Low
 (CPS)</t>
         </is>
       </c>
-      <c r="V2" s="22" t="inlineStr">
+      <c r="V2" s="42" t="inlineStr">
         <is>
           <t>Bkg Offset High
 (CPS)</t>
         </is>
       </c>
-      <c r="W2" s="22" t="inlineStr">
+      <c r="W2" s="42" t="inlineStr">
         <is>
           <t>Sheetname</t>
         </is>
       </c>
-      <c r="X2" s="22" t="inlineStr">
+      <c r="X2" s="42" t="inlineStr">
         <is>
           <t>Position
 Constraint</t>
         </is>
       </c>
-      <c r="Y2" s="22" t="inlineStr">
+      <c r="Y2" s="42" t="inlineStr">
         <is>
           <t>Height
 Constraint</t>
         </is>
       </c>
-      <c r="Z2" s="22" t="inlineStr">
+      <c r="Z2" s="42" t="inlineStr">
         <is>
           <t>FWHM
 Constraint</t>
         </is>
       </c>
-      <c r="AA2" s="22" t="inlineStr">
+      <c r="AA2" s="42" t="inlineStr">
         <is>
           <t>L/G
 Constraint</t>
         </is>
       </c>
-      <c r="AB2" s="22" t="inlineStr">
+      <c r="AB2" s="42" t="inlineStr">
         <is>
           <t>Area
 Constraint</t>
         </is>
       </c>
-      <c r="AC2" s="22" t="inlineStr">
+      <c r="AC2" s="42" t="inlineStr">
         <is>
           <t>σ
 Constraint</t>
         </is>
       </c>
-      <c r="AD2" s="22" t="inlineStr">
+      <c r="AD2" s="42" t="inlineStr">
         <is>
           <t>γ
 Constraint</t>
@@ -36172,405 +36442,405 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="23" t="inlineStr">
-        <is>
-          <t>C1s C-C</t>
-        </is>
-      </c>
-      <c r="C3" s="24" t="inlineStr">
-        <is>
-          <t>284.80</t>
-        </is>
-      </c>
-      <c r="D3" s="24" t="inlineStr">
-        <is>
-          <t>1083.49</t>
-        </is>
-      </c>
-      <c r="E3" s="24" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F3" s="24" t="inlineStr">
-        <is>
-          <t>15.01</t>
-        </is>
-      </c>
-      <c r="G3" s="24" t="inlineStr">
-        <is>
-          <t>2011.24</t>
-        </is>
-      </c>
-      <c r="H3" s="24" t="inlineStr">
+      <c r="B3" s="43" t="inlineStr">
+        <is>
+          <t>Sr3d5/2 p1</t>
+        </is>
+      </c>
+      <c r="C3" s="44" t="inlineStr">
+        <is>
+          <t>133.44</t>
+        </is>
+      </c>
+      <c r="D3" s="44" t="inlineStr">
+        <is>
+          <t>3515.41</t>
+        </is>
+      </c>
+      <c r="E3" s="44" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="F3" s="44" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G3" s="44" t="inlineStr">
+        <is>
+          <t>4634.68</t>
+        </is>
+      </c>
+      <c r="H3" s="44" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="I3" s="24" t="inlineStr">
+      <c r="I3" s="44" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J3" s="24" t="inlineStr">
+      <c r="J3" s="44" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="K3" s="44" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="K3" s="24" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="L3" s="24" t="inlineStr">
+      <c r="L3" s="44" t="inlineStr">
         <is>
           <t>TPP-2M</t>
         </is>
       </c>
-      <c r="M3" s="24" t="inlineStr">
+      <c r="M3" s="44" t="inlineStr">
         <is>
           <t>A-ALTHERMO1</t>
         </is>
       </c>
-      <c r="N3" s="24" t="inlineStr">
-        <is>
-          <t>Voigt (Area, L/G, σ)</t>
-        </is>
-      </c>
-      <c r="O3" s="24" t="inlineStr">
-        <is>
-          <t>28.17</t>
-        </is>
-      </c>
-      <c r="P3" s="24" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="Q3" s="24" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="R3" s="24" t="n"/>
-      <c r="S3" s="24" t="inlineStr">
-        <is>
-          <t>278.89</t>
-        </is>
-      </c>
-      <c r="T3" s="24" t="inlineStr">
-        <is>
-          <t>324.89</t>
-        </is>
-      </c>
-      <c r="U3" s="24" t="n"/>
-      <c r="V3" s="24" t="n"/>
-      <c r="W3" s="24" t="inlineStr">
-        <is>
-          <t>C1s</t>
-        </is>
-      </c>
-      <c r="X3" s="24" t="inlineStr">
-        <is>
-          <t>272.81,297.81</t>
-        </is>
-      </c>
-      <c r="Y3" s="24" t="inlineStr">
+      <c r="N3" s="44" t="inlineStr">
+        <is>
+          <t>Voigt (Area, L/G, σ, S)</t>
+        </is>
+      </c>
+      <c r="O3" s="44" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="P3" s="44" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="Q3" s="44" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="R3" s="44" t="inlineStr"/>
+      <c r="S3" s="44" t="inlineStr">
+        <is>
+          <t>126.08</t>
+        </is>
+      </c>
+      <c r="T3" s="44" t="inlineStr">
+        <is>
+          <t>142.08</t>
+        </is>
+      </c>
+      <c r="U3" s="44" t="inlineStr"/>
+      <c r="V3" s="44" t="inlineStr"/>
+      <c r="W3" s="44" t="inlineStr">
+        <is>
+          <t>Sr3d</t>
+        </is>
+      </c>
+      <c r="X3" s="44" t="inlineStr">
+        <is>
+          <t>126.08,142.08</t>
+        </is>
+      </c>
+      <c r="Y3" s="44" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z3" s="24" t="inlineStr">
+      <c r="Z3" s="44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA3" s="44" t="inlineStr">
+        <is>
+          <t>15:85</t>
+        </is>
+      </c>
+      <c r="AB3" s="44" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AC3" s="44" t="inlineStr">
+        <is>
+          <t>0.2:1.5</t>
+        </is>
+      </c>
+      <c r="AD3" s="45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="43" t="inlineStr">
+        <is>
+          <t>Sr3d3/2 p2</t>
+        </is>
+      </c>
+      <c r="C4" s="44" t="inlineStr">
+        <is>
+          <t>135.19</t>
+        </is>
+      </c>
+      <c r="D4" s="44" t="inlineStr">
+        <is>
+          <t>2465.25</t>
+        </is>
+      </c>
+      <c r="E4" s="44" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="F4" s="44" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G4" s="44" t="inlineStr">
+        <is>
+          <t>3250.16</t>
+        </is>
+      </c>
+      <c r="H4" s="44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I4" s="44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="44" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="K4" s="44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L4" s="44" t="inlineStr">
+        <is>
+          <t>TPP-2M</t>
+        </is>
+      </c>
+      <c r="M4" s="44" t="inlineStr">
+        <is>
+          <t>A-ALTHERMO1</t>
+        </is>
+      </c>
+      <c r="N4" s="44" t="inlineStr">
+        <is>
+          <t>Voigt (Area, L/G, σ, S)</t>
+        </is>
+      </c>
+      <c r="O4" s="44" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="P4" s="44" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="Q4" s="44" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="R4" s="44" t="inlineStr"/>
+      <c r="S4" s="44" t="inlineStr">
+        <is>
+          <t>126.08</t>
+        </is>
+      </c>
+      <c r="T4" s="44" t="inlineStr">
+        <is>
+          <t>142.08</t>
+        </is>
+      </c>
+      <c r="U4" s="44" t="inlineStr"/>
+      <c r="V4" s="44" t="inlineStr"/>
+      <c r="W4" s="44" t="inlineStr">
+        <is>
+          <t>Sr3d</t>
+        </is>
+      </c>
+      <c r="X4" s="44" t="inlineStr">
+        <is>
+          <t>A+1.7#0.2</t>
+        </is>
+      </c>
+      <c r="Y4" s="44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" s="44" t="inlineStr">
         <is>
           <t>0.3:3.5</t>
         </is>
       </c>
-      <c r="AA3" s="24" t="inlineStr">
-        <is>
-          <t>15:25</t>
-        </is>
-      </c>
-      <c r="AB3" s="24" t="inlineStr">
+      <c r="AA4" s="44" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AB4" s="44" t="inlineStr">
+        <is>
+          <t>A*0.667#0.05</t>
+        </is>
+      </c>
+      <c r="AC4" s="44" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AD4" s="45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="46" t="inlineStr">
+        <is>
+          <t>Sr3d5/2 p3</t>
+        </is>
+      </c>
+      <c r="C5" s="47" t="inlineStr">
+        <is>
+          <t>134.17</t>
+        </is>
+      </c>
+      <c r="D5" s="47" t="inlineStr">
+        <is>
+          <t>1394.46</t>
+        </is>
+      </c>
+      <c r="E5" s="47" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="F5" s="47" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G5" s="47" t="inlineStr">
+        <is>
+          <t>1838.44</t>
+        </is>
+      </c>
+      <c r="H5" s="47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I5" s="47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="47" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="K5" s="47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L5" s="47" t="inlineStr">
+        <is>
+          <t>TPP-2M</t>
+        </is>
+      </c>
+      <c r="M5" s="47" t="inlineStr">
+        <is>
+          <t>A-ALTHERMO1</t>
+        </is>
+      </c>
+      <c r="N5" s="47" t="inlineStr">
+        <is>
+          <t>Voigt (Area, L/G, σ, S)</t>
+        </is>
+      </c>
+      <c r="O5" s="47" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="P5" s="47" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="Q5" s="47" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="R5" s="47" t="inlineStr"/>
+      <c r="S5" s="47" t="inlineStr">
+        <is>
+          <t>126.08</t>
+        </is>
+      </c>
+      <c r="T5" s="47" t="inlineStr">
+        <is>
+          <t>142.08</t>
+        </is>
+      </c>
+      <c r="U5" s="47" t="inlineStr"/>
+      <c r="V5" s="47" t="inlineStr"/>
+      <c r="W5" s="47" t="inlineStr">
+        <is>
+          <t>Sr3d</t>
+        </is>
+      </c>
+      <c r="X5" s="47" t="inlineStr">
+        <is>
+          <t>126.08,142.08</t>
+        </is>
+      </c>
+      <c r="Y5" s="47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" s="47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA5" s="47" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AB5" s="47" t="inlineStr">
         <is>
           <t>1:1e7</t>
         </is>
       </c>
-      <c r="AC3" s="24" t="inlineStr">
-        <is>
-          <t>0.8:3</t>
-        </is>
-      </c>
-      <c r="AD3" s="25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="23" t="inlineStr">
-        <is>
-          <t>C1s C-O</t>
-        </is>
-      </c>
-      <c r="C4" s="24" t="inlineStr">
-        <is>
-          <t>286.09</t>
-        </is>
-      </c>
-      <c r="D4" s="24" t="inlineStr">
-        <is>
-          <t>75.87</t>
-        </is>
-      </c>
-      <c r="E4" s="24" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F4" s="24" t="inlineStr">
-        <is>
-          <t>15.01</t>
-        </is>
-      </c>
-      <c r="G4" s="24" t="inlineStr">
-        <is>
-          <t>140.97</t>
-        </is>
-      </c>
-      <c r="H4" s="24" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I4" s="24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" s="24" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="K4" s="24" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="L4" s="24" t="inlineStr">
-        <is>
-          <t>TPP-2M</t>
-        </is>
-      </c>
-      <c r="M4" s="24" t="inlineStr">
-        <is>
-          <t>A-ALTHERMO1</t>
-        </is>
-      </c>
-      <c r="N4" s="24" t="inlineStr">
-        <is>
-          <t>Voigt (Area, L/G, σ)</t>
-        </is>
-      </c>
-      <c r="O4" s="24" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="P4" s="24" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="Q4" s="24" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="R4" s="24" t="n"/>
-      <c r="S4" s="24" t="inlineStr">
-        <is>
-          <t>278.89</t>
-        </is>
-      </c>
-      <c r="T4" s="24" t="inlineStr">
-        <is>
-          <t>324.89</t>
-        </is>
-      </c>
-      <c r="U4" s="24" t="n"/>
-      <c r="V4" s="24" t="n"/>
-      <c r="W4" s="24" t="inlineStr">
-        <is>
-          <t>C1s</t>
-        </is>
-      </c>
-      <c r="X4" s="24" t="inlineStr">
-        <is>
-          <t>A+1.2#0.1</t>
-        </is>
-      </c>
-      <c r="Y4" s="24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" s="24" t="inlineStr">
-        <is>
-          <t>0.3:3.5</t>
-        </is>
-      </c>
-      <c r="AA4" s="24" t="inlineStr">
+      <c r="AC5" s="47" t="inlineStr">
         <is>
           <t>A*1</t>
         </is>
       </c>
-      <c r="AB4" s="24" t="inlineStr">
-        <is>
-          <t>1:1e7</t>
-        </is>
-      </c>
-      <c r="AC4" s="24" t="inlineStr">
-        <is>
-          <t>A*1</t>
-        </is>
-      </c>
-      <c r="AD4" s="25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="26" t="inlineStr">
-        <is>
-          <t>C1s C=O</t>
-        </is>
-      </c>
-      <c r="C5" s="27" t="inlineStr">
-        <is>
-          <t>288.70</t>
-        </is>
-      </c>
-      <c r="D5" s="27" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E5" s="27" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F5" s="27" t="inlineStr">
-        <is>
-          <t>15.01</t>
-        </is>
-      </c>
-      <c r="G5" s="27" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H5" s="27" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I5" s="27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" s="27" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="K5" s="27" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="L5" s="27" t="inlineStr">
-        <is>
-          <t>TPP-2M</t>
-        </is>
-      </c>
-      <c r="M5" s="27" t="inlineStr">
-        <is>
-          <t>A-ALTHERMO1</t>
-        </is>
-      </c>
-      <c r="N5" s="27" t="inlineStr">
-        <is>
-          <t>Voigt (Area, L/G, σ)</t>
-        </is>
-      </c>
-      <c r="O5" s="27" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="P5" s="27" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="Q5" s="27" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="R5" s="27" t="n"/>
-      <c r="S5" s="27" t="inlineStr">
-        <is>
-          <t>278.89</t>
-        </is>
-      </c>
-      <c r="T5" s="27" t="inlineStr">
-        <is>
-          <t>324.89</t>
-        </is>
-      </c>
-      <c r="U5" s="27" t="n"/>
-      <c r="V5" s="27" t="n"/>
-      <c r="W5" s="27" t="inlineStr">
-        <is>
-          <t>C1s</t>
-        </is>
-      </c>
-      <c r="X5" s="27" t="inlineStr">
-        <is>
-          <t>A+3.5#0.4</t>
-        </is>
-      </c>
-      <c r="Y5" s="27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" s="27" t="inlineStr">
-        <is>
-          <t>0.3:3.5</t>
-        </is>
-      </c>
-      <c r="AA5" s="27" t="inlineStr">
-        <is>
-          <t>A*1</t>
-        </is>
-      </c>
-      <c r="AB5" s="27" t="inlineStr">
-        <is>
-          <t>1:1e7</t>
-        </is>
-      </c>
-      <c r="AC5" s="27" t="inlineStr">
-        <is>
-          <t>A*1</t>
-        </is>
-      </c>
-      <c r="AD5" s="28" t="inlineStr">
+      <c r="AD5" s="48" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/DATA/UKSAF/LaSrTiO3.xlsx
+++ b/DATA/UKSAF/LaSrTiO3.xlsx
@@ -766,7 +766,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5505450" cy="4114800"/>
+    <ext cx="5600700" cy="4086225"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -1372,25 +1372,25 @@
         <v>142.08</v>
       </c>
       <c r="G2" t="n">
-        <v>-12.63023281822029</v>
+        <v>-7.243752836115618</v>
       </c>
       <c r="H2" t="n">
         <v>1321.18</v>
       </c>
       <c r="I2" t="n">
-        <v>1333.81023281822</v>
+        <v>1328.423752836116</v>
       </c>
       <c r="J2" t="n">
-        <v>1325.286095581752</v>
+        <v>1321.18</v>
       </c>
       <c r="K2" t="n">
-        <v>1325.58237247373</v>
+        <v>1324.99400145259</v>
       </c>
       <c r="L2" t="n">
-        <v>1323.099918860681</v>
+        <v>1322.776647790008</v>
       </c>
       <c r="M2" t="n">
-        <v>1323.381845902058</v>
+        <v>1323.013103593518</v>
       </c>
       <c r="X2" s="36" t="inlineStr">
         <is>
@@ -1409,42 +1409,42 @@
       </c>
       <c r="AA2" s="37" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>4827</t>
         </is>
       </c>
       <c r="AB2" s="37" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="AC2" s="37" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="AD2" s="37" t="inlineStr">
         <is>
-          <t>4635</t>
+          <t>4628</t>
         </is>
       </c>
       <c r="AE2" s="37" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="AF2" s="37" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AG2" s="37" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AH2" s="37" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="AI2" s="37" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="AK2" s="37" t="inlineStr">
         <is>
-          <t>Voigt (Area, L/G, σ, S)</t>
+          <t>Voigt (Area, L/G, σ)</t>
         </is>
       </c>
       <c r="AL2" s="37" t="inlineStr">
@@ -1499,25 +1499,25 @@
         <v>141.98</v>
       </c>
       <c r="G3" t="n">
-        <v>-12.95979406702372</v>
+        <v>-7.461313730476377</v>
       </c>
       <c r="H3" t="n">
         <v>1369.78</v>
       </c>
       <c r="I3" t="n">
-        <v>1382.739794067024</v>
+        <v>1377.241313730476</v>
       </c>
       <c r="J3" t="n">
-        <v>1373.97603081392</v>
+        <v>1369.78</v>
       </c>
       <c r="K3" t="n">
-        <v>1374.305922807017</v>
+        <v>1373.708368946269</v>
       </c>
       <c r="L3" t="n">
-        <v>1371.746236103741</v>
+        <v>1371.41802323972</v>
       </c>
       <c r="M3" t="n">
-        <v>1372.051604342346</v>
+        <v>1371.674921544487</v>
       </c>
       <c r="X3" s="39" t="inlineStr"/>
       <c r="Y3" s="40" t="inlineStr"/>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="AC3" s="40" t="inlineStr">
         <is>
-          <t>15:85</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD3" s="40" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="AG3" s="40" t="inlineStr">
         <is>
-          <t>0.01:0.7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH3" s="40" t="inlineStr"/>
@@ -1582,25 +1582,25 @@
         <v>141.88</v>
       </c>
       <c r="G4" t="n">
-        <v>-13.30332328073928</v>
+        <v>-7.688941063506036</v>
       </c>
       <c r="H4" t="n">
         <v>1356.16</v>
       </c>
       <c r="I4" t="n">
-        <v>1369.463323280739</v>
+        <v>1363.848941063506</v>
       </c>
       <c r="J4" t="n">
-        <v>1360.449114124456</v>
+        <v>1356.16</v>
       </c>
       <c r="K4" t="n">
-        <v>1360.814994328402</v>
+        <v>1360.207975626232</v>
       </c>
       <c r="L4" t="n">
-        <v>1358.174336110919</v>
+        <v>1357.84103196323</v>
       </c>
       <c r="M4" t="n">
-        <v>1358.504878716963</v>
+        <v>1358.119933474045</v>
       </c>
       <c r="X4" s="36" t="inlineStr">
         <is>
@@ -1614,62 +1614,62 @@
       </c>
       <c r="Z4" s="37" t="inlineStr">
         <is>
-          <t>135.19</t>
+          <t>135.20</t>
         </is>
       </c>
       <c r="AA4" s="37" t="inlineStr">
         <is>
-          <t>2465</t>
+          <t>2502</t>
         </is>
       </c>
       <c r="AB4" s="37" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="AC4" s="37" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>27.65</t>
         </is>
       </c>
       <c r="AD4" s="37" t="inlineStr">
         <is>
-          <t>3250</t>
+          <t>3318</t>
         </is>
       </c>
       <c r="AE4" s="37" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="AF4" s="37" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="AG4" s="37" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AH4" s="37" t="inlineStr">
         <is>
-          <t>29.4</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="AI4" s="37" t="inlineStr">
         <is>
-          <t>70.1</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="AJ4" s="37" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="AK4" s="37" t="inlineStr">
         <is>
-          <t>Voigt (Area, L/G, σ, S)</t>
+          <t>Voigt (Area, L/G, σ)</t>
         </is>
       </c>
       <c r="AL4" s="37" t="inlineStr">
@@ -1709,25 +1709,25 @@
         <v>141.78</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.66164882839053</v>
+        <v>-7.927273085836077</v>
       </c>
       <c r="H5" t="n">
         <v>1341.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1355.161648828391</v>
+        <v>1349.427273085836</v>
       </c>
       <c r="J5" t="n">
-        <v>1345.88549670424</v>
+        <v>1341.5</v>
       </c>
       <c r="K5" t="n">
-        <v>1346.289926105238</v>
+        <v>1345.673147548179</v>
       </c>
       <c r="L5" t="n">
-        <v>1343.564313064893</v>
+        <v>1343.225761283653</v>
       </c>
       <c r="M5" t="n">
-        <v>1343.92191295402</v>
+        <v>1343.528364254004</v>
       </c>
       <c r="X5" s="39" t="inlineStr"/>
       <c r="Y5" s="40" t="inlineStr"/>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="AB5" s="40" t="inlineStr">
         <is>
-          <t>0.3:3.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC5" s="40" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="AG5" s="40" t="inlineStr">
         <is>
-          <t>A*1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH5" s="40" t="inlineStr"/>
@@ -1792,25 +1792,25 @@
         <v>141.68</v>
       </c>
       <c r="G6" t="n">
-        <v>-14.03566305721893</v>
+        <v>-8.177000070777922</v>
       </c>
       <c r="H6" t="n">
         <v>1332.29</v>
       </c>
       <c r="I6" t="n">
-        <v>1346.325663057219</v>
+        <v>1340.467000070778</v>
       </c>
       <c r="J6" t="n">
-        <v>1336.775339003991</v>
+        <v>1332.29</v>
       </c>
       <c r="K6" t="n">
-        <v>1337.221083855737</v>
+        <v>1336.594236622932</v>
       </c>
       <c r="L6" t="n">
-        <v>1334.406267501152</v>
+        <v>1334.062304454094</v>
       </c>
       <c r="M6" t="n">
-        <v>1334.792972696338</v>
+        <v>1334.390458993752</v>
       </c>
       <c r="X6" s="36" t="inlineStr">
         <is>
@@ -1824,62 +1824,62 @@
       </c>
       <c r="Z6" s="37" t="inlineStr">
         <is>
-          <t>134.17</t>
+          <t>134.16</t>
         </is>
       </c>
       <c r="AA6" s="37" t="inlineStr">
         <is>
-          <t>1394</t>
+          <t>1391</t>
         </is>
       </c>
       <c r="AB6" s="37" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="AC6" s="37" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>27.65</t>
         </is>
       </c>
       <c r="AD6" s="37" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>1845</t>
         </is>
       </c>
       <c r="AE6" s="37" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="AF6" s="37" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="AG6" s="37" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AH6" s="37" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="AI6" s="37" t="inlineStr">
         <is>
-          <t>39.7</t>
+          <t>39.9</t>
         </is>
       </c>
       <c r="AJ6" s="37" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="AK6" s="37" t="inlineStr">
         <is>
-          <t>Voigt (Area, L/G, σ, S)</t>
+          <t>Voigt (Area, L/G, σ)</t>
         </is>
       </c>
       <c r="AL6" s="37" t="inlineStr">
@@ -1919,25 +1919,25 @@
         <v>141.58</v>
       </c>
       <c r="G7" t="n">
-        <v>-14.42632845605931</v>
+        <v>-8.438869550904428</v>
       </c>
       <c r="H7" t="n">
         <v>1338.15</v>
       </c>
       <c r="I7" t="n">
-        <v>1352.576328456059</v>
+        <v>1346.588869550905</v>
       </c>
       <c r="J7" t="n">
-        <v>1342.738811426789</v>
+        <v>1338.15</v>
       </c>
       <c r="K7" t="n">
-        <v>1343.228862518079</v>
+        <v>1342.591623125417</v>
       </c>
       <c r="L7" t="n">
-        <v>1340.320306832022</v>
+        <v>1339.970761148816</v>
       </c>
       <c r="M7" t="n">
-        <v>1340.738347679171</v>
+        <v>1340.326485276671</v>
       </c>
       <c r="X7" s="39" t="inlineStr"/>
       <c r="Y7" s="40" t="inlineStr"/>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="AG7" s="40" t="inlineStr">
         <is>
-          <t>A*1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH7" s="40" t="inlineStr"/>
@@ -2002,25 +2002,25 @@
         <v>141.48</v>
       </c>
       <c r="G8" t="n">
-        <v>-14.83468453792284</v>
+        <v>-8.713692187955758</v>
       </c>
       <c r="H8" t="n">
         <v>1335.29</v>
       </c>
       <c r="I8" t="n">
-        <v>1350.124684537923</v>
+        <v>1344.003692187956</v>
       </c>
       <c r="J8" t="n">
-        <v>1339.986095082002</v>
+        <v>1335.29</v>
       </c>
       <c r="K8" t="n">
-        <v>1340.523689114662</v>
+        <v>1339.875718493465</v>
       </c>
       <c r="L8" t="n">
-        <v>1337.516545922038</v>
+        <v>1337.161238002679</v>
       </c>
       <c r="M8" t="n">
-        <v>1337.96835441922</v>
+        <v>1337.546735691811</v>
       </c>
       <c r="X8" s="36" t="inlineStr">
         <is>
@@ -2034,62 +2034,62 @@
       </c>
       <c r="Z8" s="37" t="inlineStr">
         <is>
-          <t>135.91</t>
+          <t>135.93</t>
         </is>
       </c>
       <c r="AA8" s="37" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>951</t>
         </is>
       </c>
       <c r="AB8" s="37" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="AC8" s="37" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>27.30</t>
         </is>
       </c>
       <c r="AD8" s="37" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>1268</t>
         </is>
       </c>
       <c r="AE8" s="37" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="AF8" s="37" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="AG8" s="37" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AH8" s="37" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="AI8" s="37" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>27.4</t>
         </is>
       </c>
       <c r="AJ8" s="37" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="AK8" s="37" t="inlineStr">
         <is>
-          <t>Voigt (Area, L/G, σ, S)</t>
+          <t>Voigt (Area, L/G, σ)</t>
         </is>
       </c>
       <c r="AL8" s="37" t="inlineStr">
@@ -2129,25 +2129,25 @@
         <v>141.38</v>
       </c>
       <c r="G9" t="n">
-        <v>-15.26185554129211</v>
+        <v>-9.002348366278056</v>
       </c>
       <c r="H9" t="n">
         <v>1341.58</v>
       </c>
       <c r="I9" t="n">
-        <v>1356.841855541292</v>
+        <v>1350.582348366278</v>
       </c>
       <c r="J9" t="n">
-        <v>1346.387382606991</v>
+        <v>1341.58</v>
       </c>
       <c r="K9" t="n">
-        <v>1346.976025951098</v>
+        <v>1346.31696845548</v>
       </c>
       <c r="L9" t="n">
-        <v>1343.865107720535</v>
+        <v>1343.50384920435</v>
       </c>
       <c r="M9" t="n">
-        <v>1344.353339262668</v>
+        <v>1343.921530706447</v>
       </c>
       <c r="X9" s="39" t="inlineStr"/>
       <c r="Y9" s="40" t="inlineStr"/>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="AB9" s="40" t="inlineStr">
         <is>
-          <t>0.3:3.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC9" s="40" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AG9" s="40" t="inlineStr">
         <is>
-          <t>C*1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH9" s="40" t="inlineStr"/>
@@ -2212,25 +2212,25 @@
         <v>141.28</v>
       </c>
       <c r="G10" t="n">
-        <v>-15.70905906568601</v>
+        <v>-9.305795614924591</v>
       </c>
       <c r="H10" t="n">
         <v>1349.18</v>
       </c>
       <c r="I10" t="n">
-        <v>1364.889059065686</v>
+        <v>1358.485795614925</v>
       </c>
       <c r="J10" t="n">
-        <v>1354.102879063613</v>
+        <v>1349.18</v>
       </c>
       <c r="K10" t="n">
-        <v>1354.746374195617</v>
+        <v>1354.075856532081</v>
       </c>
       <c r="L10" t="n">
-        <v>1351.526123958047</v>
+        <v>1351.158717149513</v>
       </c>
       <c r="M10" t="n">
-        <v>1352.053681848409</v>
+        <v>1351.611221933331</v>
       </c>
     </row>
     <row r="11">
@@ -2244,25 +2244,25 @@
         <v>141.18</v>
       </c>
       <c r="G11" t="n">
-        <v>-16.17761577612009</v>
+        <v>-9.625076981280927</v>
       </c>
       <c r="H11" t="n">
         <v>1344.67</v>
       </c>
       <c r="I11" t="n">
-        <v>1360.84761577612</v>
+        <v>1354.295076981281</v>
       </c>
       <c r="J11" t="n">
-        <v>1349.71280291749</v>
+        <v>1344.67</v>
       </c>
       <c r="K11" t="n">
-        <v>1350.41527789176</v>
+        <v>1349.732907963932</v>
       </c>
       <c r="L11" t="n">
-        <v>1347.079735914038</v>
+        <v>1346.705973161142</v>
       </c>
       <c r="M11" t="n">
-        <v>1347.649799052832</v>
+        <v>1347.196195856208</v>
       </c>
     </row>
     <row r="12">
@@ -2276,25 +2276,25 @@
         <v>141.08</v>
       </c>
       <c r="G12" t="n">
-        <v>-16.6689603337154</v>
+        <v>-9.961330500243093</v>
       </c>
       <c r="H12" t="n">
         <v>1336.42</v>
       </c>
       <c r="I12" t="n">
-        <v>1353.088960333715</v>
+        <v>1346.381330500243</v>
       </c>
       <c r="J12" t="n">
-        <v>1341.58738710888</v>
+        <v>1336.42</v>
       </c>
       <c r="K12" t="n">
-        <v>1342.353328465652</v>
+        <v>1341.658694126356</v>
       </c>
       <c r="L12" t="n">
-        <v>1338.896095264457</v>
+        <v>1338.515758284855</v>
       </c>
       <c r="M12" t="n">
-        <v>1339.512149494726</v>
+        <v>1339.046878089032</v>
       </c>
     </row>
     <row r="13">
@@ -2308,25 +2308,25 @@
         <v>140.98</v>
       </c>
       <c r="G13" t="n">
-        <v>-17.1846537368026</v>
+        <v>-10.31579992834781</v>
       </c>
       <c r="H13" t="n">
         <v>1281.16</v>
       </c>
       <c r="I13" t="n">
-        <v>1298.344653736803</v>
+        <v>1291.475799928348</v>
       </c>
       <c r="J13" t="n">
-        <v>1286.456880225135</v>
+        <v>1281.16</v>
       </c>
       <c r="K13" t="n">
-        <v>1287.291169799166</v>
+        <v>1286.583837501245</v>
       </c>
       <c r="L13" t="n">
-        <v>1283.705365018781</v>
+        <v>1283.318224168442</v>
       </c>
       <c r="M13" t="n">
-        <v>1284.371238693722</v>
+        <v>1283.89373825866</v>
       </c>
     </row>
     <row r="14">
@@ -2340,25 +2340,25 @@
         <v>140.88</v>
       </c>
       <c r="G14" t="n">
-        <v>-17.72639728928789</v>
+        <v>-10.68984694274877</v>
       </c>
       <c r="H14" t="n">
         <v>1323.55</v>
       </c>
       <c r="I14" t="n">
-        <v>1341.276397289288</v>
+        <v>1334.239846942749</v>
       </c>
       <c r="J14" t="n">
-        <v>1328.981547785942</v>
+        <v>1323.55</v>
       </c>
       <c r="K14" t="n">
-        <v>1329.88950395209</v>
+        <v>1329.169017288539</v>
       </c>
       <c r="L14" t="n">
-        <v>1326.167720557575</v>
+        <v>1325.77353403595</v>
       </c>
       <c r="M14" t="n">
-        <v>1326.887624993681</v>
+        <v>1326.397295618259</v>
       </c>
     </row>
     <row r="15">
@@ -2372,25 +2372,25 @@
         <v>140.78</v>
       </c>
       <c r="G15" t="n">
-        <v>-18.29604845208951</v>
+        <v>-11.08496504175423</v>
       </c>
       <c r="H15" t="n">
         <v>1322.81</v>
       </c>
       <c r="I15" t="n">
-        <v>1341.106048452089</v>
+        <v>1333.894965041754</v>
       </c>
       <c r="J15" t="n">
-        <v>1328.381673653976</v>
+        <v>1322.81</v>
       </c>
       <c r="K15" t="n">
-        <v>1329.369097630519</v>
+        <v>1328.634975753533</v>
       </c>
       <c r="L15" t="n">
-        <v>1325.503350783113</v>
+        <v>1325.10186376816</v>
       </c>
       <c r="M15" t="n">
-        <v>1326.281926384481</v>
+        <v>1325.778125520061</v>
       </c>
     </row>
     <row r="16">
@@ -2404,25 +2404,25 @@
         <v>140.68</v>
       </c>
       <c r="G16" t="n">
-        <v>-18.89563888062457</v>
+        <v>-11.50279542827866</v>
       </c>
       <c r="H16" t="n">
         <v>1352.14</v>
       </c>
       <c r="I16" t="n">
-        <v>1371.035638880625</v>
+        <v>1363.642795428279</v>
       </c>
       <c r="J16" t="n">
-        <v>1357.857561585176</v>
+        <v>1352.14</v>
       </c>
       <c r="K16" t="n">
-        <v>1358.930789515444</v>
+        <v>1358.182525422982</v>
       </c>
       <c r="L16" t="n">
-        <v>1354.91245939744</v>
+        <v>1354.503403102994</v>
       </c>
       <c r="M16" t="n">
-        <v>1355.754828382566</v>
+        <v>1355.236866902303</v>
       </c>
     </row>
     <row r="17">
@@ -2436,25 +2436,25 @@
         <v>140.58</v>
       </c>
       <c r="G17" t="n">
-        <v>-19.52739500856774</v>
+        <v>-11.94514521190581</v>
       </c>
       <c r="H17" t="n">
         <v>1304.84</v>
       </c>
       <c r="I17" t="n">
-        <v>1324.367395008568</v>
+        <v>1316.785145211906</v>
       </c>
       <c r="J17" t="n">
-        <v>1310.709536934761</v>
+        <v>1304.84</v>
       </c>
       <c r="K17" t="n">
-        <v>1311.875498585606</v>
+        <v>1311.112557262954</v>
       </c>
       <c r="L17" t="n">
-        <v>1307.695266324338</v>
+        <v>1307.278356971376</v>
       </c>
       <c r="M17" t="n">
-        <v>1308.607093163863</v>
+        <v>1308.074230977576</v>
       </c>
     </row>
     <row r="18">
@@ -2468,25 +2468,25 @@
         <v>140.48</v>
       </c>
       <c r="G18" t="n">
-        <v>-20.19376160787897</v>
+        <v>-12.41400833174885</v>
       </c>
       <c r="H18" t="n">
         <v>1296.85</v>
       </c>
       <c r="I18" t="n">
-        <v>1317.043761607879</v>
+        <v>1309.264008331749</v>
       </c>
       <c r="J18" t="n">
-        <v>1302.87794853717</v>
+        <v>1296.85</v>
       </c>
       <c r="K18" t="n">
-        <v>1304.144233592835</v>
+        <v>1303.366049995442</v>
       </c>
       <c r="L18" t="n">
-        <v>1299.792009294101</v>
+        <v>1299.366946986351</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.779570183772</v>
+        <v>1300.231011349956</v>
       </c>
     </row>
     <row r="19">
@@ -2500,25 +2500,25 @@
         <v>140.38</v>
       </c>
       <c r="G19" t="n">
-        <v>-20.89742884058819</v>
+        <v>-12.91158968397554</v>
       </c>
       <c r="H19" t="n">
         <v>1297.71</v>
       </c>
       <c r="I19" t="n">
-        <v>1318.607428840588</v>
+        <v>1310.621589683976</v>
       </c>
       <c r="J19" t="n">
-        <v>1303.903170780581</v>
+        <v>1297.71</v>
       </c>
       <c r="K19" t="n">
-        <v>1305.278103877108</v>
+        <v>1304.484080739717</v>
       </c>
       <c r="L19" t="n">
-        <v>1300.742945612875</v>
+        <v>1300.309413105986</v>
       </c>
       <c r="M19" t="n">
-        <v>1301.813208570024</v>
+        <v>1301.248095838272</v>
       </c>
     </row>
     <row r="20">
@@ -2532,25 +2532,25 @@
         <v>140.28</v>
       </c>
       <c r="G20" t="n">
-        <v>-21.64136342303073</v>
+        <v>-13.44033303882861</v>
       </c>
       <c r="H20" t="n">
         <v>1346.66</v>
       </c>
       <c r="I20" t="n">
-        <v>1368.301363423031</v>
+        <v>1360.100333038829</v>
       </c>
       <c r="J20" t="n">
-        <v>1353.025605899468</v>
+        <v>1346.66</v>
       </c>
       <c r="K20" t="n">
-        <v>1354.518331743787</v>
+        <v>1353.707837199531</v>
       </c>
       <c r="L20" t="n">
-        <v>1349.78835414167</v>
+        <v>1349.346015493715</v>
       </c>
       <c r="M20" t="n">
-        <v>1350.949071638106</v>
+        <v>1350.366480345582</v>
       </c>
     </row>
     <row r="21">
@@ -2564,25 +2564,25 @@
         <v>140.18</v>
       </c>
       <c r="G21" t="n">
-        <v>-22.42884465347061</v>
+        <v>-14.00295345729751</v>
       </c>
       <c r="H21" t="n">
         <v>1293.78</v>
       </c>
       <c r="I21" t="n">
-        <v>1316.208844653471</v>
+        <v>1307.782953457297</v>
       </c>
       <c r="J21" t="n">
-        <v>1300.325686511889</v>
+        <v>1293.78</v>
       </c>
       <c r="K21" t="n">
-        <v>1301.946266668192</v>
+        <v>1301.118631659933</v>
       </c>
       <c r="L21" t="n">
-        <v>1297.008537514074</v>
+        <v>1296.557036603494</v>
       </c>
       <c r="M21" t="n">
-        <v>1298.268353959316</v>
+        <v>1297.66728519387</v>
       </c>
     </row>
     <row r="22">
@@ -2596,25 +2596,25 @@
         <v>140.08</v>
       </c>
       <c r="G22" t="n">
-        <v>-23.26350621611118</v>
+        <v>-14.60247507420263</v>
       </c>
       <c r="H22" t="n">
         <v>1294.58</v>
       </c>
       <c r="I22" t="n">
-        <v>1317.843506216111</v>
+        <v>1309.182475074203</v>
       </c>
       <c r="J22" t="n">
-        <v>1301.313878431969</v>
+        <v>1294.58</v>
       </c>
       <c r="K22" t="n">
-        <v>1303.073401644762</v>
+        <v>1302.227917109585</v>
       </c>
       <c r="L22" t="n">
-        <v>1297.91382462632</v>
+        <v>1297.452783521506</v>
       </c>
       <c r="M22" t="n">
-        <v>1299.282401513061</v>
+        <v>1298.661774443111</v>
       </c>
     </row>
     <row r="23">
@@ -2628,25 +2628,25 @@
         <v>139.98</v>
       </c>
       <c r="G23" t="n">
-        <v>-24.14938487741938</v>
+        <v>-15.24227531121528</v>
       </c>
       <c r="H23" t="n">
         <v>1282.76</v>
       </c>
       <c r="I23" t="n">
-        <v>1306.909384877419</v>
+        <v>1298.002275311215</v>
       </c>
       <c r="J23" t="n">
-        <v>1289.69068379235</v>
+        <v>1282.76</v>
       </c>
       <c r="K23" t="n">
-        <v>1291.601392061895</v>
+        <v>1290.737305868315</v>
       </c>
       <c r="L23" t="n">
-        <v>1286.204573438818</v>
+        <v>1285.733590601283</v>
       </c>
       <c r="M23" t="n">
-        <v>1287.692735584356</v>
+        <v>1287.051378841617</v>
       </c>
     </row>
     <row r="24">
@@ -2660,25 +2660,25 @@
         <v>139.88</v>
       </c>
       <c r="G24" t="n">
-        <v>-25.09097744634414</v>
+        <v>-15.92613683221134</v>
       </c>
       <c r="H24" t="n">
         <v>1291.45</v>
       </c>
       <c r="I24" t="n">
-        <v>1316.540977446344</v>
+        <v>1307.376136832211</v>
       </c>
       <c r="J24" t="n">
-        <v>1298.586644516482</v>
+        <v>1291.45</v>
       </c>
       <c r="K24" t="n">
-        <v>1300.66207756206</v>
+        <v>1299.778591178313</v>
       </c>
       <c r="L24" t="n">
-        <v>1295.011174134728</v>
+        <v>1294.52982243526</v>
       </c>
       <c r="M24" t="n">
-        <v>1296.631081233075</v>
+        <v>1295.967723218639</v>
       </c>
     </row>
     <row r="25">
@@ -2692,25 +2692,25 @@
         <v>139.78</v>
       </c>
       <c r="G25" t="n">
-        <v>-26.09330769430198</v>
+        <v>-16.6583088703037</v>
       </c>
       <c r="H25" t="n">
         <v>1275.21</v>
       </c>
       <c r="I25" t="n">
-        <v>1301.303307694302</v>
+        <v>1291.868308870304</v>
       </c>
       <c r="J25" t="n">
-        <v>1282.562346186457</v>
+        <v>1275.21</v>
       </c>
       <c r="K25" t="n">
-        <v>1284.817507443845</v>
+        <v>1283.91377231474</v>
       </c>
       <c r="L25" t="n">
-        <v>1278.894052688854</v>
+        <v>1278.401877212976</v>
       </c>
       <c r="M25" t="n">
-        <v>1280.659401375146</v>
+        <v>1279.972659342588</v>
       </c>
     </row>
     <row r="26">
@@ -2724,25 +2724,25 @@
         <v>139.68</v>
       </c>
       <c r="G26" t="n">
-        <v>-27.16200534511108</v>
+        <v>-17.44357996249323</v>
       </c>
       <c r="H26" t="n">
         <v>1311.33</v>
       </c>
       <c r="I26" t="n">
-        <v>1338.492005345111</v>
+        <v>1328.773579962493</v>
       </c>
       <c r="J26" t="n">
-        <v>1318.908422359006</v>
+        <v>1311.33</v>
       </c>
       <c r="K26" t="n">
-        <v>1321.359970283225</v>
+        <v>1320.435083892585</v>
       </c>
       <c r="L26" t="n">
-        <v>1315.143674909274</v>
+        <v>1314.640190524826</v>
       </c>
       <c r="M26" t="n">
-        <v>1317.069937793605</v>
+        <v>1316.358305545082</v>
       </c>
     </row>
     <row r="27">
@@ -2756,25 +2756,25 @@
         <v>139.58</v>
       </c>
       <c r="G27" t="n">
-        <v>-28.30339977846461</v>
+        <v>-18.28736465364636</v>
       </c>
       <c r="H27" t="n">
         <v>1287.86</v>
       </c>
       <c r="I27" t="n">
-        <v>1316.163399778465</v>
+        <v>1306.147364653646</v>
       </c>
       <c r="J27" t="n">
-        <v>1295.675559390271</v>
+        <v>1287.86</v>
       </c>
       <c r="K27" t="n">
-        <v>1298.342028601924</v>
+        <v>1297.395030198008</v>
       </c>
       <c r="L27" t="n">
-        <v>1291.810551025095</v>
+        <v>1291.295239680591</v>
       </c>
       <c r="M27" t="n">
-        <v>1293.915260761174</v>
+        <v>1293.177094775047</v>
       </c>
     </row>
     <row r="28">
@@ -2788,25 +2788,25 @@
         <v>139.48</v>
       </c>
       <c r="G28" t="n">
-        <v>-29.52463178295261</v>
+        <v>-19.19580741714503</v>
       </c>
       <c r="H28" t="n">
         <v>1305.54</v>
       </c>
       <c r="I28" t="n">
-        <v>1335.064631782953</v>
+        <v>1324.735807417145</v>
       </c>
       <c r="J28" t="n">
-        <v>1313.604501839425</v>
+        <v>1305.54</v>
       </c>
       <c r="K28" t="n">
-        <v>1316.506559599914</v>
+        <v>1315.536425562761</v>
       </c>
       <c r="L28" t="n">
-        <v>1309.635240906861</v>
+        <v>1309.107548624377</v>
       </c>
       <c r="M28" t="n">
-        <v>1311.938329436752</v>
+        <v>1311.171833230007</v>
       </c>
     </row>
     <row r="29">
@@ -2820,25 +2820,25 @@
         <v>139.38</v>
       </c>
       <c r="G29" t="n">
-        <v>-9.603787601598469</v>
+        <v>1.054092058035621</v>
       </c>
       <c r="H29" t="n">
         <v>1265.62</v>
       </c>
       <c r="I29" t="n">
-        <v>1296.453787601598</v>
+        <v>1285.795907941964</v>
       </c>
       <c r="J29" t="n">
-        <v>1273.946058532304</v>
+        <v>1265.62</v>
       </c>
       <c r="K29" t="n">
-        <v>1277.106803208016</v>
+        <v>1276.112442041026</v>
       </c>
       <c r="L29" t="n">
-        <v>1269.868360021979</v>
+        <v>1269.327693542559</v>
       </c>
       <c r="M29" t="n">
-        <v>1272.392565839298</v>
+        <v>1271.595772358378</v>
       </c>
     </row>
     <row r="30">
@@ -2852,25 +2852,25 @@
         <v>139.28</v>
       </c>
       <c r="G30" t="n">
-        <v>-12.21006071224906</v>
+        <v>-1.205673135569668</v>
       </c>
       <c r="H30" t="n">
         <v>1264.51</v>
       </c>
       <c r="I30" t="n">
-        <v>1296.750060712249</v>
+        <v>1285.74567313557</v>
       </c>
       <c r="J30" t="n">
-        <v>1273.111109379291</v>
+        <v>1264.51</v>
       </c>
       <c r="K30" t="n">
-        <v>1276.556419020209</v>
+        <v>1275.53666595444</v>
       </c>
       <c r="L30" t="n">
-        <v>1268.920586246683</v>
+        <v>1268.366309279392</v>
       </c>
       <c r="M30" t="n">
-        <v>1271.691946066066</v>
+        <v>1270.862697901738</v>
       </c>
     </row>
     <row r="31">
@@ -2884,25 +2884,25 @@
         <v>139.18</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.653948388077879</v>
+        <v>9.715697195717894</v>
       </c>
       <c r="H31" t="n">
         <v>1264.48</v>
       </c>
       <c r="I31" t="n">
-        <v>1298.233948388078</v>
+        <v>1286.864302804282</v>
       </c>
       <c r="J31" t="n">
-        <v>1273.370613057234</v>
+        <v>1264.48</v>
       </c>
       <c r="K31" t="n">
-        <v>1277.129554053716</v>
+        <v>1276.083165263577</v>
       </c>
       <c r="L31" t="n">
-        <v>1269.062667679244</v>
+        <v>1268.494096696862</v>
       </c>
       <c r="M31" t="n">
-        <v>1272.111113597883</v>
+        <v>1271.247040843844</v>
       </c>
     </row>
     <row r="32">
@@ -2916,25 +2916,25 @@
         <v>139.08</v>
       </c>
       <c r="G32" t="n">
-        <v>-11.04749225037381</v>
+        <v>0.7075818342007096</v>
       </c>
       <c r="H32" t="n">
         <v>1264.44</v>
       </c>
       <c r="I32" t="n">
-        <v>1299.827492250374</v>
+        <v>1288.072418165799</v>
       </c>
       <c r="J32" t="n">
-        <v>1273.635615683523</v>
+        <v>1264.44</v>
       </c>
       <c r="K32" t="n">
-        <v>1277.740923785329</v>
+        <v>1276.666570230661</v>
       </c>
       <c r="L32" t="n">
-        <v>1269.20543162751</v>
+        <v>1268.621831142121</v>
       </c>
       <c r="M32" t="n">
-        <v>1272.565521154012</v>
+        <v>1271.664016793017</v>
       </c>
     </row>
     <row r="33">
@@ -2948,25 +2948,25 @@
         <v>138.98</v>
       </c>
       <c r="G33" t="n">
-        <v>-39.17457499244915</v>
+        <v>-27.01234537148321</v>
       </c>
       <c r="H33" t="n">
         <v>1264.39</v>
       </c>
       <c r="I33" t="n">
-        <v>1301.544574992449</v>
+        <v>1289.382345371483</v>
       </c>
       <c r="J33" t="n">
-        <v>1273.907260632406</v>
+        <v>1264.39</v>
       </c>
       <c r="K33" t="n">
-        <v>1278.395909561756</v>
+        <v>1277.292170496563</v>
       </c>
       <c r="L33" t="n">
-        <v>1269.34979497844</v>
+        <v>1268.750372218527</v>
       </c>
       <c r="M33" t="n">
-        <v>1273.061609819848</v>
+        <v>1272.119802656393</v>
       </c>
     </row>
     <row r="34">
@@ -2980,25 +2980,25 @@
         <v>138.88</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.091289572372034</v>
+        <v>7.501529554604076</v>
       </c>
       <c r="H34" t="n">
         <v>1264.38</v>
       </c>
       <c r="I34" t="n">
-        <v>1303.451289572372</v>
+        <v>1290.858470445396</v>
       </c>
       <c r="J34" t="n">
-        <v>1274.236799669779</v>
+        <v>1264.38</v>
       </c>
       <c r="K34" t="n">
-        <v>1279.15067633112</v>
+        <v>1278.016032557761</v>
       </c>
       <c r="L34" t="n">
-        <v>1269.546776199923</v>
+        <v>1268.930675096532</v>
       </c>
       <c r="M34" t="n">
-        <v>1273.65703737155</v>
+        <v>1272.671762791103</v>
       </c>
     </row>
     <row r="35">
@@ -3012,25 +3012,25 @@
         <v>138.78</v>
       </c>
       <c r="G35" t="n">
-        <v>-74.35640298134263</v>
+        <v>-61.30768806475817</v>
       </c>
       <c r="H35" t="n">
         <v>1264.35</v>
       </c>
       <c r="I35" t="n">
-        <v>1305.506402981343</v>
+        <v>1292.457688064758</v>
       </c>
       <c r="J35" t="n">
-        <v>1274.565605614049</v>
+        <v>1264.35</v>
       </c>
       <c r="K35" t="n">
-        <v>1279.952315763032</v>
+        <v>1278.785142769048</v>
       </c>
       <c r="L35" t="n">
-        <v>1269.737509277756</v>
+        <v>1269.103803650355</v>
       </c>
       <c r="M35" t="n">
-        <v>1274.300972326505</v>
+        <v>1273.268741645355</v>
       </c>
     </row>
     <row r="36">
@@ -3044,25 +3044,25 @@
         <v>138.68</v>
       </c>
       <c r="G36" t="n">
-        <v>-19.03194503424947</v>
+        <v>-5.499975335095996</v>
       </c>
       <c r="H36" t="n">
         <v>1264.35</v>
       </c>
       <c r="I36" t="n">
-        <v>1307.781945034249</v>
+        <v>1294.249975335096</v>
       </c>
       <c r="J36" t="n">
-        <v>1274.94518676846</v>
+        <v>1264.35</v>
       </c>
       <c r="K36" t="n">
-        <v>1280.859021315836</v>
+        <v>1279.657582518541</v>
       </c>
       <c r="L36" t="n">
-        <v>1269.973259955928</v>
+        <v>1269.320945767995</v>
       </c>
       <c r="M36" t="n">
-        <v>1275.054476994025</v>
+        <v>1273.97144704856</v>
       </c>
     </row>
     <row r="37">
@@ -3076,25 +3076,25 @@
         <v>138.58</v>
       </c>
       <c r="G37" t="n">
-        <v>-45.83396484793116</v>
+        <v>-31.78913465998266</v>
       </c>
       <c r="H37" t="n">
         <v>1264.36</v>
       </c>
       <c r="I37" t="n">
-        <v>1310.283964847931</v>
+        <v>1296.239134659983</v>
       </c>
       <c r="J37" t="n">
-        <v>1275.357203415798</v>
+        <v>1264.36</v>
       </c>
       <c r="K37" t="n">
-        <v>1281.860303814133</v>
+        <v>1280.622744270592</v>
       </c>
       <c r="L37" t="n">
-        <v>1270.235444729817</v>
+        <v>1269.563431259089</v>
       </c>
       <c r="M37" t="n">
-        <v>1275.911012888183</v>
+        <v>1274.772959130302</v>
       </c>
     </row>
     <row r="38">
@@ -3108,25 +3108,25 @@
         <v>138.48</v>
       </c>
       <c r="G38" t="n">
-        <v>-9.483516002255328</v>
+        <v>5.106230484743492</v>
       </c>
       <c r="H38" t="n">
         <v>1264.34</v>
       </c>
       <c r="I38" t="n">
-        <v>1313.003516002255</v>
+        <v>1298.413769515256</v>
       </c>
       <c r="J38" t="n">
-        <v>1275.763486721702</v>
+        <v>1264.34</v>
       </c>
       <c r="K38" t="n">
-        <v>1282.9272588228</v>
+        <v>1281.651599963154</v>
       </c>
       <c r="L38" t="n">
-        <v>1270.485653144054</v>
+        <v>1269.792752881601</v>
       </c>
       <c r="M38" t="n">
-        <v>1276.847117313698</v>
+        <v>1275.649416670501</v>
       </c>
     </row>
     <row r="39">
@@ -3140,25 +3140,25 @@
         <v>138.38</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.037959638631492</v>
+        <v>12.13141213605331</v>
       </c>
       <c r="H39" t="n">
         <v>1264.31</v>
       </c>
       <c r="I39" t="n">
-        <v>1315.997959638632</v>
+        <v>1300.828587863947</v>
       </c>
       <c r="J39" t="n">
-        <v>1276.18606046002</v>
+        <v>1264.31</v>
       </c>
       <c r="K39" t="n">
-        <v>1284.092900846321</v>
+        <v>1282.777037093045</v>
       </c>
       <c r="L39" t="n">
-        <v>1270.745674075697</v>
+        <v>1270.030591130103</v>
       </c>
       <c r="M39" t="n">
-        <v>1277.903324256593</v>
+        <v>1276.640959640799</v>
       </c>
     </row>
     <row r="40">
@@ -3172,25 +3172,25 @@
         <v>138.28</v>
       </c>
       <c r="G40" t="n">
-        <v>-43.15271970717959</v>
+        <v>-27.366178138343</v>
       </c>
       <c r="H40" t="n">
         <v>1264.24</v>
       </c>
       <c r="I40" t="n">
-        <v>1319.28271970718</v>
+        <v>1303.496178138343</v>
       </c>
       <c r="J40" t="n">
-        <v>1276.597166055845</v>
+        <v>1264.24</v>
       </c>
       <c r="K40" t="n">
-        <v>1285.342584591637</v>
+        <v>1283.98428319458</v>
       </c>
       <c r="L40" t="n">
-        <v>1270.987526846969</v>
+        <v>1270.248843582951</v>
       </c>
       <c r="M40" t="n">
-        <v>1279.075442212728</v>
+        <v>1277.743051360812</v>
       </c>
     </row>
     <row r="41">
@@ -3204,25 +3204,25 @@
         <v>138.18</v>
       </c>
       <c r="G41" t="n">
-        <v>-39.96369857851664</v>
+        <v>-23.51948704132292</v>
       </c>
       <c r="H41" t="n">
         <v>1264.19</v>
       </c>
       <c r="I41" t="n">
-        <v>1322.973698578517</v>
+        <v>1306.529487041323</v>
       </c>
       <c r="J41" t="n">
-        <v>1277.059291542778</v>
+        <v>1264.19</v>
       </c>
       <c r="K41" t="n">
-        <v>1286.754540886254</v>
+        <v>1285.351447028315</v>
       </c>
       <c r="L41" t="n">
-        <v>1271.273498220837</v>
+        <v>1270.509659803174</v>
       </c>
       <c r="M41" t="n">
-        <v>1280.456367928649</v>
+        <v>1279.048380209834</v>
       </c>
     </row>
     <row r="42">
@@ -3236,25 +3236,25 @@
         <v>138.08</v>
       </c>
       <c r="G42" t="n">
-        <v>-75.68068720935662</v>
+        <v>-58.53537445305051</v>
       </c>
       <c r="H42" t="n">
         <v>1264.17</v>
       </c>
       <c r="I42" t="n">
-        <v>1327.150687209357</v>
+        <v>1310.005374453051</v>
       </c>
       <c r="J42" t="n">
-        <v>1277.585205155378</v>
+        <v>1264.17</v>
       </c>
       <c r="K42" t="n">
-        <v>1288.360565387049</v>
+        <v>1286.910215756864</v>
       </c>
       <c r="L42" t="n">
-        <v>1271.616186601531</v>
+        <v>1270.825483041925</v>
       </c>
       <c r="M42" t="n">
-        <v>1282.098730065399</v>
+        <v>1280.609675654262</v>
       </c>
     </row>
     <row r="43">
@@ -3268,25 +3268,25 @@
         <v>137.98</v>
       </c>
       <c r="G43" t="n">
-        <v>-63.62232426477658</v>
+        <v>-45.72987832879858</v>
       </c>
       <c r="H43" t="n">
         <v>1264.16</v>
       </c>
       <c r="I43" t="n">
-        <v>1331.882324264777</v>
+        <v>1313.989878328799</v>
       </c>
       <c r="J43" t="n">
-        <v>1278.157994431993</v>
+        <v>1264.16</v>
       </c>
       <c r="K43" t="n">
-        <v>1290.166913601908</v>
+        <v>1288.666763460042</v>
       </c>
       <c r="L43" t="n">
-        <v>1271.998555110523</v>
+        <v>1271.179100322609</v>
       </c>
       <c r="M43" t="n">
-        <v>1284.038861120353</v>
+        <v>1282.464014546148</v>
       </c>
     </row>
     <row r="44">
@@ -3300,25 +3300,25 @@
         <v>137.88</v>
       </c>
       <c r="G44" t="n">
-        <v>-22.77354800620515</v>
+        <v>-4.086276184095595</v>
       </c>
       <c r="H44" t="n">
         <v>1264.17</v>
       </c>
       <c r="I44" t="n">
-        <v>1337.293548006205</v>
+        <v>1318.606276184096</v>
       </c>
       <c r="J44" t="n">
-        <v>1278.791111895212</v>
+        <v>1264.17</v>
       </c>
       <c r="K44" t="n">
-        <v>1292.215478655856</v>
+        <v>1290.662950421558</v>
       </c>
       <c r="L44" t="n">
-        <v>1272.433995663352</v>
+        <v>1271.583702913792</v>
       </c>
       <c r="M44" t="n">
-        <v>1286.362961791785</v>
+        <v>1284.699622848746</v>
       </c>
     </row>
     <row r="45">
@@ -3332,25 +3332,25 @@
         <v>137.78</v>
       </c>
       <c r="G45" t="n">
-        <v>-29.11716510334145</v>
+        <v>-9.587806125673524</v>
       </c>
       <c r="H45" t="n">
         <v>1264.13</v>
       </c>
       <c r="I45" t="n">
-        <v>1343.467165103341</v>
+        <v>1323.937806125673</v>
       </c>
       <c r="J45" t="n">
-        <v>1279.418428617761</v>
+        <v>1264.13</v>
       </c>
       <c r="K45" t="n">
-        <v>1294.475363142835</v>
+        <v>1292.867929582144</v>
       </c>
       <c r="L45" t="n">
-        <v>1272.856406771721</v>
+        <v>1271.972959765316</v>
       </c>
       <c r="M45" t="n">
-        <v>1289.106966571025</v>
+        <v>1287.356916778214</v>
       </c>
     </row>
     <row r="46">
@@ -3364,25 +3364,25 @@
         <v>137.68</v>
       </c>
       <c r="G46" t="n">
-        <v>10.96770188976302</v>
+        <v>31.38184428385125</v>
       </c>
       <c r="H46" t="n">
         <v>1264.05</v>
       </c>
       <c r="I46" t="n">
-        <v>1350.622298110237</v>
+        <v>1330.208155716149</v>
       </c>
       <c r="J46" t="n">
-        <v>1280.054297284609</v>
+        <v>1264.05</v>
       </c>
       <c r="K46" t="n">
-        <v>1297.005011041989</v>
+        <v>1295.340334921291</v>
       </c>
       <c r="L46" t="n">
-        <v>1273.280288591129</v>
+        <v>1272.361107234644</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.43270119251</v>
+        <v>1290.606713560214</v>
       </c>
     </row>
     <row r="47">
@@ -3396,25 +3396,25 @@
         <v>137.58</v>
       </c>
       <c r="G47" t="n">
-        <v>-39.63421565232602</v>
+        <v>-18.30460419864767</v>
       </c>
       <c r="H47" t="n">
         <v>1263.93</v>
       </c>
       <c r="I47" t="n">
-        <v>1359.054215652326</v>
+        <v>1337.724604198648</v>
       </c>
       <c r="J47" t="n">
-        <v>1280.703626745846</v>
+        <v>1263.93</v>
       </c>
       <c r="K47" t="n">
-        <v>1299.865153844322</v>
+        <v>1298.141321704454</v>
       </c>
       <c r="L47" t="n">
-        <v>1273.71085980192</v>
+        <v>1272.753059440283</v>
       </c>
       <c r="M47" t="n">
-        <v>1296.564575260239</v>
+        <v>1294.690223053911</v>
       </c>
     </row>
     <row r="48">
@@ -3428,25 +3428,25 @@
         <v>137.48</v>
       </c>
       <c r="G48" t="n">
-        <v>-64.17231942362082</v>
+        <v>-41.92073459385779</v>
       </c>
       <c r="H48" t="n">
         <v>1263.81</v>
       </c>
       <c r="I48" t="n">
-        <v>1369.232319423621</v>
+        <v>1346.980734593858</v>
       </c>
       <c r="J48" t="n">
-        <v>1281.411970544362</v>
+        <v>1263.81</v>
       </c>
       <c r="K48" t="n">
-        <v>1303.172972115338</v>
+        <v>1301.388889132967</v>
       </c>
       <c r="L48" t="n">
-        <v>1274.1942023588</v>
+        <v>1273.194544948507</v>
       </c>
       <c r="M48" t="n">
-        <v>1301.883174405121</v>
+        <v>1300.017300512383</v>
       </c>
     </row>
     <row r="49">
@@ -3460,25 +3460,25 @@
         <v>137.38</v>
       </c>
       <c r="G49" t="n">
-        <v>13.30487881673707</v>
+        <v>36.44315643098594</v>
       </c>
       <c r="H49" t="n">
         <v>1263.74</v>
       </c>
       <c r="I49" t="n">
-        <v>1381.845121183263</v>
+        <v>1358.706843569014</v>
       </c>
       <c r="J49" t="n">
-        <v>1282.23563253048</v>
+        <v>1263.74</v>
       </c>
       <c r="K49" t="n">
-        <v>1307.078127231895</v>
+        <v>1305.234195824022</v>
       </c>
       <c r="L49" t="n">
-        <v>1274.787442128148</v>
+        <v>1273.742277377861</v>
       </c>
       <c r="M49" t="n">
-        <v>1308.96391929274</v>
+        <v>1307.210370367131</v>
       </c>
     </row>
     <row r="50">
@@ -3492,25 +3492,25 @@
         <v>137.28</v>
       </c>
       <c r="G50" t="n">
-        <v>-15.58084424363665</v>
+        <v>8.345820538691669</v>
       </c>
       <c r="H50" t="n">
         <v>1263.6</v>
       </c>
       <c r="I50" t="n">
-        <v>1397.730844243637</v>
+        <v>1373.804179461308</v>
       </c>
       <c r="J50" t="n">
-        <v>1283.061793487922</v>
+        <v>1263.6</v>
       </c>
       <c r="K50" t="n">
-        <v>1311.591766608418</v>
+        <v>1309.691077982096</v>
       </c>
       <c r="L50" t="n">
-        <v>1275.378976186996</v>
+        <v>1274.284170114784</v>
       </c>
       <c r="M50" t="n">
-        <v>1318.498307960301</v>
+        <v>1317.028931364428</v>
       </c>
     </row>
     <row r="51">
@@ -3524,25 +3524,25 @@
         <v>137.18</v>
       </c>
       <c r="G51" t="n">
-        <v>4.144012541966958</v>
+        <v>28.67986056510608</v>
       </c>
       <c r="H51" t="n">
         <v>1263.41</v>
       </c>
       <c r="I51" t="n">
-        <v>1418.335987458033</v>
+        <v>1393.800139434894</v>
       </c>
       <c r="J51" t="n">
-        <v>1283.91866375348</v>
+        <v>1263.41</v>
       </c>
       <c r="K51" t="n">
-        <v>1316.910408973317</v>
+        <v>1314.960877470099</v>
       </c>
       <c r="L51" t="n">
-        <v>1275.998761434596</v>
+        <v>1274.849609007944</v>
       </c>
       <c r="M51" t="n">
-        <v>1331.738153296641</v>
+        <v>1330.809652956852</v>
       </c>
     </row>
     <row r="52">
@@ -3556,25 +3556,25 @@
         <v>137.08</v>
       </c>
       <c r="G52" t="n">
-        <v>16.88321690547286</v>
+        <v>41.7683596591628</v>
       </c>
       <c r="H52" t="n">
         <v>1263.19</v>
       </c>
       <c r="I52" t="n">
-        <v>1445.746783094527</v>
+        <v>1420.861640340837</v>
       </c>
       <c r="J52" t="n">
-        <v>1284.835668202383</v>
+        <v>1263.19</v>
       </c>
       <c r="K52" t="n">
-        <v>1323.298039371433</v>
+        <v>1321.316271073261</v>
       </c>
       <c r="L52" t="n">
-        <v>1276.678684708306</v>
+        <v>1275.469802164378</v>
       </c>
       <c r="M52" t="n">
-        <v>1350.504390812405</v>
+        <v>1350.455567103199</v>
       </c>
     </row>
     <row r="53">
@@ -3588,25 +3588,25 @@
         <v>136.98</v>
       </c>
       <c r="G53" t="n">
-        <v>43.77316396279753</v>
+        <v>68.70741724178606</v>
       </c>
       <c r="H53" t="n">
         <v>1262.91</v>
       </c>
       <c r="I53" t="n">
-        <v>1482.786836037202</v>
+        <v>1457.852582758214</v>
       </c>
       <c r="J53" t="n">
-        <v>1285.793671812532</v>
+        <v>1262.91</v>
       </c>
       <c r="K53" t="n">
-        <v>1331.072162794223</v>
+        <v>1329.090452277075</v>
       </c>
       <c r="L53" t="n">
-        <v>1277.403042651475</v>
+        <v>1276.128233620092</v>
       </c>
       <c r="M53" t="n">
-        <v>1377.247958778973</v>
+        <v>1378.453896861047</v>
       </c>
     </row>
     <row r="54">
@@ -3620,25 +3620,25 @@
         <v>136.88</v>
       </c>
       <c r="G54" t="n">
-        <v>68.56683288728459</v>
+        <v>93.31283601203268</v>
       </c>
       <c r="H54" t="n">
         <v>1262.55</v>
       </c>
       <c r="I54" t="n">
-        <v>1533.113167112715</v>
+        <v>1508.367163987967</v>
       </c>
       <c r="J54" t="n">
-        <v>1286.785256483245</v>
+        <v>1262.55</v>
       </c>
       <c r="K54" t="n">
-        <v>1340.723349019135</v>
+        <v>1338.802080321015</v>
       </c>
       <c r="L54" t="n">
-        <v>1278.169171524913</v>
+        <v>1276.821259016011</v>
       </c>
       <c r="M54" t="n">
-        <v>1415.085390085422</v>
+        <v>1417.843824650941</v>
       </c>
     </row>
     <row r="55">
@@ -3652,25 +3652,25 @@
         <v>136.78</v>
       </c>
       <c r="G55" t="n">
-        <v>49.31811196900344</v>
+        <v>73.87456203917441</v>
       </c>
       <c r="H55" t="n">
         <v>1262.07</v>
       </c>
       <c r="I55" t="n">
-        <v>1600.991888030997</v>
+        <v>1576.435437960826</v>
       </c>
       <c r="J55" t="n">
-        <v>1287.785063111588</v>
+        <v>1262.07</v>
       </c>
       <c r="K55" t="n">
-        <v>1352.982880319512</v>
+        <v>1351.231633450716</v>
       </c>
       <c r="L55" t="n">
-        <v>1278.95828526459</v>
+        <v>1277.528898667861</v>
       </c>
       <c r="M55" t="n">
-        <v>1467.475659335306</v>
+        <v>1471.814905842248</v>
       </c>
     </row>
     <row r="56">
@@ -3684,25 +3684,25 @@
         <v>136.68</v>
       </c>
       <c r="G56" t="n">
-        <v>43.63138854759609</v>
+        <v>68.44775834513212</v>
       </c>
       <c r="H56" t="n">
         <v>1261.5</v>
       </c>
       <c r="I56" t="n">
-        <v>1690.858611452404</v>
+        <v>1666.042241654868</v>
       </c>
       <c r="J56" t="n">
-        <v>1288.840217475301</v>
+        <v>1261.500000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>1369.068005870456</v>
+        <v>1367.67929559974</v>
       </c>
       <c r="L56" t="n">
-        <v>1279.826608274212</v>
+        <v>1278.305910349943</v>
       </c>
       <c r="M56" t="n">
-        <v>1537.623779832435</v>
+        <v>1543.057035705184</v>
       </c>
     </row>
     <row r="57">
@@ -3716,25 +3716,25 @@
         <v>136.58</v>
       </c>
       <c r="G57" t="n">
-        <v>3.376791540052182</v>
+        <v>29.53105387189066</v>
       </c>
       <c r="H57" t="n">
         <v>1260.83</v>
       </c>
       <c r="I57" t="n">
-        <v>1806.333208459948</v>
+        <v>1780.178946128109</v>
       </c>
       <c r="J57" t="n">
-        <v>1289.960864758091</v>
+        <v>1260.830000000011</v>
       </c>
       <c r="K57" t="n">
-        <v>1390.804548062921</v>
+        <v>1390.103156186008</v>
       </c>
       <c r="L57" t="n">
-        <v>1280.796934634785</v>
+        <v>1279.173267449976</v>
       </c>
       <c r="M57" t="n">
-        <v>1627.260861004151</v>
+        <v>1632.562522492115</v>
       </c>
     </row>
     <row r="58">
@@ -3748,25 +3748,25 @@
         <v>136.48</v>
       </c>
       <c r="G58" t="n">
-        <v>53.11158037800442</v>
+        <v>82.33367407905121</v>
       </c>
       <c r="H58" t="n">
         <v>1260.02</v>
       </c>
       <c r="I58" t="n">
-        <v>1949.178419621996</v>
+        <v>1919.956325920949</v>
       </c>
       <c r="J58" t="n">
-        <v>1291.130846363659</v>
+        <v>1260.020000000088</v>
       </c>
       <c r="K58" t="n">
-        <v>1420.9532699408</v>
+        <v>1421.459760059357</v>
       </c>
       <c r="L58" t="n">
-        <v>1281.870820297824</v>
+        <v>1280.130240281494</v>
       </c>
       <c r="M58" t="n">
-        <v>1735.283483019711</v>
+        <v>1738.406325580011</v>
       </c>
     </row>
     <row r="59">
@@ -3780,25 +3780,25 @@
         <v>136.38</v>
       </c>
       <c r="G59" t="n">
-        <v>20.19417545366787</v>
+        <v>54.62681778675596</v>
       </c>
       <c r="H59" t="n">
         <v>1259</v>
       </c>
       <c r="I59" t="n">
-        <v>2118.445824546332</v>
+        <v>2084.013182213244</v>
       </c>
       <c r="J59" t="n">
-        <v>1292.308565196567</v>
+        <v>1259.00000000068</v>
       </c>
       <c r="K59" t="n">
-        <v>1463.576754613509</v>
+        <v>1466.0742852245</v>
       </c>
       <c r="L59" t="n">
-        <v>1283.031743099005</v>
+        <v>1281.157402509726</v>
       </c>
       <c r="M59" t="n">
-        <v>1856.528761637251</v>
+        <v>1854.781494478338</v>
       </c>
     </row>
     <row r="60">
@@ -3812,25 +3812,25 @@
         <v>136.28</v>
       </c>
       <c r="G60" t="n">
-        <v>-42.1687899034232</v>
+        <v>-0.4974567154340548</v>
       </c>
       <c r="H60" t="n">
         <v>1257.71</v>
       </c>
       <c r="I60" t="n">
-        <v>2310.328789903423</v>
+        <v>2268.657456715434</v>
       </c>
       <c r="J60" t="n">
-        <v>1293.468103710591</v>
+        <v>1257.710000004918</v>
       </c>
       <c r="K60" t="n">
-        <v>1524.387063660493</v>
+        <v>1529.966267707232</v>
       </c>
       <c r="L60" t="n">
-        <v>1284.289791407201</v>
+        <v>1282.261104471706</v>
       </c>
       <c r="M60" t="n">
-        <v>1981.313831125138</v>
+        <v>1971.850084531578</v>
       </c>
     </row>
     <row r="61">
@@ -3844,25 +3844,25 @@
         <v>136.18</v>
       </c>
       <c r="G61" t="n">
-        <v>-38.15563516344946</v>
+        <v>11.97143605750534</v>
       </c>
       <c r="H61" t="n">
         <v>1256.21</v>
       </c>
       <c r="I61" t="n">
-        <v>2519.065635163449</v>
+        <v>2468.938563942495</v>
       </c>
       <c r="J61" t="n">
-        <v>1294.710685729395</v>
+        <v>1256.210000033221</v>
       </c>
       <c r="K61" t="n">
-        <v>1610.886680758869</v>
+        <v>1620.928704007621</v>
       </c>
       <c r="L61" t="n">
-        <v>1285.79884653374</v>
+        <v>1283.590350044761</v>
       </c>
       <c r="M61" t="n">
-        <v>2096.299422141446</v>
+        <v>2076.839509856892</v>
       </c>
     </row>
     <row r="62">
@@ -3876,25 +3876,25 @@
         <v>136.08</v>
       </c>
       <c r="G62" t="n">
-        <v>26.49489031988605</v>
+        <v>84.87920668729203</v>
       </c>
       <c r="H62" t="n">
         <v>1254.43</v>
       </c>
       <c r="I62" t="n">
-        <v>2738.325109680114</v>
+        <v>2679.940793312708</v>
       </c>
       <c r="J62" t="n">
-        <v>1296.016613250877</v>
+        <v>1254.430000209561</v>
       </c>
       <c r="K62" t="n">
-        <v>1731.555909535542</v>
+        <v>1747.608719391645</v>
       </c>
       <c r="L62" t="n">
-        <v>1287.617943441709</v>
+        <v>1285.197718129163</v>
       </c>
       <c r="M62" t="n">
-        <v>2186.424643451986</v>
+        <v>2155.994355582339</v>
       </c>
     </row>
     <row r="63">
@@ -3908,25 +3908,25 @@
         <v>135.98</v>
       </c>
       <c r="G63" t="n">
-        <v>1.54640379233706</v>
+        <v>66.3708136989685</v>
       </c>
       <c r="H63" t="n">
         <v>1252.24</v>
       </c>
       <c r="I63" t="n">
-        <v>2963.033596207663</v>
+        <v>2898.209186301031</v>
       </c>
       <c r="J63" t="n">
-        <v>1297.317871508586</v>
+        <v>1252.24000123444</v>
       </c>
       <c r="K63" t="n">
-        <v>1894.441297455449</v>
+        <v>1917.961721777854</v>
       </c>
       <c r="L63" t="n">
-        <v>1289.799730997239</v>
+        <v>1287.127181968185</v>
       </c>
       <c r="M63" t="n">
-        <v>2238.19469624639</v>
+        <v>2197.600281320553</v>
       </c>
     </row>
     <row r="64">
@@ -3940,25 +3940,25 @@
         <v>135.88</v>
       </c>
       <c r="G64" t="n">
-        <v>14.77504387617319</v>
+        <v>83.00176590112869</v>
       </c>
       <c r="H64" t="n">
         <v>1249.66</v>
       </c>
       <c r="I64" t="n">
-        <v>3190.384956123827</v>
+        <v>3122.158234098871</v>
       </c>
       <c r="J64" t="n">
-        <v>1298.711694149515</v>
+        <v>1249.660006790379</v>
       </c>
       <c r="K64" t="n">
-        <v>2104.823781514271</v>
+        <v>2136.804330502274</v>
       </c>
       <c r="L64" t="n">
-        <v>1292.630928074177</v>
+        <v>1289.653615485672</v>
       </c>
       <c r="M64" t="n">
-        <v>2243.198552385864</v>
+        <v>2195.020281320546</v>
       </c>
     </row>
     <row r="65">
@@ -3972,25 +3972,25 @@
         <v>135.78</v>
       </c>
       <c r="G65" t="n">
-        <v>22.67772949194705</v>
+        <v>91.00185424937672</v>
       </c>
       <c r="H65" t="n">
         <v>1246.71</v>
       </c>
       <c r="I65" t="n">
-        <v>3418.682270508053</v>
+        <v>3350.358145750623</v>
       </c>
       <c r="J65" t="n">
-        <v>1300.315542105969</v>
+        <v>1246.71003488045</v>
       </c>
       <c r="K65" t="n">
-        <v>2361.756365203453</v>
+        <v>2402.322276527188</v>
       </c>
       <c r="L65" t="n">
-        <v>1296.532428228412</v>
+        <v>1293.181478760647</v>
       </c>
       <c r="M65" t="n">
-        <v>2200.207934970219</v>
+        <v>2148.274355582339</v>
       </c>
     </row>
     <row r="66">
@@ -4004,25 +4004,25 @@
         <v>135.68</v>
       </c>
       <c r="G66" t="n">
-        <v>17.64785118666668</v>
+        <v>83.69383130054894</v>
       </c>
       <c r="H66" t="n">
         <v>1243.37</v>
       </c>
       <c r="I66" t="n">
-        <v>3644.532148813333</v>
+        <v>3578.486168699451</v>
       </c>
       <c r="J66" t="n">
-        <v>1302.234224067206</v>
+        <v>1243.37016731475</v>
       </c>
       <c r="K66" t="n">
-        <v>2654.825555305367</v>
+        <v>2702.943437429765</v>
       </c>
       <c r="L66" t="n">
-        <v>1302.099626951641</v>
+        <v>1298.283054098044</v>
       </c>
       <c r="M66" t="n">
-        <v>2115.482742489119</v>
+        <v>2063.999509856892</v>
       </c>
     </row>
     <row r="67">
@@ -4036,25 +4036,25 @@
         <v>135.58</v>
       </c>
       <c r="G67" t="n">
-        <v>6.625160924082138</v>
+        <v>69.93577574154324</v>
       </c>
       <c r="H67" t="n">
         <v>1239.65</v>
       </c>
       <c r="I67" t="n">
-        <v>3859.644839075918</v>
+        <v>3796.334224258457</v>
       </c>
       <c r="J67" t="n">
-        <v>1304.640366150437</v>
+        <v>1239.650749463491</v>
       </c>
       <c r="K67" t="n">
-        <v>2962.511096976226</v>
+        <v>3015.955744405046</v>
       </c>
       <c r="L67" t="n">
-        <v>1310.29452392641</v>
+        <v>1305.887645858343</v>
       </c>
       <c r="M67" t="n">
-        <v>2001.148852022844</v>
+        <v>1953.790084531578</v>
       </c>
     </row>
     <row r="68">
@@ -4068,25 +4068,25 @@
         <v>135.48</v>
       </c>
       <c r="G68" t="n">
-        <v>71.58004458165033</v>
+        <v>134.0291594469068</v>
       </c>
       <c r="H68" t="n">
         <v>1235.56</v>
       </c>
       <c r="I68" t="n">
-        <v>4049.069955418349</v>
+        <v>3986.620840553093</v>
       </c>
       <c r="J68" t="n">
-        <v>1307.760294210855</v>
+        <v>1235.563134951535</v>
       </c>
       <c r="K68" t="n">
-        <v>3253.322348755948</v>
+        <v>3308.97814644628</v>
       </c>
       <c r="L68" t="n">
-        <v>1322.585677864487</v>
+        <v>1317.418064676974</v>
       </c>
       <c r="M68" t="n">
-        <v>1872.081634587058</v>
+        <v>1831.341494478304</v>
       </c>
     </row>
     <row r="69">
@@ -4100,25 +4100,25 @@
         <v>135.38</v>
       </c>
       <c r="G69" t="n">
-        <v>-49.00330220861815</v>
+        <v>16.5251074193593</v>
       </c>
       <c r="H69" t="n">
         <v>1231.11</v>
       </c>
       <c r="I69" t="n">
-        <v>4192.763302208618</v>
+        <v>4127.234892580641</v>
       </c>
       <c r="J69" t="n">
-        <v>1311.898921679437</v>
+        <v>1231.122245464935</v>
       </c>
       <c r="K69" t="n">
-        <v>3490.509117844992</v>
+        <v>3544.953423008276</v>
       </c>
       <c r="L69" t="n">
-        <v>1341.153240102408</v>
+        <v>1334.992898527451</v>
       </c>
       <c r="M69" t="n">
-        <v>1742.53202258178</v>
+        <v>1709.496325579978</v>
       </c>
     </row>
     <row r="70">
@@ -4132,25 +4132,25 @@
         <v>135.28</v>
       </c>
       <c r="G70" t="n">
-        <v>-36.65155942331694</v>
+        <v>37.2313600294292</v>
       </c>
       <c r="H70" t="n">
         <v>1226.45</v>
       </c>
       <c r="I70" t="n">
-        <v>4270.931559423317</v>
+        <v>4197.048639970571</v>
       </c>
       <c r="J70" t="n">
-        <v>1317.619901799075</v>
+        <v>1226.494666695602</v>
       </c>
       <c r="K70" t="n">
-        <v>3639.777271506213</v>
+        <v>3689.965333787787</v>
       </c>
       <c r="L70" t="n">
-        <v>1369.217389581692</v>
+        <v>1361.756116995066</v>
       </c>
       <c r="M70" t="n">
-        <v>1623.666996536338</v>
+        <v>1598.182522492115</v>
       </c>
     </row>
     <row r="71">
@@ -4164,25 +4164,25 @@
         <v>135.18</v>
       </c>
       <c r="G71" t="n">
-        <v>46.16870816993469</v>
+        <v>134.2060258774145</v>
       </c>
       <c r="H71" t="n">
         <v>1221.67</v>
       </c>
       <c r="I71" t="n">
-        <v>4271.071291830065</v>
+        <v>4183.033974122585</v>
       </c>
       <c r="J71" t="n">
-        <v>1325.611677673959</v>
+        <v>1221.822144574169</v>
       </c>
       <c r="K71" t="n">
-        <v>3677.42818054364</v>
+        <v>3721.245119980255</v>
       </c>
       <c r="L71" t="n">
-        <v>1410.900045761365</v>
+        <v>1401.749673862978</v>
       </c>
       <c r="M71" t="n">
-        <v>1522.141387851102</v>
+        <v>1503.227035705184</v>
       </c>
     </row>
     <row r="72">
@@ -4196,25 +4196,25 @@
         <v>135.08</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.3990035167717</v>
+        <v>104.587443009329</v>
       </c>
       <c r="H72" t="n">
         <v>1216.79</v>
       </c>
       <c r="I72" t="n">
-        <v>4194.249003516772</v>
+        <v>4086.262556990671</v>
       </c>
       <c r="J72" t="n">
-        <v>1336.78647797697</v>
+        <v>1217.273941884303</v>
       </c>
       <c r="K72" t="n">
-        <v>3596.625362732843</v>
+        <v>3633.127410515931</v>
       </c>
       <c r="L72" t="n">
-        <v>1470.979614326593</v>
+        <v>1459.69629874819</v>
       </c>
       <c r="M72" t="n">
-        <v>1440.227548480366</v>
+        <v>1426.534905842248</v>
       </c>
     </row>
     <row r="73">
@@ -4228,25 +4228,25 @@
         <v>134.98</v>
       </c>
       <c r="G73" t="n">
-        <v>105.1335008491251</v>
+        <v>238.7481709991434</v>
       </c>
       <c r="H73" t="n">
         <v>1211.96</v>
       </c>
       <c r="I73" t="n">
-        <v>4057.696499150875</v>
+        <v>3924.081829000856</v>
       </c>
       <c r="J73" t="n">
-        <v>1352.656886827422</v>
+        <v>1213.397454316615</v>
       </c>
       <c r="K73" t="n">
-        <v>3409.476373798072</v>
+        <v>3438.782939689991</v>
       </c>
       <c r="L73" t="n">
-        <v>1554.368747164668</v>
+        <v>1540.527610343323</v>
       </c>
       <c r="M73" t="n">
-        <v>1377.074491360714</v>
+        <v>1367.253824650928</v>
       </c>
     </row>
     <row r="74">
@@ -4260,25 +4260,25 @@
         <v>134.88</v>
       </c>
       <c r="G74" t="n">
-        <v>-16.08788923747124</v>
+        <v>148.8814534619405</v>
       </c>
       <c r="H74" t="n">
         <v>1207.3</v>
       </c>
       <c r="I74" t="n">
-        <v>3891.747889237471</v>
+        <v>3726.778546538059</v>
       </c>
       <c r="J74" t="n">
-        <v>1375.449436712118</v>
+        <v>1211.28711708899</v>
       </c>
       <c r="K74" t="n">
-        <v>3143.633510771475</v>
+        <v>3166.576058495799</v>
       </c>
       <c r="L74" t="n">
-        <v>1664.6333771137</v>
+        <v>1647.971474092234</v>
       </c>
       <c r="M74" t="n">
-        <v>1329.931564640179</v>
+        <v>1322.843896861037</v>
       </c>
     </row>
     <row r="75">
@@ -4292,25 +4292,25 @@
         <v>134.78</v>
       </c>
       <c r="G75" t="n">
-        <v>9.075938580088405</v>
+        <v>211.2260881900247</v>
       </c>
       <c r="H75" t="n">
         <v>1202.93</v>
       </c>
       <c r="I75" t="n">
-        <v>3732.554061419912</v>
+        <v>3530.403911809975</v>
       </c>
       <c r="J75" t="n">
-        <v>1408.527354477482</v>
+        <v>1213.257329320362</v>
       </c>
       <c r="K75" t="n">
-        <v>2835.201774539995</v>
+        <v>2852.909006434362</v>
       </c>
       <c r="L75" t="n">
-        <v>1802.20777342866</v>
+        <v>1782.832008952053</v>
       </c>
       <c r="M75" t="n">
-        <v>1295.407158973775</v>
+        <v>1290.195567103198</v>
       </c>
     </row>
     <row r="76">
@@ -4324,25 +4324,25 @@
         <v>134.68</v>
       </c>
       <c r="G76" t="n">
-        <v>55.43410321422971</v>
+        <v>300.111815797879</v>
       </c>
       <c r="H76" t="n">
         <v>1198.84</v>
       </c>
       <c r="I76" t="n">
-        <v>3612.99589678577</v>
+        <v>3368.318184202121</v>
       </c>
       <c r="J76" t="n">
-        <v>1456.759200564367</v>
+        <v>1223.819351579427</v>
       </c>
       <c r="K76" t="n">
-        <v>2520.199693309755</v>
+        <v>2533.775049453907</v>
       </c>
       <c r="L76" t="n">
-        <v>1962.386920263266</v>
+        <v>1941.004130211936</v>
       </c>
       <c r="M76" t="n">
-        <v>1270.170082648382</v>
+        <v>1266.239652956852</v>
       </c>
     </row>
     <row r="77">
@@ -4356,25 +4356,25 @@
         <v>134.58</v>
       </c>
       <c r="G77" t="n">
-        <v>22.78505862936527</v>
+        <v>313.1027072669422</v>
       </c>
       <c r="H77" t="n">
         <v>1194.9</v>
       </c>
       <c r="I77" t="n">
-        <v>3555.454941370635</v>
+        <v>3265.137292733058</v>
       </c>
       <c r="J77" t="n">
-        <v>1527.038354171284</v>
+        <v>1251.320690025701</v>
       </c>
       <c r="K77" t="n">
-        <v>2227.612958432144</v>
+        <v>2237.973203736984</v>
       </c>
       <c r="L77" t="n">
-        <v>2134.132894608298</v>
+        <v>2112.214467605944</v>
       </c>
       <c r="M77" t="n">
-        <v>1251.370734158909</v>
+        <v>1248.328931364428</v>
       </c>
     </row>
     <row r="78">
@@ -4388,25 +4388,25 @@
         <v>134.48</v>
       </c>
       <c r="G78" t="n">
-        <v>18.16516318065396</v>
+        <v>351.6579395030412</v>
       </c>
       <c r="H78" t="n">
         <v>1191.06</v>
       </c>
       <c r="I78" t="n">
-        <v>3568.934836819346</v>
+        <v>3235.442060496959</v>
       </c>
       <c r="J78" t="n">
-        <v>1628.773464771611</v>
+        <v>1310.063497103607</v>
       </c>
       <c r="K78" t="n">
-        <v>1975.844584816014</v>
+        <v>1983.698409905657</v>
       </c>
       <c r="L78" t="n">
-        <v>2300.559595680787</v>
+        <v>2280.329783120566</v>
       </c>
       <c r="M78" t="n">
-        <v>1236.937191550934</v>
+        <v>1234.530370367129</v>
       </c>
     </row>
     <row r="79">
@@ -4420,25 +4420,25 @@
         <v>134.38</v>
       </c>
       <c r="G79" t="n">
-        <v>-17.97276731154625</v>
+        <v>345.7290276101553</v>
       </c>
       <c r="H79" t="n">
         <v>1187.23</v>
       </c>
       <c r="I79" t="n">
-        <v>3650.542767311546</v>
+        <v>3286.840972389845</v>
       </c>
       <c r="J79" t="n">
-        <v>1773.451353804479</v>
+        <v>1421.623278067436</v>
       </c>
       <c r="K79" t="n">
-        <v>1772.327848000786</v>
+        <v>1778.226521264553</v>
       </c>
       <c r="L79" t="n">
-        <v>2441.079122932905</v>
+        <v>2425.243872545474</v>
       </c>
       <c r="M79" t="n">
-        <v>1225.374442573376</v>
+        <v>1223.437300512382</v>
       </c>
     </row>
     <row r="80">
@@ -4452,25 +4452,25 @@
         <v>134.28</v>
       </c>
       <c r="G80" t="n">
-        <v>-68.53344839608644</v>
+        <v>296.2607984330298</v>
       </c>
       <c r="H80" t="n">
         <v>1183.32</v>
       </c>
       <c r="I80" t="n">
-        <v>3790.283448396086</v>
+        <v>3425.48920156697</v>
       </c>
       <c r="J80" t="n">
-        <v>1973.268957606581</v>
+        <v>1614.436534686556</v>
       </c>
       <c r="K80" t="n">
-        <v>1615.841308811259</v>
+        <v>1620.237008963352</v>
       </c>
       <c r="L80" t="n">
-        <v>2535.47430671719</v>
+        <v>2526.695434863152</v>
       </c>
       <c r="M80" t="n">
-        <v>1215.658875261056</v>
+        <v>1214.080223053911</v>
       </c>
     </row>
     <row r="81">
@@ -4484,25 +4484,25 @@
         <v>134.18</v>
       </c>
       <c r="G81" t="n">
-        <v>-31.77756934173476</v>
+        <v>284.5496003578091</v>
       </c>
       <c r="H81" t="n">
         <v>1179.22</v>
       </c>
       <c r="I81" t="n">
-        <v>3976.137569341735</v>
+        <v>3659.810399642191</v>
       </c>
       <c r="J81" t="n">
-        <v>2238.239187488976</v>
+        <v>1919.691426924951</v>
       </c>
       <c r="K81" t="n">
-        <v>1499.851232861932</v>
+        <v>1503.130383900222</v>
       </c>
       <c r="L81" t="n">
-        <v>2568.632260579234</v>
+        <v>2568.871875256804</v>
       </c>
       <c r="M81" t="n">
-        <v>1207.074888411593</v>
+        <v>1205.776713560214</v>
       </c>
     </row>
     <row r="82">
@@ -4516,25 +4516,25 @@
         <v>134.08</v>
       </c>
       <c r="G82" t="n">
-        <v>48.31631365289923</v>
+        <v>246.4196016863516</v>
       </c>
       <c r="H82" t="n">
         <v>1174.76</v>
       </c>
       <c r="I82" t="n">
-        <v>4196.713686347101</v>
+        <v>3998.610398313648</v>
       </c>
       <c r="J82" t="n">
-        <v>2571.87403733777</v>
+        <v>2362.403313213342</v>
       </c>
       <c r="K82" t="n">
-        <v>1415.64554409728</v>
+        <v>1418.135920001209</v>
       </c>
       <c r="L82" t="n">
-        <v>2534.412525465104</v>
+        <v>2544.364248320882</v>
       </c>
       <c r="M82" t="n">
-        <v>1199.061579446946</v>
+        <v>1197.986916778214</v>
       </c>
     </row>
     <row r="83">
@@ -4548,25 +4548,25 @@
         <v>133.98</v>
       </c>
       <c r="G83" t="n">
-        <v>83.49962579457861</v>
+        <v>81.41923874604799</v>
       </c>
       <c r="H83" t="n">
         <v>1169.83</v>
       </c>
       <c r="I83" t="n">
-        <v>4440.330374205421</v>
+        <v>4442.410761253952</v>
       </c>
       <c r="J83" t="n">
-        <v>2966.450928066778</v>
+        <v>2948.632983092759</v>
       </c>
       <c r="K83" t="n">
-        <v>1354.718985068413</v>
+        <v>1356.684789443337</v>
       </c>
       <c r="L83" t="n">
-        <v>2437.396784639631</v>
+        <v>2456.22336586911</v>
       </c>
       <c r="M83" t="n">
-        <v>1191.253676430599</v>
+        <v>1190.359622848746</v>
       </c>
     </row>
     <row r="84">
@@ -4580,25 +4580,25 @@
         <v>133.88</v>
       </c>
       <c r="G84" t="n">
-        <v>25.48156422627926</v>
+        <v>-253.9451381172439</v>
       </c>
       <c r="H84" t="n">
         <v>1164.44</v>
       </c>
       <c r="I84" t="n">
-        <v>4691.188435773721</v>
+        <v>4970.615138117244</v>
       </c>
       <c r="J84" t="n">
-        <v>3399.304067484583</v>
+        <v>3652.344859652184</v>
       </c>
       <c r="K84" t="n">
-        <v>1310.039871406919</v>
+        <v>1311.678589375836</v>
       </c>
       <c r="L84" t="n">
-        <v>2291.6740145164</v>
+        <v>2317.167674543076</v>
       </c>
       <c r="M84" t="n">
-        <v>1183.490482365818</v>
+        <v>1182.744014546147</v>
       </c>
     </row>
     <row r="85">
@@ -4612,25 +4612,25 @@
         <v>133.78</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.066924192317856</v>
+        <v>-607.9027652566001</v>
       </c>
       <c r="H85" t="n">
         <v>1158.68</v>
       </c>
       <c r="I85" t="n">
-        <v>4925.376924192318</v>
+        <v>5531.212765256601</v>
       </c>
       <c r="J85" t="n">
-        <v>3832.187344538153</v>
+        <v>4408.084561757702</v>
       </c>
       <c r="K85" t="n">
-        <v>1276.374980376235</v>
+        <v>1277.822048840822</v>
       </c>
       <c r="L85" t="n">
-        <v>2117.110225774372</v>
+        <v>2146.226479003814</v>
       </c>
       <c r="M85" t="n">
-        <v>1175.744373503558</v>
+        <v>1175.119675654262</v>
       </c>
     </row>
     <row r="86">
@@ -4644,25 +4644,25 @@
         <v>133.68</v>
       </c>
       <c r="G86" t="n">
-        <v>13.63801403786874</v>
+        <v>-917.1445065865837</v>
       </c>
       <c r="H86" t="n">
         <v>1152.56</v>
       </c>
       <c r="I86" t="n">
-        <v>5109.991985962131</v>
+        <v>6040.774506586584</v>
       </c>
       <c r="J86" t="n">
-        <v>4215.291767136567</v>
+        <v>5115.686193717929</v>
       </c>
       <c r="K86" t="n">
-        <v>1249.992196260152</v>
+        <v>1251.332438068522</v>
       </c>
       <c r="L86" t="n">
-        <v>1934.446286834626</v>
+        <v>1964.017494590299</v>
       </c>
       <c r="M86" t="n">
-        <v>1167.941735730786</v>
+        <v>1167.418380209834</v>
       </c>
     </row>
     <row r="87">
@@ -4676,25 +4676,25 @@
         <v>133.58</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.088488105523538</v>
+        <v>-1197.795863138837</v>
       </c>
       <c r="H87" t="n">
         <v>1146.15</v>
       </c>
       <c r="I87" t="n">
-        <v>5207.738488105523</v>
+        <v>6399.445863138837</v>
       </c>
       <c r="J87" t="n">
-        <v>4496.404809155933</v>
+        <v>5659.885589935961</v>
       </c>
       <c r="K87" t="n">
-        <v>1228.456834520749</v>
+        <v>1229.738526138853</v>
       </c>
       <c r="L87" t="n">
-        <v>1761.235444597268</v>
+        <v>1788.618695703211</v>
       </c>
       <c r="M87" t="n">
-        <v>1160.091399831573</v>
+        <v>1159.653051360812</v>
       </c>
     </row>
     <row r="88">
@@ -4708,25 +4708,25 @@
         <v>133.48</v>
       </c>
       <c r="G88" t="n">
-        <v>2.979386291353876</v>
+        <v>-1328.852370939031</v>
       </c>
       <c r="H88" t="n">
         <v>1139.62</v>
       </c>
       <c r="I88" t="n">
-        <v>5185.900613708646</v>
+        <v>6517.732370939031</v>
       </c>
       <c r="J88" t="n">
-        <v>4632.773760827711</v>
+        <v>5940.252121021945</v>
       </c>
       <c r="K88" t="n">
-        <v>1210.308936058695</v>
+        <v>1211.556754813193</v>
       </c>
       <c r="L88" t="n">
-        <v>1609.360425399101</v>
+        <v>1632.832535463094</v>
       </c>
       <c r="M88" t="n">
-        <v>1152.317491423139</v>
+        <v>1151.950959640798</v>
       </c>
     </row>
     <row r="89">
@@ -4740,25 +4740,25 @@
         <v>133.38</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.2977537801543804</v>
+        <v>-1319.137407439584</v>
       </c>
       <c r="H89" t="n">
         <v>1133.16</v>
       </c>
       <c r="I89" t="n">
-        <v>5026.367753780154</v>
+        <v>6345.207407439583</v>
       </c>
       <c r="J89" t="n">
-        <v>4601.952083503689</v>
+        <v>5901.034731577782</v>
       </c>
       <c r="K89" t="n">
-        <v>1194.686870723668</v>
+        <v>1195.911782375556</v>
       </c>
       <c r="L89" t="n">
-        <v>1484.433919174279</v>
+        <v>1503.271476815745</v>
       </c>
       <c r="M89" t="n">
-        <v>1144.774880378518</v>
+        <v>1144.469416670501</v>
       </c>
     </row>
     <row r="90">
@@ -4772,25 +4772,25 @@
         <v>133.28</v>
       </c>
       <c r="G90" t="n">
-        <v>-13.680791423345</v>
+        <v>-1169.965772325971</v>
       </c>
       <c r="H90" t="n">
         <v>1127.05</v>
       </c>
       <c r="I90" t="n">
-        <v>4732.670791423345</v>
+        <v>5888.95577232597</v>
       </c>
       <c r="J90" t="n">
-        <v>4407.987781458505</v>
+        <v>5549.015443771367</v>
       </c>
       <c r="K90" t="n">
-        <v>1181.186263137969</v>
+        <v>1182.392078187756</v>
       </c>
       <c r="L90" t="n">
-        <v>1386.930557953326</v>
+        <v>1401.235291236546</v>
       </c>
       <c r="M90" t="n">
-        <v>1137.716188873545</v>
+        <v>1137.462959130302</v>
       </c>
     </row>
     <row r="91">
@@ -4804,25 +4804,25 @@
         <v>133.18</v>
       </c>
       <c r="G91" t="n">
-        <v>31.44226865083601</v>
+        <v>-850.9337353166911</v>
       </c>
       <c r="H91" t="n">
         <v>1121.45</v>
       </c>
       <c r="I91" t="n">
-        <v>4330.457731349164</v>
+        <v>5212.833735316691</v>
       </c>
       <c r="J91" t="n">
-        <v>4080.195074560297</v>
+        <v>4951.195816174593</v>
       </c>
       <c r="K91" t="n">
-        <v>1169.511960312601</v>
+        <v>1170.699199002153</v>
       </c>
       <c r="L91" t="n">
-        <v>1313.820935085731</v>
+        <v>1324.217273091384</v>
       </c>
       <c r="M91" t="n">
-        <v>1131.279761390535</v>
+        <v>1131.07144704856</v>
       </c>
     </row>
     <row r="92">
@@ -4836,25 +4836,25 @@
         <v>133.08</v>
       </c>
       <c r="G92" t="n">
-        <v>17.63815523793073</v>
+        <v>-539.0396406161149</v>
       </c>
       <c r="H92" t="n">
         <v>1116.54</v>
       </c>
       <c r="I92" t="n">
-        <v>3861.641844762069</v>
+        <v>4418.319640616115</v>
       </c>
       <c r="J92" t="n">
-        <v>3665.529487831428</v>
+        <v>4213.878383348467</v>
       </c>
       <c r="K92" t="n">
-        <v>1159.532277768397</v>
+        <v>1160.700218107987</v>
       </c>
       <c r="L92" t="n">
-        <v>1260.571830862382</v>
+        <v>1267.902297514305</v>
       </c>
       <c r="M92" t="n">
-        <v>1125.628248299862</v>
+        <v>1125.458741645356</v>
       </c>
     </row>
     <row r="93">
@@ -4868,25 +4868,25 @@
         <v>132.98</v>
       </c>
       <c r="G93" t="n">
-        <v>54.00635113462431</v>
+        <v>-186.8525392044035</v>
       </c>
       <c r="H93" t="n">
         <v>1112.4</v>
       </c>
       <c r="I93" t="n">
-        <v>3374.033648865376</v>
+        <v>3614.892539204403</v>
       </c>
       <c r="J93" t="n">
-        <v>3216.873121189928</v>
+        <v>3451.622091234927</v>
       </c>
       <c r="K93" t="n">
-        <v>1151.107001281629</v>
+        <v>1152.25465210592</v>
       </c>
       <c r="L93" t="n">
-        <v>1222.425932845791</v>
+        <v>1227.524033072454</v>
       </c>
       <c r="M93" t="n">
-        <v>1120.827593548028</v>
+        <v>1120.691762791103</v>
       </c>
     </row>
     <row r="94">
@@ -4900,25 +4900,25 @@
         <v>132.88</v>
       </c>
       <c r="G94" t="n">
-        <v>2.651440437181918</v>
+        <v>20.95367266786525</v>
       </c>
       <c r="H94" t="n">
         <v>1109.05</v>
       </c>
       <c r="I94" t="n">
-        <v>2910.758559562818</v>
+        <v>2892.456327332135</v>
       </c>
       <c r="J94" t="n">
-        <v>2781.687618561215</v>
+        <v>2758.80083561189</v>
       </c>
       <c r="K94" t="n">
-        <v>1144.095905815406</v>
+        <v>1145.222409190724</v>
       </c>
       <c r="L94" t="n">
-        <v>1195.238738948423</v>
+        <v>1198.803279873127</v>
       </c>
       <c r="M94" t="n">
-        <v>1116.886296237774</v>
+        <v>1116.779802656393</v>
       </c>
     </row>
     <row r="95">
@@ -4932,25 +4932,25 @@
         <v>132.78</v>
       </c>
       <c r="G95" t="n">
-        <v>-31.10552550744887</v>
+        <v>166.5626893349217</v>
       </c>
       <c r="H95" t="n">
         <v>1106.48</v>
       </c>
       <c r="I95" t="n">
-        <v>2502.735525507449</v>
+        <v>2305.067310665078</v>
       </c>
       <c r="J95" t="n">
-        <v>2394.226014235432</v>
+        <v>2192.979061225318</v>
       </c>
       <c r="K95" t="n">
-        <v>1138.36938539782</v>
+        <v>1139.47414461527</v>
       </c>
       <c r="L95" t="n">
-        <v>1175.795263378642</v>
+        <v>1178.350088031474</v>
       </c>
       <c r="M95" t="n">
-        <v>1113.784862495555</v>
+        <v>1113.704016793017</v>
       </c>
     </row>
     <row r="96">
@@ -4964,25 +4964,25 @@
         <v>132.68</v>
       </c>
       <c r="G96" t="n">
-        <v>6.327414041296379</v>
+        <v>303.2962396075222</v>
       </c>
       <c r="H96" t="n">
         <v>1104.52</v>
       </c>
       <c r="I96" t="n">
-        <v>2165.712585958704</v>
+        <v>1868.743760392478</v>
       </c>
       <c r="J96" t="n">
-        <v>2072.616874124858</v>
+        <v>1772.716892999056</v>
       </c>
       <c r="K96" t="n">
-        <v>1133.666202261593</v>
+        <v>1134.748891226139</v>
       </c>
       <c r="L96" t="n">
-        <v>1161.644117202077</v>
+        <v>1163.550935323439</v>
       </c>
       <c r="M96" t="n">
-        <v>1111.345392370176</v>
+        <v>1111.287040843844</v>
       </c>
     </row>
     <row r="97">
@@ -4996,25 +4996,25 @@
         <v>132.58</v>
       </c>
       <c r="G97" t="n">
-        <v>-55.50861559409668</v>
+        <v>275.9256019370252</v>
       </c>
       <c r="H97" t="n">
         <v>1103.07</v>
       </c>
       <c r="I97" t="n">
-        <v>1901.978615594097</v>
+        <v>1570.544398062975</v>
       </c>
       <c r="J97" t="n">
-        <v>1820.765950382583</v>
+        <v>1486.815809934764</v>
       </c>
       <c r="K97" t="n">
-        <v>1129.815484509711</v>
+        <v>1130.876013276053</v>
       </c>
       <c r="L97" t="n">
-        <v>1151.145916386953</v>
+        <v>1152.639876950421</v>
       </c>
       <c r="M97" t="n">
-        <v>1109.461264314849</v>
+        <v>1109.422697901738</v>
       </c>
     </row>
     <row r="98">
@@ -5028,25 +5028,25 @@
         <v>132.48</v>
       </c>
       <c r="G98" t="n">
-        <v>-51.97167765677796</v>
+        <v>270.5209421933866</v>
       </c>
       <c r="H98" t="n">
         <v>1102.04</v>
       </c>
       <c r="I98" t="n">
-        <v>1704.371677656778</v>
+        <v>1381.879057806613</v>
       </c>
       <c r="J98" t="n">
-        <v>1632.578602305142</v>
+        <v>1307.840743404552</v>
       </c>
       <c r="K98" t="n">
-        <v>1126.671329424074</v>
+        <v>1127.709798747708</v>
       </c>
       <c r="L98" t="n">
-        <v>1143.204854606988</v>
+        <v>1144.432743295976</v>
       </c>
       <c r="M98" t="n">
-        <v>1108.036891320574</v>
+        <v>1108.015772358378</v>
       </c>
     </row>
     <row r="99">
@@ -5060,25 +5060,25 @@
         <v>132.38</v>
       </c>
       <c r="G99" t="n">
-        <v>-45.50308548591761</v>
+        <v>244.8233411325575</v>
       </c>
       <c r="H99" t="n">
         <v>1101.27</v>
       </c>
       <c r="I99" t="n">
-        <v>1560.863085485918</v>
+        <v>1270.536658867442</v>
       </c>
       <c r="J99" t="n">
-        <v>1496.724659069901</v>
+        <v>1204.335741000894</v>
       </c>
       <c r="K99" t="n">
-        <v>1124.02905777627</v>
+        <v>1125.045715684738</v>
       </c>
       <c r="L99" t="n">
-        <v>1137.011838235411</v>
+        <v>1138.063368951803</v>
       </c>
       <c r="M99" t="n">
-        <v>1106.907530404335</v>
+        <v>1106.901833230007</v>
       </c>
     </row>
     <row r="100">
@@ -5092,25 +5092,25 @@
         <v>132.28</v>
       </c>
       <c r="G100" t="n">
-        <v>-20.97732649053569</v>
+        <v>228.9496823848031</v>
       </c>
       <c r="H100" t="n">
         <v>1100.68</v>
       </c>
       <c r="I100" t="n">
-        <v>1458.527326490536</v>
+        <v>1208.600317615197</v>
       </c>
       <c r="J100" t="n">
-        <v>1400.739955649763</v>
+        <v>1148.87986467299</v>
       </c>
       <c r="K100" t="n">
-        <v>1121.772548795205</v>
+        <v>1122.76775342579</v>
       </c>
       <c r="L100" t="n">
-        <v>1132.065689715861</v>
+        <v>1132.99560474137</v>
       </c>
       <c r="M100" t="n">
-        <v>1105.989132329707</v>
+        <v>1105.997094775047</v>
       </c>
     </row>
     <row r="101">
@@ -5124,25 +5124,25 @@
         <v>132.18</v>
       </c>
       <c r="G101" t="n">
-        <v>-19.37575969256864</v>
+        <v>190.9557395714739</v>
       </c>
       <c r="H101" t="n">
         <v>1100.2</v>
       </c>
       <c r="I101" t="n">
-        <v>1385.845759692569</v>
+        <v>1175.514260428526</v>
       </c>
       <c r="J101" t="n">
-        <v>1333.417500558141</v>
+        <v>1121.249481661334</v>
       </c>
       <c r="K101" t="n">
-        <v>1119.802303613459</v>
+        <v>1120.776492981938</v>
       </c>
       <c r="L101" t="n">
-        <v>1128.017733510575</v>
+        <v>1128.859980240172</v>
       </c>
       <c r="M101" t="n">
-        <v>1105.208222010394</v>
+        <v>1105.228305545082</v>
       </c>
     </row>
     <row r="102">
@@ -5156,25 +5156,25 @@
         <v>132.08</v>
       </c>
       <c r="G102" t="n">
-        <v>-22.1254148828923</v>
+        <v>153.6308590185502</v>
       </c>
       <c r="H102" t="n">
         <v>1099.82</v>
       </c>
       <c r="I102" t="n">
-        <v>1333.765414882892</v>
+        <v>1158.00914098145</v>
       </c>
       <c r="J102" t="n">
-        <v>1285.921291180736</v>
+        <v>1108.404224973364</v>
       </c>
       <c r="K102" t="n">
-        <v>1118.084012481483</v>
+        <v>1119.037680537161</v>
       </c>
       <c r="L102" t="n">
-        <v>1124.668308664579</v>
+        <v>1125.444576128337</v>
       </c>
       <c r="M102" t="n">
-        <v>1104.551802556094</v>
+        <v>1104.582659342588</v>
       </c>
     </row>
     <row r="103">
@@ -5188,25 +5188,25 @@
         <v>131.98</v>
       </c>
       <c r="G103" t="n">
-        <v>-22.06712794519808</v>
+        <v>125.2631304315992</v>
       </c>
       <c r="H103" t="n">
         <v>1099.52</v>
       </c>
       <c r="I103" t="n">
-        <v>1295.697127945198</v>
+        <v>1148.366869568401</v>
       </c>
       <c r="J103" t="n">
-        <v>1251.818130564407</v>
+        <v>1102.789074923166</v>
       </c>
       <c r="K103" t="n">
-        <v>1116.57747804489</v>
+        <v>1117.51115600245</v>
       </c>
       <c r="L103" t="n">
-        <v>1121.864241627831</v>
+        <v>1122.588915424146</v>
       </c>
       <c r="M103" t="n">
-        <v>1103.997277708071</v>
+        <v>1104.037723218638</v>
       </c>
     </row>
     <row r="104">
@@ -5220,25 +5220,25 @@
         <v>131.88</v>
       </c>
       <c r="G104" t="n">
-        <v>-5.498244734423679</v>
+        <v>119.11385100845</v>
       </c>
       <c r="H104" t="n">
         <v>1099.26</v>
       </c>
       <c r="I104" t="n">
-        <v>1267.098244734424</v>
+        <v>1142.48614899155</v>
       </c>
       <c r="J104" t="n">
-        <v>1226.68088213649</v>
+        <v>1100.42255298468</v>
       </c>
       <c r="K104" t="n">
-        <v>1115.225795054852</v>
+        <v>1116.140036995805</v>
       </c>
       <c r="L104" t="n">
-        <v>1119.469178839725</v>
+        <v>1120.152180169448</v>
       </c>
       <c r="M104" t="n">
-        <v>1103.502388703357</v>
+        <v>1103.551378841617</v>
       </c>
     </row>
     <row r="105">
@@ -5252,25 +5252,25 @@
         <v>131.78</v>
       </c>
       <c r="G105" t="n">
-        <v>80.50713796274886</v>
+        <v>187.1021036435234</v>
       </c>
       <c r="H105" t="n">
         <v>1098.95</v>
       </c>
       <c r="I105" t="n">
-        <v>1244.902862037251</v>
+        <v>1138.307896356477</v>
       </c>
       <c r="J105" t="n">
-        <v>1207.53144355788</v>
+        <v>1099.336068825929</v>
       </c>
       <c r="K105" t="n">
-        <v>1113.92471779878</v>
+        <v>1114.820089661818</v>
       </c>
       <c r="L105" t="n">
-        <v>1117.321538129813</v>
+        <v>1117.969963425618</v>
       </c>
       <c r="M105" t="n">
-        <v>1102.975162550779</v>
+        <v>1103.031774443112</v>
       </c>
     </row>
     <row r="106">
@@ -5284,25 +5284,25 @@
         <v>131.68</v>
       </c>
       <c r="G106" t="n">
-        <v>65.53425511476166</v>
+        <v>157.7677272134938</v>
       </c>
       <c r="H106" t="n">
         <v>1098.63</v>
       </c>
       <c r="I106" t="n">
-        <v>1227.215744885238</v>
+        <v>1134.982272786506</v>
       </c>
       <c r="J106" t="n">
-        <v>1192.542773885974</v>
+        <v>1098.749723888102</v>
       </c>
       <c r="K106" t="n">
-        <v>1112.702166941865</v>
+        <v>1113.579238174751</v>
       </c>
       <c r="L106" t="n">
-        <v>1115.406934657265</v>
+        <v>1116.026025529783</v>
       </c>
       <c r="M106" t="n">
-        <v>1102.453869400135</v>
+        <v>1102.51728519387</v>
       </c>
     </row>
     <row r="107">
@@ -5316,25 +5316,25 @@
         <v>131.58</v>
       </c>
       <c r="G107" t="n">
-        <v>-46.83551601568206</v>
+        <v>33.81466813808174</v>
       </c>
       <c r="H107" t="n">
         <v>1098.42</v>
       </c>
       <c r="I107" t="n">
-        <v>1212.895516015682</v>
+        <v>1132.245331861918</v>
       </c>
       <c r="J107" t="n">
-        <v>1180.627421743109</v>
+        <v>1098.454670570498</v>
       </c>
       <c r="K107" t="n">
-        <v>1111.667841239348</v>
+        <v>1112.527178528267</v>
       </c>
       <c r="L107" t="n">
-        <v>1113.803265825862</v>
+        <v>1114.397002417571</v>
       </c>
       <c r="M107" t="n">
-        <v>1102.056987207363</v>
+        <v>1102.126480345582</v>
       </c>
     </row>
     <row r="108">
@@ -5348,25 +5348,25 @@
         <v>131.48</v>
       </c>
       <c r="G108" t="n">
-        <v>10.34443581112191</v>
+        <v>81.51856226102836</v>
       </c>
       <c r="H108" t="n">
         <v>1098.28</v>
       </c>
       <c r="I108" t="n">
-        <v>1201.065564188878</v>
+        <v>1129.891437738972</v>
       </c>
       <c r="J108" t="n">
-        <v>1170.952065796156</v>
+        <v>1098.289375733659</v>
       </c>
       <c r="K108" t="n">
-        <v>1110.772909053719</v>
+        <v>1111.615071668085</v>
       </c>
       <c r="L108" t="n">
-        <v>1112.437417047267</v>
+        <v>1113.008894498955</v>
       </c>
       <c r="M108" t="n">
-        <v>1101.743172291736</v>
+        <v>1101.818095838272</v>
       </c>
     </row>
     <row r="109">
@@ -5380,25 +5380,25 @@
         <v>131.38</v>
       </c>
       <c r="G109" t="n">
-        <v>59.41438058333893</v>
+        <v>122.7266599299799</v>
       </c>
       <c r="H109" t="n">
         <v>1098.07</v>
       </c>
       <c r="I109" t="n">
-        <v>1191.015619416661</v>
+        <v>1127.70334007002</v>
       </c>
       <c r="J109" t="n">
-        <v>1162.841635783234</v>
+        <v>1098.072367628905</v>
       </c>
       <c r="K109" t="n">
-        <v>1109.869761242563</v>
+        <v>1110.695297632759</v>
       </c>
       <c r="L109" t="n">
-        <v>1111.142987710627</v>
+        <v>1111.6946634584</v>
       </c>
       <c r="M109" t="n">
-        <v>1101.371234680237</v>
+        <v>1101.451011349956</v>
       </c>
     </row>
     <row r="110">
@@ -5412,25 +5412,25 @@
         <v>131.28</v>
       </c>
       <c r="G110" t="n">
-        <v>31.95545499394143</v>
+        <v>88.66141162485087</v>
       </c>
       <c r="H110" t="n">
         <v>1097.86</v>
       </c>
       <c r="I110" t="n">
-        <v>1182.414545006058</v>
+        <v>1125.708588375149</v>
       </c>
       <c r="J110" t="n">
-        <v>1155.993935224875</v>
+        <v>1097.860558323751</v>
       </c>
       <c r="K110" t="n">
-        <v>1109.02181169554</v>
+        <v>1109.831257060313</v>
       </c>
       <c r="L110" t="n">
-        <v>1109.968680721938</v>
+        <v>1110.502542013509</v>
       </c>
       <c r="M110" t="n">
-        <v>1101.010117363705</v>
+        <v>1101.094230977576</v>
       </c>
     </row>
     <row r="111">
@@ -5444,25 +5444,25 @@
         <v>131.18</v>
       </c>
       <c r="G111" t="n">
-        <v>72.29864855018036</v>
+        <v>123.3909830796822</v>
       </c>
       <c r="H111" t="n">
         <v>1097.65</v>
       </c>
       <c r="I111" t="n">
-        <v>1174.97135144982</v>
+        <v>1123.879016920318</v>
       </c>
       <c r="J111" t="n">
-        <v>1150.142000618163</v>
+        <v>1097.650122948341</v>
       </c>
       <c r="K111" t="n">
-        <v>1108.223335194317</v>
+        <v>1109.017209796938</v>
       </c>
       <c r="L111" t="n">
-        <v>1108.897136870728</v>
+        <v>1109.414817272737</v>
       </c>
       <c r="M111" t="n">
-        <v>1100.658878766611</v>
+        <v>1100.746866902303</v>
       </c>
     </row>
     <row r="112">
@@ -5476,25 +5476,25 @@
         <v>131.08</v>
       </c>
       <c r="G112" t="n">
-        <v>-39.05907366996712</v>
+        <v>7.216768770872022</v>
       </c>
       <c r="H112" t="n">
         <v>1097.51</v>
       </c>
       <c r="I112" t="n">
-        <v>1168.539073669967</v>
+        <v>1122.263231229128</v>
       </c>
       <c r="J112" t="n">
-        <v>1145.158985714509</v>
+        <v>1097.510025282693</v>
       </c>
       <c r="K112" t="n">
-        <v>1107.539334745935</v>
+        <v>1108.318142807005</v>
       </c>
       <c r="L112" t="n">
-        <v>1107.984075339154</v>
+        <v>1108.486937619369</v>
       </c>
       <c r="M112" t="n">
-        <v>1100.386677870369</v>
+        <v>1100.478125520061</v>
       </c>
     </row>
     <row r="113">
@@ -5508,25 +5508,25 @@
         <v>130.98</v>
       </c>
       <c r="G113" t="n">
-        <v>60.02787904048978</v>
+        <v>102.1361921648686</v>
       </c>
       <c r="H113" t="n">
         <v>1097.39</v>
       </c>
       <c r="I113" t="n">
-        <v>1162.90212095951</v>
+        <v>1120.793807835131</v>
       </c>
       <c r="J113" t="n">
-        <v>1140.846277346889</v>
+        <v>1097.390004854987</v>
       </c>
       <c r="K113" t="n">
-        <v>1106.915432367297</v>
+        <v>1107.679661400084</v>
       </c>
       <c r="L113" t="n">
-        <v>1107.167649707129</v>
+        <v>1107.656845961801</v>
       </c>
       <c r="M113" t="n">
-        <v>1100.142761538195</v>
+        <v>1100.237295618259</v>
       </c>
     </row>
     <row r="114">
@@ -5540,25 +5540,25 @@
         <v>130.88</v>
       </c>
       <c r="G114" t="n">
-        <v>75.98837653724058</v>
+        <v>114.463887086624</v>
       </c>
       <c r="H114" t="n">
         <v>1097.19</v>
       </c>
       <c r="I114" t="n">
-        <v>1157.831623462759</v>
+        <v>1119.356112913376</v>
       </c>
       <c r="J114" t="n">
-        <v>1136.989432520151</v>
+        <v>1097.190000870597</v>
       </c>
       <c r="K114" t="n">
-        <v>1106.247778660535</v>
+        <v>1106.997899144332</v>
       </c>
       <c r="L114" t="n">
-        <v>1106.337958607201</v>
+        <v>1106.814474639787</v>
       </c>
       <c r="M114" t="n">
-        <v>1099.826453674872</v>
+        <v>1099.92373825866</v>
       </c>
     </row>
     <row r="115">
@@ -5572,25 +5572,25 @@
         <v>130.78</v>
       </c>
       <c r="G115" t="n">
-        <v>54.11436517976563</v>
+        <v>89.40232108505188</v>
       </c>
       <c r="H115" t="n">
         <v>1096.99</v>
       </c>
       <c r="I115" t="n">
-        <v>1153.305634820234</v>
+        <v>1118.017678914948</v>
       </c>
       <c r="J115" t="n">
-        <v>1133.578842113719</v>
+        <v>1096.990000145784</v>
       </c>
       <c r="K115" t="n">
-        <v>1105.612977544211</v>
+        <v>1106.349442854235</v>
       </c>
       <c r="L115" t="n">
-        <v>1105.566669239881</v>
+        <v>1106.031357825897</v>
       </c>
       <c r="M115" t="n">
-        <v>1099.517145922423</v>
+        <v>1099.616878089032</v>
       </c>
     </row>
     <row r="116">
@@ -5604,25 +5604,25 @@
         <v>130.68</v>
       </c>
       <c r="G116" t="n">
-        <v>22.51762230796385</v>
+        <v>54.99220365801852</v>
       </c>
       <c r="H116" t="n">
         <v>1096.85</v>
       </c>
       <c r="I116" t="n">
-        <v>1149.302377692036</v>
+        <v>1116.827796341981</v>
       </c>
       <c r="J116" t="n">
-        <v>1130.603340285939</v>
+        <v>1096.850000022796</v>
       </c>
       <c r="K116" t="n">
-        <v>1105.068023283891</v>
+        <v>1105.79126981418</v>
       </c>
       <c r="L116" t="n">
-        <v>1104.906724475504</v>
+        <v>1105.360330648797</v>
       </c>
       <c r="M116" t="n">
-        <v>1099.274289646702</v>
+        <v>1099.376195856208</v>
       </c>
     </row>
     <row r="117">
@@ -5636,25 +5636,25 @@
         <v>130.58</v>
       </c>
       <c r="G117" t="n">
-        <v>47.58453935125317</v>
+        <v>77.56278986969505</v>
       </c>
       <c r="H117" t="n">
         <v>1096.71</v>
       </c>
       <c r="I117" t="n">
-        <v>1145.695460648747</v>
+        <v>1115.717210130305</v>
       </c>
       <c r="J117" t="n">
-        <v>1127.945711394654</v>
+        <v>1096.710000003329</v>
       </c>
       <c r="K117" t="n">
-        <v>1104.550247561714</v>
+        <v>1105.260694991508</v>
       </c>
       <c r="L117" t="n">
-        <v>1104.292112679138</v>
+        <v>1104.735293202137</v>
       </c>
       <c r="M117" t="n">
-        <v>1099.03738901324</v>
+        <v>1099.141221933331</v>
       </c>
     </row>
     <row r="118">
@@ -5668,25 +5668,25 @@
         <v>130.48</v>
       </c>
       <c r="G118" t="n">
-        <v>-20.45041287853246</v>
+        <v>7.302119147225312</v>
       </c>
       <c r="H118" t="n">
         <v>1096.62</v>
       </c>
       <c r="I118" t="n">
-        <v>1142.480412878532</v>
+        <v>1114.727880852775</v>
       </c>
       <c r="J118" t="n">
-        <v>1125.609457947324</v>
+        <v>1096.620000000454</v>
       </c>
       <c r="K118" t="n">
-        <v>1104.107274784697</v>
+        <v>1104.805326449693</v>
       </c>
       <c r="L118" t="n">
-        <v>1103.767685160904</v>
+        <v>1104.201023696181</v>
       </c>
       <c r="M118" t="n">
-        <v>1098.855994985607</v>
+        <v>1098.961530706447</v>
       </c>
     </row>
     <row r="119">
@@ -5700,25 +5700,25 @@
         <v>130.38</v>
       </c>
       <c r="G119" t="n">
-        <v>85.44787556487154</v>
+        <v>111.207207539735</v>
       </c>
       <c r="H119" t="n">
         <v>1096.5</v>
       </c>
       <c r="I119" t="n">
-        <v>1139.532124435128</v>
+        <v>1113.772792460265</v>
       </c>
       <c r="J119" t="n">
-        <v>1123.476429961537</v>
+        <v>1096.500000000058</v>
       </c>
       <c r="K119" t="n">
-        <v>1103.65698418907</v>
+        <v>1104.343027527501</v>
       </c>
       <c r="L119" t="n">
-        <v>1103.249010176671</v>
+        <v>1103.673029240895</v>
       </c>
       <c r="M119" t="n">
-        <v>1098.649700107851</v>
+        <v>1098.756735691811</v>
       </c>
     </row>
     <row r="120">
@@ -5732,25 +5732,25 @@
         <v>130.28</v>
       </c>
       <c r="G120" t="n">
-        <v>42.83707639658996</v>
+        <v>66.80420435954238</v>
       </c>
       <c r="H120" t="n">
         <v>1096.33</v>
       </c>
       <c r="I120" t="n">
-        <v>1136.79292360341</v>
+        <v>1112.825795640458</v>
       </c>
       <c r="J120" t="n">
-        <v>1121.495056815415</v>
+        <v>1096.330000000007</v>
       </c>
       <c r="K120" t="n">
-        <v>1103.177477577815</v>
+        <v>1103.851884628028</v>
       </c>
       <c r="L120" t="n">
-        <v>1102.712255254545</v>
+        <v>1103.127425735751</v>
       </c>
       <c r="M120" t="n">
-        <v>1098.398133955635</v>
+        <v>1098.506485276671</v>
       </c>
     </row>
     <row r="121">
@@ -5764,25 +5764,25 @@
         <v>130.18</v>
       </c>
       <c r="G121" t="n">
-        <v>26.30888832089249</v>
+        <v>48.65852084549738</v>
       </c>
       <c r="H121" t="n">
         <v>1096.22</v>
       </c>
       <c r="I121" t="n">
-        <v>1134.341111679108</v>
+        <v>1111.991479154503</v>
       </c>
       <c r="J121" t="n">
-        <v>1119.749009099768</v>
+        <v>1096.220000000001</v>
       </c>
       <c r="K121" t="n">
-        <v>1102.777051749054</v>
+        <v>1103.44017968048</v>
       </c>
       <c r="L121" t="n">
-        <v>1102.264091670788</v>
+        <v>1102.67084048027</v>
       </c>
       <c r="M121" t="n">
-        <v>1098.210959159498</v>
+        <v>1098.320458993752</v>
       </c>
     </row>
     <row r="122">
@@ -5796,25 +5796,25 @@
         <v>130.08</v>
       </c>
       <c r="G122" t="n">
-        <v>35.86016806808743</v>
+        <v>56.74493656391155</v>
       </c>
       <c r="H122" t="n">
         <v>1096.11</v>
       </c>
       <c r="I122" t="n">
-        <v>1132.089831931913</v>
+        <v>1111.205063436088</v>
       </c>
       <c r="J122" t="n">
-        <v>1118.156172775886</v>
+        <v>1096.11</v>
       </c>
       <c r="K122" t="n">
-        <v>1102.394174847603</v>
+        <v>1103.046366511171</v>
       </c>
       <c r="L122" t="n">
-        <v>1101.841616389255</v>
+        <v>1102.240332670914</v>
       </c>
       <c r="M122" t="n">
-        <v>1098.027867919167</v>
+        <v>1098.138364254004</v>
       </c>
     </row>
     <row r="123">
@@ -5828,25 +5828,25 @@
         <v>129.98</v>
       </c>
       <c r="G123" t="n">
-        <v>-35.11618648256376</v>
+        <v>-15.56231206175062</v>
       </c>
       <c r="H123" t="n">
         <v>1096.06</v>
       </c>
       <c r="I123" t="n">
-        <v>1130.076186482564</v>
+        <v>1110.522312061751</v>
       </c>
       <c r="J123" t="n">
-        <v>1116.757853655002</v>
+        <v>1096.06</v>
       </c>
       <c r="K123" t="n">
-        <v>1102.087466011284</v>
+        <v>1102.72905049855</v>
       </c>
       <c r="L123" t="n">
-        <v>1101.502287875692</v>
+        <v>1101.893328089156</v>
       </c>
       <c r="M123" t="n">
-        <v>1097.908578940586</v>
+        <v>1098.019933474045</v>
       </c>
     </row>
     <row r="124">
@@ -5860,25 +5860,25 @@
         <v>129.88</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.3905396050975014</v>
+        <v>17.95054232651728</v>
       </c>
       <c r="H124" t="n">
         <v>1096.03</v>
       </c>
       <c r="I124" t="n">
-        <v>1128.240539605097</v>
+        <v>1109.899457673483</v>
       </c>
       <c r="J124" t="n">
-        <v>1115.498154057638</v>
+        <v>1096.03</v>
       </c>
       <c r="K124" t="n">
-        <v>1101.815677795139</v>
+        <v>1102.44697099798</v>
       </c>
       <c r="L124" t="n">
-        <v>1101.203873014457</v>
+        <v>1101.587565131015</v>
       </c>
       <c r="M124" t="n">
-        <v>1097.812834737863</v>
+        <v>1097.924921544487</v>
       </c>
     </row>
     <row r="125">
@@ -5892,25 +5892,25 @@
         <v>129.78</v>
       </c>
       <c r="G125" t="n">
-        <v>26.64403707049337</v>
+        <v>43.87686033296427</v>
       </c>
       <c r="H125" t="n">
         <v>1095.96</v>
       </c>
       <c r="I125" t="n">
-        <v>1126.505962929507</v>
+        <v>1109.273139667036</v>
       </c>
       <c r="J125" t="n">
-        <v>1114.303479763196</v>
+        <v>1095.96</v>
       </c>
       <c r="K125" t="n">
-        <v>1101.517680946631</v>
+        <v>1102.138986111315</v>
       </c>
       <c r="L125" t="n">
-        <v>1100.884402968535</v>
+        <v>1101.261049962202</v>
       </c>
       <c r="M125" t="n">
-        <v>1097.680399251145</v>
+        <v>1097.793103593518</v>
       </c>
     </row>
     <row r="126">
@@ -5924,25 +5924,25 @@
         <v>129.68</v>
       </c>
       <c r="G126" t="n">
-        <v>51.33221015328013</v>
+        <v>67.54964848186683</v>
       </c>
       <c r="H126" t="n">
         <v>1095.86</v>
       </c>
       <c r="I126" t="n">
-        <v>1124.86778984672</v>
+        <v>1108.650351518133</v>
       </c>
       <c r="J126" t="n">
-        <v>1113.17214664186</v>
+        <v>1095.86</v>
       </c>
       <c r="K126" t="n">
-        <v>1101.202451177615</v>
+        <v>1101.814059448681</v>
       </c>
       <c r="L126" t="n">
-        <v>1100.552136288545</v>
+        <v>1100.922019062584</v>
       </c>
       <c r="M126" t="n">
-        <v>1097.521055738699</v>
+        <v>1097.634273006868</v>
       </c>
     </row>
     <row r="127">
@@ -5956,25 +5956,25 @@
         <v>129.58</v>
       </c>
       <c r="G127" t="n">
-        <v>-37.51325479698426</v>
+        <v>-22.22839604936644</v>
       </c>
       <c r="H127" t="n">
         <v>1095.8</v>
       </c>
       <c r="I127" t="n">
-        <v>1123.383254796984</v>
+        <v>1108.098396049366</v>
       </c>
       <c r="J127" t="n">
-        <v>1112.164064319366</v>
+        <v>1095.8</v>
       </c>
       <c r="K127" t="n">
-        <v>1100.939057638109</v>
+        <v>1101.541248588688</v>
       </c>
       <c r="L127" t="n">
-        <v>1100.275527931904</v>
+        <v>1100.638907789689</v>
       </c>
       <c r="M127" t="n">
-        <v>1097.404604907606</v>
+        <v>1097.518239670988</v>
       </c>
     </row>
     <row r="128">
@@ -5988,25 +5988,25 @@
         <v>129.48</v>
       </c>
       <c r="G128" t="n">
-        <v>20.12880085432766</v>
+        <v>34.55515272505272</v>
       </c>
       <c r="H128" t="n">
         <v>1095.77</v>
       </c>
       <c r="I128" t="n">
-        <v>1122.031199145672</v>
+        <v>1107.604847274947</v>
       </c>
       <c r="J128" t="n">
-        <v>1111.260479920767</v>
+        <v>1095.77</v>
       </c>
       <c r="K128" t="n">
-        <v>1100.716652845176</v>
+        <v>1101.309694991387</v>
       </c>
       <c r="L128" t="n">
-        <v>1100.04320312712</v>
+        <v>1100.400323872515</v>
       </c>
       <c r="M128" t="n">
-        <v>1097.32086325261</v>
+        <v>1097.434828411044</v>
       </c>
     </row>
     <row r="129">
@@ -6020,25 +6020,25 @@
         <v>129.38</v>
       </c>
       <c r="G129" t="n">
-        <v>45.54817026339288</v>
+        <v>59.18248227778304</v>
       </c>
       <c r="H129" t="n">
         <v>1095.68</v>
       </c>
       <c r="I129" t="n">
-        <v>1120.711829736607</v>
+        <v>1107.077517722217</v>
       </c>
       <c r="J129" t="n">
-        <v>1110.363769068886</v>
+        <v>1095.68</v>
       </c>
       <c r="K129" t="n">
-        <v>1100.444463859953</v>
+        <v>1101.028615157735</v>
       </c>
       <c r="L129" t="n">
-        <v>1099.763935230788</v>
+        <v>1100.115024965159</v>
       </c>
       <c r="M129" t="n">
-        <v>1097.17966157698</v>
+        <v>1097.293877599323</v>
       </c>
     </row>
     <row r="130">
@@ -6052,25 +6052,25 @@
         <v>129.28</v>
       </c>
       <c r="G130" t="n">
-        <v>16.02348055482162</v>
+        <v>28.92556966497591</v>
       </c>
       <c r="H130" t="n">
         <v>1095.6</v>
       </c>
       <c r="I130" t="n">
-        <v>1119.486519445178</v>
+        <v>1106.584430335024</v>
       </c>
       <c r="J130" t="n">
-        <v>1109.537264342841</v>
+        <v>1095.6</v>
       </c>
       <c r="K130" t="n">
-        <v>1100.191784538478</v>
+        <v>1100.767292861831</v>
       </c>
       <c r="L130" t="n">
-        <v>1099.50662689098</v>
+        <v>1099.851899560125</v>
       </c>
       <c r="M130" t="n">
-        <v>1097.050843672879</v>
+        <v>1097.165237913068</v>
       </c>
     </row>
     <row r="131">
@@ -6084,25 +6084,25 @@
         <v>129.18</v>
       </c>
       <c r="G131" t="n">
-        <v>3.412358538576655</v>
+        <v>15.63620577226015</v>
       </c>
       <c r="H131" t="n">
         <v>1095.54</v>
       </c>
       <c r="I131" t="n">
-        <v>1118.357641461423</v>
+        <v>1106.13379422774</v>
       </c>
       <c r="J131" t="n">
-        <v>1108.785113649117</v>
+        <v>1095.54</v>
       </c>
       <c r="K131" t="n">
-        <v>1099.967968709024</v>
+        <v>1100.535072309089</v>
       </c>
       <c r="L131" t="n">
-        <v>1099.280293961438</v>
+        <v>1099.619950695031</v>
       </c>
       <c r="M131" t="n">
-        <v>1096.944265141843</v>
+        <v>1097.05877122362</v>
       </c>
     </row>
     <row r="132">
@@ -6116,25 +6116,25 @@
         <v>129.08</v>
       </c>
       <c r="G132" t="n">
-        <v>-27.45843084508283</v>
+        <v>-15.8639836892246</v>
       </c>
       <c r="H132" t="n">
         <v>1095.53</v>
       </c>
       <c r="I132" t="n">
-        <v>1117.348430845083</v>
+        <v>1105.753983689225</v>
       </c>
       <c r="J132" t="n">
-        <v>1108.132162641007</v>
+        <v>1095.53</v>
       </c>
       <c r="K132" t="n">
-        <v>1099.80242415107</v>
+        <v>1100.361352095812</v>
       </c>
       <c r="L132" t="n">
-        <v>1099.11405171443</v>
+        <v>1099.448281992225</v>
       </c>
       <c r="M132" t="n">
-        <v>1096.889792338576</v>
+        <v>1097.004349601187</v>
       </c>
     </row>
     <row r="133">
@@ -6148,25 +6148,25 @@
         <v>128.98</v>
       </c>
       <c r="G133" t="n">
-        <v>-9.292868270701319</v>
+        <v>1.716480059042624</v>
       </c>
       <c r="H133" t="n">
         <v>1095.52</v>
       </c>
       <c r="I133" t="n">
-        <v>1116.402868270701</v>
+        <v>1105.393519940957</v>
       </c>
       <c r="J133" t="n">
-        <v>1107.523856594986</v>
+        <v>1095.52</v>
       </c>
       <c r="K133" t="n">
-        <v>1099.644607269697</v>
+        <v>1100.195579864254</v>
       </c>
       <c r="L133" t="n">
-        <v>1098.9571029825</v>
+        <v>1099.286085655055</v>
       </c>
       <c r="M133" t="n">
-        <v>1096.837301423518</v>
+        <v>1096.951854421648</v>
       </c>
     </row>
     <row r="134">
@@ -6180,25 +6180,25 @@
         <v>128.88</v>
       </c>
       <c r="G134" t="n">
-        <v>-11.68558193491253</v>
+        <v>-1.221055238144572</v>
       </c>
       <c r="H134" t="n">
         <v>1095.51</v>
       </c>
       <c r="I134" t="n">
-        <v>1115.515581934912</v>
+        <v>1105.051055238144</v>
       </c>
       <c r="J134" t="n">
-        <v>1106.956158123227</v>
+        <v>1095.51</v>
       </c>
       <c r="K134" t="n">
-        <v>1099.494018374864</v>
+        <v>1100.037247562797</v>
       </c>
       <c r="L134" t="n">
-        <v>1098.808727925277</v>
+        <v>1099.132632111774</v>
       </c>
       <c r="M134" t="n">
-        <v>1096.786677511544</v>
+        <v>1096.901175563573</v>
       </c>
     </row>
     <row r="135">
@@ -6212,25 +6212,25 @@
         <v>128.78</v>
       </c>
       <c r="G135" t="n">
-        <v>-46.30176441202275</v>
+        <v>-36.3453589713431</v>
       </c>
       <c r="H135" t="n">
         <v>1095.52</v>
       </c>
       <c r="I135" t="n">
-        <v>1114.701764412023</v>
+        <v>1104.745358971343</v>
       </c>
       <c r="J135" t="n">
-        <v>1106.445477847625</v>
+        <v>1095.52</v>
       </c>
       <c r="K135" t="n">
-        <v>1099.37019748806</v>
+        <v>1099.90588723392</v>
       </c>
       <c r="L135" t="n">
-        <v>1098.688275170562</v>
+        <v>1099.007261052266</v>
       </c>
       <c r="M135" t="n">
-        <v>1096.757813905776</v>
+        <v>1096.872210685157</v>
       </c>
     </row>
     <row r="136">
@@ -6244,25 +6244,25 @@
         <v>128.68</v>
       </c>
       <c r="G136" t="n">
-        <v>20.23289812271014</v>
+        <v>29.7146945178547</v>
       </c>
       <c r="H136" t="n">
         <v>1095.51</v>
       </c>
       <c r="I136" t="n">
-        <v>1113.91710187729</v>
+        <v>1104.435305482145</v>
       </c>
       <c r="J136" t="n">
-        <v>1105.948615738635</v>
+        <v>1095.51</v>
       </c>
       <c r="K136" t="n">
-        <v>1099.232720609898</v>
+        <v>1099.761067263617</v>
       </c>
       <c r="L136" t="n">
-        <v>1098.555154121849</v>
+        <v>1098.86937364643</v>
       </c>
       <c r="M136" t="n">
-        <v>1096.710611406909</v>
+        <v>1096.824864572098</v>
       </c>
     </row>
     <row r="137">
@@ -6276,25 +6276,25 @@
         <v>128.58</v>
       </c>
       <c r="G137" t="n">
-        <v>-40.99771361344574</v>
+        <v>-31.95986335236148</v>
       </c>
       <c r="H137" t="n">
         <v>1095.5</v>
       </c>
       <c r="I137" t="n">
-        <v>1113.177713613446</v>
+        <v>1104.139863352362</v>
       </c>
       <c r="J137" t="n">
-        <v>1105.482711273049</v>
+        <v>1095.5</v>
       </c>
       <c r="K137" t="n">
-        <v>1099.101196391486</v>
+        <v>1099.62238903518</v>
       </c>
       <c r="L137" t="n">
-        <v>1098.428828259262</v>
+        <v>1098.738425768651</v>
       </c>
       <c r="M137" t="n">
-        <v>1096.664977689648</v>
+        <v>1096.77904854853</v>
       </c>
     </row>
     <row r="138">
@@ -6308,25 +6308,25 @@
         <v>128.48</v>
       </c>
       <c r="G138" t="n">
-        <v>21.13989989262541</v>
+        <v>29.76191403604798</v>
       </c>
       <c r="H138" t="n">
         <v>1095.49</v>
       </c>
       <c r="I138" t="n">
-        <v>1112.480100107374</v>
+        <v>1103.858085963952</v>
       </c>
       <c r="J138" t="n">
-        <v>1105.04520091879</v>
+        <v>1095.49</v>
       </c>
       <c r="K138" t="n">
-        <v>1098.9752631603</v>
+        <v>1099.489483938136</v>
       </c>
       <c r="L138" t="n">
-        <v>1098.308809289392</v>
+        <v>1098.613922081678</v>
       </c>
       <c r="M138" t="n">
-        <v>1096.620826738893</v>
+        <v>1096.734679944138</v>
       </c>
     </row>
     <row r="139">
@@ -6340,25 +6340,25 @@
         <v>128.38</v>
       </c>
       <c r="G139" t="n">
-        <v>6.17890164557366</v>
+        <v>14.41089684185863</v>
       </c>
       <c r="H139" t="n">
         <v>1095.44</v>
       </c>
       <c r="I139" t="n">
-        <v>1111.781098354426</v>
+        <v>1103.549103158141</v>
       </c>
       <c r="J139" t="n">
-        <v>1104.593781734464</v>
+        <v>1095.44</v>
       </c>
       <c r="K139" t="n">
-        <v>1098.814586257952</v>
+        <v>1099.32201068975</v>
       </c>
       <c r="L139" t="n">
-        <v>1098.154652022815</v>
+        <v>1098.455410857007</v>
       </c>
       <c r="M139" t="n">
-        <v>1096.538078339196</v>
+        <v>1096.651681611384</v>
       </c>
     </row>
     <row r="140">
@@ -6372,25 +6372,25 @@
         <v>128.28</v>
       </c>
       <c r="G140" t="n">
-        <v>-36.9078432358001</v>
+        <v>-29.04211384810719</v>
       </c>
       <c r="H140" t="n">
         <v>1095.44</v>
       </c>
       <c r="I140" t="n">
-        <v>1111.1678432358</v>
+        <v>1103.302113848107</v>
       </c>
       <c r="J140" t="n">
-        <v>1104.216380093724</v>
+        <v>1095.44</v>
       </c>
       <c r="K140" t="n">
-        <v>1098.70885565295</v>
+        <v>1099.209652932212</v>
       </c>
       <c r="L140" t="n">
-        <v>1098.0559498773</v>
+        <v>1098.352479428362</v>
       </c>
       <c r="M140" t="n">
-        <v>1096.506657611826</v>
+        <v>1096.619981487534</v>
       </c>
     </row>
     <row r="141">
@@ -6404,25 +6404,25 @@
         <v>128.18</v>
       </c>
       <c r="G141" t="n">
-        <v>-15.14773403347613</v>
+        <v>-7.626379461194119</v>
       </c>
       <c r="H141" t="n">
         <v>1140.2</v>
       </c>
       <c r="I141" t="n">
-        <v>1155.347734033476</v>
+        <v>1147.826379461194</v>
       </c>
       <c r="J141" t="n">
-        <v>1148.621124722124</v>
+        <v>1140.2</v>
       </c>
       <c r="K141" t="n">
-        <v>1143.36778379639</v>
+        <v>1143.862117073455</v>
       </c>
       <c r="L141" t="n">
-        <v>1142.722330920553</v>
+        <v>1143.014750190979</v>
       </c>
       <c r="M141" t="n">
-        <v>1141.236494594408</v>
+        <v>1141.34951219676</v>
       </c>
     </row>
     <row r="142">
@@ -6436,25 +6436,25 @@
         <v>128.08</v>
       </c>
       <c r="G142" t="n">
-        <v>-14.59840530783185</v>
+        <v>-7.401218104688496</v>
       </c>
       <c r="H142" t="n">
         <v>1069.57</v>
       </c>
       <c r="I142" t="n">
-        <v>1084.168405307832</v>
+        <v>1076.971218104688</v>
       </c>
       <c r="J142" t="n">
-        <v>1077.656323376894</v>
+        <v>1069.57</v>
       </c>
       <c r="K142" t="n">
-        <v>1072.641103692669</v>
+        <v>1073.129130343695</v>
       </c>
       <c r="L142" t="n">
-        <v>1072.003454379538</v>
+        <v>1072.291877072792</v>
       </c>
       <c r="M142" t="n">
-        <v>1070.577523858731</v>
+        <v>1070.690210688201</v>
       </c>
     </row>
     <row r="143">
@@ -6468,25 +6468,25 @@
         <v>127.98</v>
       </c>
       <c r="G143" t="n">
-        <v>-14.07770149336807</v>
+        <v>-7.185999364314057</v>
       </c>
       <c r="H143" t="n">
         <v>1084.2</v>
       </c>
       <c r="I143" t="n">
-        <v>1098.277701493368</v>
+        <v>1091.385999364314</v>
       </c>
       <c r="J143" t="n">
-        <v>1091.970442615346</v>
+        <v>1084.2</v>
       </c>
       <c r="K143" t="n">
-        <v>1087.178567160892</v>
+        <v>1087.660439043339</v>
       </c>
       <c r="L143" t="n">
-        <v>1086.549007554343</v>
+        <v>1086.833542414698</v>
       </c>
       <c r="M143" t="n">
-        <v>1085.179684162786</v>
+        <v>1085.292017906278</v>
       </c>
     </row>
     <row r="144">
@@ -6500,25 +6500,25 @@
         <v>127.88</v>
       </c>
       <c r="G144" t="n">
-        <v>-13.58365467416843</v>
+        <v>-6.980139657395966</v>
       </c>
       <c r="H144" t="n">
         <v>1073.19</v>
       </c>
       <c r="I144" t="n">
-        <v>1086.773654674168</v>
+        <v>1080.170139657396</v>
       </c>
       <c r="J144" t="n">
-        <v>1080.662090191144</v>
+        <v>1073.19</v>
       </c>
       <c r="K144" t="n">
-        <v>1076.079943265683</v>
+        <v>1076.555806960966</v>
       </c>
       <c r="L144" t="n">
-        <v>1075.458703083739</v>
+        <v>1075.739454206399</v>
       </c>
       <c r="M144" t="n">
-        <v>1074.142918133603</v>
+        <v>1074.254878490031</v>
       </c>
     </row>
     <row r="145">
@@ -6532,25 +6532,25 @@
         <v>127.78</v>
       </c>
       <c r="G145" t="n">
-        <v>-13.11446508766107</v>
+        <v>-6.783098073396786</v>
       </c>
       <c r="H145" t="n">
         <v>1042.02</v>
       </c>
       <c r="I145" t="n">
-        <v>1055.134465087661</v>
+        <v>1048.803098073397</v>
       </c>
       <c r="J145" t="n">
-        <v>1049.209999693909</v>
+        <v>1042.02</v>
       </c>
       <c r="K145" t="n">
-        <v>1044.825016898766</v>
+        <v>1045.29501394273</v>
       </c>
       <c r="L145" t="n">
-        <v>1044.212276517217</v>
+        <v>1044.489343632076</v>
       </c>
       <c r="M145" t="n">
-        <v>1042.947171977769</v>
+        <v>1043.05874049859</v>
       </c>
     </row>
     <row r="146">
@@ -6564,25 +6564,25 @@
         <v>127.68</v>
       </c>
       <c r="G146" t="n">
-        <v>-12.66848397673425</v>
+        <v>-6.594372643678071</v>
       </c>
       <c r="H146" t="n">
         <v>1090.89</v>
       </c>
       <c r="I146" t="n">
-        <v>1103.558483976734</v>
+        <v>1097.484372643678</v>
       </c>
       <c r="J146" t="n">
-        <v>1097.813017110063</v>
+        <v>1090.89</v>
       </c>
       <c r="K146" t="n">
-        <v>1093.613587494957</v>
+        <v>1094.077854596797</v>
       </c>
       <c r="L146" t="n">
-        <v>1093.009484154779</v>
+        <v>1093.28296288669</v>
       </c>
       <c r="M146" t="n">
-        <v>1091.792395216935</v>
+        <v>1091.903555160192</v>
       </c>
     </row>
     <row r="147">
@@ -6596,25 +6596,25 @@
         <v>127.58</v>
       </c>
       <c r="G147" t="n">
-        <v>-12.24419846929663</v>
+        <v>-6.413496990104704</v>
       </c>
       <c r="H147" t="n">
         <v>1062.76</v>
       </c>
       <c r="I147" t="n">
-        <v>1075.004198469297</v>
+        <v>1069.173496990105</v>
       </c>
       <c r="J147" t="n">
-        <v>1069.43008903411</v>
+        <v>1062.76</v>
       </c>
       <c r="K147" t="n">
-        <v>1065.405467868189</v>
+        <v>1065.864137118405</v>
       </c>
       <c r="L147" t="n">
-        <v>1064.810101121156</v>
+        <v>1065.080083229223</v>
       </c>
       <c r="M147" t="n">
-        <v>1063.638540445842</v>
+        <v>1063.749276642477</v>
       </c>
     </row>
     <row r="148">
@@ -6628,25 +6628,25 @@
         <v>127.48</v>
       </c>
       <c r="G148" t="n">
-        <v>-11.84021821328952</v>
+        <v>-6.240037308717547</v>
       </c>
       <c r="H148" t="n">
         <v>1063.27</v>
       </c>
       <c r="I148" t="n">
-        <v>1075.110218213289</v>
+        <v>1069.510037308718</v>
       </c>
       <c r="J148" t="n">
-        <v>1069.70025230192</v>
+        <v>1063.27</v>
       </c>
       <c r="K148" t="n">
-        <v>1065.840483154879</v>
+        <v>1066.293682222861</v>
       </c>
       <c r="L148" t="n">
-        <v>1065.253919645774</v>
+        <v>1065.52049324384</v>
       </c>
       <c r="M148" t="n">
-        <v>1064.125563110716</v>
+        <v>1064.235861842016</v>
       </c>
     </row>
     <row r="149">
@@ -6660,25 +6660,25 @@
         <v>127.38</v>
       </c>
       <c r="G149" t="n">
-        <v>-11.45526353588639</v>
+        <v>-6.073589650376334</v>
       </c>
       <c r="H149" t="n">
         <v>1027.38</v>
       </c>
       <c r="I149" t="n">
-        <v>1038.835263535886</v>
+        <v>1033.453589650376</v>
       </c>
       <c r="J149" t="n">
-        <v>1033.582624852667</v>
+        <v>1027.38</v>
       </c>
       <c r="K149" t="n">
-        <v>1029.878469853482</v>
+        <v>1030.326322175255</v>
       </c>
       <c r="L149" t="n">
-        <v>1029.300747523641</v>
+        <v>1029.563997283877</v>
       </c>
       <c r="M149" t="n">
-        <v>1028.213421306097</v>
+        <v>1028.323270191244</v>
       </c>
     </row>
     <row r="150">
@@ -6692,25 +6692,25 @@
         <v>127.28</v>
       </c>
       <c r="G150" t="n">
-        <v>-11.0881549296189</v>
+        <v>-5.913777465108979</v>
       </c>
       <c r="H150" t="n">
         <v>1029.99</v>
       </c>
       <c r="I150" t="n">
-        <v>1041.078154929619</v>
+        <v>1035.903777465109</v>
       </c>
       <c r="J150" t="n">
-        <v>1035.976397655254</v>
+        <v>1029.99</v>
       </c>
       <c r="K150" t="n">
-        <v>1032.419274950308</v>
+        <v>1032.861899906973</v>
       </c>
       <c r="L150" t="n">
-        <v>1031.850406735704</v>
+        <v>1032.110414076959</v>
       </c>
       <c r="M150" t="n">
-        <v>1030.802075588353</v>
+        <v>1030.911463481177</v>
       </c>
     </row>
     <row r="151">
@@ -6724,25 +6724,25 @@
         <v>127.18</v>
       </c>
       <c r="G151" t="n">
-        <v>-10.73780369665064</v>
+        <v>-5.760249381084577</v>
       </c>
       <c r="H151" t="n">
         <v>1056.85</v>
       </c>
       <c r="I151" t="n">
-        <v>1067.587803696651</v>
+        <v>1062.610249381084</v>
       </c>
       <c r="J151" t="n">
-        <v>1062.630827559414</v>
+        <v>1056.85</v>
       </c>
       <c r="K151" t="n">
-        <v>1059.21275512288</v>
+        <v>1059.650268210241</v>
       </c>
       <c r="L151" t="n">
-        <v>1058.652732210011</v>
+        <v>1058.909575472397</v>
       </c>
       <c r="M151" t="n">
-        <v>1057.641488804345</v>
+        <v>1057.750405698446</v>
       </c>
     </row>
     <row r="152">
@@ -6756,25 +6756,25 @@
         <v>127.08</v>
       </c>
       <c r="G152" t="n">
-        <v>-10.40320360640862</v>
+        <v>-5.612677192707224</v>
       </c>
       <c r="H152" t="n">
         <v>1036.88</v>
       </c>
       <c r="I152" t="n">
-        <v>1047.283203606409</v>
+        <v>1042.492677192707</v>
       </c>
       <c r="J152" t="n">
-        <v>1042.465230952052</v>
+        <v>1036.88</v>
       </c>
       <c r="K152" t="n">
-        <v>1039.178776013044</v>
+        <v>1039.611289002896</v>
       </c>
       <c r="L152" t="n">
-        <v>1038.627570707471</v>
+        <v>1038.881325314463</v>
       </c>
       <c r="M152" t="n">
-        <v>1037.651625933843</v>
+        <v>1037.760062875348</v>
       </c>
     </row>
     <row r="153">
@@ -6788,25 +6788,25 @@
         <v>126.98</v>
       </c>
       <c r="G153" t="n">
-        <v>-10.08342344196262</v>
+        <v>-5.470754035439086</v>
       </c>
       <c r="H153" t="n">
         <v>1070.09</v>
       </c>
       <c r="I153" t="n">
-        <v>1080.173423441963</v>
+        <v>1075.560754035439</v>
       </c>
       <c r="J153" t="n">
-        <v>1075.488978116539</v>
+        <v>1070.09</v>
       </c>
       <c r="K153" t="n">
-        <v>1072.327211562921</v>
+        <v>1072.754832656457</v>
       </c>
       <c r="L153" t="n">
-        <v>1071.784779818053</v>
+        <v>1072.035518427263</v>
       </c>
       <c r="M153" t="n">
-        <v>1070.842453944448</v>
+        <v>1070.950402951719</v>
       </c>
     </row>
     <row r="154">
@@ -6820,25 +6820,25 @@
         <v>126.88</v>
       </c>
       <c r="G154" t="n">
-        <v>-9.777600327679693</v>
+        <v>-5.334192727637401</v>
       </c>
       <c r="H154" t="n">
         <v>1106.96</v>
       </c>
       <c r="I154" t="n">
-        <v>1116.73760032768</v>
+        <v>1112.294192727637</v>
       </c>
       <c r="J154" t="n">
-        <v>1112.181488207103</v>
+        <v>1106.96</v>
       </c>
       <c r="K154" t="n">
-        <v>1109.137943407595</v>
+        <v>1109.560777381332</v>
       </c>
       <c r="L154" t="n">
-        <v>1108.604227055083</v>
+        <v>1108.852019698705</v>
       </c>
       <c r="M154" t="n">
-        <v>1107.6939416579</v>
+        <v>1107.801395647601</v>
       </c>
     </row>
     <row r="155">
@@ -6852,25 +6852,25 @@
         <v>126.78</v>
       </c>
       <c r="G155" t="n">
-        <v>-9.484933745173066</v>
+        <v>-5.202724262027459</v>
       </c>
       <c r="H155" t="n">
         <v>1057.51</v>
       </c>
       <c r="I155" t="n">
-        <v>1066.994933745173</v>
+        <v>1062.712724262027</v>
       </c>
       <c r="J155" t="n">
-        <v>1062.562224762618</v>
+        <v>1057.51</v>
       </c>
       <c r="K155" t="n">
-        <v>1059.630860319014</v>
+        <v>1060.049008663673</v>
       </c>
       <c r="L155" t="n">
-        <v>1059.105789036789</v>
+        <v>1059.350703252633</v>
       </c>
       <c r="M155" t="n">
-        <v>1058.226059626752</v>
+        <v>1058.333012345721</v>
       </c>
     </row>
     <row r="156">
@@ -6884,25 +6884,25 @@
         <v>126.68</v>
       </c>
       <c r="G156" t="n">
-        <v>-9.20468015693541</v>
+        <v>-5.076096431447013</v>
       </c>
       <c r="H156" t="n">
         <v>1031.32</v>
       </c>
       <c r="I156" t="n">
-        <v>1040.524680156935</v>
+        <v>1036.396096431447</v>
       </c>
       <c r="J156" t="n">
-        <v>1036.210691694517</v>
+        <v>1031.32</v>
       </c>
       <c r="K156" t="n">
-        <v>1033.385857696266</v>
+        <v>1033.799418748952</v>
       </c>
       <c r="L156" t="n">
-        <v>1032.869350745636</v>
+        <v>1033.111451699549</v>
       </c>
       <c r="M156" t="n">
-        <v>1032.018780020516</v>
+        <v>1032.125225982946</v>
       </c>
     </row>
     <row r="157">
@@ -6916,25 +6916,25 @@
         <v>126.58</v>
       </c>
       <c r="G157" t="n">
-        <v>-8.936148167582814</v>
+        <v>-4.954072575275859</v>
       </c>
       <c r="H157" t="n">
         <v>1109.28</v>
       </c>
       <c r="I157" t="n">
-        <v>1118.216148167583</v>
+        <v>1114.234072575276</v>
       </c>
       <c r="J157" t="n">
-        <v>1114.016429692244</v>
+        <v>1109.28</v>
       </c>
       <c r="K157" t="n">
-        <v>1111.292837097817</v>
+        <v>1111.701906167888</v>
       </c>
       <c r="L157" t="n">
-        <v>1110.784804857075</v>
+        <v>1111.024155457466</v>
       </c>
       <c r="M157" t="n">
-        <v>1109.962076520446</v>
+        <v>1110.068010949921</v>
       </c>
     </row>
     <row r="158">
@@ -6948,25 +6948,25 @@
         <v>126.48</v>
       </c>
       <c r="G158" t="n">
-        <v>-8.678694161669</v>
+        <v>-4.836430434490239</v>
       </c>
       <c r="H158" t="n">
         <v>1068.33</v>
       </c>
       <c r="I158" t="n">
-        <v>1077.008694161669</v>
+        <v>1073.16643043449</v>
       </c>
       <c r="J158" t="n">
-        <v>1072.919012997238</v>
+        <v>1068.33</v>
       </c>
       <c r="K158" t="n">
-        <v>1070.291705811848</v>
+        <v>1070.696375300783</v>
       </c>
       <c r="L158" t="n">
-        <v>1069.792051130366</v>
+        <v>1070.028712135496</v>
       </c>
       <c r="M158" t="n">
-        <v>1068.995924222217</v>
+        <v>1069.101342998211</v>
       </c>
     </row>
     <row r="159">
@@ -6980,25 +6980,25 @@
         <v>126.38</v>
       </c>
       <c r="G159" t="n">
-        <v>-8.43171836476381</v>
+        <v>-4.722961104641854</v>
       </c>
       <c r="H159" t="n">
         <v>1067.61</v>
       </c>
       <c r="I159" t="n">
-        <v>1076.041718364764</v>
+        <v>1072.332961104642</v>
       </c>
       <c r="J159" t="n">
-        <v>1072.058046502784</v>
+        <v>1067.61</v>
       </c>
       <c r="K159" t="n">
-        <v>1069.522376461139</v>
+        <v>1069.922735976756</v>
       </c>
       <c r="L159" t="n">
-        <v>1069.030995854998</v>
+        <v>1069.265025973598</v>
       </c>
       <c r="M159" t="n">
-        <v>1068.260299545842</v>
+        <v>1068.365199154288</v>
       </c>
     </row>
     <row r="160">
@@ -7012,25 +7012,25 @@
         <v>126.28</v>
       </c>
       <c r="G160" t="n">
-        <v>-8.194661281157778</v>
+        <v>-4.613468077234302</v>
       </c>
       <c r="H160" t="n">
         <v>1066.1</v>
       </c>
       <c r="I160" t="n">
-        <v>1074.294661281158</v>
+        <v>1070.713468077234</v>
       </c>
       <c r="J160" t="n">
-        <v>1070.413163142583</v>
+        <v>1066.1</v>
       </c>
       <c r="K160" t="n">
-        <v>1067.964766639401</v>
+        <v>1068.360903104696</v>
       </c>
       <c r="L160" t="n">
-        <v>1067.481551346968</v>
+        <v>1067.713007332724</v>
       </c>
       <c r="M160" t="n">
-        <v>1066.735180152205</v>
+        <v>1066.839557639814</v>
       </c>
     </row>
     <row r="161">
@@ -7044,25 +7044,25 @@
         <v>126.18</v>
       </c>
       <c r="G161" t="n">
-        <v>-7.967000467294611</v>
+        <v>-4.507766361006816</v>
       </c>
       <c r="H161" t="n">
         <v>1105</v>
       </c>
       <c r="I161" t="n">
-        <v>1112.967000467295</v>
+        <v>1109.507766361007</v>
       </c>
       <c r="J161" t="n">
-        <v>1109.184021535596</v>
+        <v>1105</v>
       </c>
       <c r="K161" t="n">
-        <v>1106.818798576195</v>
+        <v>1107.210796333111</v>
       </c>
       <c r="L161" t="n">
-        <v>1106.343635489843</v>
+        <v>1106.572572230214</v>
       </c>
       <c r="M161" t="n">
-        <v>1105.620544865661</v>
+        <v>1105.724397797682</v>
       </c>
     </row>
     <row r="162">
@@ -7076,25 +7076,25 @@
         <v>126.08</v>
       </c>
       <c r="G162" t="n">
-        <v>-7.748247604989729</v>
+        <v>-4.405681675551705</v>
       </c>
       <c r="H162" t="n">
         <v>1070.67</v>
       </c>
       <c r="I162" t="n">
-        <v>1078.41824760499</v>
+        <v>1075.075681675552</v>
       </c>
       <c r="J162" t="n">
-        <v>1074.730303858754</v>
+        <v>1070.67</v>
       </c>
       <c r="K162" t="n">
-        <v>1072.444398827906</v>
+        <v>1072.83233973629</v>
       </c>
       <c r="L162" t="n">
-        <v>1071.97717131611</v>
+        <v>1072.203641915909</v>
       </c>
       <c r="M162" t="n">
-        <v>1071.27637360222</v>
+        <v>1071.379700023353</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/UKSAF/LaSrTiO3.xlsx
+++ b/DATA/UKSAF/LaSrTiO3.xlsx
@@ -766,7 +766,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5600700" cy="4086225"/>
+    <ext cx="5505450" cy="4086225"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -1354,7 +1354,7 @@
 (CPS)</t>
         </is>
       </c>
-      <c r="AP1" s="35" t="inlineStr">
+      <c r="AP1" s="32" t="inlineStr">
         <is>
           <t>Bkg Offset High
 (CPS)</t>
@@ -1372,25 +1372,25 @@
         <v>142.08</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.243752836115618</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1321.18</v>
       </c>
       <c r="I2" t="n">
-        <v>1328.423752836116</v>
+        <v>1321.18</v>
       </c>
       <c r="J2" t="n">
         <v>1321.18</v>
       </c>
       <c r="K2" t="n">
-        <v>1324.99400145259</v>
+        <v>1321.18</v>
       </c>
       <c r="L2" t="n">
-        <v>1322.776647790008</v>
+        <v>1321.18</v>
       </c>
       <c r="M2" t="n">
-        <v>1323.013103593518</v>
+        <v>1321.18</v>
       </c>
       <c r="X2" s="36" t="inlineStr">
         <is>
@@ -1404,87 +1404,79 @@
       </c>
       <c r="Z2" s="37" t="inlineStr">
         <is>
-          <t>133.44</t>
+          <t>133.51</t>
         </is>
       </c>
       <c r="AA2" s="37" t="inlineStr">
         <is>
-          <t>4827</t>
+          <t>3828</t>
         </is>
       </c>
       <c r="AB2" s="37" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="AC2" s="37" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>16.51</t>
         </is>
       </c>
       <c r="AD2" s="37" t="inlineStr">
         <is>
-          <t>4628</t>
-        </is>
-      </c>
-      <c r="AE2" s="37" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="AF2" s="37" t="inlineStr">
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="AE2" s="37" t="inlineStr"/>
+      <c r="AF2" s="37" t="inlineStr"/>
+      <c r="AG2" s="37" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="AG2" s="37" t="inlineStr">
+      <c r="AH2" s="37" t="inlineStr">
+        <is>
+          <t>47.3</t>
+        </is>
+      </c>
+      <c r="AI2" s="37" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="AJ2" s="37" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="AH2" s="37" t="inlineStr">
-        <is>
-          <t>41.8</t>
-        </is>
-      </c>
-      <c r="AI2" s="37" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="AJ2" s="37" t="inlineStr">
+      <c r="AK2" s="37" t="inlineStr">
+        <is>
+          <t>GL (Area)</t>
+        </is>
+      </c>
+      <c r="AL2" s="37" t="inlineStr">
+        <is>
+          <t>Multi-Regions Smart</t>
+        </is>
+      </c>
+      <c r="AM2" s="37" t="inlineStr">
+        <is>
+          <t>126.08</t>
+        </is>
+      </c>
+      <c r="AN2" s="37" t="inlineStr">
+        <is>
+          <t>142.08</t>
+        </is>
+      </c>
+      <c r="AO2" s="37" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="AK2" s="37" t="inlineStr">
-        <is>
-          <t>Voigt (Area, L/G, σ)</t>
-        </is>
-      </c>
-      <c r="AL2" s="37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM2" s="37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN2" s="37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO2" s="37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -1499,25 +1491,25 @@
         <v>141.98</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.461313730476377</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1369.78</v>
       </c>
       <c r="I3" t="n">
-        <v>1377.241313730476</v>
+        <v>1369.78</v>
       </c>
       <c r="J3" t="n">
         <v>1369.78</v>
       </c>
       <c r="K3" t="n">
-        <v>1373.708368946269</v>
+        <v>1369.78</v>
       </c>
       <c r="L3" t="n">
-        <v>1371.41802323972</v>
+        <v>1369.78</v>
       </c>
       <c r="M3" t="n">
-        <v>1371.674921544487</v>
+        <v>1369.78</v>
       </c>
       <c r="X3" s="39" t="inlineStr"/>
       <c r="Y3" s="40" t="inlineStr"/>
@@ -1533,12 +1525,12 @@
       </c>
       <c r="AB3" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.3:3.5</t>
         </is>
       </c>
       <c r="AC3" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2:80</t>
         </is>
       </c>
       <c r="AD3" s="40" t="inlineStr">
@@ -1546,16 +1538,8 @@
           <t>1:1e7</t>
         </is>
       </c>
-      <c r="AE3" s="40" t="inlineStr">
-        <is>
-          <t>0.2:1.5</t>
-        </is>
-      </c>
-      <c r="AF3" s="40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="AE3" s="40" t="inlineStr"/>
+      <c r="AF3" s="40" t="inlineStr"/>
       <c r="AG3" s="40" t="inlineStr">
         <is>
           <t>0</t>
@@ -1569,7 +1553,6 @@
       <c r="AM3" s="40" t="inlineStr"/>
       <c r="AN3" s="40" t="inlineStr"/>
       <c r="AO3" s="40" t="inlineStr"/>
-      <c r="AP3" s="41" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1582,25 +1565,25 @@
         <v>141.88</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.688941063506036</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1356.16</v>
       </c>
       <c r="I4" t="n">
-        <v>1363.848941063506</v>
+        <v>1356.16</v>
       </c>
       <c r="J4" t="n">
         <v>1356.16</v>
       </c>
       <c r="K4" t="n">
-        <v>1360.207975626232</v>
+        <v>1356.16</v>
       </c>
       <c r="L4" t="n">
-        <v>1357.84103196323</v>
+        <v>1356.16</v>
       </c>
       <c r="M4" t="n">
-        <v>1358.119933474045</v>
+        <v>1356.16</v>
       </c>
       <c r="X4" s="36" t="inlineStr">
         <is>
@@ -1614,39 +1597,31 @@
       </c>
       <c r="Z4" s="37" t="inlineStr">
         <is>
-          <t>135.20</t>
+          <t>135.31</t>
         </is>
       </c>
       <c r="AA4" s="37" t="inlineStr">
         <is>
-          <t>2502</t>
+          <t>2625</t>
         </is>
       </c>
       <c r="AB4" s="37" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="AC4" s="37" t="inlineStr">
         <is>
-          <t>27.65</t>
+          <t>16.51</t>
         </is>
       </c>
       <c r="AD4" s="37" t="inlineStr">
         <is>
-          <t>3318</t>
-        </is>
-      </c>
-      <c r="AE4" s="37" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="AF4" s="37" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
+          <t>3437</t>
+        </is>
+      </c>
+      <c r="AE4" s="37" t="inlineStr"/>
+      <c r="AF4" s="37" t="inlineStr"/>
       <c r="AG4" s="37" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -1654,47 +1629,47 @@
       </c>
       <c r="AH4" s="37" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>32.5</t>
         </is>
       </c>
       <c r="AI4" s="37" t="inlineStr">
         <is>
-          <t>71.7</t>
+          <t>68.6</t>
         </is>
       </c>
       <c r="AJ4" s="37" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="AK4" s="37" t="inlineStr">
         <is>
-          <t>Voigt (Area, L/G, σ)</t>
+          <t>GL (Area)</t>
         </is>
       </c>
       <c r="AL4" s="37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Multi-Regions Smart</t>
         </is>
       </c>
       <c r="AM4" s="37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>126.08</t>
         </is>
       </c>
       <c r="AN4" s="37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>142.08</t>
         </is>
       </c>
       <c r="AO4" s="37" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -1709,25 +1684,25 @@
         <v>141.78</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.927273085836077</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1341.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1349.427273085836</v>
+        <v>1341.5</v>
       </c>
       <c r="J5" t="n">
         <v>1341.5</v>
       </c>
       <c r="K5" t="n">
-        <v>1345.673147548179</v>
+        <v>1341.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1343.225761283653</v>
+        <v>1341.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1343.528364254004</v>
+        <v>1341.5</v>
       </c>
       <c r="X5" s="39" t="inlineStr"/>
       <c r="Y5" s="40" t="inlineStr"/>
@@ -1738,12 +1713,12 @@
       </c>
       <c r="AA5" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A*0.667#0.05</t>
         </is>
       </c>
       <c r="AB5" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A*1</t>
         </is>
       </c>
       <c r="AC5" s="40" t="inlineStr">
@@ -1756,19 +1731,11 @@
           <t>A*0.667#0.05</t>
         </is>
       </c>
-      <c r="AE5" s="40" t="inlineStr">
+      <c r="AE5" s="40" t="inlineStr"/>
+      <c r="AF5" s="40" t="inlineStr"/>
+      <c r="AG5" s="40" t="inlineStr">
         <is>
           <t>A*1</t>
-        </is>
-      </c>
-      <c r="AF5" s="40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" s="40" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AH5" s="40" t="inlineStr"/>
@@ -1779,7 +1746,6 @@
       <c r="AM5" s="40" t="inlineStr"/>
       <c r="AN5" s="40" t="inlineStr"/>
       <c r="AO5" s="40" t="inlineStr"/>
-      <c r="AP5" s="41" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1792,25 +1758,25 @@
         <v>141.68</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.177000070777922</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1332.29</v>
       </c>
       <c r="I6" t="n">
-        <v>1340.467000070778</v>
+        <v>1332.29</v>
       </c>
       <c r="J6" t="n">
         <v>1332.29</v>
       </c>
       <c r="K6" t="n">
-        <v>1336.594236622932</v>
+        <v>1332.29</v>
       </c>
       <c r="L6" t="n">
-        <v>1334.062304454094</v>
+        <v>1332.29</v>
       </c>
       <c r="M6" t="n">
-        <v>1334.390458993752</v>
+        <v>1332.29</v>
       </c>
       <c r="X6" s="36" t="inlineStr">
         <is>
@@ -1824,39 +1790,31 @@
       </c>
       <c r="Z6" s="37" t="inlineStr">
         <is>
-          <t>134.16</t>
+          <t>134.47</t>
         </is>
       </c>
       <c r="AA6" s="37" t="inlineStr">
         <is>
-          <t>1391</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="AB6" s="37" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="AC6" s="37" t="inlineStr">
         <is>
-          <t>27.65</t>
+          <t>16.51</t>
         </is>
       </c>
       <c r="AD6" s="37" t="inlineStr">
         <is>
-          <t>1845</t>
-        </is>
-      </c>
-      <c r="AE6" s="37" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="AF6" s="37" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
+          <t>1323</t>
+        </is>
+      </c>
+      <c r="AE6" s="37" t="inlineStr"/>
+      <c r="AF6" s="37" t="inlineStr"/>
       <c r="AG6" s="37" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -1864,47 +1822,47 @@
       </c>
       <c r="AH6" s="37" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AI6" s="37" t="inlineStr">
         <is>
-          <t>39.9</t>
+          <t>26.4</t>
         </is>
       </c>
       <c r="AJ6" s="37" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AK6" s="37" t="inlineStr">
         <is>
-          <t>Voigt (Area, L/G, σ)</t>
+          <t>GL (Area)</t>
         </is>
       </c>
       <c r="AL6" s="37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Multi-Regions Smart</t>
         </is>
       </c>
       <c r="AM6" s="37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>126.08</t>
         </is>
       </c>
       <c r="AN6" s="37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>142.08</t>
         </is>
       </c>
       <c r="AO6" s="37" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -1919,31 +1877,31 @@
         <v>141.58</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.438869550904428</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>1338.15</v>
       </c>
       <c r="I7" t="n">
-        <v>1346.588869550905</v>
+        <v>1338.15</v>
       </c>
       <c r="J7" t="n">
         <v>1338.15</v>
       </c>
       <c r="K7" t="n">
-        <v>1342.591623125417</v>
+        <v>1338.15</v>
       </c>
       <c r="L7" t="n">
-        <v>1339.970761148816</v>
+        <v>1338.15</v>
       </c>
       <c r="M7" t="n">
-        <v>1340.326485276671</v>
+        <v>1338.15</v>
       </c>
       <c r="X7" s="39" t="inlineStr"/>
       <c r="Y7" s="40" t="inlineStr"/>
       <c r="Z7" s="40" t="inlineStr">
         <is>
-          <t>126.08,142.08</t>
+          <t>A+1.05#0.1</t>
         </is>
       </c>
       <c r="AA7" s="40" t="inlineStr">
@@ -1953,7 +1911,7 @@
       </c>
       <c r="AB7" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A*1</t>
         </is>
       </c>
       <c r="AC7" s="40" t="inlineStr">
@@ -1966,16 +1924,8 @@
           <t>1:1e7</t>
         </is>
       </c>
-      <c r="AE7" s="40" t="inlineStr">
-        <is>
-          <t>A*1</t>
-        </is>
-      </c>
-      <c r="AF7" s="40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="AE7" s="40" t="inlineStr"/>
+      <c r="AF7" s="40" t="inlineStr"/>
       <c r="AG7" s="40" t="inlineStr">
         <is>
           <t>0</t>
@@ -1989,7 +1939,6 @@
       <c r="AM7" s="40" t="inlineStr"/>
       <c r="AN7" s="40" t="inlineStr"/>
       <c r="AO7" s="40" t="inlineStr"/>
-      <c r="AP7" s="41" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2002,25 +1951,25 @@
         <v>141.48</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.713692187955758</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>1335.29</v>
       </c>
       <c r="I8" t="n">
-        <v>1344.003692187956</v>
+        <v>1335.29</v>
       </c>
       <c r="J8" t="n">
         <v>1335.29</v>
       </c>
       <c r="K8" t="n">
-        <v>1339.875718493465</v>
+        <v>1335.29</v>
       </c>
       <c r="L8" t="n">
-        <v>1337.161238002679</v>
+        <v>1335.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1337.546735691811</v>
+        <v>1335.29</v>
       </c>
       <c r="X8" s="36" t="inlineStr">
         <is>
@@ -2034,39 +1983,31 @@
       </c>
       <c r="Z8" s="37" t="inlineStr">
         <is>
-          <t>135.93</t>
+          <t>136.23</t>
         </is>
       </c>
       <c r="AA8" s="37" t="inlineStr">
         <is>
-          <t>951</t>
+          <t>623</t>
         </is>
       </c>
       <c r="AB8" s="37" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="AC8" s="37" t="inlineStr">
         <is>
-          <t>27.30</t>
+          <t>16.51</t>
         </is>
       </c>
       <c r="AD8" s="37" t="inlineStr">
         <is>
-          <t>1268</t>
-        </is>
-      </c>
-      <c r="AE8" s="37" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="AF8" s="37" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="AE8" s="37" t="inlineStr"/>
+      <c r="AF8" s="37" t="inlineStr"/>
       <c r="AG8" s="37" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2074,47 +2015,47 @@
       </c>
       <c r="AH8" s="37" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="AI8" s="37" t="inlineStr">
         <is>
-          <t>27.4</t>
+          <t>16.3</t>
         </is>
       </c>
       <c r="AJ8" s="37" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="AK8" s="37" t="inlineStr">
         <is>
-          <t>Voigt (Area, L/G, σ)</t>
+          <t>GL (Area)</t>
         </is>
       </c>
       <c r="AL8" s="37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Multi-Regions Smart</t>
         </is>
       </c>
       <c r="AM8" s="37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>126.08</t>
         </is>
       </c>
       <c r="AN8" s="37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>142.08</t>
         </is>
       </c>
       <c r="AO8" s="37" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP8" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -2129,25 +2070,25 @@
         <v>141.38</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.002348366278056</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>1341.58</v>
       </c>
       <c r="I9" t="n">
-        <v>1350.582348366278</v>
+        <v>1341.58</v>
       </c>
       <c r="J9" t="n">
         <v>1341.58</v>
       </c>
       <c r="K9" t="n">
-        <v>1346.31696845548</v>
+        <v>1341.58</v>
       </c>
       <c r="L9" t="n">
-        <v>1343.50384920435</v>
+        <v>1341.58</v>
       </c>
       <c r="M9" t="n">
-        <v>1343.921530706447</v>
+        <v>1341.58</v>
       </c>
       <c r="X9" s="39" t="inlineStr"/>
       <c r="Y9" s="40" t="inlineStr"/>
@@ -2158,12 +2099,12 @@
       </c>
       <c r="AA9" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C*0.667#0.05</t>
         </is>
       </c>
       <c r="AB9" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C*1</t>
         </is>
       </c>
       <c r="AC9" s="40" t="inlineStr">
@@ -2176,19 +2117,11 @@
           <t>C*0.667#0.05</t>
         </is>
       </c>
-      <c r="AE9" s="40" t="inlineStr">
+      <c r="AE9" s="40" t="inlineStr"/>
+      <c r="AF9" s="40" t="inlineStr"/>
+      <c r="AG9" s="40" t="inlineStr">
         <is>
           <t>C*1</t>
-        </is>
-      </c>
-      <c r="AF9" s="40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" s="40" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AH9" s="40" t="inlineStr"/>
@@ -2199,7 +2132,6 @@
       <c r="AM9" s="40" t="inlineStr"/>
       <c r="AN9" s="40" t="inlineStr"/>
       <c r="AO9" s="40" t="inlineStr"/>
-      <c r="AP9" s="41" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2212,25 +2144,25 @@
         <v>141.28</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.305795614924591</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>1349.18</v>
       </c>
       <c r="I10" t="n">
-        <v>1358.485795614925</v>
+        <v>1349.18</v>
       </c>
       <c r="J10" t="n">
         <v>1349.18</v>
       </c>
       <c r="K10" t="n">
-        <v>1354.075856532081</v>
+        <v>1349.18</v>
       </c>
       <c r="L10" t="n">
-        <v>1351.158717149513</v>
+        <v>1349.18</v>
       </c>
       <c r="M10" t="n">
-        <v>1351.611221933331</v>
+        <v>1349.18</v>
       </c>
     </row>
     <row r="11">
@@ -2244,25 +2176,25 @@
         <v>141.18</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.625076981280927</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>1344.67</v>
       </c>
       <c r="I11" t="n">
-        <v>1354.295076981281</v>
+        <v>1344.67</v>
       </c>
       <c r="J11" t="n">
         <v>1344.67</v>
       </c>
       <c r="K11" t="n">
-        <v>1349.732907963932</v>
+        <v>1344.67</v>
       </c>
       <c r="L11" t="n">
-        <v>1346.705973161142</v>
+        <v>1344.67</v>
       </c>
       <c r="M11" t="n">
-        <v>1347.196195856208</v>
+        <v>1344.67</v>
       </c>
     </row>
     <row r="12">
@@ -2276,25 +2208,25 @@
         <v>141.08</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.961330500243093</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>1336.42</v>
       </c>
       <c r="I12" t="n">
-        <v>1346.381330500243</v>
+        <v>1336.42</v>
       </c>
       <c r="J12" t="n">
         <v>1336.42</v>
       </c>
       <c r="K12" t="n">
-        <v>1341.658694126356</v>
+        <v>1336.42</v>
       </c>
       <c r="L12" t="n">
-        <v>1338.515758284855</v>
+        <v>1336.42</v>
       </c>
       <c r="M12" t="n">
-        <v>1339.046878089032</v>
+        <v>1336.42</v>
       </c>
     </row>
     <row r="13">
@@ -2308,25 +2240,25 @@
         <v>140.98</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.31579992834781</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>1281.16</v>
       </c>
       <c r="I13" t="n">
-        <v>1291.475799928348</v>
+        <v>1281.16</v>
       </c>
       <c r="J13" t="n">
         <v>1281.16</v>
       </c>
       <c r="K13" t="n">
-        <v>1286.583837501245</v>
+        <v>1281.16</v>
       </c>
       <c r="L13" t="n">
-        <v>1283.318224168442</v>
+        <v>1281.16</v>
       </c>
       <c r="M13" t="n">
-        <v>1283.89373825866</v>
+        <v>1281.16</v>
       </c>
     </row>
     <row r="14">
@@ -2340,25 +2272,25 @@
         <v>140.88</v>
       </c>
       <c r="G14" t="n">
-        <v>-10.68984694274877</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H14" t="n">
         <v>1323.55</v>
       </c>
       <c r="I14" t="n">
-        <v>1334.239846942749</v>
+        <v>1323.55</v>
       </c>
       <c r="J14" t="n">
         <v>1323.55</v>
       </c>
       <c r="K14" t="n">
-        <v>1329.169017288539</v>
+        <v>1323.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1325.77353403595</v>
+        <v>1323.55</v>
       </c>
       <c r="M14" t="n">
-        <v>1326.397295618259</v>
+        <v>1323.55</v>
       </c>
     </row>
     <row r="15">
@@ -2372,25 +2304,25 @@
         <v>140.78</v>
       </c>
       <c r="G15" t="n">
-        <v>-11.08496504175423</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H15" t="n">
         <v>1322.81</v>
       </c>
       <c r="I15" t="n">
-        <v>1333.894965041754</v>
+        <v>1322.810000000001</v>
       </c>
       <c r="J15" t="n">
         <v>1322.81</v>
       </c>
       <c r="K15" t="n">
-        <v>1328.634975753533</v>
+        <v>1322.81</v>
       </c>
       <c r="L15" t="n">
-        <v>1325.10186376816</v>
+        <v>1322.81</v>
       </c>
       <c r="M15" t="n">
-        <v>1325.778125520061</v>
+        <v>1322.810000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2404,25 +2336,25 @@
         <v>140.68</v>
       </c>
       <c r="G16" t="n">
-        <v>-11.50279542827866</v>
+        <v>-4.547473508864641e-12</v>
       </c>
       <c r="H16" t="n">
         <v>1352.14</v>
       </c>
       <c r="I16" t="n">
-        <v>1363.642795428279</v>
+        <v>1352.140000000005</v>
       </c>
       <c r="J16" t="n">
         <v>1352.14</v>
       </c>
       <c r="K16" t="n">
-        <v>1358.182525422982</v>
+        <v>1352.14</v>
       </c>
       <c r="L16" t="n">
-        <v>1354.503403102994</v>
+        <v>1352.14</v>
       </c>
       <c r="M16" t="n">
-        <v>1355.236866902303</v>
+        <v>1352.140000000005</v>
       </c>
     </row>
     <row r="17">
@@ -2436,25 +2368,25 @@
         <v>140.58</v>
       </c>
       <c r="G17" t="n">
-        <v>-11.94514521190581</v>
+        <v>-1.796252036001533e-11</v>
       </c>
       <c r="H17" t="n">
         <v>1304.84</v>
       </c>
       <c r="I17" t="n">
-        <v>1316.785145211906</v>
+        <v>1304.840000000018</v>
       </c>
       <c r="J17" t="n">
         <v>1304.84</v>
       </c>
       <c r="K17" t="n">
-        <v>1311.112557262954</v>
+        <v>1304.84</v>
       </c>
       <c r="L17" t="n">
-        <v>1307.278356971376</v>
+        <v>1304.84</v>
       </c>
       <c r="M17" t="n">
-        <v>1308.074230977576</v>
+        <v>1304.840000000018</v>
       </c>
     </row>
     <row r="18">
@@ -2468,25 +2400,25 @@
         <v>140.48</v>
       </c>
       <c r="G18" t="n">
-        <v>-12.41400833174885</v>
+        <v>-6.980371836107224e-11</v>
       </c>
       <c r="H18" t="n">
         <v>1296.85</v>
       </c>
       <c r="I18" t="n">
-        <v>1309.264008331749</v>
+        <v>1296.85000000007</v>
       </c>
       <c r="J18" t="n">
         <v>1296.85</v>
       </c>
       <c r="K18" t="n">
-        <v>1303.366049995442</v>
+        <v>1296.85</v>
       </c>
       <c r="L18" t="n">
-        <v>1299.366946986351</v>
+        <v>1296.85</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.231011349956</v>
+        <v>1296.85000000007</v>
       </c>
     </row>
     <row r="19">
@@ -2500,25 +2432,25 @@
         <v>140.38</v>
       </c>
       <c r="G19" t="n">
-        <v>-12.91158968397554</v>
+        <v>-2.630713424878195e-10</v>
       </c>
       <c r="H19" t="n">
         <v>1297.71</v>
       </c>
       <c r="I19" t="n">
-        <v>1310.621589683976</v>
+        <v>1297.710000000263</v>
       </c>
       <c r="J19" t="n">
         <v>1297.71</v>
       </c>
       <c r="K19" t="n">
-        <v>1304.484080739717</v>
+        <v>1297.71</v>
       </c>
       <c r="L19" t="n">
-        <v>1300.309413105986</v>
+        <v>1297.71</v>
       </c>
       <c r="M19" t="n">
-        <v>1301.248095838272</v>
+        <v>1297.710000000263</v>
       </c>
     </row>
     <row r="20">
@@ -2532,25 +2464,25 @@
         <v>140.28</v>
       </c>
       <c r="G20" t="n">
-        <v>-13.44033303882861</v>
+        <v>-9.627001418266445e-10</v>
       </c>
       <c r="H20" t="n">
         <v>1346.66</v>
       </c>
       <c r="I20" t="n">
-        <v>1360.100333038829</v>
+        <v>1346.660000000963</v>
       </c>
       <c r="J20" t="n">
         <v>1346.66</v>
       </c>
       <c r="K20" t="n">
-        <v>1353.707837199531</v>
+        <v>1346.66</v>
       </c>
       <c r="L20" t="n">
-        <v>1349.346015493715</v>
+        <v>1346.66</v>
       </c>
       <c r="M20" t="n">
-        <v>1350.366480345582</v>
+        <v>1346.660000000963</v>
       </c>
     </row>
     <row r="21">
@@ -2564,25 +2496,25 @@
         <v>140.18</v>
       </c>
       <c r="G21" t="n">
-        <v>-14.00295345729751</v>
+        <v>-3.420836947043426e-09</v>
       </c>
       <c r="H21" t="n">
         <v>1293.78</v>
       </c>
       <c r="I21" t="n">
-        <v>1307.782953457297</v>
+        <v>1293.780000003421</v>
       </c>
       <c r="J21" t="n">
         <v>1293.78</v>
       </c>
       <c r="K21" t="n">
-        <v>1301.118631659933</v>
+        <v>1293.78</v>
       </c>
       <c r="L21" t="n">
-        <v>1296.557036603494</v>
+        <v>1293.78</v>
       </c>
       <c r="M21" t="n">
-        <v>1297.66728519387</v>
+        <v>1293.780000003419</v>
       </c>
     </row>
     <row r="22">
@@ -2596,25 +2528,25 @@
         <v>140.08</v>
       </c>
       <c r="G22" t="n">
-        <v>-14.60247507420263</v>
+        <v>-1.179773789772298e-08</v>
       </c>
       <c r="H22" t="n">
         <v>1294.58</v>
       </c>
       <c r="I22" t="n">
-        <v>1309.182475074203</v>
+        <v>1294.580000011798</v>
       </c>
       <c r="J22" t="n">
         <v>1294.58</v>
       </c>
       <c r="K22" t="n">
-        <v>1302.227917109585</v>
+        <v>1294.58</v>
       </c>
       <c r="L22" t="n">
-        <v>1297.452783521506</v>
+        <v>1294.58</v>
       </c>
       <c r="M22" t="n">
-        <v>1298.661774443111</v>
+        <v>1294.580000011793</v>
       </c>
     </row>
     <row r="23">
@@ -2628,25 +2560,25 @@
         <v>139.98</v>
       </c>
       <c r="G23" t="n">
-        <v>-15.24227531121528</v>
+        <v>-3.949548954551574e-08</v>
       </c>
       <c r="H23" t="n">
         <v>1282.76</v>
       </c>
       <c r="I23" t="n">
-        <v>1298.002275311215</v>
+        <v>1282.760000039495</v>
       </c>
       <c r="J23" t="n">
         <v>1282.76</v>
       </c>
       <c r="K23" t="n">
-        <v>1290.737305868315</v>
+        <v>1282.760000000001</v>
       </c>
       <c r="L23" t="n">
-        <v>1285.733590601283</v>
+        <v>1282.76</v>
       </c>
       <c r="M23" t="n">
-        <v>1287.051378841617</v>
+        <v>1282.76000003948</v>
       </c>
     </row>
     <row r="24">
@@ -2660,25 +2592,25 @@
         <v>139.88</v>
       </c>
       <c r="G24" t="n">
-        <v>-15.92613683221134</v>
+        <v>-1.283481196878711e-07</v>
       </c>
       <c r="H24" t="n">
         <v>1291.45</v>
       </c>
       <c r="I24" t="n">
-        <v>1307.376136832211</v>
+        <v>1291.450000128348</v>
       </c>
       <c r="J24" t="n">
         <v>1291.45</v>
       </c>
       <c r="K24" t="n">
-        <v>1299.778591178313</v>
+        <v>1291.450000000003</v>
       </c>
       <c r="L24" t="n">
-        <v>1294.52982243526</v>
+        <v>1291.45</v>
       </c>
       <c r="M24" t="n">
-        <v>1295.967723218639</v>
+        <v>1291.450000128296</v>
       </c>
     </row>
     <row r="25">
@@ -2692,25 +2624,25 @@
         <v>139.78</v>
       </c>
       <c r="G25" t="n">
-        <v>-16.6583088703037</v>
+        <v>-4.048886239615967e-07</v>
       </c>
       <c r="H25" t="n">
         <v>1275.21</v>
       </c>
       <c r="I25" t="n">
-        <v>1291.868308870304</v>
+        <v>1275.210000404889</v>
       </c>
       <c r="J25" t="n">
         <v>1275.21</v>
       </c>
       <c r="K25" t="n">
-        <v>1283.91377231474</v>
+        <v>1275.210000000014</v>
       </c>
       <c r="L25" t="n">
-        <v>1278.401877212976</v>
+        <v>1275.21</v>
       </c>
       <c r="M25" t="n">
-        <v>1279.972659342588</v>
+        <v>1275.210000404721</v>
       </c>
     </row>
     <row r="26">
@@ -2724,25 +2656,25 @@
         <v>139.68</v>
       </c>
       <c r="G26" t="n">
-        <v>-17.44357996249323</v>
+        <v>-1.239929133589612e-06</v>
       </c>
       <c r="H26" t="n">
         <v>1311.33</v>
       </c>
       <c r="I26" t="n">
-        <v>1328.773579962493</v>
+        <v>1311.330001239929</v>
       </c>
       <c r="J26" t="n">
         <v>1311.33</v>
       </c>
       <c r="K26" t="n">
-        <v>1320.435083892585</v>
+        <v>1311.330000000057</v>
       </c>
       <c r="L26" t="n">
-        <v>1314.640190524826</v>
+        <v>1311.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1316.358305545082</v>
+        <v>1311.330001239401</v>
       </c>
     </row>
     <row r="27">
@@ -2756,25 +2688,25 @@
         <v>139.58</v>
       </c>
       <c r="G27" t="n">
-        <v>-18.28736465364636</v>
+        <v>-3.686242962430697e-06</v>
       </c>
       <c r="H27" t="n">
         <v>1287.86</v>
       </c>
       <c r="I27" t="n">
-        <v>1306.147364653646</v>
+        <v>1287.860003686243</v>
       </c>
       <c r="J27" t="n">
         <v>1287.86</v>
       </c>
       <c r="K27" t="n">
-        <v>1297.395030198008</v>
+        <v>1287.860000000224</v>
       </c>
       <c r="L27" t="n">
-        <v>1291.295239680591</v>
+        <v>1287.86</v>
       </c>
       <c r="M27" t="n">
-        <v>1293.177094775047</v>
+        <v>1287.86000368462</v>
       </c>
     </row>
     <row r="28">
@@ -2788,25 +2720,25 @@
         <v>139.48</v>
       </c>
       <c r="G28" t="n">
-        <v>-19.19580741714503</v>
+        <v>-1.063917397914338e-05</v>
       </c>
       <c r="H28" t="n">
         <v>1305.54</v>
       </c>
       <c r="I28" t="n">
-        <v>1324.735807417145</v>
+        <v>1305.540010639174</v>
       </c>
       <c r="J28" t="n">
         <v>1305.54</v>
       </c>
       <c r="K28" t="n">
-        <v>1315.536425562761</v>
+        <v>1305.540000000851</v>
       </c>
       <c r="L28" t="n">
-        <v>1309.107548624377</v>
+        <v>1305.54</v>
       </c>
       <c r="M28" t="n">
-        <v>1311.171833230007</v>
+        <v>1305.540010634287</v>
       </c>
     </row>
     <row r="29">
@@ -2820,25 +2752,25 @@
         <v>139.38</v>
       </c>
       <c r="G29" t="n">
-        <v>1.054092058035621</v>
+        <v>-2.9811191780027e-05</v>
       </c>
       <c r="H29" t="n">
-        <v>1265.62</v>
+        <v>1286.85</v>
       </c>
       <c r="I29" t="n">
-        <v>1285.795907941964</v>
+        <v>1286.850029811192</v>
       </c>
       <c r="J29" t="n">
-        <v>1265.62</v>
+        <v>1286.85</v>
       </c>
       <c r="K29" t="n">
-        <v>1276.112442041026</v>
+        <v>1286.850000003136</v>
       </c>
       <c r="L29" t="n">
-        <v>1269.327693542559</v>
+        <v>1286.85</v>
       </c>
       <c r="M29" t="n">
-        <v>1271.595772358378</v>
+        <v>1286.850029796748</v>
       </c>
     </row>
     <row r="30">
@@ -2852,25 +2784,25 @@
         <v>139.28</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.205673135569668</v>
+        <v>-8.109769987640902e-05</v>
       </c>
       <c r="H30" t="n">
-        <v>1264.51</v>
+        <v>1284.54</v>
       </c>
       <c r="I30" t="n">
-        <v>1285.74567313557</v>
+        <v>1284.5400810977</v>
       </c>
       <c r="J30" t="n">
-        <v>1264.51</v>
+        <v>1284.54</v>
       </c>
       <c r="K30" t="n">
-        <v>1275.53666595444</v>
+        <v>1284.540000011208</v>
       </c>
       <c r="L30" t="n">
-        <v>1268.366309279392</v>
+        <v>1284.54</v>
       </c>
       <c r="M30" t="n">
-        <v>1270.862697901738</v>
+        <v>1284.54008105573</v>
       </c>
     </row>
     <row r="31">
@@ -2884,25 +2816,25 @@
         <v>139.18</v>
       </c>
       <c r="G31" t="n">
-        <v>9.715697195717894</v>
+        <v>-0.0002141930031029915</v>
       </c>
       <c r="H31" t="n">
-        <v>1264.48</v>
+        <v>1296.58</v>
       </c>
       <c r="I31" t="n">
-        <v>1286.864302804282</v>
+        <v>1296.580214193003</v>
       </c>
       <c r="J31" t="n">
-        <v>1264.48</v>
+        <v>1296.58</v>
       </c>
       <c r="K31" t="n">
-        <v>1276.083165263577</v>
+        <v>1296.580000038884</v>
       </c>
       <c r="L31" t="n">
-        <v>1268.494096696862</v>
+        <v>1296.58</v>
       </c>
       <c r="M31" t="n">
-        <v>1271.247040843844</v>
+        <v>1296.580214072874</v>
       </c>
     </row>
     <row r="32">
@@ -2916,25 +2848,25 @@
         <v>139.08</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7075818342007096</v>
+        <v>-0.0005492608263466536</v>
       </c>
       <c r="H32" t="n">
-        <v>1264.44</v>
+        <v>1288.78</v>
       </c>
       <c r="I32" t="n">
-        <v>1288.072418165799</v>
+        <v>1288.780549260826</v>
       </c>
       <c r="J32" t="n">
-        <v>1264.44</v>
+        <v>1288.78</v>
       </c>
       <c r="K32" t="n">
-        <v>1276.666570230661</v>
+        <v>1288.780000130948</v>
       </c>
       <c r="L32" t="n">
-        <v>1268.621831142121</v>
+        <v>1288.780000000001</v>
       </c>
       <c r="M32" t="n">
-        <v>1271.664016793017</v>
+        <v>1288.780548921549</v>
       </c>
     </row>
     <row r="33">
@@ -2948,25 +2880,25 @@
         <v>138.98</v>
       </c>
       <c r="G33" t="n">
-        <v>-27.01234537148321</v>
+        <v>-0.001367529410117641</v>
       </c>
       <c r="H33" t="n">
-        <v>1264.39</v>
+        <v>1262.37</v>
       </c>
       <c r="I33" t="n">
-        <v>1289.382345371483</v>
+        <v>1262.37136752941</v>
       </c>
       <c r="J33" t="n">
-        <v>1264.39</v>
+        <v>1262.37</v>
       </c>
       <c r="K33" t="n">
-        <v>1277.292170496563</v>
+        <v>1262.370000428073</v>
       </c>
       <c r="L33" t="n">
-        <v>1268.750372218527</v>
+        <v>1262.370000000003</v>
       </c>
       <c r="M33" t="n">
-        <v>1272.119802656393</v>
+        <v>1262.371366582681</v>
       </c>
     </row>
     <row r="34">
@@ -2980,25 +2912,25 @@
         <v>138.88</v>
       </c>
       <c r="G34" t="n">
-        <v>7.501529554604076</v>
+        <v>-0.003305873950012028</v>
       </c>
       <c r="H34" t="n">
-        <v>1264.38</v>
+        <v>1298.36</v>
       </c>
       <c r="I34" t="n">
-        <v>1290.858470445396</v>
+        <v>1298.36330587395</v>
       </c>
       <c r="J34" t="n">
-        <v>1264.38</v>
+        <v>1298.36</v>
       </c>
       <c r="K34" t="n">
-        <v>1278.016032557761</v>
+        <v>1298.360001358437</v>
       </c>
       <c r="L34" t="n">
-        <v>1268.930675096532</v>
+        <v>1298.360000000013</v>
       </c>
       <c r="M34" t="n">
-        <v>1272.671762791103</v>
+        <v>1298.363303261819</v>
       </c>
     </row>
     <row r="35">
@@ -3012,25 +2944,25 @@
         <v>138.78</v>
       </c>
       <c r="G35" t="n">
-        <v>-61.30768806475817</v>
+        <v>-30.30775948268615</v>
       </c>
       <c r="H35" t="n">
-        <v>1264.35</v>
+        <v>1261.45</v>
       </c>
       <c r="I35" t="n">
-        <v>1292.457688064758</v>
+        <v>1261.457759482686</v>
       </c>
       <c r="J35" t="n">
-        <v>1264.35</v>
+        <v>1261.45</v>
       </c>
       <c r="K35" t="n">
-        <v>1278.785142769048</v>
+        <v>1261.450004184777</v>
       </c>
       <c r="L35" t="n">
-        <v>1269.103803650355</v>
+        <v>1261.45000000005</v>
       </c>
       <c r="M35" t="n">
-        <v>1273.268741645355</v>
+        <v>1261.457752355591</v>
       </c>
     </row>
     <row r="36">
@@ -3044,25 +2976,25 @@
         <v>138.68</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.499975335095996</v>
+        <v>27.70690364940378</v>
       </c>
       <c r="H36" t="n">
-        <v>1264.35</v>
+        <v>1261.025412393257</v>
       </c>
       <c r="I36" t="n">
-        <v>1294.249975335096</v>
+        <v>1261.043096350596</v>
       </c>
       <c r="J36" t="n">
-        <v>1264.35</v>
+        <v>1261.025412393257</v>
       </c>
       <c r="K36" t="n">
-        <v>1279.657582518541</v>
+        <v>1261.025424908156</v>
       </c>
       <c r="L36" t="n">
-        <v>1269.320945767995</v>
+        <v>1261.025412393449</v>
       </c>
       <c r="M36" t="n">
-        <v>1273.97144704856</v>
+        <v>1261.043077131079</v>
       </c>
     </row>
     <row r="37">
@@ -3076,25 +3008,25 @@
         <v>138.58</v>
       </c>
       <c r="G37" t="n">
-        <v>-31.78913465998266</v>
+        <v>3.38447858196264</v>
       </c>
       <c r="H37" t="n">
-        <v>1264.36</v>
+        <v>1261.026389843382</v>
       </c>
       <c r="I37" t="n">
-        <v>1296.239134659983</v>
+        <v>1261.065521418037</v>
       </c>
       <c r="J37" t="n">
-        <v>1264.36</v>
+        <v>1261.026389843382</v>
       </c>
       <c r="K37" t="n">
-        <v>1280.622744270592</v>
+        <v>1261.026426177549</v>
       </c>
       <c r="L37" t="n">
-        <v>1269.563431259089</v>
+        <v>1261.026389844101</v>
       </c>
       <c r="M37" t="n">
-        <v>1274.772959130302</v>
+        <v>1261.065470250426</v>
       </c>
     </row>
     <row r="38">
@@ -3108,25 +3040,25 @@
         <v>138.48</v>
       </c>
       <c r="G38" t="n">
-        <v>5.106230484743492</v>
+        <v>42.42220393439675</v>
       </c>
       <c r="H38" t="n">
-        <v>1264.34</v>
+        <v>1261.013719599218</v>
       </c>
       <c r="I38" t="n">
-        <v>1298.413769515256</v>
+        <v>1261.097796065603</v>
       </c>
       <c r="J38" t="n">
-        <v>1264.34</v>
+        <v>1261.013719599218</v>
       </c>
       <c r="K38" t="n">
-        <v>1281.651599963154</v>
+        <v>1261.013822010068</v>
       </c>
       <c r="L38" t="n">
-        <v>1269.792752881601</v>
+        <v>1261.013719601818</v>
       </c>
       <c r="M38" t="n">
-        <v>1275.649416670501</v>
+        <v>1261.097661791694</v>
       </c>
     </row>
     <row r="39">
@@ -3140,25 +3072,25 @@
         <v>138.38</v>
       </c>
       <c r="G39" t="n">
-        <v>12.13141213605331</v>
+        <v>51.78962985335534</v>
       </c>
       <c r="H39" t="n">
-        <v>1264.31</v>
+        <v>1260.99497583624</v>
       </c>
       <c r="I39" t="n">
-        <v>1300.828587863947</v>
+        <v>1261.170370146645</v>
       </c>
       <c r="J39" t="n">
-        <v>1264.31</v>
+        <v>1260.99497583624</v>
       </c>
       <c r="K39" t="n">
-        <v>1282.777037093045</v>
+        <v>1260.995256075663</v>
       </c>
       <c r="L39" t="n">
-        <v>1270.030591130103</v>
+        <v>1260.994975845369</v>
       </c>
       <c r="M39" t="n">
-        <v>1276.640959640799</v>
+        <v>1261.170023456367</v>
       </c>
     </row>
     <row r="40">
@@ -3172,25 +3104,25 @@
         <v>138.28</v>
       </c>
       <c r="G40" t="n">
-        <v>-27.366178138343</v>
+        <v>14.81805212591235</v>
       </c>
       <c r="H40" t="n">
-        <v>1264.24</v>
+        <v>1260.956692104097</v>
       </c>
       <c r="I40" t="n">
-        <v>1303.496178138343</v>
+        <v>1261.311947874088</v>
       </c>
       <c r="J40" t="n">
-        <v>1264.24</v>
+        <v>1260.956692104097</v>
       </c>
       <c r="K40" t="n">
-        <v>1283.98428319458</v>
+        <v>1260.957436619841</v>
       </c>
       <c r="L40" t="n">
-        <v>1270.248843582951</v>
+        <v>1260.956692135207</v>
       </c>
       <c r="M40" t="n">
-        <v>1277.743051360812</v>
+        <v>1261.31106881342</v>
       </c>
     </row>
     <row r="41">
@@ -3204,25 +3136,25 @@
         <v>138.18</v>
       </c>
       <c r="G41" t="n">
-        <v>-23.51948704132292</v>
+        <v>21.38186916812992</v>
       </c>
       <c r="H41" t="n">
-        <v>1264.19</v>
+        <v>1260.929516567092</v>
       </c>
       <c r="I41" t="n">
-        <v>1306.529487041323</v>
+        <v>1261.62813083187</v>
       </c>
       <c r="J41" t="n">
-        <v>1264.19</v>
+        <v>1260.929516567093</v>
       </c>
       <c r="K41" t="n">
-        <v>1285.351447028315</v>
+        <v>1260.931436949998</v>
       </c>
       <c r="L41" t="n">
-        <v>1270.509659803174</v>
+        <v>1260.92951667001</v>
       </c>
       <c r="M41" t="n">
-        <v>1279.048380209834</v>
+        <v>1261.625945982743</v>
       </c>
     </row>
     <row r="42">
@@ -3236,25 +3168,25 @@
         <v>138.08</v>
       </c>
       <c r="G42" t="n">
-        <v>-58.53537445305051</v>
+        <v>-10.77824465569574</v>
       </c>
       <c r="H42" t="n">
-        <v>1264.17</v>
+        <v>1260.9144610121</v>
       </c>
       <c r="I42" t="n">
-        <v>1310.005374453051</v>
+        <v>1262.248244655696</v>
       </c>
       <c r="J42" t="n">
-        <v>1264.17</v>
+        <v>1260.914461012105</v>
       </c>
       <c r="K42" t="n">
-        <v>1286.910215756864</v>
+        <v>1260.919270265313</v>
       </c>
       <c r="L42" t="n">
-        <v>1270.825483041925</v>
+        <v>1260.914461342599</v>
       </c>
       <c r="M42" t="n">
-        <v>1280.609675654262</v>
+        <v>1262.24293075324</v>
       </c>
     </row>
     <row r="43">
@@ -3268,25 +3200,25 @@
         <v>137.98</v>
       </c>
       <c r="G43" t="n">
-        <v>-45.72987832879858</v>
+        <v>4.878560699386981</v>
       </c>
       <c r="H43" t="n">
-        <v>1264.16</v>
+        <v>1260.909371441414</v>
       </c>
       <c r="I43" t="n">
-        <v>1313.989878328799</v>
+        <v>1263.381439300613</v>
       </c>
       <c r="J43" t="n">
-        <v>1264.16</v>
+        <v>1260.909371441434</v>
       </c>
       <c r="K43" t="n">
-        <v>1288.666763460042</v>
+        <v>1260.921065040075</v>
       </c>
       <c r="L43" t="n">
-        <v>1271.179100322609</v>
+        <v>1260.909372471698</v>
       </c>
       <c r="M43" t="n">
-        <v>1282.464014546148</v>
+        <v>1263.368810926783</v>
       </c>
     </row>
     <row r="44">
@@ -3300,25 +3232,25 @@
         <v>137.88</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.086276184095595</v>
+        <v>49.16227323538646</v>
       </c>
       <c r="H44" t="n">
-        <v>1264.17</v>
+        <v>1260.910060173415</v>
       </c>
       <c r="I44" t="n">
-        <v>1318.606276184096</v>
+        <v>1265.357726764614</v>
       </c>
       <c r="J44" t="n">
-        <v>1264.17</v>
+        <v>1260.910060173499</v>
       </c>
       <c r="K44" t="n">
-        <v>1290.662950421558</v>
+        <v>1260.937666086103</v>
       </c>
       <c r="L44" t="n">
-        <v>1271.583702913792</v>
+        <v>1260.910063291314</v>
       </c>
       <c r="M44" t="n">
-        <v>1284.699622848746</v>
+        <v>1265.328440065862</v>
       </c>
     </row>
     <row r="45">
@@ -3332,25 +3264,25 @@
         <v>137.78</v>
       </c>
       <c r="G45" t="n">
-        <v>-9.587806125673524</v>
+        <v>45.69758827430974</v>
       </c>
       <c r="H45" t="n">
-        <v>1264.13</v>
+        <v>1260.885196148295</v>
       </c>
       <c r="I45" t="n">
-        <v>1323.937806125673</v>
+        <v>1268.65241172569</v>
       </c>
       <c r="J45" t="n">
-        <v>1264.13</v>
+        <v>1260.885196148623</v>
       </c>
       <c r="K45" t="n">
-        <v>1292.867929582144</v>
+        <v>1260.948472187016</v>
       </c>
       <c r="L45" t="n">
-        <v>1271.972959765316</v>
+        <v>1260.885205308297</v>
       </c>
       <c r="M45" t="n">
-        <v>1287.356916778214</v>
+        <v>1268.586201986482</v>
       </c>
     </row>
     <row r="46">
@@ -3364,25 +3296,25 @@
         <v>137.68</v>
       </c>
       <c r="G46" t="n">
-        <v>31.38184428385125</v>
+        <v>87.5834279672265</v>
       </c>
       <c r="H46" t="n">
-        <v>1264.05</v>
+        <v>1260.841594646803</v>
       </c>
       <c r="I46" t="n">
-        <v>1330.208155716149</v>
+        <v>1274.006572032773</v>
       </c>
       <c r="J46" t="n">
-        <v>1264.05</v>
+        <v>1260.841594648045</v>
       </c>
       <c r="K46" t="n">
-        <v>1295.340334921291</v>
+        <v>1260.982411959637</v>
       </c>
       <c r="L46" t="n">
-        <v>1272.361107234644</v>
+        <v>1260.841620772504</v>
       </c>
       <c r="M46" t="n">
-        <v>1290.606713560214</v>
+        <v>1273.860783404983</v>
       </c>
     </row>
     <row r="47">
@@ -3396,25 +3328,25 @@
         <v>137.58</v>
       </c>
       <c r="G47" t="n">
-        <v>-18.30460419864767</v>
+        <v>36.986188631098</v>
       </c>
       <c r="H47" t="n">
-        <v>1263.93</v>
+        <v>1260.778962892541</v>
       </c>
       <c r="I47" t="n">
-        <v>1337.724604198648</v>
+        <v>1282.433811368902</v>
       </c>
       <c r="J47" t="n">
-        <v>1263.93</v>
+        <v>1260.778962897113</v>
       </c>
       <c r="K47" t="n">
-        <v>1298.141321704454</v>
+        <v>1261.083222561864</v>
       </c>
       <c r="L47" t="n">
-        <v>1272.753059440283</v>
+        <v>1260.779035234306</v>
       </c>
       <c r="M47" t="n">
-        <v>1294.690223053911</v>
+        <v>1282.121370492064</v>
       </c>
     </row>
     <row r="48">
@@ -3428,25 +3360,25 @@
         <v>137.48</v>
       </c>
       <c r="G48" t="n">
-        <v>-41.92073459385779</v>
+        <v>9.780930936766708</v>
       </c>
       <c r="H48" t="n">
-        <v>1263.81</v>
+        <v>1260.714440362013</v>
       </c>
       <c r="I48" t="n">
-        <v>1346.980734593858</v>
+        <v>1295.279069063233</v>
       </c>
       <c r="J48" t="n">
-        <v>1263.81</v>
+        <v>1260.714440378357</v>
       </c>
       <c r="K48" t="n">
-        <v>1301.388889132967</v>
+        <v>1261.352690391385</v>
       </c>
       <c r="L48" t="n">
-        <v>1273.194544948507</v>
+        <v>1260.714634838989</v>
       </c>
       <c r="M48" t="n">
-        <v>1300.017300512383</v>
+        <v>1294.627734845455</v>
       </c>
     </row>
     <row r="49">
@@ -3460,25 +3392,25 @@
         <v>137.38</v>
       </c>
       <c r="G49" t="n">
-        <v>36.44315643098594</v>
+        <v>80.94458851185732</v>
       </c>
       <c r="H49" t="n">
-        <v>1263.74</v>
+        <v>1260.672356059414</v>
       </c>
       <c r="I49" t="n">
-        <v>1358.706843569014</v>
+        <v>1314.205411488143</v>
       </c>
       <c r="J49" t="n">
-        <v>1263.74</v>
+        <v>1260.672356116117</v>
       </c>
       <c r="K49" t="n">
-        <v>1305.234195824022</v>
+        <v>1261.972152381602</v>
       </c>
       <c r="L49" t="n">
-        <v>1273.742277377861</v>
+        <v>1260.672863649989</v>
       </c>
       <c r="M49" t="n">
-        <v>1307.210370367131</v>
+        <v>1312.885253029439</v>
       </c>
     </row>
     <row r="50">
@@ -3492,25 +3424,25 @@
         <v>137.28</v>
       </c>
       <c r="G50" t="n">
-        <v>8.345820538691669</v>
+        <v>41.10184054743854</v>
       </c>
       <c r="H50" t="n">
-        <v>1263.6</v>
+        <v>1260.599429432235</v>
       </c>
       <c r="I50" t="n">
-        <v>1373.804179461308</v>
+        <v>1341.048159452562</v>
       </c>
       <c r="J50" t="n">
-        <v>1263.6</v>
+        <v>1260.599429623195</v>
       </c>
       <c r="K50" t="n">
-        <v>1309.691077982096</v>
+        <v>1263.16905305104</v>
       </c>
       <c r="L50" t="n">
-        <v>1274.284170114784</v>
+        <v>1260.600715702785</v>
       </c>
       <c r="M50" t="n">
-        <v>1317.028931364428</v>
+        <v>1338.447627784921</v>
       </c>
     </row>
     <row r="51">
@@ -3524,25 +3456,25 @@
         <v>137.18</v>
       </c>
       <c r="G51" t="n">
-        <v>28.67986056510608</v>
+        <v>44.66885941897408</v>
       </c>
       <c r="H51" t="n">
-        <v>1263.41</v>
+        <v>1260.495299815159</v>
       </c>
       <c r="I51" t="n">
-        <v>1393.800139434894</v>
+        <v>1377.811140581026</v>
       </c>
       <c r="J51" t="n">
-        <v>1263.41</v>
+        <v>1260.495300439413</v>
       </c>
       <c r="K51" t="n">
-        <v>1314.960877470099</v>
+        <v>1265.426303641382</v>
       </c>
       <c r="L51" t="n">
-        <v>1274.849609007944</v>
+        <v>1260.49846449748</v>
       </c>
       <c r="M51" t="n">
-        <v>1330.809652956852</v>
+        <v>1372.834189059858</v>
       </c>
     </row>
     <row r="52">
@@ -3556,25 +3488,25 @@
         <v>137.08</v>
       </c>
       <c r="G52" t="n">
-        <v>41.7683596591628</v>
+        <v>36.20259591766467</v>
       </c>
       <c r="H52" t="n">
-        <v>1263.19</v>
+        <v>1260.37969680373</v>
       </c>
       <c r="I52" t="n">
-        <v>1420.861640340837</v>
+        <v>1426.427404082335</v>
       </c>
       <c r="J52" t="n">
-        <v>1263.19</v>
+        <v>1260.37969878472</v>
       </c>
       <c r="K52" t="n">
-        <v>1321.316271073261</v>
+        <v>1269.563503194203</v>
       </c>
       <c r="L52" t="n">
-        <v>1275.469802164378</v>
+        <v>1260.387256607768</v>
       </c>
       <c r="M52" t="n">
-        <v>1350.455567103199</v>
+        <v>1417.176252728791</v>
       </c>
     </row>
     <row r="53">
@@ -3588,25 +3520,25 @@
         <v>136.98</v>
       </c>
       <c r="G53" t="n">
-        <v>68.70741724178606</v>
+        <v>38.11262495738265</v>
       </c>
       <c r="H53" t="n">
-        <v>1262.91</v>
+        <v>1260.23105738955</v>
       </c>
       <c r="I53" t="n">
-        <v>1457.852582758214</v>
+        <v>1488.447375042617</v>
       </c>
       <c r="J53" t="n">
-        <v>1262.91</v>
+        <v>1260.23106349215</v>
       </c>
       <c r="K53" t="n">
-        <v>1329.090452277075</v>
+        <v>1276.829499952987</v>
       </c>
       <c r="L53" t="n">
-        <v>1276.128233620092</v>
+        <v>1260.248591132522</v>
       </c>
       <c r="M53" t="n">
-        <v>1378.453896861047</v>
+        <v>1471.750616281843</v>
       </c>
     </row>
     <row r="54">
@@ -3620,25 +3552,25 @@
         <v>136.88</v>
       </c>
       <c r="G54" t="n">
-        <v>93.31283601203268</v>
+        <v>36.82076580100397</v>
       </c>
       <c r="H54" t="n">
-        <v>1262.55</v>
+        <v>1260.039585966857</v>
       </c>
       <c r="I54" t="n">
-        <v>1508.367163987967</v>
+        <v>1564.859234198996</v>
       </c>
       <c r="J54" t="n">
-        <v>1262.55</v>
+        <v>1260.039604217156</v>
       </c>
       <c r="K54" t="n">
-        <v>1338.802080321015</v>
+        <v>1289.145951223189</v>
       </c>
       <c r="L54" t="n">
-        <v>1276.821259016011</v>
+        <v>1260.079069886907</v>
       </c>
       <c r="M54" t="n">
-        <v>1417.843824650941</v>
+        <v>1535.607901102041</v>
       </c>
     </row>
     <row r="55">
@@ -3652,25 +3584,25 @@
         <v>136.78</v>
       </c>
       <c r="G55" t="n">
-        <v>73.87456203917441</v>
+        <v>-5.637955680156892</v>
       </c>
       <c r="H55" t="n">
-        <v>1262.07</v>
+        <v>1259.791225228363</v>
       </c>
       <c r="I55" t="n">
-        <v>1576.435437960826</v>
+        <v>1655.947955680157</v>
       </c>
       <c r="J55" t="n">
-        <v>1262.07</v>
+        <v>1259.791278213961</v>
       </c>
       <c r="K55" t="n">
-        <v>1351.231633450716</v>
+        <v>1309.300156649738</v>
       </c>
       <c r="L55" t="n">
-        <v>1277.528898667861</v>
+        <v>1259.877551156872</v>
       </c>
       <c r="M55" t="n">
-        <v>1471.814905842248</v>
+        <v>1606.219659250509</v>
       </c>
     </row>
     <row r="56">
@@ -3684,25 +3616,25 @@
         <v>136.68</v>
       </c>
       <c r="G56" t="n">
-        <v>68.44775834513212</v>
+        <v>-26.90635574105841</v>
       </c>
       <c r="H56" t="n">
-        <v>1261.5</v>
+        <v>1259.491893993169</v>
       </c>
       <c r="I56" t="n">
-        <v>1666.042241654868</v>
+        <v>1761.396355741058</v>
       </c>
       <c r="J56" t="n">
-        <v>1261.500000000001</v>
+        <v>1259.492043337448</v>
       </c>
       <c r="K56" t="n">
-        <v>1367.67929559974</v>
+        <v>1341.155772935211</v>
       </c>
       <c r="L56" t="n">
-        <v>1278.305910349943</v>
+        <v>1259.675136605868</v>
       </c>
       <c r="M56" t="n">
-        <v>1543.057035705184</v>
+        <v>1679.387216648574</v>
       </c>
     </row>
     <row r="57">
@@ -3716,25 +3648,25 @@
         <v>136.58</v>
       </c>
       <c r="G57" t="n">
-        <v>29.53105387189066</v>
+        <v>-70.87778757064029</v>
       </c>
       <c r="H57" t="n">
-        <v>1260.83</v>
+        <v>1259.137526535987</v>
       </c>
       <c r="I57" t="n">
-        <v>1780.178946128109</v>
+        <v>1880.58778757064</v>
       </c>
       <c r="J57" t="n">
-        <v>1260.830000000011</v>
+        <v>1259.137935205134</v>
       </c>
       <c r="K57" t="n">
-        <v>1390.103156186008</v>
+        <v>1389.717636041203</v>
       </c>
       <c r="L57" t="n">
-        <v>1279.173267449976</v>
+        <v>1259.515149704469</v>
       </c>
       <c r="M57" t="n">
-        <v>1632.562522492115</v>
+        <v>1749.439514205051</v>
       </c>
     </row>
     <row r="58">
@@ -3748,25 +3680,25 @@
         <v>136.48</v>
       </c>
       <c r="G58" t="n">
-        <v>82.33367407905121</v>
+        <v>-10.86753672733789</v>
       </c>
       <c r="H58" t="n">
-        <v>1260.02</v>
+        <v>1258.715905862025</v>
       </c>
       <c r="I58" t="n">
-        <v>1919.956325920949</v>
+        <v>2013.157536727338</v>
       </c>
       <c r="J58" t="n">
-        <v>1260.020000000088</v>
+        <v>1258.716991578699</v>
       </c>
       <c r="K58" t="n">
-        <v>1421.459760059357</v>
+        <v>1461.038779423675</v>
       </c>
       <c r="L58" t="n">
-        <v>1280.130240281494</v>
+        <v>1259.47136838355</v>
       </c>
       <c r="M58" t="n">
-        <v>1738.406325580011</v>
+        <v>1809.862584824706</v>
       </c>
     </row>
     <row r="59">
@@ -3780,25 +3712,25 @@
         <v>136.38</v>
       </c>
       <c r="G59" t="n">
-        <v>54.62681778675596</v>
+        <v>-20.92564397708747</v>
       </c>
       <c r="H59" t="n">
-        <v>1259</v>
+        <v>1258.182473309185</v>
       </c>
       <c r="I59" t="n">
-        <v>2084.013182213244</v>
+        <v>2159.565643977087</v>
       </c>
       <c r="J59" t="n">
-        <v>1259.00000000068</v>
+        <v>1258.185273776142</v>
       </c>
       <c r="K59" t="n">
-        <v>1466.0742852245</v>
+        <v>1561.79678989696</v>
       </c>
       <c r="L59" t="n">
-        <v>1281.157402509726</v>
+        <v>1259.649558702948</v>
       </c>
       <c r="M59" t="n">
-        <v>1854.781494478338</v>
+        <v>1854.24552586536</v>
       </c>
     </row>
     <row r="60">
@@ -3812,25 +3744,25 @@
         <v>136.28</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4974567154340548</v>
+        <v>-53.34561848914063</v>
       </c>
       <c r="H60" t="n">
-        <v>1257.71</v>
+        <v>1257.51344903345</v>
       </c>
       <c r="I60" t="n">
-        <v>2268.657456715434</v>
+        <v>2321.50561848914</v>
       </c>
       <c r="J60" t="n">
-        <v>1257.710000004918</v>
+        <v>1257.520462298707</v>
       </c>
       <c r="K60" t="n">
-        <v>1529.966267707232</v>
+        <v>1698.53870765546</v>
       </c>
       <c r="L60" t="n">
-        <v>1282.261104471706</v>
+        <v>1260.278741141324</v>
       </c>
       <c r="M60" t="n">
-        <v>1971.850084531578</v>
+        <v>1877.458391321038</v>
       </c>
     </row>
     <row r="61">
@@ -3844,25 +3776,25 @@
         <v>136.18</v>
       </c>
       <c r="G61" t="n">
-        <v>11.97143605750534</v>
+        <v>-20.80909865076455</v>
       </c>
       <c r="H61" t="n">
-        <v>1256.21</v>
+        <v>1256.731517093625</v>
       </c>
       <c r="I61" t="n">
-        <v>2468.938563942495</v>
+        <v>2501.719098650764</v>
       </c>
       <c r="J61" t="n">
-        <v>1256.210000033221</v>
+        <v>1256.748569701501</v>
       </c>
       <c r="K61" t="n">
-        <v>1620.928704007621</v>
+        <v>1876.442689144498</v>
       </c>
       <c r="L61" t="n">
-        <v>1283.590350044761</v>
+        <v>1261.789897372948</v>
       </c>
       <c r="M61" t="n">
-        <v>2076.839509856892</v>
+        <v>1876.676459381216</v>
       </c>
     </row>
     <row r="62">
@@ -3876,25 +3808,25 @@
         <v>136.08</v>
       </c>
       <c r="G62" t="n">
-        <v>84.87920668729203</v>
+        <v>61.92089498275391</v>
       </c>
       <c r="H62" t="n">
-        <v>1254.43</v>
+        <v>1255.801659254251</v>
       </c>
       <c r="I62" t="n">
-        <v>2679.940793312708</v>
+        <v>2702.899105017246</v>
       </c>
       <c r="J62" t="n">
-        <v>1254.430000209561</v>
+        <v>1255.841916562354</v>
       </c>
       <c r="K62" t="n">
-        <v>1747.608719391645</v>
+        <v>2097.56214135689</v>
       </c>
       <c r="L62" t="n">
-        <v>1285.197718129163</v>
+        <v>1264.779929084114</v>
       </c>
       <c r="M62" t="n">
-        <v>2155.994355582339</v>
+        <v>1851.864711810436</v>
       </c>
     </row>
     <row r="63">
@@ -3908,25 +3840,25 @@
         <v>135.98</v>
       </c>
       <c r="G63" t="n">
-        <v>66.3708136989685</v>
+        <v>38.57946870784963</v>
       </c>
       <c r="H63" t="n">
-        <v>1252.24</v>
+        <v>1254.66242611312</v>
       </c>
       <c r="I63" t="n">
-        <v>2898.209186301031</v>
+        <v>2926.00053129215</v>
       </c>
       <c r="J63" t="n">
-        <v>1252.24000123444</v>
+        <v>1254.754700656443</v>
       </c>
       <c r="K63" t="n">
-        <v>1917.961721777854</v>
+        <v>2359.05306512966</v>
       </c>
       <c r="L63" t="n">
-        <v>1287.127181968185</v>
+        <v>1270.121795777732</v>
       </c>
       <c r="M63" t="n">
-        <v>2197.600281320553</v>
+        <v>1805.809105075801</v>
       </c>
     </row>
     <row r="64">
@@ -3940,25 +3872,25 @@
         <v>135.88</v>
       </c>
       <c r="G64" t="n">
-        <v>83.00176590112869</v>
+        <v>36.8663347720767</v>
       </c>
       <c r="H64" t="n">
-        <v>1249.66</v>
+        <v>1253.31895873269</v>
       </c>
       <c r="I64" t="n">
-        <v>3122.158234098871</v>
+        <v>3168.293665227923</v>
       </c>
       <c r="J64" t="n">
-        <v>1249.660006790379</v>
+        <v>1253.524310608321</v>
       </c>
       <c r="K64" t="n">
-        <v>2136.804330502274</v>
+        <v>2651.730417679909</v>
       </c>
       <c r="L64" t="n">
-        <v>1289.653615485672</v>
+        <v>1279.135281329041</v>
       </c>
       <c r="M64" t="n">
-        <v>2195.020281320546</v>
+        <v>1743.620946401774</v>
       </c>
     </row>
     <row r="65">
@@ -3972,25 +3904,25 @@
         <v>135.78</v>
       </c>
       <c r="G65" t="n">
-        <v>91.00185424937672</v>
+        <v>19.70151647981356</v>
       </c>
       <c r="H65" t="n">
-        <v>1246.71</v>
+        <v>1251.784824911785</v>
       </c>
       <c r="I65" t="n">
-        <v>3350.358145750623</v>
+        <v>3421.658483520187</v>
       </c>
       <c r="J65" t="n">
-        <v>1246.71003488045</v>
+        <v>1252.228522440992</v>
       </c>
       <c r="K65" t="n">
-        <v>2402.322276527188</v>
+        <v>2959.291478725267</v>
       </c>
       <c r="L65" t="n">
-        <v>1293.181478760647</v>
+        <v>1293.583356228202</v>
       </c>
       <c r="M65" t="n">
-        <v>2148.274355582339</v>
+        <v>1671.68014756721</v>
       </c>
     </row>
     <row r="66">
@@ -4004,25 +3936,25 @@
         <v>135.68</v>
       </c>
       <c r="G66" t="n">
-        <v>83.69383130054894</v>
+        <v>-9.907575518604062</v>
       </c>
       <c r="H66" t="n">
-        <v>1243.37</v>
+        <v>1250.045694734302</v>
       </c>
       <c r="I66" t="n">
-        <v>3578.486168699451</v>
+        <v>3672.087575518604</v>
       </c>
       <c r="J66" t="n">
-        <v>1243.37016731475</v>
+        <v>1250.976445634277</v>
       </c>
       <c r="K66" t="n">
-        <v>2702.943437429765</v>
+        <v>3258.918877263695</v>
       </c>
       <c r="L66" t="n">
-        <v>1298.283054098044</v>
+        <v>1315.63366002401</v>
       </c>
       <c r="M66" t="n">
-        <v>2063.999509856892</v>
+        <v>1596.474128756468</v>
       </c>
     </row>
     <row r="67">
@@ -4036,25 +3968,25 @@
         <v>135.58</v>
       </c>
       <c r="G67" t="n">
-        <v>69.93577574154324</v>
+        <v>-34.75002417268706</v>
       </c>
       <c r="H67" t="n">
-        <v>1239.65</v>
+        <v>1248.109532622833</v>
       </c>
       <c r="I67" t="n">
-        <v>3796.334224258457</v>
+        <v>3901.020024172687</v>
       </c>
       <c r="J67" t="n">
-        <v>1239.650749463491</v>
+        <v>1250.00500703096</v>
       </c>
       <c r="K67" t="n">
-        <v>3015.955744405046</v>
+        <v>3523.640130608649</v>
       </c>
       <c r="L67" t="n">
-        <v>1305.887645858343</v>
+        <v>1347.807252673121</v>
       </c>
       <c r="M67" t="n">
-        <v>1953.790084531578</v>
+        <v>1523.677847758036</v>
       </c>
     </row>
     <row r="68">
@@ -4068,25 +4000,25 @@
         <v>135.48</v>
       </c>
       <c r="G68" t="n">
-        <v>134.0291594469068</v>
+        <v>32.28254280429064</v>
       </c>
       <c r="H68" t="n">
-        <v>1235.56</v>
+        <v>1245.984284817337</v>
       </c>
       <c r="I68" t="n">
-        <v>3986.620840553093</v>
+        <v>4088.367457195709</v>
       </c>
       <c r="J68" t="n">
-        <v>1235.563134951535</v>
+        <v>1249.731530231732</v>
       </c>
       <c r="K68" t="n">
-        <v>3308.97814644628</v>
+        <v>3726.150871576673</v>
       </c>
       <c r="L68" t="n">
-        <v>1317.418064676974</v>
+        <v>1392.712114573635</v>
       </c>
       <c r="M68" t="n">
-        <v>1831.341494478304</v>
+        <v>1457.50384370963</v>
       </c>
     </row>
     <row r="69">
@@ -4100,25 +4032,25 @@
         <v>135.38</v>
       </c>
       <c r="G69" t="n">
-        <v>16.5251074193593</v>
+        <v>-72.91418578996218</v>
       </c>
       <c r="H69" t="n">
-        <v>1231.11</v>
+        <v>1243.671989787485</v>
       </c>
       <c r="I69" t="n">
-        <v>4127.234892580641</v>
+        <v>4216.674185789962</v>
       </c>
       <c r="J69" t="n">
-        <v>1231.122245464935</v>
+        <v>1250.862802224355</v>
       </c>
       <c r="K69" t="n">
-        <v>3544.953423008276</v>
+        <v>3843.50431597814</v>
       </c>
       <c r="L69" t="n">
-        <v>1334.992898527451</v>
+        <v>1452.620913147324</v>
       </c>
       <c r="M69" t="n">
-        <v>1709.496325579978</v>
+        <v>1400.46854571256</v>
       </c>
     </row>
     <row r="70">
@@ -4132,25 +4064,25 @@
         <v>135.28</v>
       </c>
       <c r="G70" t="n">
-        <v>37.2313600294292</v>
+        <v>-41.03473767367359</v>
       </c>
       <c r="H70" t="n">
-        <v>1226.45</v>
+        <v>1241.251662416976</v>
       </c>
       <c r="I70" t="n">
-        <v>4197.048639970571</v>
+        <v>4275.314737673673</v>
       </c>
       <c r="J70" t="n">
-        <v>1226.494666695602</v>
+        <v>1254.644276078968</v>
       </c>
       <c r="K70" t="n">
-        <v>3689.965333787787</v>
+        <v>3861.609935576114</v>
       </c>
       <c r="L70" t="n">
-        <v>1361.756116995066</v>
+        <v>1528.971128227762</v>
       </c>
       <c r="M70" t="n">
-        <v>1598.182522492115</v>
+        <v>1353.590551661686</v>
       </c>
     </row>
     <row r="71">
@@ -4164,25 +4096,25 @@
         <v>135.18</v>
       </c>
       <c r="G71" t="n">
-        <v>134.2060258774145</v>
+        <v>54.07169410020197</v>
       </c>
       <c r="H71" t="n">
-        <v>1221.67</v>
+        <v>1238.772506307757</v>
       </c>
       <c r="I71" t="n">
-        <v>4183.033974122585</v>
+        <v>4263.168305899798</v>
       </c>
       <c r="J71" t="n">
-        <v>1221.822144574169</v>
+        <v>1262.977777977405</v>
       </c>
       <c r="K71" t="n">
-        <v>3721.245119980255</v>
+        <v>3778.032817128547</v>
       </c>
       <c r="L71" t="n">
-        <v>1401.749673862978</v>
+        <v>1621.572098061069</v>
       </c>
       <c r="M71" t="n">
-        <v>1503.227035705184</v>
+        <v>1316.620704660452</v>
       </c>
     </row>
     <row r="72">
@@ -4196,25 +4128,25 @@
         <v>135.08</v>
       </c>
       <c r="G72" t="n">
-        <v>104.587443009329</v>
+        <v>1.675156324326963</v>
       </c>
       <c r="H72" t="n">
-        <v>1216.79</v>
+        <v>1236.241067917862</v>
       </c>
       <c r="I72" t="n">
-        <v>4086.262556990671</v>
+        <v>4189.174843675673</v>
       </c>
       <c r="J72" t="n">
-        <v>1217.273941884303</v>
+        <v>1278.686464565945</v>
       </c>
       <c r="K72" t="n">
-        <v>3633.127410515931</v>
+        <v>3602.5031938621</v>
       </c>
       <c r="L72" t="n">
-        <v>1459.69629874819</v>
+        <v>1727.936341806284</v>
       </c>
       <c r="M72" t="n">
-        <v>1426.534905842248</v>
+        <v>1288.453964887893</v>
       </c>
     </row>
     <row r="73">
@@ -4228,25 +4160,25 @@
         <v>134.98</v>
       </c>
       <c r="G73" t="n">
-        <v>238.7481709991434</v>
+        <v>92.11732795998341</v>
       </c>
       <c r="H73" t="n">
-        <v>1211.96</v>
+        <v>1233.741561916557</v>
       </c>
       <c r="I73" t="n">
-        <v>3924.081829000856</v>
+        <v>4070.712672040017</v>
       </c>
       <c r="J73" t="n">
-        <v>1213.397454316615</v>
+        <v>1305.9397293379</v>
       </c>
       <c r="K73" t="n">
-        <v>3438.782939689991</v>
+        <v>3355.013612749571</v>
       </c>
       <c r="L73" t="n">
-        <v>1540.527610343323</v>
+        <v>1842.97072672016</v>
       </c>
       <c r="M73" t="n">
-        <v>1367.253824650928</v>
+        <v>1267.654856399999</v>
       </c>
     </row>
     <row r="74">
@@ -4260,25 +4192,25 @@
         <v>134.88</v>
       </c>
       <c r="G74" t="n">
-        <v>148.8814534619405</v>
+        <v>-54.49267735781496</v>
       </c>
       <c r="H74" t="n">
-        <v>1207.3</v>
+        <v>1231.331502798862</v>
       </c>
       <c r="I74" t="n">
-        <v>3726.778546538059</v>
+        <v>3930.152677357815</v>
       </c>
       <c r="J74" t="n">
-        <v>1211.28711708899</v>
+        <v>1350.4207708332</v>
       </c>
       <c r="K74" t="n">
-        <v>3166.576058495799</v>
+        <v>3061.764716135651</v>
       </c>
       <c r="L74" t="n">
-        <v>1647.971474092234</v>
+        <v>1958.887754612545</v>
       </c>
       <c r="M74" t="n">
-        <v>1322.843896861037</v>
+        <v>1252.673910398389</v>
       </c>
     </row>
     <row r="75">
@@ -4292,25 +4224,25 @@
         <v>134.78</v>
       </c>
       <c r="G75" t="n">
-        <v>211.2260881900247</v>
+        <v>-49.50477440351369</v>
       </c>
       <c r="H75" t="n">
-        <v>1202.93</v>
+        <v>1229.074450405611</v>
       </c>
       <c r="I75" t="n">
-        <v>3530.403911809975</v>
+        <v>3791.134774403514</v>
       </c>
       <c r="J75" t="n">
-        <v>1213.257329320362</v>
+        <v>1419.497558666932</v>
       </c>
       <c r="K75" t="n">
-        <v>2852.909006434362</v>
+        <v>2750.463534332433</v>
       </c>
       <c r="L75" t="n">
-        <v>1782.832008952053</v>
+        <v>2065.864797859762</v>
       </c>
       <c r="M75" t="n">
-        <v>1290.195567103198</v>
+        <v>1242.093639163793</v>
       </c>
     </row>
     <row r="76">
@@ -4324,25 +4256,25 @@
         <v>134.68</v>
       </c>
       <c r="G76" t="n">
-        <v>300.111815797879</v>
+        <v>-7.001439868235138</v>
       </c>
       <c r="H76" t="n">
-        <v>1198.84</v>
+        <v>1226.963754193672</v>
       </c>
       <c r="I76" t="n">
-        <v>3368.318184202121</v>
+        <v>3675.431439868235</v>
       </c>
       <c r="J76" t="n">
-        <v>1223.819351579427</v>
+        <v>1522.008310381826</v>
       </c>
       <c r="K76" t="n">
-        <v>2533.775049453907</v>
+        <v>2445.949419173267</v>
       </c>
       <c r="L76" t="n">
-        <v>1941.004130211936</v>
+        <v>2153.230731860557</v>
       </c>
       <c r="M76" t="n">
-        <v>1266.239652956852</v>
+        <v>1234.66476003186</v>
       </c>
     </row>
     <row r="77">
@@ -4356,25 +4288,25 @@
         <v>134.58</v>
       </c>
       <c r="G77" t="n">
-        <v>313.1027072669422</v>
+        <v>-22.92188454504139</v>
       </c>
       <c r="H77" t="n">
-        <v>1194.9</v>
+        <v>1224.933698650042</v>
       </c>
       <c r="I77" t="n">
-        <v>3265.137292733058</v>
+        <v>3601.161884545041</v>
       </c>
       <c r="J77" t="n">
-        <v>1251.320690025701</v>
+        <v>1667.690119182566</v>
       </c>
       <c r="K77" t="n">
-        <v>2237.973203736984</v>
+        <v>2167.23479563762</v>
       </c>
       <c r="L77" t="n">
-        <v>2112.214467605944</v>
+        <v>2211.197561406238</v>
       </c>
       <c r="M77" t="n">
-        <v>1248.328931364428</v>
+        <v>1229.35207854249</v>
       </c>
     </row>
     <row r="78">
@@ -4388,25 +4320,25 @@
         <v>134.48</v>
       </c>
       <c r="G78" t="n">
-        <v>351.6579395030412</v>
+        <v>4.893338609254897</v>
       </c>
       <c r="H78" t="n">
-        <v>1191.06</v>
+        <v>1222.957596750701</v>
       </c>
       <c r="I78" t="n">
-        <v>3235.442060496959</v>
+        <v>3582.206661390745</v>
       </c>
       <c r="J78" t="n">
-        <v>1310.063497103607</v>
+        <v>1866.09843103834</v>
       </c>
       <c r="K78" t="n">
-        <v>1983.698409905657</v>
+        <v>1926.312668158108</v>
       </c>
       <c r="L78" t="n">
-        <v>2280.329783120566</v>
+        <v>2232.75899296622</v>
       </c>
       <c r="M78" t="n">
-        <v>1234.530370367129</v>
+        <v>1225.41703623607</v>
       </c>
     </row>
     <row r="79">
@@ -4420,25 +4352,25 @@
         <v>134.38</v>
       </c>
       <c r="G79" t="n">
-        <v>345.7290276101553</v>
+        <v>4.670557890095097</v>
       </c>
       <c r="H79" t="n">
-        <v>1187.23</v>
+        <v>1220.988552153106</v>
       </c>
       <c r="I79" t="n">
-        <v>3286.840972389845</v>
+        <v>3627.899442109905</v>
       </c>
       <c r="J79" t="n">
-        <v>1421.623278067436</v>
+        <v>2124.704501338151</v>
       </c>
       <c r="K79" t="n">
-        <v>1778.226521264553</v>
+        <v>1728.330070728157</v>
       </c>
       <c r="L79" t="n">
-        <v>2425.243872545474</v>
+        <v>2215.033646640825</v>
       </c>
       <c r="M79" t="n">
-        <v>1223.437300512382</v>
+        <v>1222.317021894246</v>
       </c>
     </row>
     <row r="80">
@@ -4452,25 +4384,25 @@
         <v>134.28</v>
       </c>
       <c r="G80" t="n">
-        <v>296.2607984330298</v>
+        <v>-20.70915181233931</v>
       </c>
       <c r="H80" t="n">
-        <v>1183.32</v>
+        <v>1218.977705491078</v>
       </c>
       <c r="I80" t="n">
-        <v>3425.48920156697</v>
+        <v>3742.459151812339</v>
       </c>
       <c r="J80" t="n">
-        <v>1614.436534686556</v>
+        <v>2446.504991391612</v>
       </c>
       <c r="K80" t="n">
-        <v>1620.237008963352</v>
+        <v>1572.885353882259</v>
       </c>
       <c r="L80" t="n">
-        <v>2526.695434863152</v>
+        <v>2159.875999103772</v>
       </c>
       <c r="M80" t="n">
-        <v>1214.080223053911</v>
+        <v>1219.674134906729</v>
       </c>
     </row>
     <row r="81">
@@ -4484,25 +4416,25 @@
         <v>134.18</v>
       </c>
       <c r="G81" t="n">
-        <v>284.5496003578091</v>
+        <v>20.6959180564636</v>
       </c>
       <c r="H81" t="n">
-        <v>1179.22</v>
+        <v>1216.868296916006</v>
       </c>
       <c r="I81" t="n">
-        <v>3659.810399642191</v>
+        <v>3923.664081943537</v>
       </c>
       <c r="J81" t="n">
-        <v>1919.691426924951</v>
+        <v>2827.385388784582</v>
       </c>
       <c r="K81" t="n">
-        <v>1503.130383900222</v>
+        <v>1455.779076711678</v>
       </c>
       <c r="L81" t="n">
-        <v>2568.871875256804</v>
+        <v>2073.471044914562</v>
       </c>
       <c r="M81" t="n">
-        <v>1205.776713560214</v>
+        <v>1217.22267362533</v>
       </c>
     </row>
     <row r="82">
@@ -4516,25 +4448,25 @@
         <v>134.08</v>
       </c>
       <c r="G82" t="n">
-        <v>246.4196016863516</v>
+        <v>83.99774119192625</v>
       </c>
       <c r="H82" t="n">
-        <v>1174.76</v>
+        <v>1214.572650053467</v>
       </c>
       <c r="I82" t="n">
-        <v>3998.610398313648</v>
+        <v>4161.032258808073</v>
       </c>
       <c r="J82" t="n">
-        <v>2362.403313213342</v>
+        <v>3253.856103329514</v>
       </c>
       <c r="K82" t="n">
-        <v>1418.135920001209</v>
+        <v>1370.742362096754</v>
       </c>
       <c r="L82" t="n">
-        <v>2544.364248320882</v>
+        <v>1965.043162795427</v>
       </c>
       <c r="M82" t="n">
-        <v>1197.986916778214</v>
+        <v>1214.747697673594</v>
       </c>
     </row>
     <row r="83">
@@ -4548,25 +4480,25 @@
         <v>133.98</v>
       </c>
       <c r="G83" t="n">
-        <v>81.41923874604799</v>
+        <v>89.35116856583591</v>
       </c>
       <c r="H83" t="n">
-        <v>1169.83</v>
+        <v>1212.030938068736</v>
       </c>
       <c r="I83" t="n">
-        <v>4442.410761253952</v>
+        <v>4434.478831434164</v>
       </c>
       <c r="J83" t="n">
-        <v>2948.632983092759</v>
+        <v>3702.06349837274</v>
       </c>
       <c r="K83" t="n">
-        <v>1356.684789443337</v>
+        <v>1310.931353679408</v>
       </c>
       <c r="L83" t="n">
-        <v>2456.22336586911</v>
+        <v>1845.15524897145</v>
       </c>
       <c r="M83" t="n">
-        <v>1190.359622848746</v>
+        <v>1212.114880261212</v>
       </c>
     </row>
     <row r="84">
@@ -4580,25 +4512,25 @@
         <v>133.88</v>
       </c>
       <c r="G84" t="n">
-        <v>-253.9451381172439</v>
+        <v>2.178708417521193</v>
       </c>
       <c r="H84" t="n">
-        <v>1164.44</v>
+        <v>1209.256989104481</v>
       </c>
       <c r="I84" t="n">
-        <v>4970.615138117244</v>
+        <v>4714.491291582479</v>
       </c>
       <c r="J84" t="n">
-        <v>3652.344859652184</v>
+        <v>4138.768052998773</v>
       </c>
       <c r="K84" t="n">
-        <v>1311.678589375836</v>
+        <v>1269.963017864236</v>
       </c>
       <c r="L84" t="n">
-        <v>2317.167674543076</v>
+        <v>1723.982623207271</v>
       </c>
       <c r="M84" t="n">
-        <v>1182.744014546147</v>
+        <v>1209.296069511525</v>
       </c>
     </row>
     <row r="85">
@@ -4612,25 +4544,25 @@
         <v>133.78</v>
       </c>
       <c r="G85" t="n">
-        <v>-607.9027652566001</v>
+        <v>-41.30067736939418</v>
       </c>
       <c r="H85" t="n">
-        <v>1158.68</v>
+        <v>1206.289027703911</v>
       </c>
       <c r="I85" t="n">
-        <v>5531.212765256601</v>
+        <v>4964.610677369395</v>
       </c>
       <c r="J85" t="n">
-        <v>4408.084561757702</v>
+        <v>4524.662791166656</v>
       </c>
       <c r="K85" t="n">
-        <v>1277.822048840822</v>
+        <v>1242.418333001427</v>
       </c>
       <c r="L85" t="n">
-        <v>2146.226479003814</v>
+        <v>1609.88804633165</v>
       </c>
       <c r="M85" t="n">
-        <v>1175.119675654262</v>
+        <v>1206.306692441734</v>
       </c>
     </row>
     <row r="86">
@@ -4644,25 +4576,25 @@
         <v>133.68</v>
       </c>
       <c r="G86" t="n">
-        <v>-917.1445065865837</v>
+        <v>-22.79260507613708</v>
       </c>
       <c r="H86" t="n">
-        <v>1152.56</v>
+        <v>1203.136476221709</v>
       </c>
       <c r="I86" t="n">
-        <v>6040.774506586584</v>
+        <v>5146.422605076137</v>
       </c>
       <c r="J86" t="n">
-        <v>5115.686193717929</v>
+        <v>4819.927978741542</v>
       </c>
       <c r="K86" t="n">
-        <v>1251.332438068522</v>
+        <v>1223.991738435754</v>
       </c>
       <c r="L86" t="n">
-        <v>1964.017494590299</v>
+        <v>1508.610861332344</v>
       </c>
       <c r="M86" t="n">
-        <v>1167.418380209834</v>
+        <v>1203.1442285773</v>
       </c>
     </row>
     <row r="87">
@@ -4676,25 +4608,25 @@
         <v>133.58</v>
       </c>
       <c r="G87" t="n">
-        <v>-1197.795863138837</v>
+        <v>-24.64537367820412</v>
       </c>
       <c r="H87" t="n">
-        <v>1146.15</v>
+        <v>1199.835719895892</v>
       </c>
       <c r="I87" t="n">
-        <v>6399.445863138837</v>
+        <v>5226.295373678204</v>
       </c>
       <c r="J87" t="n">
-        <v>5659.885589935961</v>
+        <v>4991.134060717892</v>
       </c>
       <c r="K87" t="n">
-        <v>1229.738526138853</v>
+        <v>1211.51483230247</v>
       </c>
       <c r="L87" t="n">
-        <v>1788.618695703211</v>
+        <v>1423.194978342543</v>
       </c>
       <c r="M87" t="n">
-        <v>1159.653051360812</v>
+        <v>1199.83902315771</v>
       </c>
     </row>
     <row r="88">
@@ -4708,25 +4640,25 @@
         <v>133.48</v>
       </c>
       <c r="G88" t="n">
-        <v>-1328.852370939031</v>
+        <v>6.842398786959166</v>
       </c>
       <c r="H88" t="n">
-        <v>1139.62</v>
+        <v>1196.473481585446</v>
       </c>
       <c r="I88" t="n">
-        <v>6517.732370939031</v>
+        <v>5182.037601213041</v>
       </c>
       <c r="J88" t="n">
-        <v>5940.252121021945</v>
+        <v>5017.704517643801</v>
       </c>
       <c r="K88" t="n">
-        <v>1211.556754813193</v>
+        <v>1202.819933004985</v>
       </c>
       <c r="L88" t="n">
-        <v>1632.832535463094</v>
+        <v>1354.369469752697</v>
       </c>
       <c r="M88" t="n">
-        <v>1151.950959640798</v>
+        <v>1196.474848168127</v>
       </c>
     </row>
     <row r="89">
@@ -4740,25 +4672,25 @@
         <v>133.38</v>
       </c>
       <c r="G89" t="n">
-        <v>-1319.137407439584</v>
+        <v>18.54113201482505</v>
       </c>
       <c r="H89" t="n">
-        <v>1133.16</v>
+        <v>1193.159286872007</v>
       </c>
       <c r="I89" t="n">
-        <v>6345.207407439583</v>
+        <v>5007.528867985175</v>
       </c>
       <c r="J89" t="n">
-        <v>5901.034731577782</v>
+        <v>4896.126322994667</v>
       </c>
       <c r="K89" t="n">
-        <v>1195.911782375556</v>
+        <v>1196.506241030491</v>
       </c>
       <c r="L89" t="n">
-        <v>1503.271476815745</v>
+        <v>1301.148754306326</v>
       </c>
       <c r="M89" t="n">
-        <v>1144.469416670501</v>
+        <v>1193.159835793556</v>
       </c>
     </row>
     <row r="90">
@@ -4772,25 +4704,25 @@
         <v>133.28</v>
       </c>
       <c r="G90" t="n">
-        <v>-1169.965772325971</v>
+        <v>5.017703321394947</v>
       </c>
       <c r="H90" t="n">
-        <v>1127.05</v>
+        <v>1190.024770892217</v>
       </c>
       <c r="I90" t="n">
-        <v>5888.95577232597</v>
+        <v>4713.972296678605</v>
       </c>
       <c r="J90" t="n">
-        <v>5549.015443771367</v>
+        <v>4640.711025412043</v>
       </c>
       <c r="K90" t="n">
-        <v>1182.392078187756</v>
+        <v>1191.738024725546</v>
       </c>
       <c r="L90" t="n">
-        <v>1401.235291236546</v>
+        <v>1261.525005157547</v>
       </c>
       <c r="M90" t="n">
-        <v>1137.462959130302</v>
+        <v>1190.024984965091</v>
       </c>
     </row>
     <row r="91">
@@ -4804,25 +4736,25 @@
         <v>133.18</v>
       </c>
       <c r="G91" t="n">
-        <v>-850.9337353166911</v>
+        <v>34.56915674481297</v>
       </c>
       <c r="H91" t="n">
-        <v>1121.45</v>
+        <v>1187.1694298811</v>
       </c>
       <c r="I91" t="n">
-        <v>5212.833735316691</v>
+        <v>4327.330843255187</v>
       </c>
       <c r="J91" t="n">
-        <v>4951.195816174593</v>
+        <v>4280.590157724556</v>
       </c>
       <c r="K91" t="n">
-        <v>1170.699199002153</v>
+        <v>1188.020743241731</v>
       </c>
       <c r="L91" t="n">
-        <v>1324.217273091384</v>
+        <v>1233.02454846127</v>
       </c>
       <c r="M91" t="n">
-        <v>1131.07144704856</v>
+        <v>1187.16951093683</v>
       </c>
     </row>
     <row r="92">
@@ -4836,25 +4768,25 @@
         <v>133.08</v>
       </c>
       <c r="G92" t="n">
-        <v>-539.0396406161149</v>
+        <v>-3.621534932601207</v>
       </c>
       <c r="H92" t="n">
-        <v>1116.54</v>
+        <v>1184.673024975186</v>
       </c>
       <c r="I92" t="n">
-        <v>4418.319640616115</v>
+        <v>3882.901534932601</v>
       </c>
       <c r="J92" t="n">
-        <v>4213.878383348467</v>
+        <v>3853.967630938446</v>
       </c>
       <c r="K92" t="n">
-        <v>1160.700218107987</v>
+        <v>1185.08368739213</v>
       </c>
       <c r="L92" t="n">
-        <v>1267.902297514305</v>
+        <v>1213.171887162091</v>
       </c>
       <c r="M92" t="n">
-        <v>1125.458741645356</v>
+        <v>1184.673054771934</v>
       </c>
     </row>
     <row r="93">
@@ -4868,25 +4800,25 @@
         <v>132.98</v>
       </c>
       <c r="G93" t="n">
-        <v>-186.8525392044035</v>
+        <v>9.459537416378225</v>
       </c>
       <c r="H93" t="n">
-        <v>1112.4</v>
+        <v>1182.579767904297</v>
       </c>
       <c r="I93" t="n">
-        <v>3614.892539204403</v>
+        <v>3418.580462583622</v>
       </c>
       <c r="J93" t="n">
-        <v>3451.622091234927</v>
+        <v>3401.19973486501</v>
       </c>
       <c r="K93" t="n">
-        <v>1152.25465210592</v>
+        <v>1182.772090990045</v>
       </c>
       <c r="L93" t="n">
-        <v>1227.524033072454</v>
+        <v>1199.750946523534</v>
       </c>
       <c r="M93" t="n">
-        <v>1120.691762791103</v>
+        <v>1182.579778538583</v>
       </c>
     </row>
     <row r="94">
@@ -4900,25 +4832,25 @@
         <v>132.88</v>
       </c>
       <c r="G94" t="n">
-        <v>20.95367266786525</v>
+        <v>-55.25463906436835</v>
       </c>
       <c r="H94" t="n">
-        <v>1109.05</v>
+        <v>1180.902289318119</v>
       </c>
       <c r="I94" t="n">
-        <v>2892.456327332135</v>
+        <v>2968.664639064368</v>
       </c>
       <c r="J94" t="n">
-        <v>2758.80083561189</v>
+        <v>2958.531670476934</v>
       </c>
       <c r="K94" t="n">
-        <v>1145.222409190724</v>
+        <v>1180.989736291068</v>
       </c>
       <c r="L94" t="n">
-        <v>1198.803279873127</v>
+        <v>1190.935741231748</v>
       </c>
       <c r="M94" t="n">
-        <v>1116.779802656393</v>
+        <v>1180.902293002739</v>
       </c>
     </row>
     <row r="95">
@@ -4932,25 +4864,25 @@
         <v>132.78</v>
       </c>
       <c r="G95" t="n">
-        <v>166.5626893349217</v>
+        <v>-87.88127834440775</v>
       </c>
       <c r="H95" t="n">
-        <v>1106.48</v>
+        <v>1179.632889245265</v>
       </c>
       <c r="I95" t="n">
-        <v>2305.067310665078</v>
+        <v>2559.511278344408</v>
       </c>
       <c r="J95" t="n">
-        <v>2192.979061225318</v>
+        <v>2553.777117538007</v>
       </c>
       <c r="K95" t="n">
-        <v>1139.47414461527</v>
+        <v>1179.671493494144</v>
       </c>
       <c r="L95" t="n">
-        <v>1178.350088031474</v>
+        <v>1185.320076593857</v>
       </c>
       <c r="M95" t="n">
-        <v>1113.704016793017</v>
+        <v>1179.632890484666</v>
       </c>
     </row>
     <row r="96">
@@ -4964,25 +4896,25 @@
         <v>132.68</v>
       </c>
       <c r="G96" t="n">
-        <v>303.2962396075222</v>
+        <v>-35.4838245865717</v>
       </c>
       <c r="H96" t="n">
-        <v>1104.52</v>
+        <v>1178.68110063735</v>
       </c>
       <c r="I96" t="n">
-        <v>1868.743760392478</v>
+        <v>2207.523824586572</v>
       </c>
       <c r="J96" t="n">
-        <v>1772.716892999056</v>
+        <v>2204.373753341271</v>
       </c>
       <c r="K96" t="n">
-        <v>1134.748891226139</v>
+        <v>1178.697647196127</v>
       </c>
       <c r="L96" t="n">
-        <v>1163.550935323439</v>
+        <v>1181.808896828231</v>
       </c>
       <c r="M96" t="n">
-        <v>1111.287040843844</v>
+        <v>1178.68110104207</v>
       </c>
     </row>
     <row r="97">
@@ -4996,25 +4928,25 @@
         <v>132.58</v>
       </c>
       <c r="G97" t="n">
-        <v>275.9256019370252</v>
+        <v>-73.05119426166311</v>
       </c>
       <c r="H97" t="n">
-        <v>1103.07</v>
+        <v>1177.992196820922</v>
       </c>
       <c r="I97" t="n">
-        <v>1570.544398062975</v>
+        <v>1919.521194261663</v>
       </c>
       <c r="J97" t="n">
-        <v>1486.815809934764</v>
+        <v>1917.841085623012</v>
       </c>
       <c r="K97" t="n">
-        <v>1130.876013276053</v>
+        <v>1177.999082772566</v>
       </c>
       <c r="L97" t="n">
-        <v>1152.639876950421</v>
+        <v>1179.661559595657</v>
       </c>
       <c r="M97" t="n">
-        <v>1109.422697901738</v>
+        <v>1177.992196949218</v>
       </c>
     </row>
     <row r="98">
@@ -5028,25 +4960,25 @@
         <v>132.48</v>
       </c>
       <c r="G98" t="n">
-        <v>270.5209421933866</v>
+        <v>-42.08831992523324</v>
       </c>
       <c r="H98" t="n">
-        <v>1102.04</v>
+        <v>1177.519756134144</v>
       </c>
       <c r="I98" t="n">
-        <v>1381.879057806613</v>
+        <v>1694.488319925233</v>
       </c>
       <c r="J98" t="n">
-        <v>1307.840743404552</v>
+        <v>1693.618223959455</v>
       </c>
       <c r="K98" t="n">
-        <v>1127.709798747708</v>
+        <v>1177.522538423773</v>
       </c>
       <c r="L98" t="n">
-        <v>1144.432743295976</v>
+        <v>1178.384516211864</v>
       </c>
       <c r="M98" t="n">
-        <v>1108.015772358378</v>
+        <v>1177.519756173624</v>
       </c>
     </row>
     <row r="99">
@@ -5060,25 +4992,25 @@
         <v>132.38</v>
       </c>
       <c r="G99" t="n">
-        <v>244.8233411325575</v>
+        <v>-10.66326408088889</v>
       </c>
       <c r="H99" t="n">
-        <v>1101.27</v>
+        <v>1177.185509454677</v>
       </c>
       <c r="I99" t="n">
-        <v>1270.536658867442</v>
+        <v>1526.023264080889</v>
       </c>
       <c r="J99" t="n">
-        <v>1204.335741000894</v>
+        <v>1525.585686619566</v>
       </c>
       <c r="K99" t="n">
-        <v>1125.045715684738</v>
+        <v>1177.18660094213</v>
       </c>
       <c r="L99" t="n">
-        <v>1138.063368951803</v>
+        <v>1177.620340619653</v>
       </c>
       <c r="M99" t="n">
-        <v>1106.901833230007</v>
+        <v>1177.18550946647</v>
       </c>
     </row>
     <row r="100">
@@ -5092,25 +5024,25 @@
         <v>132.28</v>
       </c>
       <c r="G100" t="n">
-        <v>228.9496823848031</v>
+        <v>32.65600967471028</v>
       </c>
       <c r="H100" t="n">
-        <v>1100.68</v>
+        <v>1176.940209271823</v>
       </c>
       <c r="I100" t="n">
-        <v>1208.600317615197</v>
+        <v>1404.89399032529</v>
       </c>
       <c r="J100" t="n">
-        <v>1148.87986467299</v>
+        <v>1404.680269348662</v>
       </c>
       <c r="K100" t="n">
-        <v>1122.76775342579</v>
+        <v>1176.940624997891</v>
       </c>
       <c r="L100" t="n">
-        <v>1132.99560474137</v>
+        <v>1177.15246617686</v>
       </c>
       <c r="M100" t="n">
-        <v>1105.997094775047</v>
+        <v>1176.940209275243</v>
       </c>
     </row>
     <row r="101">
@@ -5124,25 +5056,25 @@
         <v>132.18</v>
       </c>
       <c r="G101" t="n">
-        <v>190.9557395714739</v>
+        <v>45.38741853455463</v>
       </c>
       <c r="H101" t="n">
-        <v>1100.2</v>
+        <v>1176.756128413847</v>
       </c>
       <c r="I101" t="n">
-        <v>1175.514260428526</v>
+        <v>1321.082581465445</v>
       </c>
       <c r="J101" t="n">
-        <v>1121.249481661334</v>
+        <v>1320.98119163583</v>
       </c>
       <c r="K101" t="n">
-        <v>1120.776492981938</v>
+        <v>1176.756282144494</v>
       </c>
       <c r="L101" t="n">
-        <v>1128.859980240172</v>
+        <v>1176.856716285846</v>
       </c>
       <c r="M101" t="n">
-        <v>1105.228305545082</v>
+        <v>1176.75612841481</v>
       </c>
     </row>
     <row r="102">
@@ -5156,25 +5088,25 @@
         <v>132.08</v>
       </c>
       <c r="G102" t="n">
-        <v>153.6308590185502</v>
+        <v>46.44308695031305</v>
       </c>
       <c r="H102" t="n">
-        <v>1099.82</v>
+        <v>1176.62345290494</v>
       </c>
       <c r="I102" t="n">
-        <v>1158.00914098145</v>
+        <v>1265.196913049687</v>
       </c>
       <c r="J102" t="n">
-        <v>1108.404224973364</v>
+        <v>1265.150187416321</v>
       </c>
       <c r="K102" t="n">
-        <v>1119.037680537161</v>
+        <v>1176.623508096137</v>
       </c>
       <c r="L102" t="n">
-        <v>1125.444576128337</v>
+        <v>1176.669732623748</v>
       </c>
       <c r="M102" t="n">
-        <v>1104.582659342588</v>
+        <v>1176.623452905203</v>
       </c>
     </row>
     <row r="103">
@@ -5188,25 +5120,25 @@
         <v>131.98</v>
       </c>
       <c r="G103" t="n">
-        <v>125.2631304315992</v>
+        <v>44.39352871967071</v>
       </c>
       <c r="H103" t="n">
-        <v>1099.52</v>
+        <v>1176.528699625563</v>
       </c>
       <c r="I103" t="n">
-        <v>1148.366869568401</v>
+        <v>1229.236471280329</v>
       </c>
       <c r="J103" t="n">
-        <v>1102.789074923166</v>
+        <v>1229.215549407998</v>
       </c>
       <c r="K103" t="n">
-        <v>1117.51115600245</v>
+        <v>1176.52871886206</v>
       </c>
       <c r="L103" t="n">
-        <v>1122.588915424146</v>
+        <v>1176.549372904904</v>
       </c>
       <c r="M103" t="n">
-        <v>1104.037723218638</v>
+        <v>1176.528699625632</v>
       </c>
     </row>
     <row r="104">
@@ -5220,25 +5152,25 @@
         <v>131.88</v>
       </c>
       <c r="G104" t="n">
-        <v>119.11385100845</v>
+        <v>54.72350486916116</v>
       </c>
       <c r="H104" t="n">
-        <v>1099.26</v>
+        <v>1176.454460443151</v>
       </c>
       <c r="I104" t="n">
-        <v>1142.48614899155</v>
+        <v>1206.876495130839</v>
       </c>
       <c r="J104" t="n">
-        <v>1100.42255298468</v>
+        <v>1206.867391397575</v>
       </c>
       <c r="K104" t="n">
-        <v>1116.140036995805</v>
+        <v>1176.454466952222</v>
       </c>
       <c r="L104" t="n">
-        <v>1120.152180169448</v>
+        <v>1176.4634266485</v>
       </c>
       <c r="M104" t="n">
-        <v>1103.551378841617</v>
+        <v>1176.454460443169</v>
       </c>
     </row>
     <row r="105">
@@ -5252,25 +5184,25 @@
         <v>131.78</v>
       </c>
       <c r="G105" t="n">
-        <v>187.1021036435234</v>
+        <v>132.0151099937684</v>
       </c>
       <c r="H105" t="n">
-        <v>1098.95</v>
+        <v>1176.359556647302</v>
       </c>
       <c r="I105" t="n">
-        <v>1138.307896356477</v>
+        <v>1193.394890006232</v>
       </c>
       <c r="J105" t="n">
-        <v>1099.336068825929</v>
+        <v>1193.391039425351</v>
       </c>
       <c r="K105" t="n">
-        <v>1114.820089661818</v>
+        <v>1176.359558785454</v>
       </c>
       <c r="L105" t="n">
-        <v>1117.969963425618</v>
+        <v>1176.363332295489</v>
       </c>
       <c r="M105" t="n">
-        <v>1103.031774443112</v>
+        <v>1176.359556647306</v>
       </c>
     </row>
     <row r="106">
@@ -5284,25 +5216,25 @@
         <v>131.68</v>
       </c>
       <c r="G106" t="n">
-        <v>157.7677272134938</v>
+        <v>107.2416774409514</v>
       </c>
       <c r="H106" t="n">
-        <v>1098.63</v>
+        <v>1176.251799433879</v>
       </c>
       <c r="I106" t="n">
-        <v>1134.982272786506</v>
+        <v>1185.508322559049</v>
       </c>
       <c r="J106" t="n">
-        <v>1098.749723888102</v>
+        <v>1185.506738875402</v>
       </c>
       <c r="K106" t="n">
-        <v>1113.579238174751</v>
+        <v>1176.251800115705</v>
       </c>
       <c r="L106" t="n">
-        <v>1116.026025529783</v>
+        <v>1176.253343114372</v>
       </c>
       <c r="M106" t="n">
-        <v>1102.51728519387</v>
+        <v>1176.25179943388</v>
       </c>
     </row>
     <row r="107">
@@ -5316,25 +5248,25 @@
         <v>131.58</v>
       </c>
       <c r="G107" t="n">
-        <v>33.81466813808174</v>
+        <v>-15.02954636431627</v>
       </c>
       <c r="H107" t="n">
-        <v>1098.42</v>
+        <v>1176.208097295697</v>
       </c>
       <c r="I107" t="n">
-        <v>1132.245331861918</v>
+        <v>1181.089546364316</v>
       </c>
       <c r="J107" t="n">
-        <v>1098.454670570498</v>
+        <v>1181.088912731384</v>
       </c>
       <c r="K107" t="n">
-        <v>1112.527178528267</v>
+        <v>1176.208097506761</v>
       </c>
       <c r="L107" t="n">
-        <v>1114.397002417571</v>
+        <v>1176.208710073785</v>
       </c>
       <c r="M107" t="n">
-        <v>1102.126480345582</v>
+        <v>1176.208097295697</v>
       </c>
     </row>
     <row r="108">
@@ -5348,25 +5280,25 @@
         <v>131.48</v>
       </c>
       <c r="G108" t="n">
-        <v>81.51856226102836</v>
+        <v>32.71366696588575</v>
       </c>
       <c r="H108" t="n">
-        <v>1098.28</v>
+        <v>1176.19767267983</v>
       </c>
       <c r="I108" t="n">
-        <v>1129.891437738972</v>
+        <v>1178.696333034114</v>
       </c>
       <c r="J108" t="n">
-        <v>1098.289375733659</v>
+        <v>1178.696086269919</v>
       </c>
       <c r="K108" t="n">
-        <v>1111.615071668085</v>
+        <v>1176.197672743254</v>
       </c>
       <c r="L108" t="n">
-        <v>1113.008894498955</v>
+        <v>1176.197908849278</v>
       </c>
       <c r="M108" t="n">
-        <v>1101.818095838272</v>
+        <v>1176.19767267983</v>
       </c>
     </row>
     <row r="109">
@@ -5380,25 +5312,25 @@
         <v>131.38</v>
       </c>
       <c r="G109" t="n">
-        <v>122.7266599299799</v>
+        <v>73.03496233854457</v>
       </c>
       <c r="H109" t="n">
-        <v>1098.07</v>
+        <v>1176.15348593974</v>
       </c>
       <c r="I109" t="n">
-        <v>1127.70334007002</v>
+        <v>1177.395037661455</v>
       </c>
       <c r="J109" t="n">
-        <v>1098.072367628905</v>
+        <v>1177.394944051927</v>
       </c>
       <c r="K109" t="n">
-        <v>1110.695297632759</v>
+        <v>1176.15348595824</v>
       </c>
       <c r="L109" t="n">
-        <v>1111.6946634584</v>
+        <v>1176.153574311194</v>
       </c>
       <c r="M109" t="n">
-        <v>1101.451011349956</v>
+        <v>1176.15348593974</v>
       </c>
     </row>
     <row r="110">
@@ -5412,25 +5344,25 @@
         <v>131.28</v>
       </c>
       <c r="G110" t="n">
-        <v>88.66141162485087</v>
+        <v>37.6632927552555</v>
       </c>
       <c r="H110" t="n">
-        <v>1097.86</v>
+        <v>1176.107809486444</v>
       </c>
       <c r="I110" t="n">
-        <v>1125.708588375149</v>
+        <v>1176.706707244744</v>
       </c>
       <c r="J110" t="n">
-        <v>1097.860558323751</v>
+        <v>1176.706672622467</v>
       </c>
       <c r="K110" t="n">
-        <v>1109.831257060313</v>
+        <v>1176.107809491682</v>
       </c>
       <c r="L110" t="n">
-        <v>1110.502542013509</v>
+        <v>1176.107841590505</v>
       </c>
       <c r="M110" t="n">
-        <v>1101.094230977576</v>
+        <v>1176.107809486444</v>
       </c>
     </row>
     <row r="111">
@@ -5444,25 +5376,25 @@
         <v>131.18</v>
       </c>
       <c r="G111" t="n">
-        <v>123.3909830796822</v>
+        <v>70.92616248083505</v>
       </c>
       <c r="H111" t="n">
-        <v>1097.65</v>
+        <v>1176.063363011159</v>
       </c>
       <c r="I111" t="n">
-        <v>1123.879016920318</v>
+        <v>1176.343837519165</v>
       </c>
       <c r="J111" t="n">
-        <v>1097.650122948341</v>
+        <v>1176.343825019633</v>
       </c>
       <c r="K111" t="n">
-        <v>1109.017209796938</v>
+        <v>1176.063363012598</v>
       </c>
       <c r="L111" t="n">
-        <v>1109.414817272737</v>
+        <v>1176.063374334083</v>
       </c>
       <c r="M111" t="n">
-        <v>1100.746866902303</v>
+        <v>1176.063363011159</v>
       </c>
     </row>
     <row r="112">
@@ -5476,25 +5408,25 @@
         <v>131.08</v>
       </c>
       <c r="G112" t="n">
-        <v>7.216768770872022</v>
+        <v>-46.70068720193217</v>
       </c>
       <c r="H112" t="n">
-        <v>1097.51</v>
+        <v>1176.053160119372</v>
       </c>
       <c r="I112" t="n">
-        <v>1122.263231229128</v>
+        <v>1176.180687201932</v>
       </c>
       <c r="J112" t="n">
-        <v>1097.510025282693</v>
+        <v>1176.180682790782</v>
       </c>
       <c r="K112" t="n">
-        <v>1108.318142807005</v>
+        <v>1176.053160119756</v>
       </c>
       <c r="L112" t="n">
-        <v>1108.486937619369</v>
+        <v>1176.053163996393</v>
       </c>
       <c r="M112" t="n">
-        <v>1100.478125520061</v>
+        <v>1176.053160119372</v>
       </c>
     </row>
     <row r="113">
@@ -5508,25 +5440,25 @@
         <v>130.98</v>
       </c>
       <c r="G113" t="n">
-        <v>102.1361921648686</v>
+        <v>46.82072382175875</v>
       </c>
       <c r="H113" t="n">
-        <v>1097.39</v>
+        <v>1176.052978629311</v>
       </c>
       <c r="I113" t="n">
-        <v>1120.793807835131</v>
+        <v>1176.109276178241</v>
       </c>
       <c r="J113" t="n">
-        <v>1097.390004854987</v>
+        <v>1176.109274653962</v>
       </c>
       <c r="K113" t="n">
-        <v>1107.679661400084</v>
+        <v>1176.05297862941</v>
       </c>
       <c r="L113" t="n">
-        <v>1107.656845961801</v>
+        <v>1176.05297991806</v>
       </c>
       <c r="M113" t="n">
-        <v>1100.237295618259</v>
+        <v>1176.052978629311</v>
       </c>
     </row>
     <row r="114">
@@ -5540,25 +5472,25 @@
         <v>130.88</v>
       </c>
       <c r="G114" t="n">
-        <v>114.463887086624</v>
+        <v>57.78513742691644</v>
       </c>
       <c r="H114" t="n">
-        <v>1097.19</v>
+        <v>1176.010732446055</v>
       </c>
       <c r="I114" t="n">
-        <v>1119.356112913376</v>
+        <v>1176.034862573084</v>
       </c>
       <c r="J114" t="n">
-        <v>1097.190000870597</v>
+        <v>1176.03486205634</v>
       </c>
       <c r="K114" t="n">
-        <v>1106.997899144332</v>
+        <v>1176.01073244608</v>
       </c>
       <c r="L114" t="n">
-        <v>1106.814474639787</v>
+        <v>1176.010732861926</v>
       </c>
       <c r="M114" t="n">
-        <v>1099.92373825866</v>
+        <v>1176.010732446055</v>
       </c>
     </row>
     <row r="115">
@@ -5572,25 +5504,25 @@
         <v>130.78</v>
       </c>
       <c r="G115" t="n">
-        <v>89.40232108505188</v>
+        <v>31.43548862229068</v>
       </c>
       <c r="H115" t="n">
-        <v>1096.99</v>
+        <v>1175.974469520568</v>
       </c>
       <c r="I115" t="n">
-        <v>1118.017678914948</v>
+        <v>1175.984511377709</v>
       </c>
       <c r="J115" t="n">
-        <v>1096.990000145784</v>
+        <v>1175.98451120548</v>
       </c>
       <c r="K115" t="n">
-        <v>1106.349442854235</v>
+        <v>1175.974469520574</v>
       </c>
       <c r="L115" t="n">
-        <v>1106.031357825897</v>
+        <v>1175.974469650842</v>
       </c>
       <c r="M115" t="n">
-        <v>1099.616878089032</v>
+        <v>1175.974469520568</v>
       </c>
     </row>
     <row r="116">
@@ -5604,25 +5536,25 @@
         <v>130.68</v>
       </c>
       <c r="G116" t="n">
-        <v>54.99220365801852</v>
+        <v>-4.147322834998931</v>
       </c>
       <c r="H116" t="n">
-        <v>1096.85</v>
+        <v>1175.963265405221</v>
       </c>
       <c r="I116" t="n">
-        <v>1116.827796341981</v>
+        <v>1175.967322834999</v>
       </c>
       <c r="J116" t="n">
-        <v>1096.850000022796</v>
+        <v>1175.967322778439</v>
       </c>
       <c r="K116" t="n">
-        <v>1105.79126981418</v>
+        <v>1175.963265405222</v>
       </c>
       <c r="L116" t="n">
-        <v>1105.360330648797</v>
+        <v>1175.963265444836</v>
       </c>
       <c r="M116" t="n">
-        <v>1099.376195856208</v>
+        <v>1175.963265405221</v>
       </c>
     </row>
     <row r="117">
@@ -5636,25 +5568,25 @@
         <v>130.58</v>
       </c>
       <c r="G117" t="n">
-        <v>77.56278986969505</v>
+        <v>17.32051812188161</v>
       </c>
       <c r="H117" t="n">
-        <v>1096.71</v>
+        <v>1175.95789015922</v>
       </c>
       <c r="I117" t="n">
-        <v>1115.717210130305</v>
+        <v>1175.959481878118</v>
       </c>
       <c r="J117" t="n">
-        <v>1096.710000003329</v>
+        <v>1175.95948185978</v>
       </c>
       <c r="K117" t="n">
-        <v>1105.260694991508</v>
+        <v>1175.95789015922</v>
       </c>
       <c r="L117" t="n">
-        <v>1104.735293202137</v>
+        <v>1175.957890170913</v>
       </c>
       <c r="M117" t="n">
-        <v>1099.141221933331</v>
+        <v>1175.95789015922</v>
       </c>
     </row>
     <row r="118">
@@ -5668,25 +5600,25 @@
         <v>130.48</v>
       </c>
       <c r="G118" t="n">
-        <v>7.302119147225312</v>
+        <v>-53.94325537800978</v>
       </c>
       <c r="H118" t="n">
-        <v>1096.62</v>
+        <v>1175.972649124743</v>
       </c>
       <c r="I118" t="n">
-        <v>1114.727880852775</v>
+        <v>1175.97325537801</v>
       </c>
       <c r="J118" t="n">
-        <v>1096.620000000454</v>
+        <v>1175.973255372129</v>
       </c>
       <c r="K118" t="n">
-        <v>1104.805326449693</v>
+        <v>1175.972649124743</v>
       </c>
       <c r="L118" t="n">
-        <v>1104.201023696181</v>
+        <v>1175.972649128094</v>
       </c>
       <c r="M118" t="n">
-        <v>1098.961530706447</v>
+        <v>1175.972649124743</v>
       </c>
     </row>
     <row r="119">
@@ -5700,25 +5632,25 @@
         <v>130.38</v>
       </c>
       <c r="G119" t="n">
-        <v>111.207207539735</v>
+        <v>49.00505972943029</v>
       </c>
       <c r="H119" t="n">
-        <v>1096.5</v>
+        <v>1175.974716085496</v>
       </c>
       <c r="I119" t="n">
-        <v>1113.772792460265</v>
+        <v>1175.97494027057</v>
       </c>
       <c r="J119" t="n">
-        <v>1096.500000000058</v>
+        <v>1175.974940268702</v>
       </c>
       <c r="K119" t="n">
-        <v>1104.343027527501</v>
+        <v>1175.974716085496</v>
       </c>
       <c r="L119" t="n">
-        <v>1103.673029240895</v>
+        <v>1175.974716086427</v>
       </c>
       <c r="M119" t="n">
-        <v>1098.756735691811</v>
+        <v>1175.974716085496</v>
       </c>
     </row>
     <row r="120">
@@ -5732,25 +5664,25 @@
         <v>130.28</v>
       </c>
       <c r="G120" t="n">
-        <v>66.80420435954238</v>
+        <v>3.676467103160803</v>
       </c>
       <c r="H120" t="n">
-        <v>1096.33</v>
+        <v>1175.953452411717</v>
       </c>
       <c r="I120" t="n">
-        <v>1112.825795640458</v>
+        <v>1175.953532896839</v>
       </c>
       <c r="J120" t="n">
-        <v>1096.330000000007</v>
+        <v>1175.953532896252</v>
       </c>
       <c r="K120" t="n">
-        <v>1103.851884628028</v>
+        <v>1175.953452411717</v>
       </c>
       <c r="L120" t="n">
-        <v>1103.127425735751</v>
+        <v>1175.953452411969</v>
       </c>
       <c r="M120" t="n">
-        <v>1098.506485276671</v>
+        <v>1175.953452411717</v>
       </c>
     </row>
     <row r="121">
@@ -5764,25 +5696,25 @@
         <v>130.18</v>
       </c>
       <c r="G121" t="n">
-        <v>48.65852084549738</v>
+        <v>-2.80524916433933e-05</v>
       </c>
       <c r="H121" t="n">
-        <v>1096.22</v>
+        <v>1160.65</v>
       </c>
       <c r="I121" t="n">
-        <v>1111.991479154503</v>
+        <v>1160.650028052492</v>
       </c>
       <c r="J121" t="n">
-        <v>1096.220000000001</v>
+        <v>1160.650028052309</v>
       </c>
       <c r="K121" t="n">
-        <v>1103.44017968048</v>
+        <v>1160.65</v>
       </c>
       <c r="L121" t="n">
-        <v>1102.67084048027</v>
+        <v>1160.650000000066</v>
       </c>
       <c r="M121" t="n">
-        <v>1098.320458993752</v>
+        <v>1160.65</v>
       </c>
     </row>
     <row r="122">
@@ -5796,25 +5728,25 @@
         <v>130.08</v>
       </c>
       <c r="G122" t="n">
-        <v>56.74493656391155</v>
+        <v>-9.492142226008582e-06</v>
       </c>
       <c r="H122" t="n">
-        <v>1096.11</v>
+        <v>1167.95</v>
       </c>
       <c r="I122" t="n">
-        <v>1111.205063436088</v>
+        <v>1167.950009492142</v>
       </c>
       <c r="J122" t="n">
-        <v>1096.11</v>
+        <v>1167.950009492086</v>
       </c>
       <c r="K122" t="n">
-        <v>1103.046366511171</v>
+        <v>1167.95</v>
       </c>
       <c r="L122" t="n">
-        <v>1102.240332670914</v>
+        <v>1167.950000000017</v>
       </c>
       <c r="M122" t="n">
-        <v>1098.138364254004</v>
+        <v>1167.95</v>
       </c>
     </row>
     <row r="123">
@@ -5828,25 +5760,25 @@
         <v>129.98</v>
       </c>
       <c r="G123" t="n">
-        <v>-15.56231206175062</v>
+        <v>-3.118053882644745e-06</v>
       </c>
       <c r="H123" t="n">
-        <v>1096.06</v>
+        <v>1094.96</v>
       </c>
       <c r="I123" t="n">
-        <v>1110.522312061751</v>
+        <v>1094.960003118054</v>
       </c>
       <c r="J123" t="n">
-        <v>1096.06</v>
+        <v>1094.960003118037</v>
       </c>
       <c r="K123" t="n">
-        <v>1102.72905049855</v>
+        <v>1094.96</v>
       </c>
       <c r="L123" t="n">
-        <v>1101.893328089156</v>
+        <v>1094.960000000004</v>
       </c>
       <c r="M123" t="n">
-        <v>1098.019933474045</v>
+        <v>1094.96</v>
       </c>
     </row>
     <row r="124">
@@ -5860,25 +5792,25 @@
         <v>129.88</v>
       </c>
       <c r="G124" t="n">
-        <v>17.95054232651728</v>
+        <v>-9.943034910975257e-07</v>
       </c>
       <c r="H124" t="n">
-        <v>1096.03</v>
+        <v>1127.85</v>
       </c>
       <c r="I124" t="n">
-        <v>1109.899457673483</v>
+        <v>1127.850000994303</v>
       </c>
       <c r="J124" t="n">
-        <v>1096.03</v>
+        <v>1127.850000994298</v>
       </c>
       <c r="K124" t="n">
-        <v>1102.44697099798</v>
+        <v>1127.85</v>
       </c>
       <c r="L124" t="n">
-        <v>1101.587565131015</v>
+        <v>1127.850000000001</v>
       </c>
       <c r="M124" t="n">
-        <v>1097.924921544487</v>
+        <v>1127.85</v>
       </c>
     </row>
     <row r="125">
@@ -5892,25 +5824,25 @@
         <v>129.78</v>
       </c>
       <c r="G125" t="n">
-        <v>43.87686033296427</v>
+        <v>-3.077936980844242e-07</v>
       </c>
       <c r="H125" t="n">
-        <v>1095.96</v>
+        <v>1153.15</v>
       </c>
       <c r="I125" t="n">
-        <v>1109.273139667036</v>
+        <v>1153.150000307794</v>
       </c>
       <c r="J125" t="n">
-        <v>1095.96</v>
+        <v>1153.150000307792</v>
       </c>
       <c r="K125" t="n">
-        <v>1102.138986111315</v>
+        <v>1153.15</v>
       </c>
       <c r="L125" t="n">
-        <v>1101.261049962202</v>
+        <v>1153.15</v>
       </c>
       <c r="M125" t="n">
-        <v>1097.793103593518</v>
+        <v>1153.15</v>
       </c>
     </row>
     <row r="126">
@@ -5924,25 +5856,25 @@
         <v>129.68</v>
       </c>
       <c r="G126" t="n">
-        <v>67.54964848186683</v>
+        <v>-9.248992682842072e-08</v>
       </c>
       <c r="H126" t="n">
-        <v>1095.86</v>
+        <v>1176.2</v>
       </c>
       <c r="I126" t="n">
-        <v>1108.650351518133</v>
+        <v>1176.20000009249</v>
       </c>
       <c r="J126" t="n">
-        <v>1095.86</v>
+        <v>1176.20000009249</v>
       </c>
       <c r="K126" t="n">
-        <v>1101.814059448681</v>
+        <v>1176.2</v>
       </c>
       <c r="L126" t="n">
-        <v>1100.922019062584</v>
+        <v>1176.2</v>
       </c>
       <c r="M126" t="n">
-        <v>1097.634273006868</v>
+        <v>1176.2</v>
       </c>
     </row>
     <row r="127">
@@ -5956,25 +5888,25 @@
         <v>129.58</v>
       </c>
       <c r="G127" t="n">
-        <v>-22.22839604936644</v>
+        <v>-2.697834133869037e-08</v>
       </c>
       <c r="H127" t="n">
-        <v>1095.8</v>
+        <v>1085.87</v>
       </c>
       <c r="I127" t="n">
-        <v>1108.098396049366</v>
+        <v>1085.870000026978</v>
       </c>
       <c r="J127" t="n">
-        <v>1095.8</v>
+        <v>1085.870000026978</v>
       </c>
       <c r="K127" t="n">
-        <v>1101.541248588688</v>
+        <v>1085.87</v>
       </c>
       <c r="L127" t="n">
-        <v>1100.638907789689</v>
+        <v>1085.87</v>
       </c>
       <c r="M127" t="n">
-        <v>1097.518239670988</v>
+        <v>1085.87</v>
       </c>
     </row>
     <row r="128">
@@ -5988,25 +5920,25 @@
         <v>129.48</v>
       </c>
       <c r="G128" t="n">
-        <v>34.55515272505272</v>
+        <v>-7.638391252839938e-09</v>
       </c>
       <c r="H128" t="n">
-        <v>1095.77</v>
+        <v>1142.16</v>
       </c>
       <c r="I128" t="n">
-        <v>1107.604847274947</v>
+        <v>1142.160000007638</v>
       </c>
       <c r="J128" t="n">
-        <v>1095.77</v>
+        <v>1142.160000007638</v>
       </c>
       <c r="K128" t="n">
-        <v>1101.309694991387</v>
+        <v>1142.16</v>
       </c>
       <c r="L128" t="n">
-        <v>1100.400323872515</v>
+        <v>1142.16</v>
       </c>
       <c r="M128" t="n">
-        <v>1097.434828411044</v>
+        <v>1142.16</v>
       </c>
     </row>
     <row r="129">
@@ -6020,25 +5952,25 @@
         <v>129.38</v>
       </c>
       <c r="G129" t="n">
-        <v>59.18248227778304</v>
+        <v>-2.099341145367362e-09</v>
       </c>
       <c r="H129" t="n">
-        <v>1095.68</v>
+        <v>1166.26</v>
       </c>
       <c r="I129" t="n">
-        <v>1107.077517722217</v>
+        <v>1166.260000002099</v>
       </c>
       <c r="J129" t="n">
-        <v>1095.68</v>
+        <v>1166.260000002099</v>
       </c>
       <c r="K129" t="n">
-        <v>1101.028615157735</v>
+        <v>1166.26</v>
       </c>
       <c r="L129" t="n">
-        <v>1100.115024965159</v>
+        <v>1166.26</v>
       </c>
       <c r="M129" t="n">
-        <v>1097.293877599323</v>
+        <v>1166.26</v>
       </c>
     </row>
     <row r="130">
@@ -6052,25 +5984,25 @@
         <v>129.28</v>
       </c>
       <c r="G130" t="n">
-        <v>28.92556966497591</v>
+        <v>-5.600213626166806e-10</v>
       </c>
       <c r="H130" t="n">
-        <v>1095.6</v>
+        <v>1135.51</v>
       </c>
       <c r="I130" t="n">
-        <v>1106.584430335024</v>
+        <v>1135.51000000056</v>
       </c>
       <c r="J130" t="n">
-        <v>1095.6</v>
+        <v>1135.51000000056</v>
       </c>
       <c r="K130" t="n">
-        <v>1100.767292861831</v>
+        <v>1135.51</v>
       </c>
       <c r="L130" t="n">
-        <v>1099.851899560125</v>
+        <v>1135.51</v>
       </c>
       <c r="M130" t="n">
-        <v>1097.165237913068</v>
+        <v>1135.51</v>
       </c>
     </row>
     <row r="131">
@@ -6084,25 +6016,25 @@
         <v>129.18</v>
       </c>
       <c r="G131" t="n">
-        <v>15.63620577226015</v>
+        <v>-1.450644049327821e-10</v>
       </c>
       <c r="H131" t="n">
-        <v>1095.54</v>
+        <v>1121.77</v>
       </c>
       <c r="I131" t="n">
-        <v>1106.13379422774</v>
+        <v>1121.770000000145</v>
       </c>
       <c r="J131" t="n">
-        <v>1095.54</v>
+        <v>1121.770000000145</v>
       </c>
       <c r="K131" t="n">
-        <v>1100.535072309089</v>
+        <v>1121.77</v>
       </c>
       <c r="L131" t="n">
-        <v>1099.619950695031</v>
+        <v>1121.77</v>
       </c>
       <c r="M131" t="n">
-        <v>1097.05877122362</v>
+        <v>1121.77</v>
       </c>
     </row>
     <row r="132">
@@ -6116,25 +6048,25 @@
         <v>129.08</v>
       </c>
       <c r="G132" t="n">
-        <v>-15.8639836892246</v>
+        <v>-3.637978807091713e-11</v>
       </c>
       <c r="H132" t="n">
-        <v>1095.53</v>
+        <v>1089.89</v>
       </c>
       <c r="I132" t="n">
-        <v>1105.753983689225</v>
+        <v>1089.890000000036</v>
       </c>
       <c r="J132" t="n">
-        <v>1095.53</v>
+        <v>1089.890000000036</v>
       </c>
       <c r="K132" t="n">
-        <v>1100.361352095812</v>
+        <v>1089.89</v>
       </c>
       <c r="L132" t="n">
-        <v>1099.448281992225</v>
+        <v>1089.89</v>
       </c>
       <c r="M132" t="n">
-        <v>1097.004349601187</v>
+        <v>1089.89</v>
       </c>
     </row>
     <row r="133">
@@ -6148,25 +6080,25 @@
         <v>128.98</v>
       </c>
       <c r="G133" t="n">
-        <v>1.716480059042624</v>
+        <v>-8.86757334228605e-12</v>
       </c>
       <c r="H133" t="n">
-        <v>1095.52</v>
+        <v>1107.11</v>
       </c>
       <c r="I133" t="n">
-        <v>1105.393519940957</v>
+        <v>1107.110000000009</v>
       </c>
       <c r="J133" t="n">
-        <v>1095.52</v>
+        <v>1107.110000000009</v>
       </c>
       <c r="K133" t="n">
-        <v>1100.195579864254</v>
+        <v>1107.11</v>
       </c>
       <c r="L133" t="n">
-        <v>1099.286085655055</v>
+        <v>1107.11</v>
       </c>
       <c r="M133" t="n">
-        <v>1096.951854421648</v>
+        <v>1107.11</v>
       </c>
     </row>
     <row r="134">
@@ -6180,25 +6112,25 @@
         <v>128.88</v>
       </c>
       <c r="G134" t="n">
-        <v>-1.221055238144572</v>
+        <v>-2.046363078989089e-12</v>
       </c>
       <c r="H134" t="n">
-        <v>1095.51</v>
+        <v>1103.83</v>
       </c>
       <c r="I134" t="n">
-        <v>1105.051055238144</v>
+        <v>1103.830000000002</v>
       </c>
       <c r="J134" t="n">
-        <v>1095.51</v>
+        <v>1103.830000000002</v>
       </c>
       <c r="K134" t="n">
-        <v>1100.037247562797</v>
+        <v>1103.83</v>
       </c>
       <c r="L134" t="n">
-        <v>1099.132632111774</v>
+        <v>1103.83</v>
       </c>
       <c r="M134" t="n">
-        <v>1096.901175563573</v>
+        <v>1103.83</v>
       </c>
     </row>
     <row r="135">
@@ -6212,25 +6144,25 @@
         <v>128.78</v>
       </c>
       <c r="G135" t="n">
-        <v>-36.3453589713431</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H135" t="n">
-        <v>1095.52</v>
+        <v>1068.4</v>
       </c>
       <c r="I135" t="n">
-        <v>1104.745358971343</v>
+        <v>1068.400000000001</v>
       </c>
       <c r="J135" t="n">
-        <v>1095.52</v>
+        <v>1068.400000000001</v>
       </c>
       <c r="K135" t="n">
-        <v>1099.90588723392</v>
+        <v>1068.4</v>
       </c>
       <c r="L135" t="n">
-        <v>1099.007261052266</v>
+        <v>1068.4</v>
       </c>
       <c r="M135" t="n">
-        <v>1096.872210685157</v>
+        <v>1068.4</v>
       </c>
     </row>
     <row r="136">
@@ -6244,25 +6176,25 @@
         <v>128.68</v>
       </c>
       <c r="G136" t="n">
-        <v>29.7146945178547</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>1095.51</v>
+        <v>1134.15</v>
       </c>
       <c r="I136" t="n">
-        <v>1104.435305482145</v>
+        <v>1134.15</v>
       </c>
       <c r="J136" t="n">
-        <v>1095.51</v>
+        <v>1134.15</v>
       </c>
       <c r="K136" t="n">
-        <v>1099.761067263617</v>
+        <v>1134.15</v>
       </c>
       <c r="L136" t="n">
-        <v>1098.86937364643</v>
+        <v>1134.15</v>
       </c>
       <c r="M136" t="n">
-        <v>1096.824864572098</v>
+        <v>1134.15</v>
       </c>
     </row>
     <row r="137">
@@ -6276,25 +6208,25 @@
         <v>128.58</v>
       </c>
       <c r="G137" t="n">
-        <v>-31.95986335236148</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>1095.5</v>
+        <v>1072.18</v>
       </c>
       <c r="I137" t="n">
-        <v>1104.139863352362</v>
+        <v>1072.18</v>
       </c>
       <c r="J137" t="n">
-        <v>1095.5</v>
+        <v>1072.18</v>
       </c>
       <c r="K137" t="n">
-        <v>1099.62238903518</v>
+        <v>1072.18</v>
       </c>
       <c r="L137" t="n">
-        <v>1098.738425768651</v>
+        <v>1072.18</v>
       </c>
       <c r="M137" t="n">
-        <v>1096.77904854853</v>
+        <v>1072.18</v>
       </c>
     </row>
     <row r="138">
@@ -6308,25 +6240,25 @@
         <v>128.48</v>
       </c>
       <c r="G138" t="n">
-        <v>29.76191403604798</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>1095.49</v>
+        <v>1133.62</v>
       </c>
       <c r="I138" t="n">
-        <v>1103.858085963952</v>
+        <v>1133.62</v>
       </c>
       <c r="J138" t="n">
-        <v>1095.49</v>
+        <v>1133.62</v>
       </c>
       <c r="K138" t="n">
-        <v>1099.489483938136</v>
+        <v>1133.62</v>
       </c>
       <c r="L138" t="n">
-        <v>1098.613922081678</v>
+        <v>1133.62</v>
       </c>
       <c r="M138" t="n">
-        <v>1096.734679944138</v>
+        <v>1133.62</v>
       </c>
     </row>
     <row r="139">
@@ -6340,25 +6272,25 @@
         <v>128.38</v>
       </c>
       <c r="G139" t="n">
-        <v>14.41089684185863</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>1095.44</v>
+        <v>1117.96</v>
       </c>
       <c r="I139" t="n">
-        <v>1103.549103158141</v>
+        <v>1117.96</v>
       </c>
       <c r="J139" t="n">
-        <v>1095.44</v>
+        <v>1117.96</v>
       </c>
       <c r="K139" t="n">
-        <v>1099.32201068975</v>
+        <v>1117.96</v>
       </c>
       <c r="L139" t="n">
-        <v>1098.455410857007</v>
+        <v>1117.96</v>
       </c>
       <c r="M139" t="n">
-        <v>1096.651681611384</v>
+        <v>1117.96</v>
       </c>
     </row>
     <row r="140">
@@ -6372,25 +6304,25 @@
         <v>128.28</v>
       </c>
       <c r="G140" t="n">
-        <v>-29.04211384810719</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>1095.44</v>
+        <v>1074.26</v>
       </c>
       <c r="I140" t="n">
-        <v>1103.302113848107</v>
+        <v>1074.26</v>
       </c>
       <c r="J140" t="n">
-        <v>1095.44</v>
+        <v>1074.26</v>
       </c>
       <c r="K140" t="n">
-        <v>1099.209652932212</v>
+        <v>1074.26</v>
       </c>
       <c r="L140" t="n">
-        <v>1098.352479428362</v>
+        <v>1074.26</v>
       </c>
       <c r="M140" t="n">
-        <v>1096.619981487534</v>
+        <v>1074.26</v>
       </c>
     </row>
     <row r="141">
@@ -6404,25 +6336,25 @@
         <v>128.18</v>
       </c>
       <c r="G141" t="n">
-        <v>-7.626379461194119</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
         <v>1140.2</v>
       </c>
       <c r="I141" t="n">
-        <v>1147.826379461194</v>
+        <v>1140.2</v>
       </c>
       <c r="J141" t="n">
         <v>1140.2</v>
       </c>
       <c r="K141" t="n">
-        <v>1143.862117073455</v>
+        <v>1140.2</v>
       </c>
       <c r="L141" t="n">
-        <v>1143.014750190979</v>
+        <v>1140.2</v>
       </c>
       <c r="M141" t="n">
-        <v>1141.34951219676</v>
+        <v>1140.2</v>
       </c>
     </row>
     <row r="142">
@@ -6436,25 +6368,25 @@
         <v>128.08</v>
       </c>
       <c r="G142" t="n">
-        <v>-7.401218104688496</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
         <v>1069.57</v>
       </c>
       <c r="I142" t="n">
-        <v>1076.971218104688</v>
+        <v>1069.57</v>
       </c>
       <c r="J142" t="n">
         <v>1069.57</v>
       </c>
       <c r="K142" t="n">
-        <v>1073.129130343695</v>
+        <v>1069.57</v>
       </c>
       <c r="L142" t="n">
-        <v>1072.291877072792</v>
+        <v>1069.57</v>
       </c>
       <c r="M142" t="n">
-        <v>1070.690210688201</v>
+        <v>1069.57</v>
       </c>
     </row>
     <row r="143">
@@ -6468,25 +6400,25 @@
         <v>127.98</v>
       </c>
       <c r="G143" t="n">
-        <v>-7.185999364314057</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
         <v>1084.2</v>
       </c>
       <c r="I143" t="n">
-        <v>1091.385999364314</v>
+        <v>1084.2</v>
       </c>
       <c r="J143" t="n">
         <v>1084.2</v>
       </c>
       <c r="K143" t="n">
-        <v>1087.660439043339</v>
+        <v>1084.2</v>
       </c>
       <c r="L143" t="n">
-        <v>1086.833542414698</v>
+        <v>1084.2</v>
       </c>
       <c r="M143" t="n">
-        <v>1085.292017906278</v>
+        <v>1084.2</v>
       </c>
     </row>
     <row r="144">
@@ -6500,25 +6432,25 @@
         <v>127.88</v>
       </c>
       <c r="G144" t="n">
-        <v>-6.980139657395966</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
         <v>1073.19</v>
       </c>
       <c r="I144" t="n">
-        <v>1080.170139657396</v>
+        <v>1073.19</v>
       </c>
       <c r="J144" t="n">
         <v>1073.19</v>
       </c>
       <c r="K144" t="n">
-        <v>1076.555806960966</v>
+        <v>1073.19</v>
       </c>
       <c r="L144" t="n">
-        <v>1075.739454206399</v>
+        <v>1073.19</v>
       </c>
       <c r="M144" t="n">
-        <v>1074.254878490031</v>
+        <v>1073.19</v>
       </c>
     </row>
     <row r="145">
@@ -6532,25 +6464,25 @@
         <v>127.78</v>
       </c>
       <c r="G145" t="n">
-        <v>-6.783098073396786</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
         <v>1042.02</v>
       </c>
       <c r="I145" t="n">
-        <v>1048.803098073397</v>
+        <v>1042.02</v>
       </c>
       <c r="J145" t="n">
         <v>1042.02</v>
       </c>
       <c r="K145" t="n">
-        <v>1045.29501394273</v>
+        <v>1042.02</v>
       </c>
       <c r="L145" t="n">
-        <v>1044.489343632076</v>
+        <v>1042.02</v>
       </c>
       <c r="M145" t="n">
-        <v>1043.05874049859</v>
+        <v>1042.02</v>
       </c>
     </row>
     <row r="146">
@@ -6564,25 +6496,25 @@
         <v>127.68</v>
       </c>
       <c r="G146" t="n">
-        <v>-6.594372643678071</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
         <v>1090.89</v>
       </c>
       <c r="I146" t="n">
-        <v>1097.484372643678</v>
+        <v>1090.89</v>
       </c>
       <c r="J146" t="n">
         <v>1090.89</v>
       </c>
       <c r="K146" t="n">
-        <v>1094.077854596797</v>
+        <v>1090.89</v>
       </c>
       <c r="L146" t="n">
-        <v>1093.28296288669</v>
+        <v>1090.89</v>
       </c>
       <c r="M146" t="n">
-        <v>1091.903555160192</v>
+        <v>1090.89</v>
       </c>
     </row>
     <row r="147">
@@ -6596,25 +6528,25 @@
         <v>127.58</v>
       </c>
       <c r="G147" t="n">
-        <v>-6.413496990104704</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
         <v>1062.76</v>
       </c>
       <c r="I147" t="n">
-        <v>1069.173496990105</v>
+        <v>1062.76</v>
       </c>
       <c r="J147" t="n">
         <v>1062.76</v>
       </c>
       <c r="K147" t="n">
-        <v>1065.864137118405</v>
+        <v>1062.76</v>
       </c>
       <c r="L147" t="n">
-        <v>1065.080083229223</v>
+        <v>1062.76</v>
       </c>
       <c r="M147" t="n">
-        <v>1063.749276642477</v>
+        <v>1062.76</v>
       </c>
     </row>
     <row r="148">
@@ -6628,25 +6560,25 @@
         <v>127.48</v>
       </c>
       <c r="G148" t="n">
-        <v>-6.240037308717547</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
         <v>1063.27</v>
       </c>
       <c r="I148" t="n">
-        <v>1069.510037308718</v>
+        <v>1063.27</v>
       </c>
       <c r="J148" t="n">
         <v>1063.27</v>
       </c>
       <c r="K148" t="n">
-        <v>1066.293682222861</v>
+        <v>1063.27</v>
       </c>
       <c r="L148" t="n">
-        <v>1065.52049324384</v>
+        <v>1063.27</v>
       </c>
       <c r="M148" t="n">
-        <v>1064.235861842016</v>
+        <v>1063.27</v>
       </c>
     </row>
     <row r="149">
@@ -6660,25 +6592,25 @@
         <v>127.38</v>
       </c>
       <c r="G149" t="n">
-        <v>-6.073589650376334</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
         <v>1027.38</v>
       </c>
       <c r="I149" t="n">
-        <v>1033.453589650376</v>
+        <v>1027.38</v>
       </c>
       <c r="J149" t="n">
         <v>1027.38</v>
       </c>
       <c r="K149" t="n">
-        <v>1030.326322175255</v>
+        <v>1027.38</v>
       </c>
       <c r="L149" t="n">
-        <v>1029.563997283877</v>
+        <v>1027.38</v>
       </c>
       <c r="M149" t="n">
-        <v>1028.323270191244</v>
+        <v>1027.38</v>
       </c>
     </row>
     <row r="150">
@@ -6692,25 +6624,25 @@
         <v>127.28</v>
       </c>
       <c r="G150" t="n">
-        <v>-5.913777465108979</v>
+        <v>0</v>
       </c>
       <c r="H150" t="n">
         <v>1029.99</v>
       </c>
       <c r="I150" t="n">
-        <v>1035.903777465109</v>
+        <v>1029.99</v>
       </c>
       <c r="J150" t="n">
         <v>1029.99</v>
       </c>
       <c r="K150" t="n">
-        <v>1032.861899906973</v>
+        <v>1029.99</v>
       </c>
       <c r="L150" t="n">
-        <v>1032.110414076959</v>
+        <v>1029.99</v>
       </c>
       <c r="M150" t="n">
-        <v>1030.911463481177</v>
+        <v>1029.99</v>
       </c>
     </row>
     <row r="151">
@@ -6724,25 +6656,25 @@
         <v>127.18</v>
       </c>
       <c r="G151" t="n">
-        <v>-5.760249381084577</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
         <v>1056.85</v>
       </c>
       <c r="I151" t="n">
-        <v>1062.610249381084</v>
+        <v>1056.85</v>
       </c>
       <c r="J151" t="n">
         <v>1056.85</v>
       </c>
       <c r="K151" t="n">
-        <v>1059.650268210241</v>
+        <v>1056.85</v>
       </c>
       <c r="L151" t="n">
-        <v>1058.909575472397</v>
+        <v>1056.85</v>
       </c>
       <c r="M151" t="n">
-        <v>1057.750405698446</v>
+        <v>1056.85</v>
       </c>
     </row>
     <row r="152">
@@ -6756,25 +6688,25 @@
         <v>127.08</v>
       </c>
       <c r="G152" t="n">
-        <v>-5.612677192707224</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
         <v>1036.88</v>
       </c>
       <c r="I152" t="n">
-        <v>1042.492677192707</v>
+        <v>1036.88</v>
       </c>
       <c r="J152" t="n">
         <v>1036.88</v>
       </c>
       <c r="K152" t="n">
-        <v>1039.611289002896</v>
+        <v>1036.88</v>
       </c>
       <c r="L152" t="n">
-        <v>1038.881325314463</v>
+        <v>1036.88</v>
       </c>
       <c r="M152" t="n">
-        <v>1037.760062875348</v>
+        <v>1036.88</v>
       </c>
     </row>
     <row r="153">
@@ -6788,25 +6720,25 @@
         <v>126.98</v>
       </c>
       <c r="G153" t="n">
-        <v>-5.470754035439086</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
         <v>1070.09</v>
       </c>
       <c r="I153" t="n">
-        <v>1075.560754035439</v>
+        <v>1070.09</v>
       </c>
       <c r="J153" t="n">
         <v>1070.09</v>
       </c>
       <c r="K153" t="n">
-        <v>1072.754832656457</v>
+        <v>1070.09</v>
       </c>
       <c r="L153" t="n">
-        <v>1072.035518427263</v>
+        <v>1070.09</v>
       </c>
       <c r="M153" t="n">
-        <v>1070.950402951719</v>
+        <v>1070.09</v>
       </c>
     </row>
     <row r="154">
@@ -6820,25 +6752,25 @@
         <v>126.88</v>
       </c>
       <c r="G154" t="n">
-        <v>-5.334192727637401</v>
+        <v>0</v>
       </c>
       <c r="H154" t="n">
         <v>1106.96</v>
       </c>
       <c r="I154" t="n">
-        <v>1112.294192727637</v>
+        <v>1106.96</v>
       </c>
       <c r="J154" t="n">
         <v>1106.96</v>
       </c>
       <c r="K154" t="n">
-        <v>1109.560777381332</v>
+        <v>1106.96</v>
       </c>
       <c r="L154" t="n">
-        <v>1108.852019698705</v>
+        <v>1106.96</v>
       </c>
       <c r="M154" t="n">
-        <v>1107.801395647601</v>
+        <v>1106.96</v>
       </c>
     </row>
     <row r="155">
@@ -6852,25 +6784,25 @@
         <v>126.78</v>
       </c>
       <c r="G155" t="n">
-        <v>-5.202724262027459</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
         <v>1057.51</v>
       </c>
       <c r="I155" t="n">
-        <v>1062.712724262027</v>
+        <v>1057.51</v>
       </c>
       <c r="J155" t="n">
         <v>1057.51</v>
       </c>
       <c r="K155" t="n">
-        <v>1060.049008663673</v>
+        <v>1057.51</v>
       </c>
       <c r="L155" t="n">
-        <v>1059.350703252633</v>
+        <v>1057.51</v>
       </c>
       <c r="M155" t="n">
-        <v>1058.333012345721</v>
+        <v>1057.51</v>
       </c>
     </row>
     <row r="156">
@@ -6884,25 +6816,25 @@
         <v>126.68</v>
       </c>
       <c r="G156" t="n">
-        <v>-5.076096431447013</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
         <v>1031.32</v>
       </c>
       <c r="I156" t="n">
-        <v>1036.396096431447</v>
+        <v>1031.32</v>
       </c>
       <c r="J156" t="n">
         <v>1031.32</v>
       </c>
       <c r="K156" t="n">
-        <v>1033.799418748952</v>
+        <v>1031.32</v>
       </c>
       <c r="L156" t="n">
-        <v>1033.111451699549</v>
+        <v>1031.32</v>
       </c>
       <c r="M156" t="n">
-        <v>1032.125225982946</v>
+        <v>1031.32</v>
       </c>
     </row>
     <row r="157">
@@ -6916,25 +6848,25 @@
         <v>126.58</v>
       </c>
       <c r="G157" t="n">
-        <v>-4.954072575275859</v>
+        <v>0</v>
       </c>
       <c r="H157" t="n">
         <v>1109.28</v>
       </c>
       <c r="I157" t="n">
-        <v>1114.234072575276</v>
+        <v>1109.28</v>
       </c>
       <c r="J157" t="n">
         <v>1109.28</v>
       </c>
       <c r="K157" t="n">
-        <v>1111.701906167888</v>
+        <v>1109.28</v>
       </c>
       <c r="L157" t="n">
-        <v>1111.024155457466</v>
+        <v>1109.28</v>
       </c>
       <c r="M157" t="n">
-        <v>1110.068010949921</v>
+        <v>1109.28</v>
       </c>
     </row>
     <row r="158">
@@ -6948,25 +6880,25 @@
         <v>126.48</v>
       </c>
       <c r="G158" t="n">
-        <v>-4.836430434490239</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
         <v>1068.33</v>
       </c>
       <c r="I158" t="n">
-        <v>1073.16643043449</v>
+        <v>1068.33</v>
       </c>
       <c r="J158" t="n">
         <v>1068.33</v>
       </c>
       <c r="K158" t="n">
-        <v>1070.696375300783</v>
+        <v>1068.33</v>
       </c>
       <c r="L158" t="n">
-        <v>1070.028712135496</v>
+        <v>1068.33</v>
       </c>
       <c r="M158" t="n">
-        <v>1069.101342998211</v>
+        <v>1068.33</v>
       </c>
     </row>
     <row r="159">
@@ -6980,25 +6912,25 @@
         <v>126.38</v>
       </c>
       <c r="G159" t="n">
-        <v>-4.722961104641854</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
         <v>1067.61</v>
       </c>
       <c r="I159" t="n">
-        <v>1072.332961104642</v>
+        <v>1067.61</v>
       </c>
       <c r="J159" t="n">
         <v>1067.61</v>
       </c>
       <c r="K159" t="n">
-        <v>1069.922735976756</v>
+        <v>1067.61</v>
       </c>
       <c r="L159" t="n">
-        <v>1069.265025973598</v>
+        <v>1067.61</v>
       </c>
       <c r="M159" t="n">
-        <v>1068.365199154288</v>
+        <v>1067.61</v>
       </c>
     </row>
     <row r="160">
@@ -7012,25 +6944,25 @@
         <v>126.28</v>
       </c>
       <c r="G160" t="n">
-        <v>-4.613468077234302</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
         <v>1066.1</v>
       </c>
       <c r="I160" t="n">
-        <v>1070.713468077234</v>
+        <v>1066.1</v>
       </c>
       <c r="J160" t="n">
         <v>1066.1</v>
       </c>
       <c r="K160" t="n">
-        <v>1068.360903104696</v>
+        <v>1066.1</v>
       </c>
       <c r="L160" t="n">
-        <v>1067.713007332724</v>
+        <v>1066.1</v>
       </c>
       <c r="M160" t="n">
-        <v>1066.839557639814</v>
+        <v>1066.1</v>
       </c>
     </row>
     <row r="161">
@@ -7044,25 +6976,25 @@
         <v>126.18</v>
       </c>
       <c r="G161" t="n">
-        <v>-4.507766361006816</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
         <v>1105</v>
       </c>
       <c r="I161" t="n">
-        <v>1109.507766361007</v>
+        <v>1105</v>
       </c>
       <c r="J161" t="n">
         <v>1105</v>
       </c>
       <c r="K161" t="n">
-        <v>1107.210796333111</v>
+        <v>1105</v>
       </c>
       <c r="L161" t="n">
-        <v>1106.572572230214</v>
+        <v>1105</v>
       </c>
       <c r="M161" t="n">
-        <v>1105.724397797682</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="162">
@@ -7076,25 +7008,25 @@
         <v>126.08</v>
       </c>
       <c r="G162" t="n">
-        <v>-4.405681675551705</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
         <v>1070.67</v>
       </c>
       <c r="I162" t="n">
-        <v>1075.075681675552</v>
+        <v>1070.67</v>
       </c>
       <c r="J162" t="n">
         <v>1070.67</v>
       </c>
       <c r="K162" t="n">
-        <v>1072.83233973629</v>
+        <v>1070.67</v>
       </c>
       <c r="L162" t="n">
-        <v>1072.203641915909</v>
+        <v>1070.67</v>
       </c>
       <c r="M162" t="n">
-        <v>1071.379700023353</v>
+        <v>1070.67</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/UKSAF/LaSrTiO3.xlsx
+++ b/DATA/UKSAF/LaSrTiO3.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -45,6 +45,10 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="6">
@@ -79,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -579,11 +583,29 @@
       <top style="medium"/>
       <bottom style="medium"/>
     </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -681,6 +703,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,7 +829,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5781675" cy="4114800"/>
+    <ext cx="5743575" cy="4076700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -7218,7 +7248,7 @@
 (CPS)</t>
         </is>
       </c>
-      <c r="AP1" s="35" t="inlineStr">
+      <c r="AP1" s="32" t="inlineStr">
         <is>
           <t>Bkg Offset High
 (CPS)</t>
@@ -7303,7 +7333,7 @@
       </c>
       <c r="AG2" s="37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AH2" s="37" t="inlineStr">
@@ -7346,7 +7376,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP2" s="38" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -7392,7 +7422,7 @@
       </c>
       <c r="AA3" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1:1e7</t>
         </is>
       </c>
       <c r="AB3" s="40" t="inlineStr">
@@ -7417,12 +7447,12 @@
       </c>
       <c r="AF3" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.01:3</t>
         </is>
       </c>
       <c r="AG3" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.01:2</t>
         </is>
       </c>
       <c r="AH3" s="40" t="inlineStr"/>
@@ -7433,7 +7463,6 @@
       <c r="AM3" s="40" t="inlineStr"/>
       <c r="AN3" s="40" t="inlineStr"/>
       <c r="AO3" s="40" t="inlineStr"/>
-      <c r="AP3" s="41" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -7513,7 +7542,7 @@
       </c>
       <c r="AG4" s="37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AH4" s="37" t="inlineStr">
@@ -7556,7 +7585,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP4" s="38" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -7602,7 +7631,7 @@
       </c>
       <c r="AA5" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A*0.5#0.05</t>
         </is>
       </c>
       <c r="AB5" s="40" t="inlineStr">
@@ -7627,12 +7656,12 @@
       </c>
       <c r="AF5" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A*1</t>
         </is>
       </c>
       <c r="AG5" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A*1</t>
         </is>
       </c>
       <c r="AH5" s="40" t="inlineStr"/>
@@ -7643,7 +7672,6 @@
       <c r="AM5" s="40" t="inlineStr"/>
       <c r="AN5" s="40" t="inlineStr"/>
       <c r="AO5" s="40" t="inlineStr"/>
-      <c r="AP5" s="41" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -7723,7 +7751,7 @@
       </c>
       <c r="AG6" s="37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AH6" s="37" t="inlineStr">
@@ -7766,7 +7794,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP6" s="38" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -7812,7 +7840,7 @@
       </c>
       <c r="AA7" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1:1e7</t>
         </is>
       </c>
       <c r="AB7" s="40" t="inlineStr">
@@ -7837,12 +7865,12 @@
       </c>
       <c r="AF7" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.01:3</t>
         </is>
       </c>
       <c r="AG7" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.01:2</t>
         </is>
       </c>
       <c r="AH7" s="40" t="inlineStr"/>
@@ -7853,7 +7881,6 @@
       <c r="AM7" s="40" t="inlineStr"/>
       <c r="AN7" s="40" t="inlineStr"/>
       <c r="AO7" s="40" t="inlineStr"/>
-      <c r="AP7" s="41" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -7933,7 +7960,7 @@
       </c>
       <c r="AG8" s="37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AH8" s="37" t="inlineStr">
@@ -7976,7 +8003,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="AP8" s="38" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
@@ -8022,7 +8049,7 @@
       </c>
       <c r="AA9" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C*0.5#0.05</t>
         </is>
       </c>
       <c r="AB9" s="40" t="inlineStr">
@@ -8047,12 +8074,12 @@
       </c>
       <c r="AF9" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C*1</t>
         </is>
       </c>
       <c r="AG9" s="40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C*1</t>
         </is>
       </c>
       <c r="AH9" s="40" t="inlineStr"/>
@@ -8063,7 +8090,6 @@
       <c r="AM9" s="40" t="inlineStr"/>
       <c r="AN9" s="40" t="inlineStr"/>
       <c r="AO9" s="40" t="inlineStr"/>
-      <c r="AP9" s="41" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -27084,7 +27110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27101,11 +27127,11 @@
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="13" customWidth="1" min="13" max="13"/>
-    <col width="25" customWidth="1" min="14" max="14"/>
+    <col width="22" customWidth="1" min="14" max="14"/>
     <col width="23" customWidth="1" min="15" max="15"/>
     <col width="12" customWidth="1" min="16" max="16"/>
     <col width="12" customWidth="1" min="17" max="17"/>
@@ -27122,362 +27148,232 @@
     <col width="17" customWidth="1" min="28" max="28"/>
     <col width="14" customWidth="1" min="29" max="29"/>
     <col width="14" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1"/>
     <row r="2">
-      <c r="B2" s="42" t="inlineStr">
+      <c r="B2" s="49" t="inlineStr">
+        <is>
+          <t>Sample 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="50" t="inlineStr">
         <is>
           <t>Peak
 Label</t>
         </is>
       </c>
-      <c r="C2" s="42" t="inlineStr">
+      <c r="C3" s="51" t="inlineStr">
         <is>
           <t>Position
 (eV)</t>
         </is>
       </c>
-      <c r="D2" s="42" t="inlineStr">
+      <c r="D3" s="51" t="inlineStr">
         <is>
           <t>Height
 (CPS)</t>
         </is>
       </c>
-      <c r="E2" s="42" t="inlineStr">
+      <c r="E3" s="51" t="inlineStr">
         <is>
           <t>FWHM
 (eV)</t>
         </is>
       </c>
-      <c r="F2" s="42" t="inlineStr">
+      <c r="F3" s="51" t="inlineStr">
         <is>
           <t>L/G 
 σ/γ (%)</t>
         </is>
       </c>
-      <c r="G2" s="42" t="inlineStr">
+      <c r="G3" s="51" t="inlineStr">
         <is>
           <t>Area
 (CPS.eV)</t>
         </is>
       </c>
-      <c r="H2" s="42" t="inlineStr">
+      <c r="H3" s="51" t="inlineStr">
         <is>
           <t>Atomic
 (%)</t>
         </is>
       </c>
-      <c r="I2" s="42" t="inlineStr">
+      <c r="I3" s="51" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="J2" s="42" t="inlineStr">
+      <c r="J3" s="51" t="inlineStr">
         <is>
           <t>RSF</t>
         </is>
       </c>
-      <c r="K2" s="42" t="inlineStr">
+      <c r="K3" s="51" t="inlineStr">
         <is>
           <t>TXFN</t>
         </is>
       </c>
-      <c r="L2" s="42" t="inlineStr">
+      <c r="L3" s="51" t="inlineStr">
         <is>
           <t>ECF</t>
         </is>
       </c>
-      <c r="M2" s="42" t="inlineStr">
+      <c r="M3" s="51" t="inlineStr">
         <is>
           <t>Instr.</t>
         </is>
       </c>
-      <c r="N2" s="42" t="inlineStr">
+      <c r="N3" s="51" t="inlineStr">
         <is>
           <t>Fitting Model</t>
         </is>
       </c>
-      <c r="O2" s="42" t="inlineStr">
+      <c r="O3" s="51" t="inlineStr">
         <is>
           <t>Corr. Area
  Ac (a.u.)</t>
         </is>
       </c>
-      <c r="P2" s="42" t="inlineStr">
+      <c r="P3" s="51" t="inlineStr">
         <is>
           <t>σ or α
 W_g</t>
         </is>
       </c>
-      <c r="Q2" s="42" t="inlineStr">
+      <c r="Q3" s="51" t="inlineStr">
         <is>
           <t>γ or β
 W_l</t>
         </is>
       </c>
-      <c r="R2" s="42" t="inlineStr">
+      <c r="R3" s="51" t="inlineStr">
         <is>
           <t>Bkg Type</t>
         </is>
       </c>
-      <c r="S2" s="42" t="inlineStr">
+      <c r="S3" s="51" t="inlineStr">
         <is>
           <t>Bkg Low
 (eV)</t>
         </is>
       </c>
-      <c r="T2" s="42" t="inlineStr">
+      <c r="T3" s="51" t="inlineStr">
         <is>
           <t>Bkg High
 (eV)</t>
         </is>
       </c>
-      <c r="U2" s="42" t="inlineStr">
+      <c r="U3" s="51" t="inlineStr">
         <is>
           <t>Bkg Offset Low
 (CPS)</t>
         </is>
       </c>
-      <c r="V2" s="42" t="inlineStr">
+      <c r="V3" s="51" t="inlineStr">
         <is>
           <t>Bkg Offset High
 (CPS)</t>
         </is>
       </c>
-      <c r="W2" s="42" t="inlineStr">
+      <c r="W3" s="51" t="inlineStr">
         <is>
           <t>Sheetname</t>
         </is>
       </c>
-      <c r="X2" s="42" t="inlineStr">
+      <c r="X3" s="51" t="inlineStr">
         <is>
           <t>Position
 Constraint</t>
         </is>
       </c>
-      <c r="Y2" s="42" t="inlineStr">
+      <c r="Y3" s="51" t="inlineStr">
         <is>
           <t>Height
 Constraint</t>
         </is>
       </c>
-      <c r="Z2" s="42" t="inlineStr">
+      <c r="Z3" s="51" t="inlineStr">
         <is>
           <t>FWHM
 Constraint</t>
         </is>
       </c>
-      <c r="AA2" s="42" t="inlineStr">
+      <c r="AA3" s="51" t="inlineStr">
         <is>
           <t>L/G
 Constraint</t>
         </is>
       </c>
-      <c r="AB2" s="42" t="inlineStr">
+      <c r="AB3" s="51" t="inlineStr">
         <is>
           <t>Area
 Constraint</t>
         </is>
       </c>
-      <c r="AC2" s="42" t="inlineStr">
+      <c r="AC3" s="51" t="inlineStr">
         <is>
           <t>σ
 Constraint</t>
         </is>
       </c>
-      <c r="AD2" s="42" t="inlineStr">
+      <c r="AD3" s="51" t="inlineStr">
         <is>
           <t>γ
 Constraint</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="43" t="inlineStr">
-        <is>
-          <t>Sr3d5/2 p1</t>
-        </is>
-      </c>
-      <c r="C3" s="44" t="inlineStr">
-        <is>
-          <t>133.44</t>
-        </is>
-      </c>
-      <c r="D3" s="44" t="inlineStr">
-        <is>
-          <t>3515.41</t>
-        </is>
-      </c>
-      <c r="E3" s="44" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F3" s="44" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="G3" s="44" t="inlineStr">
-        <is>
-          <t>4634.68</t>
-        </is>
-      </c>
-      <c r="H3" s="44" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I3" s="44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" s="44" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="K3" s="44" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="L3" s="44" t="inlineStr">
-        <is>
-          <t>TPP-2M</t>
-        </is>
-      </c>
-      <c r="M3" s="44" t="inlineStr">
-        <is>
-          <t>A-ALTHERMO1</t>
-        </is>
-      </c>
-      <c r="N3" s="44" t="inlineStr">
-        <is>
-          <t>Voigt (Area, L/G, σ, S)</t>
-        </is>
-      </c>
-      <c r="O3" s="44" t="inlineStr">
-        <is>
-          <t>13.94</t>
-        </is>
-      </c>
-      <c r="P3" s="44" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="Q3" s="44" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="R3" s="44" t="inlineStr"/>
-      <c r="S3" s="44" t="inlineStr">
-        <is>
-          <t>126.08</t>
-        </is>
-      </c>
-      <c r="T3" s="44" t="inlineStr">
-        <is>
-          <t>142.08</t>
-        </is>
-      </c>
-      <c r="U3" s="44" t="inlineStr"/>
-      <c r="V3" s="44" t="inlineStr"/>
-      <c r="W3" s="44" t="inlineStr">
-        <is>
-          <t>Sr3d</t>
-        </is>
-      </c>
-      <c r="X3" s="44" t="inlineStr">
-        <is>
-          <t>126.08,142.08</t>
-        </is>
-      </c>
-      <c r="Y3" s="44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" s="44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA3" s="44" t="inlineStr">
-        <is>
-          <t>15:85</t>
-        </is>
-      </c>
-      <c r="AB3" s="44" t="inlineStr">
-        <is>
-          <t>1:1e7</t>
-        </is>
-      </c>
-      <c r="AC3" s="44" t="inlineStr">
-        <is>
-          <t>0.2:1.5</t>
-        </is>
-      </c>
-      <c r="AD3" s="45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="AE3" s="52" t="n"/>
     </row>
     <row r="4">
       <c r="B4" s="43" t="inlineStr">
         <is>
-          <t>Sr3d3/2 p2</t>
+          <t>Sr3d5/2 p1</t>
         </is>
       </c>
       <c r="C4" s="44" t="inlineStr">
         <is>
-          <t>135.19</t>
+          <t>133.51</t>
         </is>
       </c>
       <c r="D4" s="44" t="inlineStr">
         <is>
-          <t>2465.25</t>
+          <t>3828.02</t>
         </is>
       </c>
       <c r="E4" s="44" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="F4" s="44" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>16.51</t>
         </is>
       </c>
       <c r="G4" s="44" t="inlineStr">
         <is>
-          <t>3250.16</t>
+          <t>5012.00</t>
         </is>
       </c>
       <c r="H4" s="44" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>21.78</t>
         </is>
       </c>
       <c r="I4" s="44" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" s="44" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="K4" s="44" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="J4" s="44" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K4" s="44" t="n">
+        <v>1</v>
       </c>
       <c r="L4" s="44" t="inlineStr">
         <is>
@@ -27491,34 +27387,30 @@
       </c>
       <c r="N4" s="44" t="inlineStr">
         <is>
-          <t>Voigt (Area, L/G, σ, S)</t>
+          <t>GL (Area)</t>
         </is>
       </c>
       <c r="O4" s="44" t="inlineStr">
         <is>
-          <t>14.20</t>
+          <t>15.07</t>
         </is>
       </c>
       <c r="P4" s="44" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="Q4" s="44" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="R4" s="44" t="inlineStr"/>
-      <c r="S4" s="44" t="inlineStr">
-        <is>
-          <t>126.08</t>
-        </is>
-      </c>
-      <c r="T4" s="44" t="inlineStr">
-        <is>
-          <t>142.08</t>
-        </is>
+      <c r="S4" s="44" t="n">
+        <v>126.08</v>
+      </c>
+      <c r="T4" s="44" t="n">
+        <v>142.08</v>
       </c>
       <c r="U4" s="44" t="inlineStr"/>
       <c r="V4" s="44" t="inlineStr"/>
@@ -27529,174 +27421,920 @@
       </c>
       <c r="X4" s="44" t="inlineStr">
         <is>
+          <t>126.08,142.08</t>
+        </is>
+      </c>
+      <c r="Y4" s="44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" s="44" t="inlineStr">
+        <is>
+          <t>0.3:3.5</t>
+        </is>
+      </c>
+      <c r="AA4" s="44" t="inlineStr">
+        <is>
+          <t>2:80</t>
+        </is>
+      </c>
+      <c r="AB4" s="44" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AC4" s="44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD4" s="44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE4" s="38" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="43" t="inlineStr">
+        <is>
+          <t>Sr3d3/2 p2</t>
+        </is>
+      </c>
+      <c r="C5" s="44" t="inlineStr">
+        <is>
+          <t>135.31</t>
+        </is>
+      </c>
+      <c r="D5" s="44" t="inlineStr">
+        <is>
+          <t>2625.08</t>
+        </is>
+      </c>
+      <c r="E5" s="44" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="F5" s="44" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="G5" s="44" t="inlineStr">
+        <is>
+          <t>3437.00</t>
+        </is>
+      </c>
+      <c r="H5" s="44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I5" s="44" t="inlineStr"/>
+      <c r="J5" s="44" t="n">
+        <v>2.927432</v>
+      </c>
+      <c r="K5" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="44" t="inlineStr">
+        <is>
+          <t>TPP-2M</t>
+        </is>
+      </c>
+      <c r="M5" s="44" t="inlineStr">
+        <is>
+          <t>A-ALTHERMO1</t>
+        </is>
+      </c>
+      <c r="N5" s="44" t="inlineStr">
+        <is>
+          <t>GL (Area)</t>
+        </is>
+      </c>
+      <c r="O5" s="44" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="P5" s="44" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="Q5" s="44" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="R5" s="44" t="inlineStr"/>
+      <c r="S5" s="44" t="n">
+        <v>126.08</v>
+      </c>
+      <c r="T5" s="44" t="n">
+        <v>142.08</v>
+      </c>
+      <c r="U5" s="44" t="inlineStr"/>
+      <c r="V5" s="44" t="inlineStr"/>
+      <c r="W5" s="44" t="inlineStr">
+        <is>
+          <t>Sr3d</t>
+        </is>
+      </c>
+      <c r="X5" s="44" t="inlineStr">
+        <is>
           <t>A+1.7#0.2</t>
         </is>
       </c>
-      <c r="Y4" s="44" t="inlineStr">
+      <c r="Y5" s="44" t="inlineStr">
+        <is>
+          <t>A*0.667#0.05</t>
+        </is>
+      </c>
+      <c r="Z5" s="44" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AA5" s="44" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AB5" s="44" t="inlineStr">
+        <is>
+          <t>A*0.667#0.05</t>
+        </is>
+      </c>
+      <c r="AC5" s="44" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AD5" s="44" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AE5" s="38" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="43" t="inlineStr">
+        <is>
+          <t>Sr3d5/2 p3</t>
+        </is>
+      </c>
+      <c r="C6" s="44" t="inlineStr">
+        <is>
+          <t>134.47</t>
+        </is>
+      </c>
+      <c r="D6" s="44" t="inlineStr">
+        <is>
+          <t>1010.47</t>
+        </is>
+      </c>
+      <c r="E6" s="44" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="F6" s="44" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="G6" s="44" t="inlineStr">
+        <is>
+          <t>1323.00</t>
+        </is>
+      </c>
+      <c r="H6" s="44" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="I6" s="44" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="J6" s="44" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="44" t="inlineStr">
+        <is>
+          <t>TPP-2M</t>
+        </is>
+      </c>
+      <c r="M6" s="44" t="inlineStr">
+        <is>
+          <t>A-ALTHERMO1</t>
+        </is>
+      </c>
+      <c r="N6" s="44" t="inlineStr">
+        <is>
+          <t>GL (Area)</t>
+        </is>
+      </c>
+      <c r="O6" s="44" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="P6" s="44" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="Q6" s="44" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="R6" s="44" t="inlineStr"/>
+      <c r="S6" s="44" t="n">
+        <v>126.08</v>
+      </c>
+      <c r="T6" s="44" t="n">
+        <v>142.08</v>
+      </c>
+      <c r="U6" s="44" t="inlineStr"/>
+      <c r="V6" s="44" t="inlineStr"/>
+      <c r="W6" s="44" t="inlineStr">
+        <is>
+          <t>Sr3d</t>
+        </is>
+      </c>
+      <c r="X6" s="44" t="inlineStr">
+        <is>
+          <t>A+1.05#0.1</t>
+        </is>
+      </c>
+      <c r="Y6" s="44" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z4" s="44" t="inlineStr">
+      <c r="Z6" s="44" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AA6" s="44" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AB6" s="44" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AC6" s="44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD6" s="44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE6" s="38" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="43" t="inlineStr">
+        <is>
+          <t>Sr3d3/2 p4</t>
+        </is>
+      </c>
+      <c r="C7" s="44" t="inlineStr">
+        <is>
+          <t>136.23</t>
+        </is>
+      </c>
+      <c r="D7" s="44" t="inlineStr">
+        <is>
+          <t>623.46</t>
+        </is>
+      </c>
+      <c r="E7" s="44" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="F7" s="44" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="G7" s="44" t="inlineStr">
+        <is>
+          <t>816.29</t>
+        </is>
+      </c>
+      <c r="H7" s="44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I7" s="44" t="inlineStr"/>
+      <c r="J7" s="44" t="n">
+        <v>2.927432</v>
+      </c>
+      <c r="K7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="44" t="inlineStr">
+        <is>
+          <t>TPP-2M</t>
+        </is>
+      </c>
+      <c r="M7" s="44" t="inlineStr">
+        <is>
+          <t>A-ALTHERMO1</t>
+        </is>
+      </c>
+      <c r="N7" s="44" t="inlineStr">
+        <is>
+          <t>GL (Area)</t>
+        </is>
+      </c>
+      <c r="O7" s="44" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="P7" s="44" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="Q7" s="44" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="R7" s="44" t="inlineStr"/>
+      <c r="S7" s="44" t="n">
+        <v>126.08</v>
+      </c>
+      <c r="T7" s="44" t="n">
+        <v>142.08</v>
+      </c>
+      <c r="U7" s="44" t="inlineStr"/>
+      <c r="V7" s="44" t="inlineStr"/>
+      <c r="W7" s="44" t="inlineStr">
+        <is>
+          <t>Sr3d</t>
+        </is>
+      </c>
+      <c r="X7" s="44" t="inlineStr">
+        <is>
+          <t>C+1.7#0.2</t>
+        </is>
+      </c>
+      <c r="Y7" s="44" t="inlineStr">
+        <is>
+          <t>C*0.667#0.05</t>
+        </is>
+      </c>
+      <c r="Z7" s="44" t="inlineStr">
+        <is>
+          <t>C*1</t>
+        </is>
+      </c>
+      <c r="AA7" s="44" t="inlineStr">
+        <is>
+          <t>C*1</t>
+        </is>
+      </c>
+      <c r="AB7" s="44" t="inlineStr">
+        <is>
+          <t>C*0.667#0.05</t>
+        </is>
+      </c>
+      <c r="AC7" s="44" t="inlineStr">
+        <is>
+          <t>C*1</t>
+        </is>
+      </c>
+      <c r="AD7" s="44" t="inlineStr">
+        <is>
+          <t>C*1</t>
+        </is>
+      </c>
+      <c r="AE7" s="38" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="43" t="inlineStr">
+        <is>
+          <t>Ti2p3/2 p1</t>
+        </is>
+      </c>
+      <c r="C8" s="44" t="inlineStr">
+        <is>
+          <t>458.99</t>
+        </is>
+      </c>
+      <c r="D8" s="44" t="inlineStr">
+        <is>
+          <t>7303.71</t>
+        </is>
+      </c>
+      <c r="E8" s="44" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="F8" s="44" t="inlineStr">
+        <is>
+          <t>35.82</t>
+        </is>
+      </c>
+      <c r="G8" s="44" t="inlineStr">
+        <is>
+          <t>13115.00</t>
+        </is>
+      </c>
+      <c r="H8" s="44" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="I8" s="44" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="J8" s="44" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="K8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="44" t="inlineStr">
+        <is>
+          <t>TPP-2M</t>
+        </is>
+      </c>
+      <c r="M8" s="44" t="inlineStr">
+        <is>
+          <t>A-ALTHERMO1</t>
+        </is>
+      </c>
+      <c r="N8" s="44" t="inlineStr">
+        <is>
+          <t>Voigt (Area, L/G, σ)</t>
+        </is>
+      </c>
+      <c r="O8" s="44" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="P8" s="44" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="Q8" s="44" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="R8" s="44" t="inlineStr"/>
+      <c r="S8" s="44" t="n">
+        <v>448.08</v>
+      </c>
+      <c r="T8" s="44" t="n">
+        <v>475.08</v>
+      </c>
+      <c r="U8" s="44" t="inlineStr"/>
+      <c r="V8" s="44" t="inlineStr"/>
+      <c r="W8" s="44" t="inlineStr">
+        <is>
+          <t>Ti2p</t>
+        </is>
+      </c>
+      <c r="X8" s="44" t="inlineStr">
+        <is>
+          <t>448.08,475.08</t>
+        </is>
+      </c>
+      <c r="Y8" s="44" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="Z8" s="44" t="inlineStr">
         <is>
           <t>0.3:3.5</t>
         </is>
       </c>
-      <c r="AA4" s="44" t="inlineStr">
+      <c r="AA8" s="44" t="inlineStr">
+        <is>
+          <t>1:80</t>
+        </is>
+      </c>
+      <c r="AB8" s="44" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AC8" s="44" t="inlineStr">
+        <is>
+          <t>0.01:3</t>
+        </is>
+      </c>
+      <c r="AD8" s="44" t="inlineStr">
+        <is>
+          <t>0.01:3</t>
+        </is>
+      </c>
+      <c r="AE8" s="38" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="43" t="inlineStr">
+        <is>
+          <t>Ti2p1/2 p2</t>
+        </is>
+      </c>
+      <c r="C9" s="44" t="inlineStr">
+        <is>
+          <t>464.71</t>
+        </is>
+      </c>
+      <c r="D9" s="44" t="inlineStr">
+        <is>
+          <t>2263.63</t>
+        </is>
+      </c>
+      <c r="E9" s="44" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="F9" s="44" t="inlineStr">
+        <is>
+          <t>35.82</t>
+        </is>
+      </c>
+      <c r="G9" s="44" t="inlineStr">
+        <is>
+          <t>6306.00</t>
+        </is>
+      </c>
+      <c r="H9" s="44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I9" s="44" t="inlineStr"/>
+      <c r="J9" s="44" t="n">
+        <v>2.055385</v>
+      </c>
+      <c r="K9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="44" t="inlineStr">
+        <is>
+          <t>TPP-2M</t>
+        </is>
+      </c>
+      <c r="M9" s="44" t="inlineStr">
+        <is>
+          <t>A-ALTHERMO1</t>
+        </is>
+      </c>
+      <c r="N9" s="44" t="inlineStr">
+        <is>
+          <t>Voigt (Area, L/G, σ)</t>
+        </is>
+      </c>
+      <c r="O9" s="44" t="inlineStr">
+        <is>
+          <t>48.64</t>
+        </is>
+      </c>
+      <c r="P9" s="44" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="Q9" s="44" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="R9" s="44" t="inlineStr"/>
+      <c r="S9" s="44" t="n">
+        <v>448.08</v>
+      </c>
+      <c r="T9" s="44" t="n">
+        <v>475.08</v>
+      </c>
+      <c r="U9" s="44" t="inlineStr"/>
+      <c r="V9" s="44" t="inlineStr"/>
+      <c r="W9" s="44" t="inlineStr">
+        <is>
+          <t>Ti2p</t>
+        </is>
+      </c>
+      <c r="X9" s="44" t="inlineStr">
+        <is>
+          <t>A+5.7#0.2</t>
+        </is>
+      </c>
+      <c r="Y9" s="44" t="inlineStr">
+        <is>
+          <t>A*0.5#0.05</t>
+        </is>
+      </c>
+      <c r="Z9" s="44" t="inlineStr">
         <is>
           <t>A*1</t>
         </is>
       </c>
-      <c r="AB4" s="44" t="inlineStr">
-        <is>
-          <t>A*0.667#0.05</t>
-        </is>
-      </c>
-      <c r="AC4" s="44" t="inlineStr">
+      <c r="AA9" s="44" t="inlineStr">
         <is>
           <t>A*1</t>
         </is>
       </c>
-      <c r="AD4" s="45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="46" t="inlineStr">
-        <is>
-          <t>Sr3d5/2 p3</t>
-        </is>
-      </c>
-      <c r="C5" s="47" t="inlineStr">
-        <is>
-          <t>134.17</t>
-        </is>
-      </c>
-      <c r="D5" s="47" t="inlineStr">
-        <is>
-          <t>1394.46</t>
-        </is>
-      </c>
-      <c r="E5" s="47" t="inlineStr">
+      <c r="AB9" s="44" t="inlineStr">
+        <is>
+          <t>A*0.5#0.05</t>
+        </is>
+      </c>
+      <c r="AC9" s="44" t="inlineStr">
+        <is>
+          <t>0.01:3</t>
+        </is>
+      </c>
+      <c r="AD9" s="44" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AE9" s="38" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="43" t="inlineStr">
+        <is>
+          <t>Ti2p3/2 p3</t>
+        </is>
+      </c>
+      <c r="C10" s="44" t="inlineStr">
+        <is>
+          <t>456.86</t>
+        </is>
+      </c>
+      <c r="D10" s="44" t="inlineStr">
+        <is>
+          <t>514.57</t>
+        </is>
+      </c>
+      <c r="E10" s="44" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="F10" s="44" t="inlineStr">
+        <is>
+          <t>35.82</t>
+        </is>
+      </c>
+      <c r="G10" s="44" t="inlineStr">
+        <is>
+          <t>924.00</t>
+        </is>
+      </c>
+      <c r="H10" s="44" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="I10" s="44" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="J10" s="44" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="K10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="44" t="inlineStr">
+        <is>
+          <t>TPP-2M</t>
+        </is>
+      </c>
+      <c r="M10" s="44" t="inlineStr">
+        <is>
+          <t>A-ALTHERMO1</t>
+        </is>
+      </c>
+      <c r="N10" s="44" t="inlineStr">
+        <is>
+          <t>Voigt (Area, L/G, σ)</t>
+        </is>
+      </c>
+      <c r="O10" s="44" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="P10" s="44" t="inlineStr">
         <is>
           <t>1.07</t>
         </is>
       </c>
-      <c r="F5" s="47" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="G5" s="47" t="inlineStr">
-        <is>
-          <t>1838.44</t>
-        </is>
-      </c>
-      <c r="H5" s="47" t="inlineStr">
+      <c r="Q10" s="44" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="R10" s="44" t="inlineStr"/>
+      <c r="S10" s="44" t="n">
+        <v>448.08</v>
+      </c>
+      <c r="T10" s="44" t="n">
+        <v>475.08</v>
+      </c>
+      <c r="U10" s="44" t="inlineStr"/>
+      <c r="V10" s="44" t="inlineStr"/>
+      <c r="W10" s="44" t="inlineStr">
+        <is>
+          <t>Ti2p</t>
+        </is>
+      </c>
+      <c r="X10" s="44" t="inlineStr">
+        <is>
+          <t>448.08,475.08</t>
+        </is>
+      </c>
+      <c r="Y10" s="44" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="Z10" s="44" t="inlineStr">
+        <is>
+          <t>0.3:3.5</t>
+        </is>
+      </c>
+      <c r="AA10" s="44" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AB10" s="44" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AC10" s="44" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AD10" s="44" t="inlineStr">
+        <is>
+          <t>0.01:3</t>
+        </is>
+      </c>
+      <c r="AE10" s="38" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="46" t="inlineStr">
+        <is>
+          <t>Ti2p1/2 p4</t>
+        </is>
+      </c>
+      <c r="C11" s="47" t="inlineStr">
+        <is>
+          <t>462.76</t>
+        </is>
+      </c>
+      <c r="D11" s="47" t="inlineStr">
+        <is>
+          <t>182.44</t>
+        </is>
+      </c>
+      <c r="E11" s="47" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="F11" s="47" t="inlineStr">
+        <is>
+          <t>35.82</t>
+        </is>
+      </c>
+      <c r="G11" s="47" t="inlineStr">
+        <is>
+          <t>508.20</t>
+        </is>
+      </c>
+      <c r="H11" s="47" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="I5" s="47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" s="47" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="K5" s="47" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="L5" s="47" t="inlineStr">
+      <c r="I11" s="47" t="inlineStr"/>
+      <c r="J11" s="47" t="n">
+        <v>2.055385</v>
+      </c>
+      <c r="K11" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="47" t="inlineStr">
         <is>
           <t>TPP-2M</t>
         </is>
       </c>
-      <c r="M5" s="47" t="inlineStr">
+      <c r="M11" s="47" t="inlineStr">
         <is>
           <t>A-ALTHERMO1</t>
         </is>
       </c>
-      <c r="N5" s="47" t="inlineStr">
-        <is>
-          <t>Voigt (Area, L/G, σ, S)</t>
-        </is>
-      </c>
-      <c r="O5" s="47" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="P5" s="47" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="Q5" s="47" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="R5" s="47" t="inlineStr"/>
-      <c r="S5" s="47" t="inlineStr">
-        <is>
-          <t>126.08</t>
-        </is>
-      </c>
-      <c r="T5" s="47" t="inlineStr">
-        <is>
-          <t>142.08</t>
-        </is>
-      </c>
-      <c r="U5" s="47" t="inlineStr"/>
-      <c r="V5" s="47" t="inlineStr"/>
-      <c r="W5" s="47" t="inlineStr">
-        <is>
-          <t>Sr3d</t>
-        </is>
-      </c>
-      <c r="X5" s="47" t="inlineStr">
-        <is>
-          <t>126.08,142.08</t>
-        </is>
-      </c>
-      <c r="Y5" s="47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" s="47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA5" s="47" t="inlineStr">
-        <is>
-          <t>A*1</t>
-        </is>
-      </c>
-      <c r="AB5" s="47" t="inlineStr">
-        <is>
-          <t>1:1e7</t>
-        </is>
-      </c>
-      <c r="AC5" s="47" t="inlineStr">
-        <is>
-          <t>A*1</t>
-        </is>
-      </c>
-      <c r="AD5" s="48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="N11" s="47" t="inlineStr">
+        <is>
+          <t>Voigt (Area, L/G, σ)</t>
+        </is>
+      </c>
+      <c r="O11" s="47" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="P11" s="47" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="Q11" s="47" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="R11" s="47" t="inlineStr"/>
+      <c r="S11" s="47" t="n">
+        <v>448.08</v>
+      </c>
+      <c r="T11" s="47" t="n">
+        <v>475.08</v>
+      </c>
+      <c r="U11" s="47" t="inlineStr"/>
+      <c r="V11" s="47" t="inlineStr"/>
+      <c r="W11" s="47" t="inlineStr">
+        <is>
+          <t>Ti2p</t>
+        </is>
+      </c>
+      <c r="X11" s="47" t="inlineStr">
+        <is>
+          <t>C+5.7#0.2</t>
+        </is>
+      </c>
+      <c r="Y11" s="47" t="inlineStr">
+        <is>
+          <t>C*0.5#0.05</t>
+        </is>
+      </c>
+      <c r="Z11" s="47" t="inlineStr">
+        <is>
+          <t>C*1</t>
+        </is>
+      </c>
+      <c r="AA11" s="47" t="inlineStr">
+        <is>
+          <t>C*1</t>
+        </is>
+      </c>
+      <c r="AB11" s="47" t="inlineStr">
+        <is>
+          <t>C*0.5#0.05</t>
+        </is>
+      </c>
+      <c r="AC11" s="47" t="inlineStr">
+        <is>
+          <t>B*1</t>
+        </is>
+      </c>
+      <c r="AD11" s="47" t="inlineStr">
+        <is>
+          <t>C*1</t>
+        </is>
+      </c>
+      <c r="AE11" s="41" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/UKSAF/LaSrTiO3.xlsx
+++ b/DATA/UKSAF/LaSrTiO3.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="O1s" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C1s" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results Table" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sr3d1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -605,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -711,6 +712,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -27110,7 +27114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE11"/>
+  <dimension ref="B2:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27151,7 +27155,6 @@
     <col width="6" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="B2" s="49" t="inlineStr">
         <is>
@@ -28335,6 +28338,2301 @@
         </is>
       </c>
       <c r="AE11" s="41" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D162"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="53" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="B1" s="53" t="inlineStr">
+        <is>
+          <t>Raw Data</t>
+        </is>
+      </c>
+      <c r="C1" s="53" t="inlineStr">
+        <is>
+          <t>Background</t>
+        </is>
+      </c>
+      <c r="D1" s="53" t="inlineStr">
+        <is>
+          <t>Transmission</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>142.08</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1321.18</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1321.18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>141.98</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1369.78</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1369.78</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>141.88</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1356.16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1356.16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>141.78</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1341.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1341.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>141.68</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1332.29</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1332.29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>141.58</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1338.15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1338.15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>141.48</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1335.29</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1335.29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>141.38</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1341.58</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1341.58</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>141.28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1349.18</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1349.18</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>141.18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1344.67</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1344.67</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>141.08</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1336.42</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1336.42</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>140.98</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1281.16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1281.16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>140.88</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1323.55</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1323.55</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>140.78</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1322.81</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1322.81</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>140.68</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1352.14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1352.14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>140.58</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1304.84</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1304.84</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>140.48</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1296.85</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1296.85</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>140.38</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1297.71</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1297.71</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>140.28</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1346.66</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1346.66</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>140.18</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1293.78</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1293.78</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>140.08</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1294.58</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1294.58</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>139.98</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1282.76</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1282.76</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>139.88</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1291.45</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1291.45</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>139.78</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1275.21</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1275.21</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>139.68</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1311.33</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1311.33</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>139.58</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1287.86</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1287.86</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>139.48</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1305.54</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1305.54</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>139.38</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1286.85</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1286.85</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>139.28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1284.54</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1284.54</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>139.18</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1296.58</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1296.58</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>139.08</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1288.78</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1288.78</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>138.98</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1262.37</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1262.37</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>138.88</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1298.36</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1298.36</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>138.78</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1231.15</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1261.45</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>138.68</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1288.75</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1261.03</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>138.58</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1264.45</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1261.03</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>138.48</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1303.52</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1261.01</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>138.38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1312.96</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1260.99</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>138.28</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1276.13</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1260.96</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>138.18</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1283.01</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1260.93</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>138.08</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1251.47</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1260.91</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>137.98</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1268.26</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1260.91</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>137.88</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1314.52</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1260.91</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>137.78</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1314.35</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1260.89</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>137.68</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1361.59</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1260.84</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>137.58</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1319.42</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1260.78</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>137.48</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1305.06</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1260.71</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>137.38</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1395.15</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1260.67</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>137.28</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1382.15</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1260.6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>137.18</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1422.48</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1260.5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>137.08</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1462.63</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1260.38</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>136.98</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1526.56</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1260.23</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>136.88</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1601.68</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1260.04</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>136.78</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1650.31</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1259.79</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>136.68</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1734.49</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1259.49</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>136.58</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1809.71</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1259.14</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>136.48</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2002.29</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1258.72</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>136.38</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2138.64</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1258.18</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>136.28</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2268.16</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1257.51</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>136.18</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2480.91</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1256.73</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>136.08</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2764.82</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1255.8</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>135.98</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2964.58</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1254.66</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>135.88</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3205.16</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1253.32</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>135.78</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3441.36</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1251.78</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>135.68</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3662.18</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1250.05</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>135.58</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3866.27</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1248.11</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>135.48</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4120.65</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1245.98</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>135.38</v>
+      </c>
+      <c r="B69" t="n">
+        <v>4143.76</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1243.67</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>135.28</v>
+      </c>
+      <c r="B70" t="n">
+        <v>4234.28</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1241.25</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>135.18</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4317.24</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1238.77</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>135.08</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4190.85</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1236.24</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>134.98</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4162.83</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1233.74</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>134.88</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3875.66</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1231.33</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>134.78</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3741.63</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1229.07</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>134.68</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3668.43</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1226.96</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>134.58</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3578.24</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1224.93</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>134.48</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3587.1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1222.96</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>134.38</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3632.57</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1220.99</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>134.28</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3721.75</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1218.98</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>134.18</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3944.36</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1216.87</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>134.08</v>
+      </c>
+      <c r="B82" t="n">
+        <v>4245.03</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1214.57</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>133.98</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4523.83</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1212.03</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>133.88</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4716.67</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1209.26</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>133.78</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4923.31</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1206.29</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>133.68</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5123.63</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1203.14</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>133.58</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5201.65</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1199.84</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>133.48</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5188.88</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1196.47</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>133.38</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5026.07</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1193.16</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>133.28</v>
+      </c>
+      <c r="B90" t="n">
+        <v>4718.99</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1190.02</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>133.18</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4361.9</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1187.17</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>133.08</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3879.28</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1184.67</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>132.98</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3428.04</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1182.58</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>132.88</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2913.41</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1180.9</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>132.78</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2471.63</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1179.63</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>132.68</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2172.04</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1178.68</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>132.58</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1846.47</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1177.99</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>132.48</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1652.4</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1177.52</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>132.38</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1515.36</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1177.19</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>132.28</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1437.55</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1176.94</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>132.18</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1366.47</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1176.76</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>132.08</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1311.64</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1176.62</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>131.98</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1273.63</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1176.53</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>131.88</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1261.6</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1176.45</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>131.78</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1325.41</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1176.36</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>131.68</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1292.75</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1176.25</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>131.58</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1166.06</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1176.21</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>131.48</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1211.41</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1176.2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>131.38</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1250.43</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1176.15</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>131.28</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1214.37</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1176.11</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>131.18</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1247.27</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1176.06</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>131.08</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1129.48</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1176.05</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>130.98</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1222.93</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1176.05</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>130.88</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1233.82</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1176.01</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>130.78</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1207.42</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1175.97</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>130.68</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1171.82</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1175.96</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>130.58</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1193.28</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1175.96</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>130.48</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1122.03</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1175.97</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>130.38</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1224.98</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1175.97</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>130.28</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1179.63</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1175.95</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>130.18</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1160.65</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1160.65</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>130.08</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1167.95</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1167.95</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>129.98</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1094.96</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1094.96</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>129.88</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1127.85</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1127.85</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>129.78</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1153.15</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1153.15</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>129.68</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1176.2</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1176.2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>129.58</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1085.87</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1085.87</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>129.48</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1142.16</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1142.16</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>129.38</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1166.26</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1166.26</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129.28</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1135.51</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1135.51</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>129.18</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1121.77</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1121.77</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>129.08</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1089.89</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1089.89</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>128.98</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1107.11</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1107.11</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>128.88</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1103.83</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1103.83</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>128.78</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1068.4</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1068.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>128.68</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1134.15</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1134.15</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>128.58</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1072.18</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1072.18</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>128.48</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1133.62</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1133.62</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>128.38</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1117.96</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1117.96</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>128.28</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1074.26</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1074.26</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>128.18</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1140.2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1140.2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>128.08</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1069.57</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1069.57</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>127.98</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1084.2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1084.2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>127.88</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1073.19</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1073.19</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>127.78</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1042.02</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1042.02</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>127.68</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1090.89</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1090.89</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>127.58</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1062.76</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1062.76</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>127.48</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1063.27</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1063.27</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>127.38</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1027.38</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1027.38</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>127.28</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1029.99</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1029.99</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>127.18</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1056.85</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1056.85</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>127.08</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1036.88</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1036.88</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>126.98</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1070.09</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1070.09</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>126.88</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1106.96</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1106.96</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>126.78</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1057.51</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1057.51</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>126.68</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1031.32</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1031.32</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>126.58</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1109.28</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1109.28</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>126.48</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1068.33</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1068.33</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>126.38</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1067.61</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1067.61</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>126.28</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1066.1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1066.1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>126.18</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1105</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1105</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>126.08</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1070.67</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1070.67</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
